--- a/Cleaned-Data/2018-Passouts/Sem-4_2018_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2018-Passouts/Sem-4_2018_Passout_cleaned.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="269">
   <si>
     <r>
       <rPr>
@@ -870,9 +870,6 @@
     <t>CG-PR</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>P/F</t>
   </si>
   <si>
@@ -885,9 +882,6 @@
     <t>F</t>
   </si>
   <si>
-    <t xml:space="preserve"> --</t>
-  </si>
-  <si>
     <t>AGAWANE SANDESH VISHWANATH</t>
   </si>
   <si>
@@ -1420,6 +1414,9 @@
   </si>
   <si>
     <t>Gender</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -1879,114 +1876,6 @@
     <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1996,7 +1885,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2006,6 +1919,90 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2314,8 +2311,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z176"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2349,13 +2346,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>65</v>
@@ -2421,15 +2418,15 @@
         <v>85</v>
       </c>
       <c r="Y1" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z1" s="39" t="s">
         <v>87</v>
-      </c>
-      <c r="Z1" s="39" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2501,15 +2498,15 @@
         <v>19</v>
       </c>
       <c r="Y2" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z2" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z2" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2581,7 +2578,7 @@
         <v>19</v>
       </c>
       <c r="Y3" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z3" s="39">
         <v>6.29</v>
@@ -2589,7 +2586,7 @@
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2661,7 +2658,7 @@
         <v>22</v>
       </c>
       <c r="Y4" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z4" s="39">
         <v>7.96</v>
@@ -2669,7 +2666,7 @@
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2741,7 +2738,7 @@
         <v>19</v>
       </c>
       <c r="Y5" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z5" s="39">
         <v>6.64</v>
@@ -2749,7 +2746,7 @@
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2821,7 +2818,7 @@
         <v>21</v>
       </c>
       <c r="Y6" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z6" s="39">
         <v>9.43</v>
@@ -2829,7 +2826,7 @@
     </row>
     <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2901,15 +2898,15 @@
         <v>21</v>
       </c>
       <c r="Y7" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z7" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z7" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2981,15 +2978,15 @@
         <v>18</v>
       </c>
       <c r="Y8" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z8" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z8" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3061,7 +3058,7 @@
         <v>20</v>
       </c>
       <c r="Y9" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z9" s="39">
         <v>7.46</v>
@@ -3069,7 +3066,7 @@
     </row>
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3141,7 +3138,7 @@
         <v>21</v>
       </c>
       <c r="Y10" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z10" s="39">
         <v>7.68</v>
@@ -3149,7 +3146,7 @@
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3221,7 +3218,7 @@
         <v>20</v>
       </c>
       <c r="Y11" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z11" s="39">
         <v>7.82</v>
@@ -3229,7 +3226,7 @@
     </row>
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3301,7 +3298,7 @@
         <v>22</v>
       </c>
       <c r="Y12" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z12" s="39">
         <v>6.61</v>
@@ -3309,7 +3306,7 @@
     </row>
     <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3381,7 +3378,7 @@
         <v>22</v>
       </c>
       <c r="Y13" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z13" s="39">
         <v>7.18</v>
@@ -3389,7 +3386,7 @@
     </row>
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3461,7 +3458,7 @@
         <v>20</v>
       </c>
       <c r="Y14" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z14" s="39">
         <v>5.32</v>
@@ -3469,7 +3466,7 @@
     </row>
     <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="45" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3541,7 +3538,7 @@
         <v>23</v>
       </c>
       <c r="Y15" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z15" s="39">
         <v>7.96</v>
@@ -3549,7 +3546,7 @@
     </row>
     <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3621,15 +3618,15 @@
         <v>20</v>
       </c>
       <c r="Y16" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z16" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z16" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3701,15 +3698,15 @@
         <v>19</v>
       </c>
       <c r="Y17" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z17" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z17" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3781,7 +3778,7 @@
         <v>24</v>
       </c>
       <c r="Y18" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z18" s="39">
         <v>6.64</v>
@@ -3789,7 +3786,7 @@
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3861,15 +3858,15 @@
         <v>20</v>
       </c>
       <c r="Y19" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z19" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z19" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3941,7 +3938,7 @@
         <v>21</v>
       </c>
       <c r="Y20" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z20" s="39">
         <v>8.89</v>
@@ -3949,7 +3946,7 @@
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4021,7 +4018,7 @@
         <v>22</v>
       </c>
       <c r="Y21" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z21" s="39">
         <v>8.64</v>
@@ -4029,7 +4026,7 @@
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4101,7 +4098,7 @@
         <v>20</v>
       </c>
       <c r="Y22" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z22" s="39">
         <v>8.64</v>
@@ -4109,7 +4106,7 @@
     </row>
     <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4181,15 +4178,15 @@
         <v>21</v>
       </c>
       <c r="Y23" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z23" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z23" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4261,7 +4258,7 @@
         <v>21</v>
       </c>
       <c r="Y24" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z24" s="39">
         <v>7.96</v>
@@ -4269,7 +4266,7 @@
     </row>
     <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4341,7 +4338,7 @@
         <v>23</v>
       </c>
       <c r="Y25" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z25" s="39">
         <v>8.32</v>
@@ -4349,7 +4346,7 @@
     </row>
     <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="45" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4421,15 +4418,15 @@
         <v>20</v>
       </c>
       <c r="Y26" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z26" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z26" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4501,15 +4498,15 @@
         <v>20</v>
       </c>
       <c r="Y27" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z27" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z27" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4581,15 +4578,15 @@
         <v>20</v>
       </c>
       <c r="Y28" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z28" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z28" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4661,7 +4658,7 @@
         <v>23</v>
       </c>
       <c r="Y29" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z29" s="39">
         <v>8.82</v>
@@ -4669,7 +4666,7 @@
     </row>
     <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4741,7 +4738,7 @@
         <v>18</v>
       </c>
       <c r="Y30" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z30" s="39">
         <v>5.61</v>
@@ -4749,7 +4746,7 @@
     </row>
     <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4821,7 +4818,7 @@
         <v>20</v>
       </c>
       <c r="Y31" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z31" s="39">
         <v>7.57</v>
@@ -4829,7 +4826,7 @@
     </row>
     <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4901,15 +4898,15 @@
         <v>18</v>
       </c>
       <c r="Y32" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z32" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z32" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4981,7 +4978,7 @@
         <v>21</v>
       </c>
       <c r="Y33" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z33" s="39">
         <v>6.75</v>
@@ -4989,7 +4986,7 @@
     </row>
     <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5061,7 +5058,7 @@
         <v>20</v>
       </c>
       <c r="Y34" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z34" s="39">
         <v>7.11</v>
@@ -5069,7 +5066,7 @@
     </row>
     <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5141,7 +5138,7 @@
         <v>20</v>
       </c>
       <c r="Y35" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z35" s="39">
         <v>7.18</v>
@@ -5149,7 +5146,7 @@
     </row>
     <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5221,15 +5218,15 @@
         <v>19</v>
       </c>
       <c r="Y36" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z36" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z36" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5301,7 +5298,7 @@
         <v>22</v>
       </c>
       <c r="Y37" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z37" s="39">
         <v>8.2100000000000009</v>
@@ -5309,7 +5306,7 @@
     </row>
     <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="45" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5381,7 +5378,7 @@
         <v>21</v>
       </c>
       <c r="Y38" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z38" s="39">
         <v>7.07</v>
@@ -5389,7 +5386,7 @@
     </row>
     <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="45" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5461,7 +5458,7 @@
         <v>21</v>
       </c>
       <c r="Y39" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z39" s="39">
         <v>9.07</v>
@@ -5469,7 +5466,7 @@
     </row>
     <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="45" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5541,15 +5538,15 @@
         <v>19</v>
       </c>
       <c r="Y40" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z40" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z40" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5621,15 +5618,15 @@
         <v>23</v>
       </c>
       <c r="Y41" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z41" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z41" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="45" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5701,15 +5698,15 @@
         <v>19</v>
       </c>
       <c r="Y42" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z42" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z42" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5781,7 +5778,7 @@
         <v>19</v>
       </c>
       <c r="Y43" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z43" s="39">
         <v>4.8600000000000003</v>
@@ -5789,7 +5786,7 @@
     </row>
     <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5861,7 +5858,7 @@
         <v>20</v>
       </c>
       <c r="Y44" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z44" s="39">
         <v>6.79</v>
@@ -5869,7 +5866,7 @@
     </row>
     <row r="45" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5941,7 +5938,7 @@
         <v>22</v>
       </c>
       <c r="Y45" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z45" s="39">
         <v>6.64</v>
@@ -5949,7 +5946,7 @@
     </row>
     <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6021,7 +6018,7 @@
         <v>21</v>
       </c>
       <c r="Y46" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z46" s="39">
         <v>8.39</v>
@@ -6029,7 +6026,7 @@
     </row>
     <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6101,7 +6098,7 @@
         <v>20</v>
       </c>
       <c r="Y47" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z47" s="39">
         <v>8.14</v>
@@ -6109,7 +6106,7 @@
     </row>
     <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6181,15 +6178,15 @@
         <v>20</v>
       </c>
       <c r="Y48" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z48" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z48" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6261,7 +6258,7 @@
         <v>20</v>
       </c>
       <c r="Y49" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z49" s="39">
         <v>6.04</v>
@@ -6269,7 +6266,7 @@
     </row>
     <row r="50" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6341,7 +6338,7 @@
         <v>20</v>
       </c>
       <c r="Y50" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z50" s="39">
         <v>7.18</v>
@@ -6349,7 +6346,7 @@
     </row>
     <row r="51" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6421,7 +6418,7 @@
         <v>20</v>
       </c>
       <c r="Y51" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z51" s="39">
         <v>7.04</v>
@@ -6429,7 +6426,7 @@
     </row>
     <row r="52" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6501,7 +6498,7 @@
         <v>22</v>
       </c>
       <c r="Y52" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z52" s="39">
         <v>6.82</v>
@@ -6509,7 +6506,7 @@
     </row>
     <row r="53" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="45" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6581,7 +6578,7 @@
         <v>20</v>
       </c>
       <c r="Y53" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z53" s="39">
         <v>8.14</v>
@@ -6589,7 +6586,7 @@
     </row>
     <row r="54" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="45" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -6661,7 +6658,7 @@
         <v>22</v>
       </c>
       <c r="Y54" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z54" s="39">
         <v>9.07</v>
@@ -6669,7 +6666,7 @@
     </row>
     <row r="55" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="45" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -6741,7 +6738,7 @@
         <v>22</v>
       </c>
       <c r="Y55" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z55" s="39">
         <v>8.07</v>
@@ -6749,7 +6746,7 @@
     </row>
     <row r="56" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="45" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -6821,7 +6818,7 @@
         <v>22</v>
       </c>
       <c r="Y56" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z56" s="39">
         <v>8.61</v>
@@ -6829,7 +6826,7 @@
     </row>
     <row r="57" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6901,7 +6898,7 @@
         <v>21</v>
       </c>
       <c r="Y57" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z57" s="39">
         <v>7.07</v>
@@ -6909,7 +6906,7 @@
     </row>
     <row r="58" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="45" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6981,7 +6978,7 @@
         <v>22</v>
       </c>
       <c r="Y58" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z58" s="39">
         <v>8.11</v>
@@ -6989,7 +6986,7 @@
     </row>
     <row r="59" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="45" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7061,7 +7058,7 @@
         <v>21</v>
       </c>
       <c r="Y59" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z59" s="39">
         <v>6.29</v>
@@ -7069,7 +7066,7 @@
     </row>
     <row r="60" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7141,7 +7138,7 @@
         <v>20</v>
       </c>
       <c r="Y60" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z60" s="39">
         <v>5.61</v>
@@ -7149,7 +7146,7 @@
     </row>
     <row r="61" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7221,15 +7218,15 @@
         <v>19</v>
       </c>
       <c r="Y61" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z61" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z61" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7301,7 +7298,7 @@
         <v>20</v>
       </c>
       <c r="Y62" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z62" s="39">
         <v>6.54</v>
@@ -7309,7 +7306,7 @@
     </row>
     <row r="63" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="45" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -7381,15 +7378,15 @@
         <v>21</v>
       </c>
       <c r="Y63" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z63" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z63" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="45" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7461,15 +7458,15 @@
         <v>19</v>
       </c>
       <c r="Y64" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z64" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z64" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="45" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -7541,15 +7538,15 @@
         <v>21</v>
       </c>
       <c r="Y65" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z65" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z65" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -7621,15 +7618,15 @@
         <v>21</v>
       </c>
       <c r="Y66" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z66" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z66" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7701,15 +7698,15 @@
         <v>20</v>
       </c>
       <c r="Y67" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z67" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z67" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="45" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -7781,7 +7778,7 @@
         <v>21</v>
       </c>
       <c r="Y68" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z68" s="39">
         <v>8.5399999999999991</v>
@@ -7789,7 +7786,7 @@
     </row>
     <row r="69" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -7861,7 +7858,7 @@
         <v>21</v>
       </c>
       <c r="Y69" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z69" s="39">
         <v>8.64</v>
@@ -7869,7 +7866,7 @@
     </row>
     <row r="70" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="45" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -7941,7 +7938,7 @@
         <v>21</v>
       </c>
       <c r="Y70" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z70" s="39">
         <v>6.82</v>
@@ -7949,7 +7946,7 @@
     </row>
     <row r="71" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8021,15 +8018,15 @@
         <v>18</v>
       </c>
       <c r="Y71" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z71" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z71" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8101,7 +8098,7 @@
         <v>21</v>
       </c>
       <c r="Y72" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z72" s="39">
         <v>7.04</v>
@@ -8109,7 +8106,7 @@
     </row>
     <row r="73" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="45" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8181,15 +8178,15 @@
         <v>21</v>
       </c>
       <c r="Y73" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z73" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z73" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="45" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8261,7 +8258,7 @@
         <v>24</v>
       </c>
       <c r="Y74" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z74" s="39">
         <v>8.7899999999999991</v>
@@ -8269,7 +8266,7 @@
     </row>
     <row r="75" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="45" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -8341,7 +8338,7 @@
         <v>20</v>
       </c>
       <c r="Y75" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z75" s="39">
         <v>6.93</v>
@@ -8349,7 +8346,7 @@
     </row>
     <row r="76" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8421,7 +8418,7 @@
         <v>22</v>
       </c>
       <c r="Y76" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z76" s="39">
         <v>7.57</v>
@@ -8429,7 +8426,7 @@
     </row>
     <row r="77" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="45" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -8501,7 +8498,7 @@
         <v>23</v>
       </c>
       <c r="Y77" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z77" s="39">
         <v>9.7100000000000009</v>
@@ -8509,7 +8506,7 @@
     </row>
     <row r="78" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="45" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -8581,7 +8578,7 @@
         <v>21</v>
       </c>
       <c r="Y78" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z78" s="39">
         <v>7.89</v>
@@ -8589,7 +8586,7 @@
     </row>
     <row r="79" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="45" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -8661,7 +8658,7 @@
         <v>20</v>
       </c>
       <c r="Y79" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z79" s="39">
         <v>6.71</v>
@@ -8669,7 +8666,7 @@
     </row>
     <row r="80" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -8741,7 +8738,7 @@
         <v>21</v>
       </c>
       <c r="Y80" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z80" s="39">
         <v>9.36</v>
@@ -8749,7 +8746,7 @@
     </row>
     <row r="81" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="45" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -8821,7 +8818,7 @@
         <v>22</v>
       </c>
       <c r="Y81" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z81" s="39">
         <v>8.07</v>
@@ -8829,7 +8826,7 @@
     </row>
     <row r="82" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -8901,7 +8898,7 @@
         <v>22</v>
       </c>
       <c r="Y82" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z82" s="39">
         <v>6.32</v>
@@ -8909,7 +8906,7 @@
     </row>
     <row r="83" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="45" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -8981,7 +8978,7 @@
         <v>22</v>
       </c>
       <c r="Y83" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z83" s="39">
         <v>8.82</v>
@@ -8989,7 +8986,7 @@
     </row>
     <row r="84" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="45" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -9061,15 +9058,15 @@
         <v>19</v>
       </c>
       <c r="Y84" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z84" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z84" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -9141,15 +9138,15 @@
         <v>22</v>
       </c>
       <c r="Y85" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z85" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z85" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="45" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -9221,7 +9218,7 @@
         <v>20</v>
       </c>
       <c r="Y86" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z86" s="39">
         <v>8.4600000000000009</v>
@@ -9229,7 +9226,7 @@
     </row>
     <row r="87" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="45" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -9301,15 +9298,15 @@
         <v>22</v>
       </c>
       <c r="Y87" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z87" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z87" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -9381,15 +9378,15 @@
         <v>22</v>
       </c>
       <c r="Y88" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z88" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z88" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="45" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -9461,7 +9458,7 @@
         <v>21</v>
       </c>
       <c r="Y89" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z89" s="39">
         <v>6.96</v>
@@ -9469,7 +9466,7 @@
     </row>
     <row r="90" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="45" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -9541,7 +9538,7 @@
         <v>22</v>
       </c>
       <c r="Y90" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z90" s="39">
         <v>6.96</v>
@@ -9549,7 +9546,7 @@
     </row>
     <row r="91" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="45" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -9621,15 +9618,15 @@
         <v>20</v>
       </c>
       <c r="Y91" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z91" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z91" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="45" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -9701,15 +9698,15 @@
         <v>18</v>
       </c>
       <c r="Y92" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z92" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z92" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -9781,7 +9778,7 @@
         <v>19</v>
       </c>
       <c r="Y93" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z93" s="39">
         <v>8.2899999999999991</v>
@@ -9789,7 +9786,7 @@
     </row>
     <row r="94" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="45" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -9861,15 +9858,15 @@
         <v>20</v>
       </c>
       <c r="Y94" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z94" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z94" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -9941,7 +9938,7 @@
         <v>17</v>
       </c>
       <c r="Y95" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z95" s="39">
         <v>7.29</v>
@@ -9949,7 +9946,7 @@
     </row>
     <row r="96" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="45" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -10021,15 +10018,15 @@
         <v>20</v>
       </c>
       <c r="Y96" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z96" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z96" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="45" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -10101,7 +10098,7 @@
         <v>20</v>
       </c>
       <c r="Y97" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z97" s="39">
         <v>6.86</v>
@@ -10109,7 +10106,7 @@
     </row>
     <row r="98" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -10181,15 +10178,15 @@
         <v>17</v>
       </c>
       <c r="Y98" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z98" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z98" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -10261,15 +10258,15 @@
         <v>18</v>
       </c>
       <c r="Y99" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z99" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z99" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="45" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -10341,15 +10338,15 @@
         <v>17</v>
       </c>
       <c r="Y100" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z100" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z100" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -10421,7 +10418,7 @@
         <v>20</v>
       </c>
       <c r="Y101" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z101" s="39">
         <v>8.7899999999999991</v>
@@ -10429,7 +10426,7 @@
     </row>
     <row r="102" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -10501,7 +10498,7 @@
         <v>17</v>
       </c>
       <c r="Y102" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z102" s="39">
         <v>6.07</v>
@@ -10509,7 +10506,7 @@
     </row>
     <row r="103" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="45" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -10581,7 +10578,7 @@
         <v>23</v>
       </c>
       <c r="Y103" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z103" s="39">
         <v>7.86</v>
@@ -10589,7 +10586,7 @@
     </row>
     <row r="104" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -10661,15 +10658,15 @@
         <v>21</v>
       </c>
       <c r="Y104" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z104" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z104" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -10741,15 +10738,15 @@
         <v>18</v>
       </c>
       <c r="Y105" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z105" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z105" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="45" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -10821,15 +10818,15 @@
         <v>19</v>
       </c>
       <c r="Y106" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z106" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z106" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="45" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -10901,15 +10898,15 @@
         <v>17</v>
       </c>
       <c r="Y107" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z107" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z107" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -10981,7 +10978,7 @@
         <v>23</v>
       </c>
       <c r="Y108" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z108" s="39">
         <v>7.75</v>
@@ -10989,7 +10986,7 @@
     </row>
     <row r="109" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -11061,15 +11058,15 @@
         <v>18</v>
       </c>
       <c r="Y109" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z109" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z109" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -11141,15 +11138,15 @@
         <v>19</v>
       </c>
       <c r="Y110" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z110" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z110" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="45" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -11221,7 +11218,7 @@
         <v>23</v>
       </c>
       <c r="Y111" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z111" s="39">
         <v>7.82</v>
@@ -11229,7 +11226,7 @@
     </row>
     <row r="112" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -11301,15 +11298,15 @@
         <v>17</v>
       </c>
       <c r="Y112" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z112" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z112" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -11381,7 +11378,7 @@
         <v>24</v>
       </c>
       <c r="Y113" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z113" s="39">
         <v>9.82</v>
@@ -11389,7 +11386,7 @@
     </row>
     <row r="114" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="45" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -11461,7 +11458,7 @@
         <v>22</v>
       </c>
       <c r="Y114" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z114" s="39">
         <v>8.0399999999999991</v>
@@ -11469,7 +11466,7 @@
     </row>
     <row r="115" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -11541,15 +11538,15 @@
         <v>18</v>
       </c>
       <c r="Y115" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z115" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z115" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="45" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -11621,7 +11618,7 @@
         <v>18</v>
       </c>
       <c r="Y116" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z116" s="39">
         <v>6.79</v>
@@ -11629,7 +11626,7 @@
     </row>
     <row r="117" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="45" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -11701,7 +11698,7 @@
         <v>23</v>
       </c>
       <c r="Y117" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z117" s="39">
         <v>7.96</v>
@@ -11709,7 +11706,7 @@
     </row>
     <row r="118" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="45" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -11781,15 +11778,15 @@
         <v>17</v>
       </c>
       <c r="Y118" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z118" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z118" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="45" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -11861,15 +11858,15 @@
         <v>22</v>
       </c>
       <c r="Y119" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z119" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z119" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -11941,7 +11938,7 @@
         <v>17</v>
       </c>
       <c r="Y120" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z120" s="39">
         <v>7.86</v>
@@ -11949,7 +11946,7 @@
     </row>
     <row r="121" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="45" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -12021,15 +12018,15 @@
         <v>17</v>
       </c>
       <c r="Y121" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z121" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z121" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="45" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -12101,7 +12098,7 @@
         <v>23</v>
       </c>
       <c r="Y122" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z122" s="39">
         <v>8.89</v>
@@ -12109,7 +12106,7 @@
     </row>
     <row r="123" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="45" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -12181,15 +12178,15 @@
         <v>0</v>
       </c>
       <c r="Y123" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z123" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z123" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="45" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -12261,7 +12258,7 @@
         <v>22</v>
       </c>
       <c r="Y124" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z124" s="39">
         <v>8.25</v>
@@ -12269,7 +12266,7 @@
     </row>
     <row r="125" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -12341,15 +12338,15 @@
         <v>19</v>
       </c>
       <c r="Y125" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z125" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z125" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="45" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -12421,15 +12418,15 @@
         <v>19</v>
       </c>
       <c r="Y126" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z126" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z126" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -12501,15 +12498,15 @@
         <v>18</v>
       </c>
       <c r="Y127" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z127" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z127" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -12581,15 +12578,15 @@
         <v>18</v>
       </c>
       <c r="Y128" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z128" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z128" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -12661,7 +12658,7 @@
         <v>23</v>
       </c>
       <c r="Y129" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z129" s="39">
         <v>8.43</v>
@@ -12669,7 +12666,7 @@
     </row>
     <row r="130" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -12741,15 +12738,15 @@
         <v>18</v>
       </c>
       <c r="Y130" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z130" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z130" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="45" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -12821,7 +12818,7 @@
         <v>18</v>
       </c>
       <c r="Y131" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z131" s="39">
         <v>8.43</v>
@@ -12829,7 +12826,7 @@
     </row>
     <row r="132" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -12901,7 +12898,7 @@
         <v>18</v>
       </c>
       <c r="Y132" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z132" s="39">
         <v>6.57</v>
@@ -12909,7 +12906,7 @@
     </row>
     <row r="133" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="45" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -12981,15 +12978,15 @@
         <v>18</v>
       </c>
       <c r="Y133" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Z133" s="41" t="s">
-        <v>86</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -13061,15 +13058,15 @@
         <v>17</v>
       </c>
       <c r="Y134" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z134" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z134" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="45" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -13141,7 +13138,7 @@
         <v>19</v>
       </c>
       <c r="Y135" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z135" s="39">
         <v>7.43</v>
@@ -13149,7 +13146,7 @@
     </row>
     <row r="136" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -13221,7 +13218,7 @@
         <v>20</v>
       </c>
       <c r="Y136" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z136" s="39">
         <v>7.18</v>
@@ -13229,7 +13226,7 @@
     </row>
     <row r="137" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -13301,15 +13298,15 @@
         <v>18</v>
       </c>
       <c r="Y137" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z137" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z137" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="45" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -13381,15 +13378,15 @@
         <v>17</v>
       </c>
       <c r="Y138" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z138" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z138" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="45" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -13461,7 +13458,7 @@
         <v>22</v>
       </c>
       <c r="Y139" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z139" s="39">
         <v>7.89</v>
@@ -13469,7 +13466,7 @@
     </row>
     <row r="140" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="45" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -13541,15 +13538,15 @@
         <v>19</v>
       </c>
       <c r="Y140" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z140" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z140" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="45" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -13621,15 +13618,15 @@
         <v>19</v>
       </c>
       <c r="Y141" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z141" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z141" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="45" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -13701,7 +13698,7 @@
         <v>20</v>
       </c>
       <c r="Y142" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z142" s="39">
         <v>6.21</v>
@@ -13709,7 +13706,7 @@
     </row>
     <row r="143" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="45" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -13781,7 +13778,7 @@
         <v>22</v>
       </c>
       <c r="Y143" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z143" s="39">
         <v>9.18</v>
@@ -13789,7 +13786,7 @@
     </row>
     <row r="144" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="45" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -13861,7 +13858,7 @@
         <v>19</v>
       </c>
       <c r="Y144" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z144" s="39">
         <v>5.96</v>
@@ -13869,7 +13866,7 @@
     </row>
     <row r="145" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="45" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -13941,15 +13938,15 @@
         <v>22</v>
       </c>
       <c r="Y145" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z145" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z145" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="45" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -14021,7 +14018,7 @@
         <v>18</v>
       </c>
       <c r="Y146" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z146" s="39">
         <v>5</v>
@@ -14029,7 +14026,7 @@
     </row>
     <row r="147" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -14101,7 +14098,7 @@
         <v>23</v>
       </c>
       <c r="Y147" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z147" s="39">
         <v>9.14</v>
@@ -14109,7 +14106,7 @@
     </row>
     <row r="148" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="45" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -14181,7 +14178,7 @@
         <v>23</v>
       </c>
       <c r="Y148" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z148" s="39">
         <v>8.61</v>
@@ -14189,7 +14186,7 @@
     </row>
     <row r="149" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="45" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -14261,7 +14258,7 @@
         <v>23</v>
       </c>
       <c r="Y149" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z149" s="39">
         <v>8.93</v>
@@ -14269,7 +14266,7 @@
     </row>
     <row r="150" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="45" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -14341,15 +14338,15 @@
         <v>18</v>
       </c>
       <c r="Y150" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z150" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z150" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -14421,15 +14418,15 @@
         <v>21</v>
       </c>
       <c r="Y151" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z151" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z151" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="45" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -14501,7 +14498,7 @@
         <v>24</v>
       </c>
       <c r="Y152" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z152" s="39">
         <v>9.7100000000000009</v>
@@ -14509,7 +14506,7 @@
     </row>
     <row r="153" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -14581,7 +14578,7 @@
         <v>19</v>
       </c>
       <c r="Y153" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z153" s="39">
         <v>6.86</v>
@@ -14589,7 +14586,7 @@
     </row>
     <row r="154" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="45" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -14661,15 +14658,15 @@
         <v>17</v>
       </c>
       <c r="Y154" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z154" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z154" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -14741,15 +14738,15 @@
         <v>18</v>
       </c>
       <c r="Y155" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z155" s="39" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="Z155" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="45" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -14821,15 +14818,15 @@
         <v>12</v>
       </c>
       <c r="Y156" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z156" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z156" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -14901,7 +14898,7 @@
         <v>21</v>
       </c>
       <c r="Y157" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z157" s="39">
         <v>5.86</v>
@@ -14909,7 +14906,7 @@
     </row>
     <row r="158" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="45" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -14981,15 +14978,15 @@
         <v>12</v>
       </c>
       <c r="Y158" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z158" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z158" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="45" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -15061,7 +15058,7 @@
         <v>14</v>
       </c>
       <c r="Y159" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z159" s="39">
         <v>6.21</v>
@@ -15069,7 +15066,7 @@
     </row>
     <row r="160" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="45" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -15141,7 +15138,7 @@
         <v>15</v>
       </c>
       <c r="Y160" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z160" s="39">
         <v>4.68</v>
@@ -15149,7 +15146,7 @@
     </row>
     <row r="161" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -15221,15 +15218,15 @@
         <v>16</v>
       </c>
       <c r="Y161" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z161" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z161" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -15301,15 +15298,15 @@
         <v>17</v>
       </c>
       <c r="Y162" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z162" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z162" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="45" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -15381,15 +15378,15 @@
         <v>16</v>
       </c>
       <c r="Y163" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z163" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z163" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="45" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -15461,7 +15458,7 @@
         <v>21</v>
       </c>
       <c r="Y164" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z164" s="39">
         <v>5.36</v>
@@ -15469,7 +15466,7 @@
     </row>
     <row r="165" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -15541,15 +15538,15 @@
         <v>16</v>
       </c>
       <c r="Y165" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z165" s="39" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="Z165" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="45" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -15621,15 +15618,15 @@
         <v>15</v>
       </c>
       <c r="Y166" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z166" s="39" t="s">
-        <v>91</v>
+        <v>89</v>
+      </c>
+      <c r="Z166" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -15701,7 +15698,7 @@
         <v>15</v>
       </c>
       <c r="Y167" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z167" s="39">
         <v>5.36</v>
@@ -15709,7 +15706,7 @@
     </row>
     <row r="168" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="45" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -15781,15 +15778,15 @@
         <v>18</v>
       </c>
       <c r="Y168" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z168" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z168" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="45" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -15861,15 +15858,15 @@
         <v>18</v>
       </c>
       <c r="Y169" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z169" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z169" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="45" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -15941,7 +15938,7 @@
         <v>14</v>
       </c>
       <c r="Y170" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z170" s="39">
         <v>6.04</v>
@@ -15949,7 +15946,7 @@
     </row>
     <row r="171" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -16021,15 +16018,15 @@
         <v>20</v>
       </c>
       <c r="Y171" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z171" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z171" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="45" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -16101,15 +16098,15 @@
         <v>17</v>
       </c>
       <c r="Y172" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z172" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z172" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="45" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -16181,15 +16178,15 @@
         <v>16</v>
       </c>
       <c r="Y173" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z173" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z173" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -16261,15 +16258,15 @@
         <v>18</v>
       </c>
       <c r="Y174" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z174" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z174" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="45" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -16341,15 +16338,15 @@
         <v>20</v>
       </c>
       <c r="Y175" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z175" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z175" s="39">
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -16421,10 +16418,10 @@
         <v>19</v>
       </c>
       <c r="Y176" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z176" s="39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="Z176" s="39">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -16444,86 +16441,86 @@
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:79" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="48"/>
-      <c r="AO1" s="48"/>
-      <c r="AP1" s="48"/>
-      <c r="AQ1" s="48"/>
-      <c r="AR1" s="48"/>
-      <c r="AS1" s="48"/>
-      <c r="AT1" s="48"/>
-      <c r="AU1" s="48"/>
-      <c r="AV1" s="48"/>
-      <c r="AW1" s="48"/>
-      <c r="AX1" s="48"/>
-      <c r="AY1" s="48"/>
-      <c r="AZ1" s="48"/>
-      <c r="BA1" s="48"/>
-      <c r="BB1" s="48"/>
-      <c r="BC1" s="48"/>
-      <c r="BD1" s="48"/>
-      <c r="BE1" s="48"/>
-      <c r="BF1" s="48"/>
-      <c r="BG1" s="48"/>
-      <c r="BH1" s="48"/>
-      <c r="BI1" s="48"/>
-      <c r="BJ1" s="48"/>
-      <c r="BK1" s="48"/>
-      <c r="BL1" s="48"/>
-      <c r="BM1" s="48"/>
-      <c r="BN1" s="48"/>
-      <c r="BO1" s="48"/>
-      <c r="BP1" s="48"/>
-      <c r="BQ1" s="48"/>
-      <c r="BR1" s="48"/>
-      <c r="BS1" s="48"/>
-      <c r="BT1" s="48"/>
-      <c r="BU1" s="48"/>
-      <c r="BV1" s="48"/>
-      <c r="BW1" s="48"/>
-      <c r="BX1" s="48"/>
-      <c r="BY1" s="48"/>
-      <c r="BZ1" s="48"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="58"/>
+      <c r="Q1" s="58"/>
+      <c r="R1" s="58"/>
+      <c r="S1" s="58"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="58"/>
+      <c r="W1" s="58"/>
+      <c r="X1" s="58"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="58"/>
+      <c r="AA1" s="58"/>
+      <c r="AB1" s="58"/>
+      <c r="AC1" s="58"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="58"/>
+      <c r="AF1" s="58"/>
+      <c r="AG1" s="58"/>
+      <c r="AH1" s="58"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="58"/>
+      <c r="AK1" s="58"/>
+      <c r="AL1" s="58"/>
+      <c r="AM1" s="58"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="58"/>
+      <c r="AP1" s="58"/>
+      <c r="AQ1" s="58"/>
+      <c r="AR1" s="58"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="58"/>
+      <c r="AU1" s="58"/>
+      <c r="AV1" s="58"/>
+      <c r="AW1" s="58"/>
+      <c r="AX1" s="58"/>
+      <c r="AY1" s="58"/>
+      <c r="AZ1" s="58"/>
+      <c r="BA1" s="58"/>
+      <c r="BB1" s="58"/>
+      <c r="BC1" s="58"/>
+      <c r="BD1" s="58"/>
+      <c r="BE1" s="58"/>
+      <c r="BF1" s="58"/>
+      <c r="BG1" s="58"/>
+      <c r="BH1" s="58"/>
+      <c r="BI1" s="58"/>
+      <c r="BJ1" s="58"/>
+      <c r="BK1" s="58"/>
+      <c r="BL1" s="58"/>
+      <c r="BM1" s="58"/>
+      <c r="BN1" s="58"/>
+      <c r="BO1" s="58"/>
+      <c r="BP1" s="58"/>
+      <c r="BQ1" s="58"/>
+      <c r="BR1" s="58"/>
+      <c r="BS1" s="58"/>
+      <c r="BT1" s="58"/>
+      <c r="BU1" s="58"/>
+      <c r="BV1" s="58"/>
+      <c r="BW1" s="58"/>
+      <c r="BX1" s="58"/>
+      <c r="BY1" s="58"/>
+      <c r="BZ1" s="58"/>
       <c r="CA1" s="59"/>
     </row>
     <row r="2" spans="1:79" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16552,242 +16549,242 @@
       </c>
     </row>
     <row r="7" spans="1:79" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="88" t="s">
+      <c r="A7" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="89"/>
-      <c r="R7" s="89"/>
-      <c r="S7" s="89"/>
-      <c r="T7" s="89"/>
-      <c r="U7" s="89"/>
-      <c r="V7" s="89"/>
-      <c r="W7" s="89"/>
-      <c r="X7" s="89"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="89"/>
-      <c r="AA7" s="89"/>
-      <c r="AB7" s="89"/>
-      <c r="AC7" s="89"/>
-      <c r="AD7" s="89"/>
-      <c r="AE7" s="89"/>
-      <c r="AF7" s="89"/>
-      <c r="AG7" s="89"/>
-      <c r="AH7" s="89"/>
-      <c r="AI7" s="89"/>
-      <c r="AJ7" s="89"/>
-      <c r="AK7" s="89"/>
-      <c r="AL7" s="89"/>
-      <c r="AM7" s="89"/>
-      <c r="AN7" s="89"/>
-      <c r="AO7" s="89"/>
-      <c r="AP7" s="89"/>
-      <c r="AQ7" s="89"/>
-      <c r="AR7" s="89"/>
-      <c r="AS7" s="89"/>
-      <c r="AT7" s="89"/>
-      <c r="AU7" s="89"/>
-      <c r="AV7" s="89"/>
-      <c r="AW7" s="89"/>
-      <c r="AX7" s="89"/>
-      <c r="AY7" s="89"/>
-      <c r="AZ7" s="89"/>
-      <c r="BA7" s="89"/>
-      <c r="BB7" s="89"/>
-      <c r="BC7" s="89"/>
-      <c r="BD7" s="89"/>
-      <c r="BE7" s="89"/>
-      <c r="BF7" s="89"/>
-      <c r="BG7" s="89"/>
-      <c r="BH7" s="89"/>
-      <c r="BI7" s="89"/>
-      <c r="BJ7" s="89"/>
-      <c r="BK7" s="89"/>
-      <c r="BL7" s="89"/>
-      <c r="BM7" s="89"/>
-      <c r="BN7" s="89"/>
-      <c r="BO7" s="89"/>
-      <c r="BP7" s="89"/>
-      <c r="BQ7" s="89"/>
-      <c r="BR7" s="89"/>
-      <c r="BS7" s="89"/>
-      <c r="BT7" s="89"/>
-      <c r="BU7" s="89"/>
-      <c r="BV7" s="89"/>
-      <c r="BW7" s="89"/>
-      <c r="BX7" s="89"/>
-      <c r="BY7" s="89"/>
-      <c r="BZ7" s="90"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="61"/>
+      <c r="AA7" s="61"/>
+      <c r="AB7" s="61"/>
+      <c r="AC7" s="61"/>
+      <c r="AD7" s="61"/>
+      <c r="AE7" s="61"/>
+      <c r="AF7" s="61"/>
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="61"/>
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="61"/>
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="61"/>
+      <c r="AO7" s="61"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="61"/>
+      <c r="AT7" s="61"/>
+      <c r="AU7" s="61"/>
+      <c r="AV7" s="61"/>
+      <c r="AW7" s="61"/>
+      <c r="AX7" s="61"/>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="61"/>
+      <c r="BA7" s="61"/>
+      <c r="BB7" s="61"/>
+      <c r="BC7" s="61"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="61"/>
+      <c r="BH7" s="61"/>
+      <c r="BI7" s="61"/>
+      <c r="BJ7" s="61"/>
+      <c r="BK7" s="61"/>
+      <c r="BL7" s="61"/>
+      <c r="BM7" s="61"/>
+      <c r="BN7" s="61"/>
+      <c r="BO7" s="61"/>
+      <c r="BP7" s="61"/>
+      <c r="BQ7" s="61"/>
+      <c r="BR7" s="61"/>
+      <c r="BS7" s="61"/>
+      <c r="BT7" s="61"/>
+      <c r="BU7" s="61"/>
+      <c r="BV7" s="61"/>
+      <c r="BW7" s="61"/>
+      <c r="BX7" s="61"/>
+      <c r="BY7" s="61"/>
+      <c r="BZ7" s="62"/>
     </row>
     <row r="8" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68" t="s">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="68" t="s">
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="67"/>
+      <c r="J8" s="67"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
-      <c r="S8" s="52"/>
-      <c r="T8" s="52"/>
-      <c r="U8" s="52"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="68" t="s">
+      <c r="N8" s="67"/>
+      <c r="O8" s="67"/>
+      <c r="P8" s="67"/>
+      <c r="Q8" s="67"/>
+      <c r="R8" s="67"/>
+      <c r="S8" s="67"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="67"/>
+      <c r="V8" s="67"/>
+      <c r="W8" s="67"/>
+      <c r="X8" s="67"/>
+      <c r="Y8" s="67"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="52"/>
-      <c r="AE8" s="52"/>
-      <c r="AF8" s="52"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="52"/>
-      <c r="AL8" s="52"/>
-      <c r="AM8" s="52"/>
-      <c r="AN8" s="52"/>
-      <c r="AO8" s="52"/>
-      <c r="AP8" s="69"/>
-      <c r="AQ8" s="65" t="s">
+      <c r="AB8" s="67"/>
+      <c r="AC8" s="67"/>
+      <c r="AD8" s="67"/>
+      <c r="AE8" s="67"/>
+      <c r="AF8" s="67"/>
+      <c r="AG8" s="67"/>
+      <c r="AH8" s="67"/>
+      <c r="AI8" s="67"/>
+      <c r="AJ8" s="67"/>
+      <c r="AK8" s="67"/>
+      <c r="AL8" s="67"/>
+      <c r="AM8" s="67"/>
+      <c r="AN8" s="67"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="68"/>
+      <c r="AQ8" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="AR8" s="51"/>
-      <c r="AS8" s="51"/>
-      <c r="AT8" s="51"/>
-      <c r="AU8" s="51"/>
-      <c r="AV8" s="51"/>
-      <c r="AW8" s="51"/>
-      <c r="AX8" s="67"/>
-      <c r="AY8" s="68" t="s">
+      <c r="AR8" s="64"/>
+      <c r="AS8" s="64"/>
+      <c r="AT8" s="64"/>
+      <c r="AU8" s="64"/>
+      <c r="AV8" s="64"/>
+      <c r="AW8" s="64"/>
+      <c r="AX8" s="65"/>
+      <c r="AY8" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="AZ8" s="52"/>
-      <c r="BA8" s="52"/>
-      <c r="BB8" s="52"/>
-      <c r="BC8" s="52"/>
-      <c r="BD8" s="52"/>
-      <c r="BE8" s="52"/>
-      <c r="BF8" s="52"/>
-      <c r="BG8" s="52"/>
-      <c r="BH8" s="52"/>
-      <c r="BI8" s="52"/>
-      <c r="BJ8" s="52"/>
-      <c r="BK8" s="52"/>
-      <c r="BL8" s="69"/>
+      <c r="AZ8" s="67"/>
+      <c r="BA8" s="67"/>
+      <c r="BB8" s="67"/>
+      <c r="BC8" s="67"/>
+      <c r="BD8" s="67"/>
+      <c r="BE8" s="67"/>
+      <c r="BF8" s="67"/>
+      <c r="BG8" s="67"/>
+      <c r="BH8" s="67"/>
+      <c r="BI8" s="67"/>
+      <c r="BJ8" s="67"/>
+      <c r="BK8" s="67"/>
+      <c r="BL8" s="68"/>
     </row>
     <row r="9" spans="1:79" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="61" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="87"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="53"/>
       <c r="M9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="56"/>
-      <c r="T9" s="56"/>
-      <c r="U9" s="56"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="56"/>
-      <c r="Y9" s="56"/>
-      <c r="Z9" s="55"/>
-      <c r="AA9" s="61" t="s">
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
+      <c r="V9" s="55"/>
+      <c r="W9" s="55"/>
+      <c r="X9" s="55"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="62"/>
-      <c r="AE9" s="62"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="62"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="62"/>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="87"/>
-      <c r="AQ9" s="84" t="s">
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="52"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="53"/>
+      <c r="AQ9" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="AR9" s="85"/>
-      <c r="AS9" s="85"/>
-      <c r="AT9" s="85"/>
-      <c r="AU9" s="85"/>
-      <c r="AV9" s="85"/>
-      <c r="AW9" s="85"/>
-      <c r="AX9" s="86"/>
-      <c r="AY9" s="61" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ9" s="62"/>
-      <c r="BA9" s="62"/>
-      <c r="BB9" s="62"/>
-      <c r="BC9" s="62"/>
-      <c r="BD9" s="62"/>
-      <c r="BE9" s="62"/>
-      <c r="BF9" s="62"/>
-      <c r="BG9" s="62"/>
-      <c r="BH9" s="62"/>
-      <c r="BI9" s="62"/>
-      <c r="BJ9" s="62"/>
-      <c r="BK9" s="62"/>
-      <c r="BL9" s="87"/>
+      <c r="AR9" s="49"/>
+      <c r="AS9" s="49"/>
+      <c r="AT9" s="49"/>
+      <c r="AU9" s="49"/>
+      <c r="AV9" s="49"/>
+      <c r="AW9" s="49"/>
+      <c r="AX9" s="50"/>
+      <c r="AY9" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ9" s="52"/>
+      <c r="BA9" s="52"/>
+      <c r="BB9" s="52"/>
+      <c r="BC9" s="52"/>
+      <c r="BD9" s="52"/>
+      <c r="BE9" s="52"/>
+      <c r="BF9" s="52"/>
+      <c r="BG9" s="52"/>
+      <c r="BH9" s="52"/>
+      <c r="BI9" s="52"/>
+      <c r="BJ9" s="52"/>
+      <c r="BK9" s="52"/>
+      <c r="BL9" s="53"/>
     </row>
     <row r="10" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -16850,17 +16847,17 @@
       </c>
     </row>
     <row r="22" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="82" t="s">
+      <c r="A22" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="83"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="36">
         <v>80</v>
       </c>
-      <c r="D22" s="77">
-        <v>20</v>
-      </c>
-      <c r="E22" s="78"/>
+      <c r="D22" s="69">
+        <v>20</v>
+      </c>
+      <c r="E22" s="71"/>
       <c r="F22" s="16">
         <v>100</v>
       </c>
@@ -16870,132 +16867,132 @@
       <c r="H22" s="36">
         <v>80</v>
       </c>
-      <c r="I22" s="77">
-        <v>20</v>
-      </c>
-      <c r="J22" s="78"/>
+      <c r="I22" s="69">
+        <v>20</v>
+      </c>
+      <c r="J22" s="71"/>
       <c r="K22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="77">
+      <c r="L22" s="69">
         <v>25</v>
       </c>
-      <c r="M22" s="78"/>
-      <c r="N22" s="77">
+      <c r="M22" s="71"/>
+      <c r="N22" s="69">
         <v>25</v>
       </c>
-      <c r="O22" s="78"/>
-      <c r="P22" s="77">
+      <c r="O22" s="71"/>
+      <c r="P22" s="69">
         <v>50</v>
       </c>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79">
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70">
         <v>80</v>
       </c>
-      <c r="T22" s="78"/>
-      <c r="U22" s="77">
-        <v>20</v>
-      </c>
-      <c r="V22" s="78"/>
-      <c r="W22" s="77">
+      <c r="T22" s="71"/>
+      <c r="U22" s="69">
+        <v>20</v>
+      </c>
+      <c r="V22" s="71"/>
+      <c r="W22" s="69">
         <v>100</v>
       </c>
-      <c r="X22" s="78"/>
-      <c r="Y22" s="77">
+      <c r="X22" s="71"/>
+      <c r="Y22" s="69">
         <v>25</v>
       </c>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="78"/>
-      <c r="AB22" s="77">
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="71"/>
+      <c r="AB22" s="69">
         <v>25</v>
       </c>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="78"/>
-      <c r="AE22" s="77">
+      <c r="AC22" s="70"/>
+      <c r="AD22" s="71"/>
+      <c r="AE22" s="69">
         <v>50</v>
       </c>
-      <c r="AF22" s="79"/>
-      <c r="AG22" s="79"/>
-      <c r="AH22" s="79">
+      <c r="AF22" s="70"/>
+      <c r="AG22" s="70"/>
+      <c r="AH22" s="70">
         <v>80</v>
       </c>
-      <c r="AI22" s="79"/>
-      <c r="AJ22" s="78"/>
-      <c r="AK22" s="77">
-        <v>20</v>
-      </c>
-      <c r="AL22" s="78"/>
-      <c r="AM22" s="77">
+      <c r="AI22" s="70"/>
+      <c r="AJ22" s="71"/>
+      <c r="AK22" s="69">
+        <v>20</v>
+      </c>
+      <c r="AL22" s="71"/>
+      <c r="AM22" s="69">
         <v>100</v>
       </c>
-      <c r="AN22" s="78"/>
-      <c r="AO22" s="77">
+      <c r="AN22" s="71"/>
+      <c r="AO22" s="69">
         <v>25</v>
       </c>
-      <c r="AP22" s="79"/>
-      <c r="AQ22" s="78"/>
-      <c r="AR22" s="77">
+      <c r="AP22" s="70"/>
+      <c r="AQ22" s="71"/>
+      <c r="AR22" s="69">
         <v>25</v>
       </c>
-      <c r="AS22" s="79"/>
-      <c r="AT22" s="78"/>
-      <c r="AU22" s="77">
+      <c r="AS22" s="70"/>
+      <c r="AT22" s="71"/>
+      <c r="AU22" s="69">
         <v>50</v>
       </c>
-      <c r="AV22" s="79"/>
-      <c r="AW22" s="79"/>
-      <c r="AX22" s="79">
+      <c r="AV22" s="70"/>
+      <c r="AW22" s="70"/>
+      <c r="AX22" s="70">
         <v>80</v>
       </c>
-      <c r="AY22" s="78"/>
-      <c r="AZ22" s="77">
-        <v>20</v>
-      </c>
-      <c r="BA22" s="78"/>
-      <c r="BB22" s="77">
+      <c r="AY22" s="71"/>
+      <c r="AZ22" s="69">
+        <v>20</v>
+      </c>
+      <c r="BA22" s="71"/>
+      <c r="BB22" s="69">
         <v>100</v>
       </c>
-      <c r="BC22" s="79"/>
-      <c r="BD22" s="79">
+      <c r="BC22" s="70"/>
+      <c r="BD22" s="70">
         <v>80</v>
       </c>
-      <c r="BE22" s="79"/>
-      <c r="BF22" s="78"/>
-      <c r="BG22" s="77">
-        <v>20</v>
-      </c>
-      <c r="BH22" s="79"/>
-      <c r="BI22" s="78"/>
-      <c r="BJ22" s="77">
+      <c r="BE22" s="70"/>
+      <c r="BF22" s="71"/>
+      <c r="BG22" s="69">
+        <v>20</v>
+      </c>
+      <c r="BH22" s="70"/>
+      <c r="BI22" s="71"/>
+      <c r="BJ22" s="69">
         <v>100</v>
       </c>
-      <c r="BK22" s="78"/>
-      <c r="BL22" s="77">
+      <c r="BK22" s="71"/>
+      <c r="BL22" s="69">
         <v>25</v>
       </c>
-      <c r="BM22" s="78"/>
-      <c r="BN22" s="77">
+      <c r="BM22" s="71"/>
+      <c r="BN22" s="69">
         <v>25</v>
       </c>
-      <c r="BO22" s="78"/>
-      <c r="BP22" s="77">
+      <c r="BO22" s="71"/>
+      <c r="BP22" s="69">
         <v>50</v>
       </c>
-      <c r="BQ22" s="79"/>
+      <c r="BQ22" s="70"/>
     </row>
     <row r="23" spans="1:69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="80" t="s">
+      <c r="A23" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="81"/>
+      <c r="B23" s="78"/>
       <c r="C23" s="38">
         <v>32</v>
       </c>
-      <c r="D23" s="74">
+      <c r="D23" s="79">
         <v>8</v>
       </c>
-      <c r="E23" s="75"/>
+      <c r="E23" s="80"/>
       <c r="F23" s="17">
         <v>40</v>
       </c>
@@ -17005,132 +17002,132 @@
       <c r="H23" s="38">
         <v>32</v>
       </c>
-      <c r="I23" s="74">
+      <c r="I23" s="79">
         <v>8</v>
       </c>
-      <c r="J23" s="75"/>
+      <c r="J23" s="80"/>
       <c r="K23" s="17">
         <v>40</v>
       </c>
-      <c r="L23" s="71">
+      <c r="L23" s="74">
         <v>10</v>
       </c>
-      <c r="M23" s="72"/>
-      <c r="N23" s="71">
+      <c r="M23" s="76"/>
+      <c r="N23" s="74">
         <v>10</v>
       </c>
-      <c r="O23" s="72"/>
-      <c r="P23" s="71">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73">
+      <c r="O23" s="76"/>
+      <c r="P23" s="74">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="75"/>
+      <c r="R23" s="75"/>
+      <c r="S23" s="75">
         <v>32</v>
       </c>
-      <c r="T23" s="72"/>
-      <c r="U23" s="74">
+      <c r="T23" s="76"/>
+      <c r="U23" s="79">
         <v>8</v>
       </c>
-      <c r="V23" s="75"/>
-      <c r="W23" s="71">
+      <c r="V23" s="80"/>
+      <c r="W23" s="74">
         <v>40</v>
       </c>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="71">
+      <c r="X23" s="76"/>
+      <c r="Y23" s="74">
         <v>10</v>
       </c>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="71">
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="74">
         <v>10</v>
       </c>
-      <c r="AC23" s="73"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="71">
-        <v>20</v>
-      </c>
-      <c r="AF23" s="73"/>
-      <c r="AG23" s="73"/>
-      <c r="AH23" s="73">
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="76"/>
+      <c r="AE23" s="74">
+        <v>20</v>
+      </c>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="75"/>
+      <c r="AH23" s="75">
         <v>32</v>
       </c>
-      <c r="AI23" s="73"/>
-      <c r="AJ23" s="72"/>
-      <c r="AK23" s="74">
+      <c r="AI23" s="75"/>
+      <c r="AJ23" s="76"/>
+      <c r="AK23" s="79">
         <v>8</v>
       </c>
-      <c r="AL23" s="75"/>
-      <c r="AM23" s="71">
+      <c r="AL23" s="80"/>
+      <c r="AM23" s="74">
         <v>40</v>
       </c>
-      <c r="AN23" s="72"/>
-      <c r="AO23" s="71">
+      <c r="AN23" s="76"/>
+      <c r="AO23" s="74">
         <v>10</v>
       </c>
-      <c r="AP23" s="73"/>
-      <c r="AQ23" s="72"/>
-      <c r="AR23" s="71">
+      <c r="AP23" s="75"/>
+      <c r="AQ23" s="76"/>
+      <c r="AR23" s="74">
         <v>10</v>
       </c>
-      <c r="AS23" s="73"/>
-      <c r="AT23" s="72"/>
-      <c r="AU23" s="71">
-        <v>20</v>
-      </c>
-      <c r="AV23" s="73"/>
-      <c r="AW23" s="73"/>
-      <c r="AX23" s="73">
+      <c r="AS23" s="75"/>
+      <c r="AT23" s="76"/>
+      <c r="AU23" s="74">
+        <v>20</v>
+      </c>
+      <c r="AV23" s="75"/>
+      <c r="AW23" s="75"/>
+      <c r="AX23" s="75">
         <v>32</v>
       </c>
-      <c r="AY23" s="72"/>
-      <c r="AZ23" s="74">
+      <c r="AY23" s="76"/>
+      <c r="AZ23" s="79">
         <v>8</v>
       </c>
-      <c r="BA23" s="75"/>
-      <c r="BB23" s="71">
+      <c r="BA23" s="80"/>
+      <c r="BB23" s="74">
         <v>40</v>
       </c>
-      <c r="BC23" s="73"/>
-      <c r="BD23" s="73">
+      <c r="BC23" s="75"/>
+      <c r="BD23" s="75">
         <v>32</v>
       </c>
-      <c r="BE23" s="73"/>
-      <c r="BF23" s="72"/>
-      <c r="BG23" s="74">
+      <c r="BE23" s="75"/>
+      <c r="BF23" s="76"/>
+      <c r="BG23" s="79">
         <v>8</v>
       </c>
-      <c r="BH23" s="76"/>
-      <c r="BI23" s="75"/>
-      <c r="BJ23" s="71">
+      <c r="BH23" s="84"/>
+      <c r="BI23" s="80"/>
+      <c r="BJ23" s="74">
         <v>40</v>
       </c>
-      <c r="BK23" s="72"/>
-      <c r="BL23" s="71">
+      <c r="BK23" s="76"/>
+      <c r="BL23" s="74">
         <v>10</v>
       </c>
-      <c r="BM23" s="72"/>
-      <c r="BN23" s="71">
+      <c r="BM23" s="76"/>
+      <c r="BN23" s="74">
         <v>10</v>
       </c>
-      <c r="BO23" s="72"/>
-      <c r="BP23" s="71">
-        <v>20</v>
-      </c>
-      <c r="BQ23" s="73"/>
+      <c r="BO23" s="76"/>
+      <c r="BP23" s="74">
+        <v>20</v>
+      </c>
+      <c r="BQ23" s="75"/>
     </row>
     <row r="24" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="48"/>
+      <c r="A24" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="58"/>
       <c r="C24" s="31">
         <v>40</v>
       </c>
-      <c r="D24" s="60">
-        <v>17</v>
-      </c>
-      <c r="E24" s="63"/>
+      <c r="D24" s="81">
+        <v>17</v>
+      </c>
+      <c r="E24" s="82"/>
       <c r="F24" s="6">
         <v>57</v>
       </c>
@@ -17140,132 +17137,132 @@
       <c r="H24" s="31">
         <v>45</v>
       </c>
-      <c r="I24" s="60">
-        <v>19</v>
-      </c>
-      <c r="J24" s="63"/>
+      <c r="I24" s="81">
+        <v>19</v>
+      </c>
+      <c r="J24" s="82"/>
       <c r="K24" s="6">
         <v>64</v>
       </c>
-      <c r="L24" s="60">
-        <v>20</v>
-      </c>
-      <c r="M24" s="63"/>
-      <c r="N24" s="60">
-        <v>20</v>
-      </c>
-      <c r="O24" s="63"/>
-      <c r="P24" s="60">
+      <c r="L24" s="81">
+        <v>20</v>
+      </c>
+      <c r="M24" s="82"/>
+      <c r="N24" s="81">
+        <v>20</v>
+      </c>
+      <c r="O24" s="82"/>
+      <c r="P24" s="81">
         <v>40</v>
       </c>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="49">
+      <c r="Q24" s="83"/>
+      <c r="R24" s="83"/>
+      <c r="S24" s="83">
         <v>39</v>
       </c>
-      <c r="T24" s="63"/>
-      <c r="U24" s="60">
+      <c r="T24" s="82"/>
+      <c r="U24" s="81">
         <v>15</v>
       </c>
-      <c r="V24" s="63"/>
-      <c r="W24" s="60">
+      <c r="V24" s="82"/>
+      <c r="W24" s="81">
         <v>54</v>
       </c>
-      <c r="X24" s="63"/>
-      <c r="Y24" s="60">
-        <v>18</v>
-      </c>
-      <c r="Z24" s="49"/>
-      <c r="AA24" s="63"/>
-      <c r="AB24" s="60">
-        <v>16</v>
-      </c>
-      <c r="AC24" s="49"/>
-      <c r="AD24" s="63"/>
-      <c r="AE24" s="60">
+      <c r="X24" s="82"/>
+      <c r="Y24" s="81">
+        <v>18</v>
+      </c>
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="82"/>
+      <c r="AB24" s="81">
+        <v>16</v>
+      </c>
+      <c r="AC24" s="83"/>
+      <c r="AD24" s="82"/>
+      <c r="AE24" s="81">
         <v>34</v>
       </c>
-      <c r="AF24" s="49"/>
-      <c r="AG24" s="49"/>
-      <c r="AH24" s="49">
+      <c r="AF24" s="83"/>
+      <c r="AG24" s="83"/>
+      <c r="AH24" s="83">
         <v>56</v>
       </c>
-      <c r="AI24" s="49"/>
-      <c r="AJ24" s="63"/>
-      <c r="AK24" s="60">
+      <c r="AI24" s="83"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="81">
         <v>14</v>
       </c>
-      <c r="AL24" s="63"/>
-      <c r="AM24" s="60">
+      <c r="AL24" s="82"/>
+      <c r="AM24" s="81">
         <v>70</v>
       </c>
-      <c r="AN24" s="63"/>
-      <c r="AO24" s="60">
-        <v>19</v>
-      </c>
-      <c r="AP24" s="49"/>
-      <c r="AQ24" s="63"/>
-      <c r="AR24" s="60">
-        <v>19</v>
-      </c>
-      <c r="AS24" s="49"/>
-      <c r="AT24" s="63"/>
-      <c r="AU24" s="70" t="s">
+      <c r="AN24" s="82"/>
+      <c r="AO24" s="81">
+        <v>19</v>
+      </c>
+      <c r="AP24" s="83"/>
+      <c r="AQ24" s="82"/>
+      <c r="AR24" s="81">
+        <v>19</v>
+      </c>
+      <c r="AS24" s="83"/>
+      <c r="AT24" s="82"/>
+      <c r="AU24" s="85" t="s">
         <v>29</v>
       </c>
-      <c r="AV24" s="53"/>
-      <c r="AW24" s="53"/>
-      <c r="AX24" s="49">
+      <c r="AV24" s="86"/>
+      <c r="AW24" s="86"/>
+      <c r="AX24" s="83">
         <v>36</v>
       </c>
-      <c r="AY24" s="63"/>
-      <c r="AZ24" s="60">
-        <v>16</v>
-      </c>
-      <c r="BA24" s="63"/>
-      <c r="BB24" s="60">
+      <c r="AY24" s="82"/>
+      <c r="AZ24" s="81">
+        <v>16</v>
+      </c>
+      <c r="BA24" s="82"/>
+      <c r="BB24" s="81">
         <v>52</v>
       </c>
-      <c r="BC24" s="49"/>
-      <c r="BD24" s="49">
+      <c r="BC24" s="83"/>
+      <c r="BD24" s="83">
         <v>45</v>
       </c>
-      <c r="BE24" s="49"/>
-      <c r="BF24" s="63"/>
-      <c r="BG24" s="60">
+      <c r="BE24" s="83"/>
+      <c r="BF24" s="82"/>
+      <c r="BG24" s="81">
         <v>15</v>
       </c>
-      <c r="BH24" s="49"/>
-      <c r="BI24" s="63"/>
-      <c r="BJ24" s="60">
+      <c r="BH24" s="83"/>
+      <c r="BI24" s="82"/>
+      <c r="BJ24" s="81">
         <v>60</v>
       </c>
-      <c r="BK24" s="63"/>
-      <c r="BL24" s="60">
-        <v>21</v>
-      </c>
-      <c r="BM24" s="63"/>
-      <c r="BN24" s="60">
-        <v>22</v>
-      </c>
-      <c r="BO24" s="63"/>
-      <c r="BP24" s="60">
+      <c r="BK24" s="82"/>
+      <c r="BL24" s="81">
+        <v>21</v>
+      </c>
+      <c r="BM24" s="82"/>
+      <c r="BN24" s="81">
+        <v>22</v>
+      </c>
+      <c r="BO24" s="82"/>
+      <c r="BP24" s="81">
         <v>43</v>
       </c>
-      <c r="BQ24" s="49"/>
+      <c r="BQ24" s="83"/>
     </row>
     <row r="25" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="51"/>
+      <c r="A25" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="64"/>
       <c r="C25" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="67"/>
+      <c r="D25" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="65"/>
       <c r="F25" s="5" t="s">
         <v>20</v>
       </c>
@@ -17275,127 +17272,127 @@
       <c r="H25" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="67"/>
+      <c r="I25" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="65"/>
       <c r="K25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="67"/>
-      <c r="N25" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="67"/>
-      <c r="P25" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="51"/>
-      <c r="R25" s="51"/>
-      <c r="S25" s="52" t="s">
+      <c r="L25" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="65"/>
+      <c r="N25" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="65"/>
+      <c r="P25" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="T25" s="69"/>
-      <c r="U25" s="68" t="s">
+      <c r="T25" s="68"/>
+      <c r="U25" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="V25" s="69"/>
-      <c r="W25" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="68" t="s">
+      <c r="V25" s="68"/>
+      <c r="W25" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="X25" s="68"/>
+      <c r="Y25" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="Z25" s="52"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="69"/>
-      <c r="AE25" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF25" s="51"/>
-      <c r="AG25" s="51"/>
-      <c r="AH25" s="51" t="s">
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="68"/>
+      <c r="AE25" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF25" s="64"/>
+      <c r="AG25" s="64"/>
+      <c r="AH25" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AI25" s="51"/>
-      <c r="AJ25" s="67"/>
-      <c r="AK25" s="68" t="s">
+      <c r="AI25" s="64"/>
+      <c r="AJ25" s="65"/>
+      <c r="AK25" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AL25" s="69"/>
-      <c r="AM25" s="68" t="s">
+      <c r="AL25" s="68"/>
+      <c r="AM25" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AN25" s="69"/>
-      <c r="AO25" s="68" t="s">
+      <c r="AN25" s="68"/>
+      <c r="AO25" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="AP25" s="52"/>
-      <c r="AQ25" s="69"/>
-      <c r="AR25" s="68" t="s">
+      <c r="AP25" s="67"/>
+      <c r="AQ25" s="68"/>
+      <c r="AR25" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="AS25" s="52"/>
-      <c r="AT25" s="69"/>
-      <c r="AU25" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV25" s="51"/>
-      <c r="AW25" s="51"/>
-      <c r="AX25" s="51" t="s">
+      <c r="AS25" s="67"/>
+      <c r="AT25" s="68"/>
+      <c r="AU25" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV25" s="64"/>
+      <c r="AW25" s="64"/>
+      <c r="AX25" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="AY25" s="67"/>
-      <c r="AZ25" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA25" s="67"/>
-      <c r="BB25" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="BC25" s="51"/>
-      <c r="BD25" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="BE25" s="51"/>
-      <c r="BF25" s="67"/>
-      <c r="BG25" s="68" t="s">
+      <c r="AY25" s="65"/>
+      <c r="AZ25" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA25" s="65"/>
+      <c r="BB25" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC25" s="64"/>
+      <c r="BD25" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE25" s="64"/>
+      <c r="BF25" s="65"/>
+      <c r="BG25" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="BH25" s="52"/>
-      <c r="BI25" s="69"/>
-      <c r="BJ25" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="BK25" s="69"/>
-      <c r="BL25" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM25" s="67"/>
-      <c r="BN25" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO25" s="67"/>
-      <c r="BP25" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="BQ25" s="51"/>
+      <c r="BH25" s="67"/>
+      <c r="BI25" s="68"/>
+      <c r="BJ25" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK25" s="68"/>
+      <c r="BL25" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM25" s="65"/>
+      <c r="BN25" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="BO25" s="65"/>
+      <c r="BP25" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ25" s="64"/>
     </row>
     <row r="26" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="51"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="58"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="59"/>
       <c r="F26" s="7">
         <v>6</v>
@@ -17404,93 +17401,93 @@
         <v>6</v>
       </c>
       <c r="H26" s="29"/>
-      <c r="I26" s="58"/>
+      <c r="I26" s="57"/>
       <c r="J26" s="59"/>
       <c r="K26" s="7">
         <v>7</v>
       </c>
-      <c r="L26" s="58"/>
+      <c r="L26" s="57"/>
       <c r="M26" s="59"/>
-      <c r="N26" s="58"/>
+      <c r="N26" s="57"/>
       <c r="O26" s="59"/>
-      <c r="P26" s="60">
+      <c r="P26" s="81">
         <v>10</v>
       </c>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="48"/>
+      <c r="Q26" s="83"/>
+      <c r="R26" s="83"/>
+      <c r="S26" s="58"/>
       <c r="T26" s="59"/>
-      <c r="U26" s="58"/>
+      <c r="U26" s="57"/>
       <c r="V26" s="59"/>
-      <c r="W26" s="64">
+      <c r="W26" s="87">
         <v>6</v>
       </c>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="58"/>
-      <c r="Z26" s="48"/>
+      <c r="X26" s="88"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="58"/>
       <c r="AA26" s="59"/>
-      <c r="AB26" s="58"/>
-      <c r="AC26" s="48"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="58"/>
       <c r="AD26" s="59"/>
-      <c r="AE26" s="64">
+      <c r="AE26" s="87">
         <v>7</v>
       </c>
-      <c r="AF26" s="50"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="48"/>
-      <c r="AI26" s="48"/>
+      <c r="AF26" s="89"/>
+      <c r="AG26" s="89"/>
+      <c r="AH26" s="58"/>
+      <c r="AI26" s="58"/>
       <c r="AJ26" s="59"/>
-      <c r="AK26" s="58"/>
+      <c r="AK26" s="57"/>
       <c r="AL26" s="59"/>
-      <c r="AM26" s="64">
+      <c r="AM26" s="87">
         <v>8</v>
       </c>
-      <c r="AN26" s="66"/>
-      <c r="AO26" s="58"/>
-      <c r="AP26" s="48"/>
+      <c r="AN26" s="88"/>
+      <c r="AO26" s="57"/>
+      <c r="AP26" s="58"/>
       <c r="AQ26" s="59"/>
-      <c r="AR26" s="58"/>
-      <c r="AS26" s="48"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="58"/>
       <c r="AT26" s="59"/>
-      <c r="AU26" s="60">
+      <c r="AU26" s="81">
         <v>10</v>
       </c>
-      <c r="AV26" s="49"/>
-      <c r="AW26" s="49"/>
-      <c r="AX26" s="48"/>
+      <c r="AV26" s="83"/>
+      <c r="AW26" s="83"/>
+      <c r="AX26" s="58"/>
       <c r="AY26" s="59"/>
-      <c r="AZ26" s="58"/>
+      <c r="AZ26" s="57"/>
       <c r="BA26" s="59"/>
-      <c r="BB26" s="64">
+      <c r="BB26" s="87">
         <v>6</v>
       </c>
-      <c r="BC26" s="50"/>
-      <c r="BD26" s="48"/>
-      <c r="BE26" s="48"/>
+      <c r="BC26" s="89"/>
+      <c r="BD26" s="58"/>
+      <c r="BE26" s="58"/>
       <c r="BF26" s="59"/>
-      <c r="BG26" s="58"/>
-      <c r="BH26" s="48"/>
+      <c r="BG26" s="57"/>
+      <c r="BH26" s="58"/>
       <c r="BI26" s="59"/>
-      <c r="BJ26" s="64">
+      <c r="BJ26" s="87">
         <v>7</v>
       </c>
-      <c r="BK26" s="66"/>
-      <c r="BL26" s="58"/>
+      <c r="BK26" s="88"/>
+      <c r="BL26" s="57"/>
       <c r="BM26" s="59"/>
-      <c r="BN26" s="58"/>
+      <c r="BN26" s="57"/>
       <c r="BO26" s="59"/>
-      <c r="BP26" s="60">
+      <c r="BP26" s="81">
         <v>10</v>
       </c>
-      <c r="BQ26" s="49"/>
+      <c r="BQ26" s="83"/>
     </row>
     <row r="27" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="51"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="58"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="59"/>
       <c r="F27" s="7">
         <v>4</v>
@@ -17499,93 +17496,93 @@
         <v>1</v>
       </c>
       <c r="H27" s="29"/>
-      <c r="I27" s="58"/>
+      <c r="I27" s="57"/>
       <c r="J27" s="59"/>
       <c r="K27" s="7">
         <v>4</v>
       </c>
-      <c r="L27" s="58"/>
+      <c r="L27" s="57"/>
       <c r="M27" s="59"/>
-      <c r="N27" s="58"/>
+      <c r="N27" s="57"/>
       <c r="O27" s="59"/>
-      <c r="P27" s="64">
+      <c r="P27" s="87">
         <v>1</v>
       </c>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="48"/>
+      <c r="Q27" s="89"/>
+      <c r="R27" s="89"/>
+      <c r="S27" s="58"/>
       <c r="T27" s="59"/>
-      <c r="U27" s="58"/>
+      <c r="U27" s="57"/>
       <c r="V27" s="59"/>
-      <c r="W27" s="64">
+      <c r="W27" s="87">
         <v>4</v>
       </c>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="58"/>
-      <c r="Z27" s="48"/>
+      <c r="X27" s="88"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="58"/>
       <c r="AA27" s="59"/>
-      <c r="AB27" s="58"/>
-      <c r="AC27" s="48"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="58"/>
       <c r="AD27" s="59"/>
-      <c r="AE27" s="64">
+      <c r="AE27" s="87">
         <v>1</v>
       </c>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="50"/>
-      <c r="AH27" s="48"/>
-      <c r="AI27" s="48"/>
+      <c r="AF27" s="89"/>
+      <c r="AG27" s="89"/>
+      <c r="AH27" s="58"/>
+      <c r="AI27" s="58"/>
       <c r="AJ27" s="59"/>
-      <c r="AK27" s="58"/>
+      <c r="AK27" s="57"/>
       <c r="AL27" s="59"/>
-      <c r="AM27" s="64">
+      <c r="AM27" s="87">
         <v>4</v>
       </c>
-      <c r="AN27" s="66"/>
-      <c r="AO27" s="58"/>
-      <c r="AP27" s="48"/>
+      <c r="AN27" s="88"/>
+      <c r="AO27" s="57"/>
+      <c r="AP27" s="58"/>
       <c r="AQ27" s="59"/>
-      <c r="AR27" s="58"/>
-      <c r="AS27" s="48"/>
+      <c r="AR27" s="57"/>
+      <c r="AS27" s="58"/>
       <c r="AT27" s="59"/>
-      <c r="AU27" s="64">
+      <c r="AU27" s="87">
         <v>1</v>
       </c>
-      <c r="AV27" s="50"/>
-      <c r="AW27" s="50"/>
-      <c r="AX27" s="48"/>
+      <c r="AV27" s="89"/>
+      <c r="AW27" s="89"/>
+      <c r="AX27" s="58"/>
       <c r="AY27" s="59"/>
-      <c r="AZ27" s="58"/>
+      <c r="AZ27" s="57"/>
       <c r="BA27" s="59"/>
-      <c r="BB27" s="64">
+      <c r="BB27" s="87">
         <v>4</v>
       </c>
-      <c r="BC27" s="50"/>
-      <c r="BD27" s="48"/>
-      <c r="BE27" s="48"/>
+      <c r="BC27" s="89"/>
+      <c r="BD27" s="58"/>
+      <c r="BE27" s="58"/>
       <c r="BF27" s="59"/>
-      <c r="BG27" s="58"/>
-      <c r="BH27" s="48"/>
+      <c r="BG27" s="57"/>
+      <c r="BH27" s="58"/>
       <c r="BI27" s="59"/>
-      <c r="BJ27" s="64">
+      <c r="BJ27" s="87">
         <v>3</v>
       </c>
-      <c r="BK27" s="66"/>
-      <c r="BL27" s="58"/>
+      <c r="BK27" s="88"/>
+      <c r="BL27" s="57"/>
       <c r="BM27" s="59"/>
-      <c r="BN27" s="58"/>
+      <c r="BN27" s="57"/>
       <c r="BO27" s="59"/>
-      <c r="BP27" s="64">
+      <c r="BP27" s="87">
         <v>1</v>
       </c>
-      <c r="BQ27" s="50"/>
+      <c r="BQ27" s="89"/>
     </row>
     <row r="28" spans="1:69" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="51"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="29"/>
-      <c r="D28" s="58"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="59"/>
       <c r="F28" s="6">
         <v>24</v>
@@ -17594,98 +17591,98 @@
         <v>6</v>
       </c>
       <c r="H28" s="29"/>
-      <c r="I28" s="58"/>
+      <c r="I28" s="57"/>
       <c r="J28" s="59"/>
       <c r="K28" s="6">
         <v>28</v>
       </c>
-      <c r="L28" s="58"/>
+      <c r="L28" s="57"/>
       <c r="M28" s="59"/>
-      <c r="N28" s="58"/>
+      <c r="N28" s="57"/>
       <c r="O28" s="59"/>
-      <c r="P28" s="60">
+      <c r="P28" s="81">
         <v>10</v>
       </c>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="48"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="58"/>
       <c r="T28" s="59"/>
-      <c r="U28" s="58"/>
+      <c r="U28" s="57"/>
       <c r="V28" s="59"/>
-      <c r="W28" s="60">
+      <c r="W28" s="81">
         <v>24</v>
       </c>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="58"/>
-      <c r="Z28" s="48"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="58"/>
       <c r="AA28" s="59"/>
-      <c r="AB28" s="58"/>
-      <c r="AC28" s="48"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="58"/>
       <c r="AD28" s="59"/>
-      <c r="AE28" s="64">
+      <c r="AE28" s="87">
         <v>7</v>
       </c>
-      <c r="AF28" s="50"/>
-      <c r="AG28" s="50"/>
-      <c r="AH28" s="48"/>
-      <c r="AI28" s="48"/>
+      <c r="AF28" s="89"/>
+      <c r="AG28" s="89"/>
+      <c r="AH28" s="58"/>
+      <c r="AI28" s="58"/>
       <c r="AJ28" s="59"/>
-      <c r="AK28" s="58"/>
+      <c r="AK28" s="57"/>
       <c r="AL28" s="59"/>
-      <c r="AM28" s="60">
+      <c r="AM28" s="81">
         <v>32</v>
       </c>
-      <c r="AN28" s="63"/>
-      <c r="AO28" s="58"/>
-      <c r="AP28" s="48"/>
+      <c r="AN28" s="82"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="58"/>
       <c r="AQ28" s="59"/>
-      <c r="AR28" s="58"/>
-      <c r="AS28" s="48"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="58"/>
       <c r="AT28" s="59"/>
-      <c r="AU28" s="60">
+      <c r="AU28" s="81">
         <v>10</v>
       </c>
-      <c r="AV28" s="49"/>
-      <c r="AW28" s="49"/>
-      <c r="AX28" s="48"/>
+      <c r="AV28" s="83"/>
+      <c r="AW28" s="83"/>
+      <c r="AX28" s="58"/>
       <c r="AY28" s="59"/>
-      <c r="AZ28" s="58"/>
+      <c r="AZ28" s="57"/>
       <c r="BA28" s="59"/>
-      <c r="BB28" s="60">
+      <c r="BB28" s="81">
         <v>24</v>
       </c>
-      <c r="BC28" s="49"/>
-      <c r="BD28" s="48"/>
-      <c r="BE28" s="48"/>
+      <c r="BC28" s="83"/>
+      <c r="BD28" s="58"/>
+      <c r="BE28" s="58"/>
       <c r="BF28" s="59"/>
-      <c r="BG28" s="58"/>
-      <c r="BH28" s="48"/>
+      <c r="BG28" s="57"/>
+      <c r="BH28" s="58"/>
       <c r="BI28" s="59"/>
-      <c r="BJ28" s="60">
-        <v>21</v>
-      </c>
-      <c r="BK28" s="63"/>
-      <c r="BL28" s="58"/>
+      <c r="BJ28" s="81">
+        <v>21</v>
+      </c>
+      <c r="BK28" s="82"/>
+      <c r="BL28" s="57"/>
       <c r="BM28" s="59"/>
-      <c r="BN28" s="58"/>
+      <c r="BN28" s="57"/>
       <c r="BO28" s="59"/>
-      <c r="BP28" s="60">
+      <c r="BP28" s="81">
         <v>10</v>
       </c>
-      <c r="BQ28" s="49"/>
+      <c r="BQ28" s="83"/>
     </row>
     <row r="29" spans="1:69" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="48"/>
+      <c r="A29" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="58"/>
       <c r="C29" s="31">
         <v>35</v>
       </c>
-      <c r="D29" s="60">
-        <v>16</v>
-      </c>
-      <c r="E29" s="63"/>
+      <c r="D29" s="81">
+        <v>16</v>
+      </c>
+      <c r="E29" s="82"/>
       <c r="F29" s="6">
         <v>51</v>
       </c>
@@ -17695,132 +17692,132 @@
       <c r="H29" s="31">
         <v>57</v>
       </c>
-      <c r="I29" s="60">
+      <c r="I29" s="81">
         <v>15</v>
       </c>
-      <c r="J29" s="63"/>
+      <c r="J29" s="82"/>
       <c r="K29" s="6">
         <v>72</v>
       </c>
-      <c r="L29" s="60">
+      <c r="L29" s="81">
         <v>23</v>
       </c>
-      <c r="M29" s="63"/>
-      <c r="N29" s="60">
+      <c r="M29" s="82"/>
+      <c r="N29" s="81">
         <v>23</v>
       </c>
-      <c r="O29" s="63"/>
-      <c r="P29" s="60">
+      <c r="O29" s="82"/>
+      <c r="P29" s="81">
         <v>46</v>
       </c>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="49">
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83">
         <v>46</v>
       </c>
-      <c r="T29" s="63"/>
-      <c r="U29" s="60">
-        <v>16</v>
-      </c>
-      <c r="V29" s="63"/>
-      <c r="W29" s="60">
+      <c r="T29" s="82"/>
+      <c r="U29" s="81">
+        <v>16</v>
+      </c>
+      <c r="V29" s="82"/>
+      <c r="W29" s="81">
         <v>62</v>
       </c>
-      <c r="X29" s="63"/>
-      <c r="Y29" s="60">
-        <v>20</v>
-      </c>
-      <c r="Z29" s="49"/>
-      <c r="AA29" s="63"/>
-      <c r="AB29" s="60">
-        <v>19</v>
-      </c>
-      <c r="AC29" s="49"/>
-      <c r="AD29" s="63"/>
-      <c r="AE29" s="70" t="s">
+      <c r="X29" s="82"/>
+      <c r="Y29" s="81">
+        <v>20</v>
+      </c>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="82"/>
+      <c r="AB29" s="81">
+        <v>19</v>
+      </c>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="82"/>
+      <c r="AE29" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="AF29" s="53"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="49">
+      <c r="AF29" s="86"/>
+      <c r="AG29" s="86"/>
+      <c r="AH29" s="83">
         <v>51</v>
       </c>
-      <c r="AI29" s="49"/>
-      <c r="AJ29" s="63"/>
-      <c r="AK29" s="60">
-        <v>18</v>
-      </c>
-      <c r="AL29" s="63"/>
-      <c r="AM29" s="60">
+      <c r="AI29" s="83"/>
+      <c r="AJ29" s="82"/>
+      <c r="AK29" s="81">
+        <v>18</v>
+      </c>
+      <c r="AL29" s="82"/>
+      <c r="AM29" s="81">
         <v>69</v>
       </c>
-      <c r="AN29" s="63"/>
-      <c r="AO29" s="60">
+      <c r="AN29" s="82"/>
+      <c r="AO29" s="81">
         <v>23</v>
       </c>
-      <c r="AP29" s="49"/>
-      <c r="AQ29" s="63"/>
-      <c r="AR29" s="60">
-        <v>21</v>
-      </c>
-      <c r="AS29" s="49"/>
-      <c r="AT29" s="63"/>
-      <c r="AU29" s="60">
+      <c r="AP29" s="83"/>
+      <c r="AQ29" s="82"/>
+      <c r="AR29" s="81">
+        <v>21</v>
+      </c>
+      <c r="AS29" s="83"/>
+      <c r="AT29" s="82"/>
+      <c r="AU29" s="81">
         <v>44</v>
       </c>
-      <c r="AV29" s="49"/>
-      <c r="AW29" s="49"/>
-      <c r="AX29" s="49">
+      <c r="AV29" s="83"/>
+      <c r="AW29" s="83"/>
+      <c r="AX29" s="83">
         <v>55</v>
       </c>
-      <c r="AY29" s="63"/>
-      <c r="AZ29" s="60">
-        <v>16</v>
-      </c>
-      <c r="BA29" s="63"/>
-      <c r="BB29" s="60">
+      <c r="AY29" s="82"/>
+      <c r="AZ29" s="81">
+        <v>16</v>
+      </c>
+      <c r="BA29" s="82"/>
+      <c r="BB29" s="81">
         <v>71</v>
       </c>
-      <c r="BC29" s="49"/>
-      <c r="BD29" s="49">
+      <c r="BC29" s="83"/>
+      <c r="BD29" s="83">
         <v>51</v>
       </c>
-      <c r="BE29" s="49"/>
-      <c r="BF29" s="63"/>
-      <c r="BG29" s="60">
+      <c r="BE29" s="83"/>
+      <c r="BF29" s="82"/>
+      <c r="BG29" s="81">
         <v>12</v>
       </c>
-      <c r="BH29" s="49"/>
-      <c r="BI29" s="63"/>
-      <c r="BJ29" s="60">
+      <c r="BH29" s="83"/>
+      <c r="BI29" s="82"/>
+      <c r="BJ29" s="81">
         <v>63</v>
       </c>
-      <c r="BK29" s="63"/>
-      <c r="BL29" s="60">
-        <v>22</v>
-      </c>
-      <c r="BM29" s="63"/>
-      <c r="BN29" s="60">
-        <v>21</v>
-      </c>
-      <c r="BO29" s="63"/>
-      <c r="BP29" s="60">
+      <c r="BK29" s="82"/>
+      <c r="BL29" s="81">
+        <v>22</v>
+      </c>
+      <c r="BM29" s="82"/>
+      <c r="BN29" s="81">
+        <v>21</v>
+      </c>
+      <c r="BO29" s="82"/>
+      <c r="BP29" s="81">
         <v>43</v>
       </c>
-      <c r="BQ29" s="49"/>
+      <c r="BQ29" s="83"/>
     </row>
     <row r="30" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="51"/>
+      <c r="A30" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="64"/>
       <c r="C30" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="67"/>
+      <c r="D30" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="65"/>
       <c r="F30" s="5" t="s">
         <v>20</v>
       </c>
@@ -17830,127 +17827,127 @@
       <c r="H30" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="68" t="s">
+      <c r="I30" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="69"/>
+      <c r="J30" s="68"/>
       <c r="K30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="67"/>
-      <c r="N30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="67"/>
-      <c r="P30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q30" s="51"/>
-      <c r="R30" s="51"/>
-      <c r="S30" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="T30" s="67"/>
-      <c r="U30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="V30" s="67"/>
-      <c r="W30" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="X30" s="69"/>
-      <c r="Y30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="67"/>
-      <c r="AB30" s="68" t="s">
+      <c r="L30" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="65"/>
+      <c r="N30" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="65"/>
+      <c r="P30" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="T30" s="65"/>
+      <c r="U30" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="V30" s="65"/>
+      <c r="W30" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="X30" s="68"/>
+      <c r="Y30" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="69"/>
-      <c r="AE30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF30" s="51"/>
-      <c r="AG30" s="51"/>
-      <c r="AH30" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI30" s="51"/>
-      <c r="AJ30" s="67"/>
-      <c r="AK30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL30" s="67"/>
-      <c r="AM30" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN30" s="69"/>
-      <c r="AO30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP30" s="51"/>
-      <c r="AQ30" s="67"/>
-      <c r="AR30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="AS30" s="51"/>
-      <c r="AT30" s="67"/>
-      <c r="AU30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV30" s="51"/>
-      <c r="AW30" s="51"/>
-      <c r="AX30" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY30" s="67"/>
-      <c r="AZ30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA30" s="67"/>
-      <c r="BB30" s="68" t="s">
+      <c r="AC30" s="67"/>
+      <c r="AD30" s="68"/>
+      <c r="AE30" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF30" s="64"/>
+      <c r="AG30" s="64"/>
+      <c r="AH30" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI30" s="64"/>
+      <c r="AJ30" s="65"/>
+      <c r="AK30" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL30" s="65"/>
+      <c r="AM30" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN30" s="68"/>
+      <c r="AO30" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP30" s="64"/>
+      <c r="AQ30" s="65"/>
+      <c r="AR30" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS30" s="64"/>
+      <c r="AT30" s="65"/>
+      <c r="AU30" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV30" s="64"/>
+      <c r="AW30" s="64"/>
+      <c r="AX30" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY30" s="65"/>
+      <c r="AZ30" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA30" s="65"/>
+      <c r="BB30" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="BC30" s="52"/>
-      <c r="BD30" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="BE30" s="51"/>
-      <c r="BF30" s="67"/>
-      <c r="BG30" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="BH30" s="52"/>
-      <c r="BI30" s="69"/>
-      <c r="BJ30" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="BK30" s="69"/>
-      <c r="BL30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM30" s="67"/>
-      <c r="BN30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO30" s="67"/>
-      <c r="BP30" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="BQ30" s="51"/>
+      <c r="BC30" s="67"/>
+      <c r="BD30" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE30" s="64"/>
+      <c r="BF30" s="65"/>
+      <c r="BG30" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH30" s="67"/>
+      <c r="BI30" s="68"/>
+      <c r="BJ30" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK30" s="68"/>
+      <c r="BL30" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM30" s="65"/>
+      <c r="BN30" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="BO30" s="65"/>
+      <c r="BP30" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ30" s="64"/>
     </row>
     <row r="31" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="51"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="29"/>
-      <c r="D31" s="58"/>
+      <c r="D31" s="57"/>
       <c r="E31" s="59"/>
       <c r="F31" s="7">
         <v>6</v>
@@ -17959,93 +17956,93 @@
         <v>10</v>
       </c>
       <c r="H31" s="29"/>
-      <c r="I31" s="58"/>
+      <c r="I31" s="57"/>
       <c r="J31" s="59"/>
       <c r="K31" s="7">
         <v>8</v>
       </c>
-      <c r="L31" s="58"/>
+      <c r="L31" s="57"/>
       <c r="M31" s="59"/>
-      <c r="N31" s="58"/>
+      <c r="N31" s="57"/>
       <c r="O31" s="59"/>
-      <c r="P31" s="60">
+      <c r="P31" s="81">
         <v>10</v>
       </c>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="48"/>
+      <c r="Q31" s="83"/>
+      <c r="R31" s="83"/>
+      <c r="S31" s="58"/>
       <c r="T31" s="59"/>
-      <c r="U31" s="58"/>
+      <c r="U31" s="57"/>
       <c r="V31" s="59"/>
-      <c r="W31" s="64">
+      <c r="W31" s="87">
         <v>7</v>
       </c>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="48"/>
+      <c r="X31" s="88"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="58"/>
       <c r="AA31" s="59"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="48"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="58"/>
       <c r="AD31" s="59"/>
-      <c r="AE31" s="60">
+      <c r="AE31" s="81">
         <v>10</v>
       </c>
-      <c r="AF31" s="49"/>
-      <c r="AG31" s="49"/>
-      <c r="AH31" s="48"/>
-      <c r="AI31" s="48"/>
+      <c r="AF31" s="83"/>
+      <c r="AG31" s="83"/>
+      <c r="AH31" s="58"/>
+      <c r="AI31" s="58"/>
       <c r="AJ31" s="59"/>
-      <c r="AK31" s="58"/>
+      <c r="AK31" s="57"/>
       <c r="AL31" s="59"/>
-      <c r="AM31" s="64">
+      <c r="AM31" s="87">
         <v>7</v>
       </c>
-      <c r="AN31" s="66"/>
-      <c r="AO31" s="58"/>
-      <c r="AP31" s="48"/>
+      <c r="AN31" s="88"/>
+      <c r="AO31" s="57"/>
+      <c r="AP31" s="58"/>
       <c r="AQ31" s="59"/>
-      <c r="AR31" s="58"/>
-      <c r="AS31" s="48"/>
+      <c r="AR31" s="57"/>
+      <c r="AS31" s="58"/>
       <c r="AT31" s="59"/>
-      <c r="AU31" s="60">
+      <c r="AU31" s="81">
         <v>10</v>
       </c>
-      <c r="AV31" s="49"/>
-      <c r="AW31" s="49"/>
-      <c r="AX31" s="48"/>
+      <c r="AV31" s="83"/>
+      <c r="AW31" s="83"/>
+      <c r="AX31" s="58"/>
       <c r="AY31" s="59"/>
-      <c r="AZ31" s="58"/>
+      <c r="AZ31" s="57"/>
       <c r="BA31" s="59"/>
-      <c r="BB31" s="64">
+      <c r="BB31" s="87">
         <v>8</v>
       </c>
-      <c r="BC31" s="50"/>
-      <c r="BD31" s="48"/>
-      <c r="BE31" s="48"/>
+      <c r="BC31" s="89"/>
+      <c r="BD31" s="58"/>
+      <c r="BE31" s="58"/>
       <c r="BF31" s="59"/>
-      <c r="BG31" s="58"/>
-      <c r="BH31" s="48"/>
+      <c r="BG31" s="57"/>
+      <c r="BH31" s="58"/>
       <c r="BI31" s="59"/>
-      <c r="BJ31" s="64">
+      <c r="BJ31" s="87">
         <v>7</v>
       </c>
-      <c r="BK31" s="66"/>
-      <c r="BL31" s="58"/>
+      <c r="BK31" s="88"/>
+      <c r="BL31" s="57"/>
       <c r="BM31" s="59"/>
-      <c r="BN31" s="58"/>
+      <c r="BN31" s="57"/>
       <c r="BO31" s="59"/>
-      <c r="BP31" s="60">
+      <c r="BP31" s="81">
         <v>10</v>
       </c>
-      <c r="BQ31" s="49"/>
+      <c r="BQ31" s="83"/>
     </row>
     <row r="32" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="65" t="s">
+      <c r="A32" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="51"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="29"/>
-      <c r="D32" s="58"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="59"/>
       <c r="F32" s="7">
         <v>4</v>
@@ -18054,93 +18051,93 @@
         <v>1</v>
       </c>
       <c r="H32" s="29"/>
-      <c r="I32" s="58"/>
+      <c r="I32" s="57"/>
       <c r="J32" s="59"/>
       <c r="K32" s="7">
         <v>4</v>
       </c>
-      <c r="L32" s="58"/>
+      <c r="L32" s="57"/>
       <c r="M32" s="59"/>
-      <c r="N32" s="58"/>
+      <c r="N32" s="57"/>
       <c r="O32" s="59"/>
-      <c r="P32" s="64">
+      <c r="P32" s="87">
         <v>1</v>
       </c>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="48"/>
+      <c r="Q32" s="89"/>
+      <c r="R32" s="89"/>
+      <c r="S32" s="58"/>
       <c r="T32" s="59"/>
-      <c r="U32" s="58"/>
+      <c r="U32" s="57"/>
       <c r="V32" s="59"/>
-      <c r="W32" s="64">
+      <c r="W32" s="87">
         <v>4</v>
       </c>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="58"/>
-      <c r="Z32" s="48"/>
+      <c r="X32" s="88"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="58"/>
       <c r="AA32" s="59"/>
-      <c r="AB32" s="58"/>
-      <c r="AC32" s="48"/>
+      <c r="AB32" s="57"/>
+      <c r="AC32" s="58"/>
       <c r="AD32" s="59"/>
-      <c r="AE32" s="64">
+      <c r="AE32" s="87">
         <v>1</v>
       </c>
-      <c r="AF32" s="50"/>
-      <c r="AG32" s="50"/>
-      <c r="AH32" s="48"/>
-      <c r="AI32" s="48"/>
+      <c r="AF32" s="89"/>
+      <c r="AG32" s="89"/>
+      <c r="AH32" s="58"/>
+      <c r="AI32" s="58"/>
       <c r="AJ32" s="59"/>
-      <c r="AK32" s="58"/>
+      <c r="AK32" s="57"/>
       <c r="AL32" s="59"/>
-      <c r="AM32" s="64">
+      <c r="AM32" s="87">
         <v>4</v>
       </c>
-      <c r="AN32" s="66"/>
-      <c r="AO32" s="58"/>
-      <c r="AP32" s="48"/>
+      <c r="AN32" s="88"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="58"/>
       <c r="AQ32" s="59"/>
-      <c r="AR32" s="58"/>
-      <c r="AS32" s="48"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="58"/>
       <c r="AT32" s="59"/>
-      <c r="AU32" s="64">
+      <c r="AU32" s="87">
         <v>1</v>
       </c>
-      <c r="AV32" s="50"/>
-      <c r="AW32" s="50"/>
-      <c r="AX32" s="48"/>
+      <c r="AV32" s="89"/>
+      <c r="AW32" s="89"/>
+      <c r="AX32" s="58"/>
       <c r="AY32" s="59"/>
-      <c r="AZ32" s="58"/>
+      <c r="AZ32" s="57"/>
       <c r="BA32" s="59"/>
-      <c r="BB32" s="64">
+      <c r="BB32" s="87">
         <v>4</v>
       </c>
-      <c r="BC32" s="50"/>
-      <c r="BD32" s="48"/>
-      <c r="BE32" s="48"/>
+      <c r="BC32" s="89"/>
+      <c r="BD32" s="58"/>
+      <c r="BE32" s="58"/>
       <c r="BF32" s="59"/>
-      <c r="BG32" s="58"/>
-      <c r="BH32" s="48"/>
+      <c r="BG32" s="57"/>
+      <c r="BH32" s="58"/>
       <c r="BI32" s="59"/>
-      <c r="BJ32" s="64">
+      <c r="BJ32" s="87">
         <v>3</v>
       </c>
-      <c r="BK32" s="66"/>
-      <c r="BL32" s="58"/>
+      <c r="BK32" s="88"/>
+      <c r="BL32" s="57"/>
       <c r="BM32" s="59"/>
-      <c r="BN32" s="58"/>
+      <c r="BN32" s="57"/>
       <c r="BO32" s="59"/>
-      <c r="BP32" s="64">
+      <c r="BP32" s="87">
         <v>1</v>
       </c>
-      <c r="BQ32" s="50"/>
+      <c r="BQ32" s="89"/>
     </row>
     <row r="33" spans="1:69" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="65" t="s">
+      <c r="A33" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="51"/>
+      <c r="B33" s="64"/>
       <c r="C33" s="29"/>
-      <c r="D33" s="58"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="59"/>
       <c r="F33" s="6">
         <v>24</v>
@@ -18149,98 +18146,98 @@
         <v>10</v>
       </c>
       <c r="H33" s="29"/>
-      <c r="I33" s="58"/>
+      <c r="I33" s="57"/>
       <c r="J33" s="59"/>
       <c r="K33" s="6">
         <v>32</v>
       </c>
-      <c r="L33" s="58"/>
+      <c r="L33" s="57"/>
       <c r="M33" s="59"/>
-      <c r="N33" s="58"/>
+      <c r="N33" s="57"/>
       <c r="O33" s="59"/>
-      <c r="P33" s="60">
+      <c r="P33" s="81">
         <v>10</v>
       </c>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="48"/>
+      <c r="Q33" s="83"/>
+      <c r="R33" s="83"/>
+      <c r="S33" s="58"/>
       <c r="T33" s="59"/>
-      <c r="U33" s="58"/>
+      <c r="U33" s="57"/>
       <c r="V33" s="59"/>
-      <c r="W33" s="60">
+      <c r="W33" s="81">
         <v>28</v>
       </c>
-      <c r="X33" s="63"/>
-      <c r="Y33" s="58"/>
-      <c r="Z33" s="48"/>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="58"/>
       <c r="AA33" s="59"/>
-      <c r="AB33" s="58"/>
-      <c r="AC33" s="48"/>
+      <c r="AB33" s="57"/>
+      <c r="AC33" s="58"/>
       <c r="AD33" s="59"/>
-      <c r="AE33" s="60">
+      <c r="AE33" s="81">
         <v>10</v>
       </c>
-      <c r="AF33" s="49"/>
-      <c r="AG33" s="49"/>
-      <c r="AH33" s="48"/>
-      <c r="AI33" s="48"/>
+      <c r="AF33" s="83"/>
+      <c r="AG33" s="83"/>
+      <c r="AH33" s="58"/>
+      <c r="AI33" s="58"/>
       <c r="AJ33" s="59"/>
-      <c r="AK33" s="58"/>
+      <c r="AK33" s="57"/>
       <c r="AL33" s="59"/>
-      <c r="AM33" s="60">
+      <c r="AM33" s="81">
         <v>28</v>
       </c>
-      <c r="AN33" s="63"/>
-      <c r="AO33" s="58"/>
-      <c r="AP33" s="48"/>
+      <c r="AN33" s="82"/>
+      <c r="AO33" s="57"/>
+      <c r="AP33" s="58"/>
       <c r="AQ33" s="59"/>
-      <c r="AR33" s="58"/>
-      <c r="AS33" s="48"/>
+      <c r="AR33" s="57"/>
+      <c r="AS33" s="58"/>
       <c r="AT33" s="59"/>
-      <c r="AU33" s="60">
+      <c r="AU33" s="81">
         <v>10</v>
       </c>
-      <c r="AV33" s="49"/>
-      <c r="AW33" s="49"/>
-      <c r="AX33" s="48"/>
+      <c r="AV33" s="83"/>
+      <c r="AW33" s="83"/>
+      <c r="AX33" s="58"/>
       <c r="AY33" s="59"/>
-      <c r="AZ33" s="58"/>
+      <c r="AZ33" s="57"/>
       <c r="BA33" s="59"/>
-      <c r="BB33" s="60">
+      <c r="BB33" s="81">
         <v>32</v>
       </c>
-      <c r="BC33" s="49"/>
-      <c r="BD33" s="48"/>
-      <c r="BE33" s="48"/>
+      <c r="BC33" s="83"/>
+      <c r="BD33" s="58"/>
+      <c r="BE33" s="58"/>
       <c r="BF33" s="59"/>
-      <c r="BG33" s="58"/>
-      <c r="BH33" s="48"/>
+      <c r="BG33" s="57"/>
+      <c r="BH33" s="58"/>
       <c r="BI33" s="59"/>
-      <c r="BJ33" s="60">
-        <v>21</v>
-      </c>
-      <c r="BK33" s="63"/>
-      <c r="BL33" s="58"/>
+      <c r="BJ33" s="81">
+        <v>21</v>
+      </c>
+      <c r="BK33" s="82"/>
+      <c r="BL33" s="57"/>
       <c r="BM33" s="59"/>
-      <c r="BN33" s="58"/>
+      <c r="BN33" s="57"/>
       <c r="BO33" s="59"/>
-      <c r="BP33" s="60">
+      <c r="BP33" s="81">
         <v>10</v>
       </c>
-      <c r="BQ33" s="49"/>
+      <c r="BQ33" s="83"/>
     </row>
     <row r="34" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="48"/>
+      <c r="A34" s="57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="58"/>
       <c r="C34" s="31">
         <v>54</v>
       </c>
-      <c r="D34" s="60">
+      <c r="D34" s="81">
         <v>15</v>
       </c>
-      <c r="E34" s="63"/>
+      <c r="E34" s="82"/>
       <c r="F34" s="6">
         <v>69</v>
       </c>
@@ -18250,132 +18247,132 @@
       <c r="H34" s="31">
         <v>67</v>
       </c>
-      <c r="I34" s="60">
+      <c r="I34" s="81">
         <v>15</v>
       </c>
-      <c r="J34" s="63"/>
+      <c r="J34" s="82"/>
       <c r="K34" s="6">
         <v>82</v>
       </c>
-      <c r="L34" s="60">
-        <v>22</v>
-      </c>
-      <c r="M34" s="63"/>
-      <c r="N34" s="60">
-        <v>21</v>
-      </c>
-      <c r="O34" s="63"/>
-      <c r="P34" s="60">
+      <c r="L34" s="81">
+        <v>22</v>
+      </c>
+      <c r="M34" s="82"/>
+      <c r="N34" s="81">
+        <v>21</v>
+      </c>
+      <c r="O34" s="82"/>
+      <c r="P34" s="81">
         <v>43</v>
       </c>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="49">
+      <c r="Q34" s="83"/>
+      <c r="R34" s="83"/>
+      <c r="S34" s="83">
         <v>37</v>
       </c>
-      <c r="T34" s="63"/>
-      <c r="U34" s="60">
+      <c r="T34" s="82"/>
+      <c r="U34" s="81">
         <v>13</v>
       </c>
-      <c r="V34" s="63"/>
-      <c r="W34" s="60">
+      <c r="V34" s="82"/>
+      <c r="W34" s="81">
         <v>50</v>
       </c>
-      <c r="X34" s="63"/>
-      <c r="Y34" s="60">
-        <v>17</v>
-      </c>
-      <c r="Z34" s="49"/>
-      <c r="AA34" s="63"/>
-      <c r="AB34" s="60">
-        <v>17</v>
-      </c>
-      <c r="AC34" s="49"/>
-      <c r="AD34" s="63"/>
-      <c r="AE34" s="60">
+      <c r="X34" s="82"/>
+      <c r="Y34" s="81">
+        <v>17</v>
+      </c>
+      <c r="Z34" s="83"/>
+      <c r="AA34" s="82"/>
+      <c r="AB34" s="81">
+        <v>17</v>
+      </c>
+      <c r="AC34" s="83"/>
+      <c r="AD34" s="82"/>
+      <c r="AE34" s="81">
         <v>34</v>
       </c>
-      <c r="AF34" s="49"/>
-      <c r="AG34" s="49"/>
-      <c r="AH34" s="49">
+      <c r="AF34" s="83"/>
+      <c r="AG34" s="83"/>
+      <c r="AH34" s="83">
         <v>51</v>
       </c>
-      <c r="AI34" s="49"/>
-      <c r="AJ34" s="63"/>
-      <c r="AK34" s="60">
+      <c r="AI34" s="83"/>
+      <c r="AJ34" s="82"/>
+      <c r="AK34" s="81">
         <v>14</v>
       </c>
-      <c r="AL34" s="63"/>
-      <c r="AM34" s="60">
+      <c r="AL34" s="82"/>
+      <c r="AM34" s="81">
         <v>65</v>
       </c>
-      <c r="AN34" s="63"/>
-      <c r="AO34" s="60">
-        <v>17</v>
-      </c>
-      <c r="AP34" s="49"/>
-      <c r="AQ34" s="63"/>
-      <c r="AR34" s="60">
-        <v>18</v>
-      </c>
-      <c r="AS34" s="49"/>
-      <c r="AT34" s="63"/>
-      <c r="AU34" s="60">
+      <c r="AN34" s="82"/>
+      <c r="AO34" s="81">
+        <v>17</v>
+      </c>
+      <c r="AP34" s="83"/>
+      <c r="AQ34" s="82"/>
+      <c r="AR34" s="81">
+        <v>18</v>
+      </c>
+      <c r="AS34" s="83"/>
+      <c r="AT34" s="82"/>
+      <c r="AU34" s="81">
         <v>35</v>
       </c>
-      <c r="AV34" s="49"/>
-      <c r="AW34" s="49"/>
-      <c r="AX34" s="49">
+      <c r="AV34" s="83"/>
+      <c r="AW34" s="83"/>
+      <c r="AX34" s="83">
         <v>46</v>
       </c>
-      <c r="AY34" s="63"/>
-      <c r="AZ34" s="60">
-        <v>18</v>
-      </c>
-      <c r="BA34" s="63"/>
-      <c r="BB34" s="60">
+      <c r="AY34" s="82"/>
+      <c r="AZ34" s="81">
+        <v>18</v>
+      </c>
+      <c r="BA34" s="82"/>
+      <c r="BB34" s="81">
         <v>64</v>
       </c>
-      <c r="BC34" s="49"/>
-      <c r="BD34" s="49">
+      <c r="BC34" s="83"/>
+      <c r="BD34" s="83">
         <v>47</v>
       </c>
-      <c r="BE34" s="49"/>
-      <c r="BF34" s="63"/>
-      <c r="BG34" s="60">
+      <c r="BE34" s="83"/>
+      <c r="BF34" s="82"/>
+      <c r="BG34" s="81">
         <v>12</v>
       </c>
-      <c r="BH34" s="49"/>
-      <c r="BI34" s="63"/>
-      <c r="BJ34" s="60">
+      <c r="BH34" s="83"/>
+      <c r="BI34" s="82"/>
+      <c r="BJ34" s="81">
         <v>59</v>
       </c>
-      <c r="BK34" s="63"/>
-      <c r="BL34" s="60">
-        <v>21</v>
-      </c>
-      <c r="BM34" s="63"/>
-      <c r="BN34" s="60">
-        <v>20</v>
-      </c>
-      <c r="BO34" s="63"/>
-      <c r="BP34" s="60">
+      <c r="BK34" s="82"/>
+      <c r="BL34" s="81">
+        <v>21</v>
+      </c>
+      <c r="BM34" s="82"/>
+      <c r="BN34" s="81">
+        <v>20</v>
+      </c>
+      <c r="BO34" s="82"/>
+      <c r="BP34" s="81">
         <v>41</v>
       </c>
-      <c r="BQ34" s="49"/>
+      <c r="BQ34" s="83"/>
     </row>
     <row r="35" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="51"/>
+      <c r="A35" s="63" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="64"/>
       <c r="C35" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="68" t="s">
+      <c r="D35" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="69"/>
+      <c r="E35" s="68"/>
       <c r="F35" s="5" t="s">
         <v>21</v>
       </c>
@@ -18385,127 +18382,127 @@
       <c r="H35" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="68" t="s">
+      <c r="I35" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="69"/>
+      <c r="J35" s="68"/>
       <c r="K35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="M35" s="67"/>
-      <c r="N35" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="O35" s="67"/>
-      <c r="P35" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q35" s="51"/>
-      <c r="R35" s="51"/>
-      <c r="S35" s="52" t="s">
+      <c r="L35" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" s="65"/>
+      <c r="N35" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" s="65"/>
+      <c r="P35" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="T35" s="69"/>
-      <c r="U35" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="V35" s="69"/>
-      <c r="W35" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="X35" s="69"/>
-      <c r="Y35" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z35" s="52"/>
-      <c r="AA35" s="69"/>
-      <c r="AB35" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="69"/>
-      <c r="AE35" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF35" s="51"/>
-      <c r="AG35" s="51"/>
-      <c r="AH35" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI35" s="51"/>
-      <c r="AJ35" s="67"/>
-      <c r="AK35" s="68" t="s">
+      <c r="T35" s="68"/>
+      <c r="U35" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="V35" s="68"/>
+      <c r="W35" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="X35" s="68"/>
+      <c r="Y35" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z35" s="67"/>
+      <c r="AA35" s="68"/>
+      <c r="AB35" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC35" s="67"/>
+      <c r="AD35" s="68"/>
+      <c r="AE35" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF35" s="64"/>
+      <c r="AG35" s="64"/>
+      <c r="AH35" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI35" s="64"/>
+      <c r="AJ35" s="65"/>
+      <c r="AK35" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AL35" s="69"/>
-      <c r="AM35" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN35" s="69"/>
-      <c r="AO35" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP35" s="52"/>
-      <c r="AQ35" s="69"/>
-      <c r="AR35" s="68" t="s">
+      <c r="AL35" s="68"/>
+      <c r="AM35" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN35" s="68"/>
+      <c r="AO35" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP35" s="67"/>
+      <c r="AQ35" s="68"/>
+      <c r="AR35" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="AS35" s="52"/>
-      <c r="AT35" s="69"/>
-      <c r="AU35" s="65" t="s">
+      <c r="AS35" s="67"/>
+      <c r="AT35" s="68"/>
+      <c r="AU35" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="AV35" s="51"/>
-      <c r="AW35" s="51"/>
-      <c r="AX35" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="AY35" s="67"/>
-      <c r="AZ35" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA35" s="67"/>
-      <c r="BB35" s="65" t="s">
-        <v>21</v>
-      </c>
-      <c r="BC35" s="51"/>
-      <c r="BD35" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="BE35" s="51"/>
-      <c r="BF35" s="67"/>
-      <c r="BG35" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="BH35" s="52"/>
-      <c r="BI35" s="69"/>
-      <c r="BJ35" s="68" t="s">
-        <v>20</v>
-      </c>
-      <c r="BK35" s="69"/>
-      <c r="BL35" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM35" s="67"/>
-      <c r="BN35" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO35" s="67"/>
-      <c r="BP35" s="65" t="s">
-        <v>22</v>
-      </c>
-      <c r="BQ35" s="51"/>
+      <c r="AV35" s="64"/>
+      <c r="AW35" s="64"/>
+      <c r="AX35" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY35" s="65"/>
+      <c r="AZ35" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA35" s="65"/>
+      <c r="BB35" s="63" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC35" s="64"/>
+      <c r="BD35" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE35" s="64"/>
+      <c r="BF35" s="65"/>
+      <c r="BG35" s="66" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH35" s="67"/>
+      <c r="BI35" s="68"/>
+      <c r="BJ35" s="66" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK35" s="68"/>
+      <c r="BL35" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM35" s="65"/>
+      <c r="BN35" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="BO35" s="65"/>
+      <c r="BP35" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ35" s="64"/>
     </row>
     <row r="36" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="51"/>
+      <c r="B36" s="64"/>
       <c r="C36" s="29"/>
-      <c r="D36" s="58"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="59"/>
       <c r="F36" s="7">
         <v>7</v>
@@ -18514,93 +18511,93 @@
         <v>6</v>
       </c>
       <c r="H36" s="29"/>
-      <c r="I36" s="58"/>
+      <c r="I36" s="57"/>
       <c r="J36" s="59"/>
       <c r="K36" s="6">
         <v>10</v>
       </c>
-      <c r="L36" s="58"/>
+      <c r="L36" s="57"/>
       <c r="M36" s="59"/>
-      <c r="N36" s="58"/>
+      <c r="N36" s="57"/>
       <c r="O36" s="59"/>
-      <c r="P36" s="60">
+      <c r="P36" s="81">
         <v>10</v>
       </c>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="48"/>
+      <c r="Q36" s="83"/>
+      <c r="R36" s="83"/>
+      <c r="S36" s="58"/>
       <c r="T36" s="59"/>
-      <c r="U36" s="58"/>
+      <c r="U36" s="57"/>
       <c r="V36" s="59"/>
-      <c r="W36" s="64">
+      <c r="W36" s="87">
         <v>6</v>
       </c>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="58"/>
-      <c r="Z36" s="48"/>
+      <c r="X36" s="88"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="58"/>
       <c r="AA36" s="59"/>
-      <c r="AB36" s="58"/>
-      <c r="AC36" s="48"/>
+      <c r="AB36" s="57"/>
+      <c r="AC36" s="58"/>
       <c r="AD36" s="59"/>
-      <c r="AE36" s="64">
+      <c r="AE36" s="87">
         <v>7</v>
       </c>
-      <c r="AF36" s="50"/>
-      <c r="AG36" s="50"/>
-      <c r="AH36" s="48"/>
-      <c r="AI36" s="48"/>
+      <c r="AF36" s="89"/>
+      <c r="AG36" s="89"/>
+      <c r="AH36" s="58"/>
+      <c r="AI36" s="58"/>
       <c r="AJ36" s="59"/>
-      <c r="AK36" s="58"/>
+      <c r="AK36" s="57"/>
       <c r="AL36" s="59"/>
-      <c r="AM36" s="64">
+      <c r="AM36" s="87">
         <v>7</v>
       </c>
-      <c r="AN36" s="66"/>
-      <c r="AO36" s="58"/>
-      <c r="AP36" s="48"/>
+      <c r="AN36" s="88"/>
+      <c r="AO36" s="57"/>
+      <c r="AP36" s="58"/>
       <c r="AQ36" s="59"/>
-      <c r="AR36" s="58"/>
-      <c r="AS36" s="48"/>
+      <c r="AR36" s="57"/>
+      <c r="AS36" s="58"/>
       <c r="AT36" s="59"/>
-      <c r="AU36" s="64">
+      <c r="AU36" s="87">
         <v>8</v>
       </c>
-      <c r="AV36" s="50"/>
-      <c r="AW36" s="50"/>
-      <c r="AX36" s="48"/>
+      <c r="AV36" s="89"/>
+      <c r="AW36" s="89"/>
+      <c r="AX36" s="58"/>
       <c r="AY36" s="59"/>
-      <c r="AZ36" s="58"/>
+      <c r="AZ36" s="57"/>
       <c r="BA36" s="59"/>
-      <c r="BB36" s="64">
+      <c r="BB36" s="87">
         <v>7</v>
       </c>
-      <c r="BC36" s="50"/>
-      <c r="BD36" s="48"/>
-      <c r="BE36" s="48"/>
+      <c r="BC36" s="89"/>
+      <c r="BD36" s="58"/>
+      <c r="BE36" s="58"/>
       <c r="BF36" s="59"/>
-      <c r="BG36" s="58"/>
-      <c r="BH36" s="48"/>
+      <c r="BG36" s="57"/>
+      <c r="BH36" s="58"/>
       <c r="BI36" s="59"/>
-      <c r="BJ36" s="64">
+      <c r="BJ36" s="87">
         <v>6</v>
       </c>
-      <c r="BK36" s="66"/>
-      <c r="BL36" s="58"/>
+      <c r="BK36" s="88"/>
+      <c r="BL36" s="57"/>
       <c r="BM36" s="59"/>
-      <c r="BN36" s="58"/>
+      <c r="BN36" s="57"/>
       <c r="BO36" s="59"/>
-      <c r="BP36" s="60">
+      <c r="BP36" s="81">
         <v>10</v>
       </c>
-      <c r="BQ36" s="49"/>
+      <c r="BQ36" s="83"/>
     </row>
     <row r="37" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="51"/>
+      <c r="B37" s="64"/>
       <c r="C37" s="29"/>
-      <c r="D37" s="58"/>
+      <c r="D37" s="57"/>
       <c r="E37" s="59"/>
       <c r="F37" s="7">
         <v>4</v>
@@ -18609,93 +18606,93 @@
         <v>1</v>
       </c>
       <c r="H37" s="29"/>
-      <c r="I37" s="58"/>
+      <c r="I37" s="57"/>
       <c r="J37" s="59"/>
       <c r="K37" s="7">
         <v>4</v>
       </c>
-      <c r="L37" s="58"/>
+      <c r="L37" s="57"/>
       <c r="M37" s="59"/>
-      <c r="N37" s="58"/>
+      <c r="N37" s="57"/>
       <c r="O37" s="59"/>
-      <c r="P37" s="64">
+      <c r="P37" s="87">
         <v>1</v>
       </c>
-      <c r="Q37" s="50"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="48"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="89"/>
+      <c r="S37" s="58"/>
       <c r="T37" s="59"/>
-      <c r="U37" s="58"/>
+      <c r="U37" s="57"/>
       <c r="V37" s="59"/>
-      <c r="W37" s="64">
+      <c r="W37" s="87">
         <v>4</v>
       </c>
-      <c r="X37" s="66"/>
-      <c r="Y37" s="58"/>
-      <c r="Z37" s="48"/>
+      <c r="X37" s="88"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="58"/>
       <c r="AA37" s="59"/>
-      <c r="AB37" s="58"/>
-      <c r="AC37" s="48"/>
+      <c r="AB37" s="57"/>
+      <c r="AC37" s="58"/>
       <c r="AD37" s="59"/>
-      <c r="AE37" s="64">
+      <c r="AE37" s="87">
         <v>1</v>
       </c>
-      <c r="AF37" s="50"/>
-      <c r="AG37" s="50"/>
-      <c r="AH37" s="48"/>
-      <c r="AI37" s="48"/>
+      <c r="AF37" s="89"/>
+      <c r="AG37" s="89"/>
+      <c r="AH37" s="58"/>
+      <c r="AI37" s="58"/>
       <c r="AJ37" s="59"/>
-      <c r="AK37" s="58"/>
+      <c r="AK37" s="57"/>
       <c r="AL37" s="59"/>
-      <c r="AM37" s="64">
+      <c r="AM37" s="87">
         <v>4</v>
       </c>
-      <c r="AN37" s="66"/>
-      <c r="AO37" s="58"/>
-      <c r="AP37" s="48"/>
+      <c r="AN37" s="88"/>
+      <c r="AO37" s="57"/>
+      <c r="AP37" s="58"/>
       <c r="AQ37" s="59"/>
-      <c r="AR37" s="58"/>
-      <c r="AS37" s="48"/>
+      <c r="AR37" s="57"/>
+      <c r="AS37" s="58"/>
       <c r="AT37" s="59"/>
-      <c r="AU37" s="64">
+      <c r="AU37" s="87">
         <v>1</v>
       </c>
-      <c r="AV37" s="50"/>
-      <c r="AW37" s="50"/>
-      <c r="AX37" s="48"/>
+      <c r="AV37" s="89"/>
+      <c r="AW37" s="89"/>
+      <c r="AX37" s="58"/>
       <c r="AY37" s="59"/>
-      <c r="AZ37" s="58"/>
+      <c r="AZ37" s="57"/>
       <c r="BA37" s="59"/>
-      <c r="BB37" s="64">
+      <c r="BB37" s="87">
         <v>4</v>
       </c>
-      <c r="BC37" s="50"/>
-      <c r="BD37" s="48"/>
-      <c r="BE37" s="48"/>
+      <c r="BC37" s="89"/>
+      <c r="BD37" s="58"/>
+      <c r="BE37" s="58"/>
       <c r="BF37" s="59"/>
-      <c r="BG37" s="58"/>
-      <c r="BH37" s="48"/>
+      <c r="BG37" s="57"/>
+      <c r="BH37" s="58"/>
       <c r="BI37" s="59"/>
-      <c r="BJ37" s="64">
+      <c r="BJ37" s="87">
         <v>3</v>
       </c>
-      <c r="BK37" s="66"/>
-      <c r="BL37" s="58"/>
+      <c r="BK37" s="88"/>
+      <c r="BL37" s="57"/>
       <c r="BM37" s="59"/>
-      <c r="BN37" s="58"/>
+      <c r="BN37" s="57"/>
       <c r="BO37" s="59"/>
-      <c r="BP37" s="64">
+      <c r="BP37" s="87">
         <v>1</v>
       </c>
-      <c r="BQ37" s="50"/>
+      <c r="BQ37" s="89"/>
     </row>
     <row r="38" spans="1:69" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="51"/>
+      <c r="B38" s="64"/>
       <c r="C38" s="29"/>
-      <c r="D38" s="58"/>
+      <c r="D38" s="57"/>
       <c r="E38" s="59"/>
       <c r="F38" s="6">
         <v>28</v>
@@ -18704,158 +18701,158 @@
         <v>6</v>
       </c>
       <c r="H38" s="29"/>
-      <c r="I38" s="58"/>
+      <c r="I38" s="57"/>
       <c r="J38" s="59"/>
       <c r="K38" s="6">
         <v>40</v>
       </c>
-      <c r="L38" s="58"/>
+      <c r="L38" s="57"/>
       <c r="M38" s="59"/>
-      <c r="N38" s="58"/>
+      <c r="N38" s="57"/>
       <c r="O38" s="59"/>
-      <c r="P38" s="60">
+      <c r="P38" s="81">
         <v>10</v>
       </c>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="48"/>
+      <c r="Q38" s="83"/>
+      <c r="R38" s="83"/>
+      <c r="S38" s="58"/>
       <c r="T38" s="59"/>
-      <c r="U38" s="58"/>
+      <c r="U38" s="57"/>
       <c r="V38" s="59"/>
-      <c r="W38" s="60">
+      <c r="W38" s="81">
         <v>24</v>
       </c>
-      <c r="X38" s="63"/>
-      <c r="Y38" s="58"/>
-      <c r="Z38" s="48"/>
+      <c r="X38" s="82"/>
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="58"/>
       <c r="AA38" s="59"/>
-      <c r="AB38" s="58"/>
-      <c r="AC38" s="48"/>
+      <c r="AB38" s="57"/>
+      <c r="AC38" s="58"/>
       <c r="AD38" s="59"/>
-      <c r="AE38" s="64">
+      <c r="AE38" s="87">
         <v>7</v>
       </c>
-      <c r="AF38" s="50"/>
-      <c r="AG38" s="50"/>
-      <c r="AH38" s="48"/>
-      <c r="AI38" s="48"/>
+      <c r="AF38" s="89"/>
+      <c r="AG38" s="89"/>
+      <c r="AH38" s="58"/>
+      <c r="AI38" s="58"/>
       <c r="AJ38" s="59"/>
-      <c r="AK38" s="58"/>
+      <c r="AK38" s="57"/>
       <c r="AL38" s="59"/>
-      <c r="AM38" s="60">
+      <c r="AM38" s="81">
         <v>28</v>
       </c>
-      <c r="AN38" s="63"/>
-      <c r="AO38" s="58"/>
-      <c r="AP38" s="48"/>
+      <c r="AN38" s="82"/>
+      <c r="AO38" s="57"/>
+      <c r="AP38" s="58"/>
       <c r="AQ38" s="59"/>
-      <c r="AR38" s="58"/>
-      <c r="AS38" s="48"/>
+      <c r="AR38" s="57"/>
+      <c r="AS38" s="58"/>
       <c r="AT38" s="59"/>
-      <c r="AU38" s="64">
+      <c r="AU38" s="87">
         <v>8</v>
       </c>
-      <c r="AV38" s="50"/>
-      <c r="AW38" s="50"/>
-      <c r="AX38" s="48"/>
+      <c r="AV38" s="89"/>
+      <c r="AW38" s="89"/>
+      <c r="AX38" s="58"/>
       <c r="AY38" s="59"/>
-      <c r="AZ38" s="58"/>
+      <c r="AZ38" s="57"/>
       <c r="BA38" s="59"/>
-      <c r="BB38" s="60">
+      <c r="BB38" s="81">
         <v>28</v>
       </c>
-      <c r="BC38" s="49"/>
-      <c r="BD38" s="48"/>
-      <c r="BE38" s="48"/>
+      <c r="BC38" s="83"/>
+      <c r="BD38" s="58"/>
+      <c r="BE38" s="58"/>
       <c r="BF38" s="59"/>
-      <c r="BG38" s="58"/>
-      <c r="BH38" s="48"/>
+      <c r="BG38" s="57"/>
+      <c r="BH38" s="58"/>
       <c r="BI38" s="59"/>
-      <c r="BJ38" s="60">
-        <v>18</v>
-      </c>
-      <c r="BK38" s="63"/>
-      <c r="BL38" s="58"/>
+      <c r="BJ38" s="81">
+        <v>18</v>
+      </c>
+      <c r="BK38" s="82"/>
+      <c r="BL38" s="57"/>
       <c r="BM38" s="59"/>
-      <c r="BN38" s="58"/>
+      <c r="BN38" s="57"/>
       <c r="BO38" s="59"/>
-      <c r="BP38" s="60">
+      <c r="BP38" s="81">
         <v>10</v>
       </c>
-      <c r="BQ38" s="49"/>
+      <c r="BQ38" s="83"/>
     </row>
     <row r="39" spans="1:69" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="61" t="s">
+      <c r="A39" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="62"/>
+      <c r="B39" s="52"/>
       <c r="C39" s="22"/>
       <c r="D39" s="54"/>
-      <c r="E39" s="55"/>
+      <c r="E39" s="56"/>
       <c r="F39" s="8"/>
       <c r="G39" s="21"/>
       <c r="H39" s="22"/>
       <c r="I39" s="54"/>
-      <c r="J39" s="55"/>
+      <c r="J39" s="56"/>
       <c r="K39" s="8"/>
       <c r="L39" s="54"/>
-      <c r="M39" s="55"/>
+      <c r="M39" s="56"/>
       <c r="N39" s="54"/>
-      <c r="O39" s="55"/>
+      <c r="O39" s="56"/>
       <c r="P39" s="54"/>
-      <c r="Q39" s="56"/>
-      <c r="R39" s="56"/>
-      <c r="S39" s="56"/>
-      <c r="T39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="56"/>
       <c r="U39" s="54"/>
-      <c r="V39" s="55"/>
+      <c r="V39" s="56"/>
       <c r="W39" s="54"/>
-      <c r="X39" s="55"/>
+      <c r="X39" s="56"/>
       <c r="Y39" s="54"/>
-      <c r="Z39" s="56"/>
-      <c r="AA39" s="55"/>
+      <c r="Z39" s="55"/>
+      <c r="AA39" s="56"/>
       <c r="AB39" s="54"/>
-      <c r="AC39" s="56"/>
-      <c r="AD39" s="55"/>
+      <c r="AC39" s="55"/>
+      <c r="AD39" s="56"/>
       <c r="AE39" s="54"/>
-      <c r="AF39" s="56"/>
-      <c r="AG39" s="56"/>
-      <c r="AH39" s="56"/>
-      <c r="AI39" s="56"/>
-      <c r="AJ39" s="55"/>
+      <c r="AF39" s="55"/>
+      <c r="AG39" s="55"/>
+      <c r="AH39" s="55"/>
+      <c r="AI39" s="55"/>
+      <c r="AJ39" s="56"/>
       <c r="AK39" s="54"/>
-      <c r="AL39" s="55"/>
+      <c r="AL39" s="56"/>
       <c r="AM39" s="54"/>
-      <c r="AN39" s="55"/>
+      <c r="AN39" s="56"/>
       <c r="AO39" s="54"/>
-      <c r="AP39" s="56"/>
-      <c r="AQ39" s="55"/>
+      <c r="AP39" s="55"/>
+      <c r="AQ39" s="56"/>
       <c r="AR39" s="54"/>
-      <c r="AS39" s="56"/>
-      <c r="AT39" s="55"/>
+      <c r="AS39" s="55"/>
+      <c r="AT39" s="56"/>
       <c r="AU39" s="54"/>
-      <c r="AV39" s="56"/>
-      <c r="AW39" s="56"/>
-      <c r="AX39" s="56"/>
-      <c r="AY39" s="55"/>
+      <c r="AV39" s="55"/>
+      <c r="AW39" s="55"/>
+      <c r="AX39" s="55"/>
+      <c r="AY39" s="56"/>
       <c r="AZ39" s="54"/>
-      <c r="BA39" s="55"/>
+      <c r="BA39" s="56"/>
       <c r="BB39" s="54"/>
-      <c r="BC39" s="56"/>
-      <c r="BD39" s="56"/>
-      <c r="BE39" s="56"/>
-      <c r="BF39" s="55"/>
+      <c r="BC39" s="55"/>
+      <c r="BD39" s="55"/>
+      <c r="BE39" s="55"/>
+      <c r="BF39" s="56"/>
       <c r="BG39" s="54"/>
-      <c r="BH39" s="56"/>
-      <c r="BI39" s="55"/>
+      <c r="BH39" s="55"/>
+      <c r="BI39" s="56"/>
       <c r="BJ39" s="54"/>
-      <c r="BK39" s="55"/>
+      <c r="BK39" s="56"/>
       <c r="BL39" s="54"/>
-      <c r="BM39" s="55"/>
+      <c r="BM39" s="56"/>
       <c r="BN39" s="54"/>
-      <c r="BO39" s="55"/>
+      <c r="BO39" s="56"/>
       <c r="BP39" s="54"/>
-      <c r="BQ39" s="56"/>
+      <c r="BQ39" s="55"/>
     </row>
     <row r="40" spans="1:69" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
@@ -18973,163 +18970,163 @@
       </c>
     </row>
     <row r="63" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="51" t="s">
+      <c r="A63" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="56"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="56"/>
-      <c r="J63" s="56"/>
-      <c r="K63" s="56"/>
-      <c r="L63" s="56"/>
-      <c r="M63" s="56"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="56"/>
-      <c r="P63" s="56"/>
-      <c r="Q63" s="56"/>
-      <c r="R63" s="56"/>
-      <c r="S63" s="56"/>
-      <c r="T63" s="56"/>
-      <c r="U63" s="56"/>
-      <c r="V63" s="56"/>
-      <c r="W63" s="56"/>
-      <c r="X63" s="56"/>
-      <c r="Y63" s="56"/>
-      <c r="Z63" s="56"/>
-      <c r="AA63" s="56"/>
-      <c r="AB63" s="56"/>
-      <c r="AC63" s="56"/>
-      <c r="AD63" s="56"/>
-      <c r="AE63" s="56"/>
-      <c r="AF63" s="56"/>
-      <c r="AG63" s="56"/>
-      <c r="AH63" s="56"/>
-      <c r="AI63" s="56"/>
-      <c r="AJ63" s="56"/>
-      <c r="AK63" s="56"/>
-      <c r="AL63" s="56"/>
-      <c r="AM63" s="56"/>
-      <c r="AN63" s="56"/>
-      <c r="AO63" s="56"/>
-      <c r="AP63" s="56"/>
-      <c r="AQ63" s="56"/>
-      <c r="AR63" s="56"/>
-      <c r="AS63" s="56"/>
-      <c r="AT63" s="56"/>
-      <c r="AU63" s="56"/>
-      <c r="AV63" s="56"/>
-      <c r="AW63" s="56"/>
-      <c r="AX63" s="56"/>
-      <c r="AY63" s="56"/>
-      <c r="AZ63" s="56"/>
-      <c r="BA63" s="56"/>
-      <c r="BB63" s="56"/>
-      <c r="BC63" s="56"/>
-      <c r="BD63" s="56"/>
-      <c r="BE63" s="56"/>
-      <c r="BF63" s="56"/>
-      <c r="BG63" s="56"/>
-      <c r="BH63" s="56"/>
-      <c r="BI63" s="56"/>
-      <c r="BJ63" s="56"/>
-      <c r="BK63" s="56"/>
-      <c r="BL63" s="56"/>
-      <c r="BM63" s="56"/>
-      <c r="BN63" s="56"/>
-      <c r="BO63" s="56"/>
-      <c r="BP63" s="56"/>
-      <c r="BQ63" s="56"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="55"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="55"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="55"/>
+      <c r="J63" s="55"/>
+      <c r="K63" s="55"/>
+      <c r="L63" s="55"/>
+      <c r="M63" s="55"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="55"/>
+      <c r="P63" s="55"/>
+      <c r="Q63" s="55"/>
+      <c r="R63" s="55"/>
+      <c r="S63" s="55"/>
+      <c r="T63" s="55"/>
+      <c r="U63" s="55"/>
+      <c r="V63" s="55"/>
+      <c r="W63" s="55"/>
+      <c r="X63" s="55"/>
+      <c r="Y63" s="55"/>
+      <c r="Z63" s="55"/>
+      <c r="AA63" s="55"/>
+      <c r="AB63" s="55"/>
+      <c r="AC63" s="55"/>
+      <c r="AD63" s="55"/>
+      <c r="AE63" s="55"/>
+      <c r="AF63" s="55"/>
+      <c r="AG63" s="55"/>
+      <c r="AH63" s="55"/>
+      <c r="AI63" s="55"/>
+      <c r="AJ63" s="55"/>
+      <c r="AK63" s="55"/>
+      <c r="AL63" s="55"/>
+      <c r="AM63" s="55"/>
+      <c r="AN63" s="55"/>
+      <c r="AO63" s="55"/>
+      <c r="AP63" s="55"/>
+      <c r="AQ63" s="55"/>
+      <c r="AR63" s="55"/>
+      <c r="AS63" s="55"/>
+      <c r="AT63" s="55"/>
+      <c r="AU63" s="55"/>
+      <c r="AV63" s="55"/>
+      <c r="AW63" s="55"/>
+      <c r="AX63" s="55"/>
+      <c r="AY63" s="55"/>
+      <c r="AZ63" s="55"/>
+      <c r="BA63" s="55"/>
+      <c r="BB63" s="55"/>
+      <c r="BC63" s="55"/>
+      <c r="BD63" s="55"/>
+      <c r="BE63" s="55"/>
+      <c r="BF63" s="55"/>
+      <c r="BG63" s="55"/>
+      <c r="BH63" s="55"/>
+      <c r="BI63" s="55"/>
+      <c r="BJ63" s="55"/>
+      <c r="BK63" s="55"/>
+      <c r="BL63" s="55"/>
+      <c r="BM63" s="55"/>
+      <c r="BN63" s="55"/>
+      <c r="BO63" s="55"/>
+      <c r="BP63" s="55"/>
+      <c r="BQ63" s="55"/>
     </row>
     <row r="64" spans="1:69" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="51" t="s">
+      <c r="A64" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="51"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="57"/>
-      <c r="R64" s="57"/>
-      <c r="S64" s="57"/>
-      <c r="T64" s="57"/>
-      <c r="U64" s="57"/>
-      <c r="V64" s="57"/>
-      <c r="W64" s="57"/>
-      <c r="X64" s="57"/>
-      <c r="Y64" s="57"/>
-      <c r="Z64" s="57"/>
-      <c r="AA64" s="57"/>
-      <c r="AB64" s="57"/>
-      <c r="AC64" s="57"/>
-      <c r="AD64" s="57"/>
-      <c r="AE64" s="57"/>
-      <c r="AF64" s="57"/>
-      <c r="AG64" s="57"/>
-      <c r="AH64" s="57"/>
-      <c r="AI64" s="57"/>
-      <c r="AJ64" s="57"/>
-      <c r="AK64" s="57"/>
-      <c r="AL64" s="57"/>
-      <c r="AM64" s="57"/>
-      <c r="AN64" s="57"/>
-      <c r="AO64" s="57"/>
-      <c r="AP64" s="57"/>
-      <c r="AQ64" s="57"/>
-      <c r="AR64" s="57"/>
-      <c r="AS64" s="57"/>
-      <c r="AT64" s="57"/>
-      <c r="AU64" s="57"/>
-      <c r="AV64" s="57"/>
-      <c r="AW64" s="57"/>
-      <c r="AX64" s="57"/>
-      <c r="AY64" s="57"/>
-      <c r="AZ64" s="57"/>
-      <c r="BA64" s="57"/>
-      <c r="BB64" s="57"/>
-      <c r="BC64" s="57"/>
-      <c r="BD64" s="57"/>
-      <c r="BE64" s="57"/>
-      <c r="BF64" s="57"/>
-      <c r="BG64" s="57"/>
-      <c r="BH64" s="57"/>
-      <c r="BI64" s="57"/>
-      <c r="BJ64" s="57"/>
-      <c r="BK64" s="57"/>
-      <c r="BL64" s="57"/>
-      <c r="BM64" s="57"/>
-      <c r="BN64" s="57"/>
-      <c r="BO64" s="57"/>
-      <c r="BP64" s="57"/>
-      <c r="BQ64" s="57"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="90"/>
+      <c r="E64" s="90"/>
+      <c r="F64" s="90"/>
+      <c r="G64" s="90"/>
+      <c r="H64" s="90"/>
+      <c r="I64" s="90"/>
+      <c r="J64" s="90"/>
+      <c r="K64" s="90"/>
+      <c r="L64" s="90"/>
+      <c r="M64" s="90"/>
+      <c r="N64" s="90"/>
+      <c r="O64" s="90"/>
+      <c r="P64" s="90"/>
+      <c r="Q64" s="90"/>
+      <c r="R64" s="90"/>
+      <c r="S64" s="90"/>
+      <c r="T64" s="90"/>
+      <c r="U64" s="90"/>
+      <c r="V64" s="90"/>
+      <c r="W64" s="90"/>
+      <c r="X64" s="90"/>
+      <c r="Y64" s="90"/>
+      <c r="Z64" s="90"/>
+      <c r="AA64" s="90"/>
+      <c r="AB64" s="90"/>
+      <c r="AC64" s="90"/>
+      <c r="AD64" s="90"/>
+      <c r="AE64" s="90"/>
+      <c r="AF64" s="90"/>
+      <c r="AG64" s="90"/>
+      <c r="AH64" s="90"/>
+      <c r="AI64" s="90"/>
+      <c r="AJ64" s="90"/>
+      <c r="AK64" s="90"/>
+      <c r="AL64" s="90"/>
+      <c r="AM64" s="90"/>
+      <c r="AN64" s="90"/>
+      <c r="AO64" s="90"/>
+      <c r="AP64" s="90"/>
+      <c r="AQ64" s="90"/>
+      <c r="AR64" s="90"/>
+      <c r="AS64" s="90"/>
+      <c r="AT64" s="90"/>
+      <c r="AU64" s="90"/>
+      <c r="AV64" s="90"/>
+      <c r="AW64" s="90"/>
+      <c r="AX64" s="90"/>
+      <c r="AY64" s="90"/>
+      <c r="AZ64" s="90"/>
+      <c r="BA64" s="90"/>
+      <c r="BB64" s="90"/>
+      <c r="BC64" s="90"/>
+      <c r="BD64" s="90"/>
+      <c r="BE64" s="90"/>
+      <c r="BF64" s="90"/>
+      <c r="BG64" s="90"/>
+      <c r="BH64" s="90"/>
+      <c r="BI64" s="90"/>
+      <c r="BJ64" s="90"/>
+      <c r="BK64" s="90"/>
+      <c r="BL64" s="90"/>
+      <c r="BM64" s="90"/>
+      <c r="BN64" s="90"/>
+      <c r="BO64" s="90"/>
+      <c r="BP64" s="90"/>
+      <c r="BQ64" s="90"/>
     </row>
     <row r="65" spans="1:69" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="48"/>
+      <c r="A65" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="58"/>
       <c r="C65" s="32">
         <v>58</v>
       </c>
-      <c r="D65" s="49">
-        <v>16</v>
-      </c>
-      <c r="E65" s="49"/>
+      <c r="D65" s="83">
+        <v>16</v>
+      </c>
+      <c r="E65" s="83"/>
       <c r="F65" s="32">
         <v>74</v>
       </c>
@@ -19139,132 +19136,132 @@
       <c r="H65" s="32">
         <v>61</v>
       </c>
-      <c r="I65" s="49">
-        <v>19</v>
-      </c>
-      <c r="J65" s="49"/>
+      <c r="I65" s="83">
+        <v>19</v>
+      </c>
+      <c r="J65" s="83"/>
       <c r="K65" s="32">
         <v>80</v>
       </c>
-      <c r="L65" s="49">
+      <c r="L65" s="83">
         <v>24</v>
       </c>
-      <c r="M65" s="49"/>
-      <c r="N65" s="49">
+      <c r="M65" s="83"/>
+      <c r="N65" s="83">
         <v>24</v>
       </c>
-      <c r="O65" s="49"/>
-      <c r="P65" s="49"/>
-      <c r="Q65" s="49">
+      <c r="O65" s="83"/>
+      <c r="P65" s="83"/>
+      <c r="Q65" s="83">
         <v>48</v>
       </c>
-      <c r="R65" s="49"/>
-      <c r="S65" s="49">
+      <c r="R65" s="83"/>
+      <c r="S65" s="83">
         <v>48</v>
       </c>
-      <c r="T65" s="49"/>
-      <c r="U65" s="49">
-        <v>17</v>
-      </c>
-      <c r="V65" s="49"/>
-      <c r="W65" s="49">
+      <c r="T65" s="83"/>
+      <c r="U65" s="83">
+        <v>17</v>
+      </c>
+      <c r="V65" s="83"/>
+      <c r="W65" s="83">
         <v>65</v>
       </c>
-      <c r="X65" s="49"/>
-      <c r="Y65" s="49"/>
-      <c r="Z65" s="49">
-        <v>20</v>
-      </c>
-      <c r="AA65" s="49"/>
-      <c r="AB65" s="49"/>
-      <c r="AC65" s="49">
-        <v>20</v>
-      </c>
-      <c r="AD65" s="49"/>
-      <c r="AE65" s="49"/>
-      <c r="AF65" s="49">
+      <c r="X65" s="83"/>
+      <c r="Y65" s="83"/>
+      <c r="Z65" s="83">
+        <v>20</v>
+      </c>
+      <c r="AA65" s="83"/>
+      <c r="AB65" s="83"/>
+      <c r="AC65" s="83">
+        <v>20</v>
+      </c>
+      <c r="AD65" s="83"/>
+      <c r="AE65" s="83"/>
+      <c r="AF65" s="83">
         <v>40</v>
       </c>
-      <c r="AG65" s="49"/>
-      <c r="AH65" s="49">
+      <c r="AG65" s="83"/>
+      <c r="AH65" s="83">
         <v>60</v>
       </c>
-      <c r="AI65" s="49"/>
-      <c r="AJ65" s="49"/>
-      <c r="AK65" s="49">
-        <v>20</v>
-      </c>
-      <c r="AL65" s="49"/>
-      <c r="AM65" s="49">
+      <c r="AI65" s="83"/>
+      <c r="AJ65" s="83"/>
+      <c r="AK65" s="83">
+        <v>20</v>
+      </c>
+      <c r="AL65" s="83"/>
+      <c r="AM65" s="83">
         <v>80</v>
       </c>
-      <c r="AN65" s="49"/>
-      <c r="AO65" s="49"/>
-      <c r="AP65" s="49">
+      <c r="AN65" s="83"/>
+      <c r="AO65" s="83"/>
+      <c r="AP65" s="83">
         <v>24</v>
       </c>
-      <c r="AQ65" s="49"/>
-      <c r="AR65" s="49"/>
-      <c r="AS65" s="49">
+      <c r="AQ65" s="83"/>
+      <c r="AR65" s="83"/>
+      <c r="AS65" s="83">
         <v>24</v>
       </c>
-      <c r="AT65" s="49"/>
-      <c r="AU65" s="49"/>
-      <c r="AV65" s="49">
+      <c r="AT65" s="83"/>
+      <c r="AU65" s="83"/>
+      <c r="AV65" s="83">
         <v>48</v>
       </c>
-      <c r="AW65" s="49"/>
-      <c r="AX65" s="49">
+      <c r="AW65" s="83"/>
+      <c r="AX65" s="83">
         <v>58</v>
       </c>
-      <c r="AY65" s="49"/>
-      <c r="AZ65" s="49">
-        <v>19</v>
-      </c>
-      <c r="BA65" s="49"/>
-      <c r="BB65" s="53" t="s">
+      <c r="AY65" s="83"/>
+      <c r="AZ65" s="83">
+        <v>19</v>
+      </c>
+      <c r="BA65" s="83"/>
+      <c r="BB65" s="86" t="s">
         <v>30</v>
       </c>
-      <c r="BC65" s="53"/>
-      <c r="BD65" s="53"/>
-      <c r="BE65" s="49">
+      <c r="BC65" s="86"/>
+      <c r="BD65" s="86"/>
+      <c r="BE65" s="83">
         <v>54</v>
       </c>
-      <c r="BF65" s="49"/>
-      <c r="BG65" s="49"/>
-      <c r="BH65" s="49">
-        <v>20</v>
-      </c>
-      <c r="BI65" s="49"/>
-      <c r="BJ65" s="49">
+      <c r="BF65" s="83"/>
+      <c r="BG65" s="83"/>
+      <c r="BH65" s="83">
+        <v>20</v>
+      </c>
+      <c r="BI65" s="83"/>
+      <c r="BJ65" s="83">
         <v>74</v>
       </c>
-      <c r="BK65" s="49"/>
-      <c r="BL65" s="49">
+      <c r="BK65" s="83"/>
+      <c r="BL65" s="83">
         <v>24</v>
       </c>
-      <c r="BM65" s="49"/>
-      <c r="BN65" s="49">
+      <c r="BM65" s="83"/>
+      <c r="BN65" s="83">
         <v>23</v>
       </c>
-      <c r="BO65" s="49"/>
-      <c r="BP65" s="49">
+      <c r="BO65" s="83"/>
+      <c r="BP65" s="83">
         <v>47</v>
       </c>
-      <c r="BQ65" s="49"/>
+      <c r="BQ65" s="83"/>
     </row>
     <row r="66" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="51"/>
+      <c r="A66" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="64"/>
       <c r="C66" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="52"/>
+      <c r="D66" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="67"/>
       <c r="F66" s="26" t="s">
         <v>23</v>
       </c>
@@ -19274,128 +19271,128 @@
       <c r="H66" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I66" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="J66" s="52"/>
+      <c r="I66" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" s="67"/>
       <c r="K66" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L66" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="M66" s="51"/>
-      <c r="N66" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="R66" s="51"/>
-      <c r="S66" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="T66" s="51"/>
-      <c r="U66" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="V66" s="52"/>
-      <c r="W66" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="X66" s="52"/>
-      <c r="Y66" s="52"/>
-      <c r="Z66" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA66" s="51"/>
-      <c r="AB66" s="51"/>
-      <c r="AC66" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD66" s="52"/>
-      <c r="AE66" s="52"/>
-      <c r="AF66" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG66" s="51"/>
-      <c r="AH66" s="51" t="s">
+      <c r="L66" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="M66" s="64"/>
+      <c r="N66" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66" s="67"/>
+      <c r="P66" s="67"/>
+      <c r="Q66" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="R66" s="64"/>
+      <c r="S66" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="T66" s="64"/>
+      <c r="U66" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="V66" s="67"/>
+      <c r="W66" s="67" t="s">
+        <v>21</v>
+      </c>
+      <c r="X66" s="67"/>
+      <c r="Y66" s="67"/>
+      <c r="Z66" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA66" s="64"/>
+      <c r="AB66" s="64"/>
+      <c r="AC66" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD66" s="67"/>
+      <c r="AE66" s="67"/>
+      <c r="AF66" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG66" s="64"/>
+      <c r="AH66" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="AI66" s="51"/>
-      <c r="AJ66" s="51"/>
-      <c r="AK66" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL66" s="52"/>
-      <c r="AM66" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN66" s="51"/>
-      <c r="AO66" s="51"/>
-      <c r="AP66" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ66" s="51"/>
-      <c r="AR66" s="51"/>
-      <c r="AS66" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT66" s="52"/>
-      <c r="AU66" s="52"/>
-      <c r="AV66" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW66" s="51"/>
-      <c r="AX66" s="51" t="s">
+      <c r="AI66" s="64"/>
+      <c r="AJ66" s="64"/>
+      <c r="AK66" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL66" s="67"/>
+      <c r="AM66" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN66" s="64"/>
+      <c r="AO66" s="64"/>
+      <c r="AP66" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ66" s="64"/>
+      <c r="AR66" s="64"/>
+      <c r="AS66" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT66" s="67"/>
+      <c r="AU66" s="67"/>
+      <c r="AV66" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW66" s="64"/>
+      <c r="AX66" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AY66" s="51"/>
-      <c r="AZ66" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA66" s="51"/>
-      <c r="BB66" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="BC66" s="52"/>
-      <c r="BD66" s="52"/>
-      <c r="BE66" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="BF66" s="51"/>
-      <c r="BG66" s="51"/>
-      <c r="BH66" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI66" s="52"/>
-      <c r="BJ66" s="52" t="s">
+      <c r="AY66" s="64"/>
+      <c r="AZ66" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA66" s="64"/>
+      <c r="BB66" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC66" s="67"/>
+      <c r="BD66" s="67"/>
+      <c r="BE66" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF66" s="64"/>
+      <c r="BG66" s="64"/>
+      <c r="BH66" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI66" s="67"/>
+      <c r="BJ66" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="BK66" s="52"/>
-      <c r="BL66" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM66" s="51"/>
-      <c r="BN66" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO66" s="52"/>
-      <c r="BP66" s="51" t="s">
-        <v>22</v>
-      </c>
-      <c r="BQ66" s="51"/>
+      <c r="BK66" s="67"/>
+      <c r="BL66" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM66" s="64"/>
+      <c r="BN66" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="BO66" s="67"/>
+      <c r="BP66" s="64" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ66" s="64"/>
     </row>
     <row r="67" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="51" t="s">
+      <c r="A67" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="51"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="28"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="48"/>
+      <c r="D67" s="58"/>
+      <c r="E67" s="58"/>
       <c r="F67" s="34">
         <v>8</v>
       </c>
@@ -19403,94 +19400,94 @@
         <v>10</v>
       </c>
       <c r="H67" s="28"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
+      <c r="I67" s="58"/>
+      <c r="J67" s="58"/>
       <c r="K67" s="32">
         <v>10</v>
       </c>
-      <c r="L67" s="48"/>
-      <c r="M67" s="48"/>
-      <c r="N67" s="48"/>
-      <c r="O67" s="48"/>
-      <c r="P67" s="48"/>
-      <c r="Q67" s="49">
+      <c r="L67" s="58"/>
+      <c r="M67" s="58"/>
+      <c r="N67" s="58"/>
+      <c r="O67" s="58"/>
+      <c r="P67" s="58"/>
+      <c r="Q67" s="83">
         <v>10</v>
       </c>
-      <c r="R67" s="49"/>
-      <c r="S67" s="48"/>
-      <c r="T67" s="48"/>
-      <c r="U67" s="48"/>
-      <c r="V67" s="48"/>
-      <c r="W67" s="50">
+      <c r="R67" s="83"/>
+      <c r="S67" s="58"/>
+      <c r="T67" s="58"/>
+      <c r="U67" s="58"/>
+      <c r="V67" s="58"/>
+      <c r="W67" s="89">
         <v>7</v>
       </c>
-      <c r="X67" s="50"/>
-      <c r="Y67" s="50"/>
-      <c r="Z67" s="48"/>
-      <c r="AA67" s="48"/>
-      <c r="AB67" s="48"/>
-      <c r="AC67" s="48"/>
-      <c r="AD67" s="48"/>
-      <c r="AE67" s="48"/>
-      <c r="AF67" s="49">
+      <c r="X67" s="89"/>
+      <c r="Y67" s="89"/>
+      <c r="Z67" s="58"/>
+      <c r="AA67" s="58"/>
+      <c r="AB67" s="58"/>
+      <c r="AC67" s="58"/>
+      <c r="AD67" s="58"/>
+      <c r="AE67" s="58"/>
+      <c r="AF67" s="83">
         <v>10</v>
       </c>
-      <c r="AG67" s="49"/>
-      <c r="AH67" s="48"/>
-      <c r="AI67" s="48"/>
-      <c r="AJ67" s="48"/>
-      <c r="AK67" s="48"/>
-      <c r="AL67" s="48"/>
-      <c r="AM67" s="49">
+      <c r="AG67" s="83"/>
+      <c r="AH67" s="58"/>
+      <c r="AI67" s="58"/>
+      <c r="AJ67" s="58"/>
+      <c r="AK67" s="58"/>
+      <c r="AL67" s="58"/>
+      <c r="AM67" s="83">
         <v>10</v>
       </c>
-      <c r="AN67" s="49"/>
-      <c r="AO67" s="49"/>
-      <c r="AP67" s="48"/>
-      <c r="AQ67" s="48"/>
-      <c r="AR67" s="48"/>
-      <c r="AS67" s="48"/>
-      <c r="AT67" s="48"/>
-      <c r="AU67" s="48"/>
-      <c r="AV67" s="49">
+      <c r="AN67" s="83"/>
+      <c r="AO67" s="83"/>
+      <c r="AP67" s="58"/>
+      <c r="AQ67" s="58"/>
+      <c r="AR67" s="58"/>
+      <c r="AS67" s="58"/>
+      <c r="AT67" s="58"/>
+      <c r="AU67" s="58"/>
+      <c r="AV67" s="83">
         <v>10</v>
       </c>
-      <c r="AW67" s="49"/>
-      <c r="AX67" s="48"/>
-      <c r="AY67" s="48"/>
-      <c r="AZ67" s="48"/>
-      <c r="BA67" s="48"/>
-      <c r="BB67" s="49">
+      <c r="AW67" s="83"/>
+      <c r="AX67" s="58"/>
+      <c r="AY67" s="58"/>
+      <c r="AZ67" s="58"/>
+      <c r="BA67" s="58"/>
+      <c r="BB67" s="83">
         <v>10</v>
       </c>
-      <c r="BC67" s="49"/>
-      <c r="BD67" s="49"/>
-      <c r="BE67" s="48"/>
-      <c r="BF67" s="48"/>
-      <c r="BG67" s="48"/>
-      <c r="BH67" s="48"/>
-      <c r="BI67" s="48"/>
-      <c r="BJ67" s="50">
+      <c r="BC67" s="83"/>
+      <c r="BD67" s="83"/>
+      <c r="BE67" s="58"/>
+      <c r="BF67" s="58"/>
+      <c r="BG67" s="58"/>
+      <c r="BH67" s="58"/>
+      <c r="BI67" s="58"/>
+      <c r="BJ67" s="89">
         <v>8</v>
       </c>
-      <c r="BK67" s="50"/>
-      <c r="BL67" s="48"/>
-      <c r="BM67" s="48"/>
-      <c r="BN67" s="48"/>
-      <c r="BO67" s="48"/>
-      <c r="BP67" s="49">
+      <c r="BK67" s="89"/>
+      <c r="BL67" s="58"/>
+      <c r="BM67" s="58"/>
+      <c r="BN67" s="58"/>
+      <c r="BO67" s="58"/>
+      <c r="BP67" s="83">
         <v>10</v>
       </c>
-      <c r="BQ67" s="49"/>
+      <c r="BQ67" s="83"/>
     </row>
     <row r="68" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="51" t="s">
+      <c r="A68" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="51"/>
+      <c r="B68" s="64"/>
       <c r="C68" s="28"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
+      <c r="D68" s="58"/>
+      <c r="E68" s="58"/>
       <c r="F68" s="34">
         <v>4</v>
       </c>
@@ -19498,94 +19495,94 @@
         <v>1</v>
       </c>
       <c r="H68" s="28"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
+      <c r="I68" s="58"/>
+      <c r="J68" s="58"/>
       <c r="K68" s="34">
         <v>4</v>
       </c>
-      <c r="L68" s="48"/>
-      <c r="M68" s="48"/>
-      <c r="N68" s="48"/>
-      <c r="O68" s="48"/>
-      <c r="P68" s="48"/>
-      <c r="Q68" s="50">
+      <c r="L68" s="58"/>
+      <c r="M68" s="58"/>
+      <c r="N68" s="58"/>
+      <c r="O68" s="58"/>
+      <c r="P68" s="58"/>
+      <c r="Q68" s="89">
         <v>1</v>
       </c>
-      <c r="R68" s="50"/>
-      <c r="S68" s="48"/>
-      <c r="T68" s="48"/>
-      <c r="U68" s="48"/>
-      <c r="V68" s="48"/>
-      <c r="W68" s="50">
+      <c r="R68" s="89"/>
+      <c r="S68" s="58"/>
+      <c r="T68" s="58"/>
+      <c r="U68" s="58"/>
+      <c r="V68" s="58"/>
+      <c r="W68" s="89">
         <v>4</v>
       </c>
-      <c r="X68" s="50"/>
-      <c r="Y68" s="50"/>
-      <c r="Z68" s="48"/>
-      <c r="AA68" s="48"/>
-      <c r="AB68" s="48"/>
-      <c r="AC68" s="48"/>
-      <c r="AD68" s="48"/>
-      <c r="AE68" s="48"/>
-      <c r="AF68" s="50">
+      <c r="X68" s="89"/>
+      <c r="Y68" s="89"/>
+      <c r="Z68" s="58"/>
+      <c r="AA68" s="58"/>
+      <c r="AB68" s="58"/>
+      <c r="AC68" s="58"/>
+      <c r="AD68" s="58"/>
+      <c r="AE68" s="58"/>
+      <c r="AF68" s="89">
         <v>1</v>
       </c>
-      <c r="AG68" s="50"/>
-      <c r="AH68" s="48"/>
-      <c r="AI68" s="48"/>
-      <c r="AJ68" s="48"/>
-      <c r="AK68" s="48"/>
-      <c r="AL68" s="48"/>
-      <c r="AM68" s="50">
+      <c r="AG68" s="89"/>
+      <c r="AH68" s="58"/>
+      <c r="AI68" s="58"/>
+      <c r="AJ68" s="58"/>
+      <c r="AK68" s="58"/>
+      <c r="AL68" s="58"/>
+      <c r="AM68" s="89">
         <v>4</v>
       </c>
-      <c r="AN68" s="50"/>
-      <c r="AO68" s="50"/>
-      <c r="AP68" s="48"/>
-      <c r="AQ68" s="48"/>
-      <c r="AR68" s="48"/>
-      <c r="AS68" s="48"/>
-      <c r="AT68" s="48"/>
-      <c r="AU68" s="48"/>
-      <c r="AV68" s="50">
+      <c r="AN68" s="89"/>
+      <c r="AO68" s="89"/>
+      <c r="AP68" s="58"/>
+      <c r="AQ68" s="58"/>
+      <c r="AR68" s="58"/>
+      <c r="AS68" s="58"/>
+      <c r="AT68" s="58"/>
+      <c r="AU68" s="58"/>
+      <c r="AV68" s="89">
         <v>1</v>
       </c>
-      <c r="AW68" s="50"/>
-      <c r="AX68" s="48"/>
-      <c r="AY68" s="48"/>
-      <c r="AZ68" s="48"/>
-      <c r="BA68" s="48"/>
-      <c r="BB68" s="50">
+      <c r="AW68" s="89"/>
+      <c r="AX68" s="58"/>
+      <c r="AY68" s="58"/>
+      <c r="AZ68" s="58"/>
+      <c r="BA68" s="58"/>
+      <c r="BB68" s="89">
         <v>4</v>
       </c>
-      <c r="BC68" s="50"/>
-      <c r="BD68" s="50"/>
-      <c r="BE68" s="48"/>
-      <c r="BF68" s="48"/>
-      <c r="BG68" s="48"/>
-      <c r="BH68" s="48"/>
-      <c r="BI68" s="48"/>
-      <c r="BJ68" s="50">
+      <c r="BC68" s="89"/>
+      <c r="BD68" s="89"/>
+      <c r="BE68" s="58"/>
+      <c r="BF68" s="58"/>
+      <c r="BG68" s="58"/>
+      <c r="BH68" s="58"/>
+      <c r="BI68" s="58"/>
+      <c r="BJ68" s="89">
         <v>3</v>
       </c>
-      <c r="BK68" s="50"/>
-      <c r="BL68" s="48"/>
-      <c r="BM68" s="48"/>
-      <c r="BN68" s="48"/>
-      <c r="BO68" s="48"/>
-      <c r="BP68" s="50">
+      <c r="BK68" s="89"/>
+      <c r="BL68" s="58"/>
+      <c r="BM68" s="58"/>
+      <c r="BN68" s="58"/>
+      <c r="BO68" s="58"/>
+      <c r="BP68" s="89">
         <v>1</v>
       </c>
-      <c r="BQ68" s="50"/>
+      <c r="BQ68" s="89"/>
     </row>
     <row r="69" spans="1:69" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="51" t="s">
+      <c r="A69" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="51"/>
+      <c r="B69" s="64"/>
       <c r="C69" s="28"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
+      <c r="D69" s="58"/>
+      <c r="E69" s="58"/>
       <c r="F69" s="32">
         <v>32</v>
       </c>
@@ -19593,85 +19590,85 @@
         <v>10</v>
       </c>
       <c r="H69" s="28"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
+      <c r="I69" s="58"/>
+      <c r="J69" s="58"/>
       <c r="K69" s="32">
         <v>40</v>
       </c>
-      <c r="L69" s="48"/>
-      <c r="M69" s="48"/>
-      <c r="N69" s="48"/>
-      <c r="O69" s="48"/>
-      <c r="P69" s="48"/>
-      <c r="Q69" s="49">
+      <c r="L69" s="58"/>
+      <c r="M69" s="58"/>
+      <c r="N69" s="58"/>
+      <c r="O69" s="58"/>
+      <c r="P69" s="58"/>
+      <c r="Q69" s="83">
         <v>10</v>
       </c>
-      <c r="R69" s="49"/>
-      <c r="S69" s="48"/>
-      <c r="T69" s="48"/>
-      <c r="U69" s="48"/>
-      <c r="V69" s="48"/>
-      <c r="W69" s="49">
+      <c r="R69" s="83"/>
+      <c r="S69" s="58"/>
+      <c r="T69" s="58"/>
+      <c r="U69" s="58"/>
+      <c r="V69" s="58"/>
+      <c r="W69" s="83">
         <v>28</v>
       </c>
-      <c r="X69" s="49"/>
-      <c r="Y69" s="49"/>
-      <c r="Z69" s="48"/>
-      <c r="AA69" s="48"/>
-      <c r="AB69" s="48"/>
-      <c r="AC69" s="48"/>
-      <c r="AD69" s="48"/>
-      <c r="AE69" s="48"/>
-      <c r="AF69" s="49">
+      <c r="X69" s="83"/>
+      <c r="Y69" s="83"/>
+      <c r="Z69" s="58"/>
+      <c r="AA69" s="58"/>
+      <c r="AB69" s="58"/>
+      <c r="AC69" s="58"/>
+      <c r="AD69" s="58"/>
+      <c r="AE69" s="58"/>
+      <c r="AF69" s="83">
         <v>10</v>
       </c>
-      <c r="AG69" s="49"/>
-      <c r="AH69" s="48"/>
-      <c r="AI69" s="48"/>
-      <c r="AJ69" s="48"/>
-      <c r="AK69" s="48"/>
-      <c r="AL69" s="48"/>
-      <c r="AM69" s="49">
+      <c r="AG69" s="83"/>
+      <c r="AH69" s="58"/>
+      <c r="AI69" s="58"/>
+      <c r="AJ69" s="58"/>
+      <c r="AK69" s="58"/>
+      <c r="AL69" s="58"/>
+      <c r="AM69" s="83">
         <v>40</v>
       </c>
-      <c r="AN69" s="49"/>
-      <c r="AO69" s="49"/>
-      <c r="AP69" s="48"/>
-      <c r="AQ69" s="48"/>
-      <c r="AR69" s="48"/>
-      <c r="AS69" s="48"/>
-      <c r="AT69" s="48"/>
-      <c r="AU69" s="48"/>
-      <c r="AV69" s="49">
+      <c r="AN69" s="83"/>
+      <c r="AO69" s="83"/>
+      <c r="AP69" s="58"/>
+      <c r="AQ69" s="58"/>
+      <c r="AR69" s="58"/>
+      <c r="AS69" s="58"/>
+      <c r="AT69" s="58"/>
+      <c r="AU69" s="58"/>
+      <c r="AV69" s="83">
         <v>10</v>
       </c>
-      <c r="AW69" s="49"/>
-      <c r="AX69" s="48"/>
-      <c r="AY69" s="48"/>
-      <c r="AZ69" s="48"/>
-      <c r="BA69" s="48"/>
-      <c r="BB69" s="49">
+      <c r="AW69" s="83"/>
+      <c r="AX69" s="58"/>
+      <c r="AY69" s="58"/>
+      <c r="AZ69" s="58"/>
+      <c r="BA69" s="58"/>
+      <c r="BB69" s="83">
         <v>40</v>
       </c>
-      <c r="BC69" s="49"/>
-      <c r="BD69" s="49"/>
-      <c r="BE69" s="48"/>
-      <c r="BF69" s="48"/>
-      <c r="BG69" s="48"/>
-      <c r="BH69" s="48"/>
-      <c r="BI69" s="48"/>
-      <c r="BJ69" s="49">
+      <c r="BC69" s="83"/>
+      <c r="BD69" s="83"/>
+      <c r="BE69" s="58"/>
+      <c r="BF69" s="58"/>
+      <c r="BG69" s="58"/>
+      <c r="BH69" s="58"/>
+      <c r="BI69" s="58"/>
+      <c r="BJ69" s="83">
         <v>24</v>
       </c>
-      <c r="BK69" s="49"/>
-      <c r="BL69" s="48"/>
-      <c r="BM69" s="48"/>
-      <c r="BN69" s="48"/>
-      <c r="BO69" s="48"/>
-      <c r="BP69" s="49">
+      <c r="BK69" s="83"/>
+      <c r="BL69" s="58"/>
+      <c r="BM69" s="58"/>
+      <c r="BN69" s="58"/>
+      <c r="BO69" s="58"/>
+      <c r="BP69" s="83">
         <v>10</v>
       </c>
-      <c r="BQ69" s="49"/>
+      <c r="BQ69" s="83"/>
     </row>
     <row r="70" spans="1:69" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -19700,34 +19697,592 @@
     </row>
   </sheetData>
   <mergeCells count="638">
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="M9:Z9"/>
-    <mergeCell ref="AA9:AP9"/>
-    <mergeCell ref="AQ9:AX9"/>
-    <mergeCell ref="AY9:BL9"/>
-    <mergeCell ref="A1:CA1"/>
-    <mergeCell ref="A7:BZ7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="M8:Z8"/>
-    <mergeCell ref="AA8:AP8"/>
-    <mergeCell ref="AQ8:AX8"/>
-    <mergeCell ref="AY8:BL8"/>
-    <mergeCell ref="AR22:AT22"/>
-    <mergeCell ref="AU22:AW22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="BE69:BG69"/>
+    <mergeCell ref="BH69:BI69"/>
+    <mergeCell ref="BJ69:BK69"/>
+    <mergeCell ref="BL69:BM69"/>
+    <mergeCell ref="BN69:BO69"/>
+    <mergeCell ref="BP69:BQ69"/>
+    <mergeCell ref="AP69:AR69"/>
+    <mergeCell ref="AS69:AU69"/>
+    <mergeCell ref="AV69:AW69"/>
+    <mergeCell ref="AX69:AY69"/>
+    <mergeCell ref="AZ69:BA69"/>
+    <mergeCell ref="BB69:BD69"/>
+    <mergeCell ref="Z69:AB69"/>
+    <mergeCell ref="AC69:AE69"/>
+    <mergeCell ref="AF69:AG69"/>
+    <mergeCell ref="AH69:AJ69"/>
+    <mergeCell ref="AK69:AL69"/>
+    <mergeCell ref="AM69:AO69"/>
+    <mergeCell ref="BP68:BQ68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:P69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="S69:T69"/>
+    <mergeCell ref="U69:V69"/>
+    <mergeCell ref="W69:Y69"/>
+    <mergeCell ref="BB68:BD68"/>
+    <mergeCell ref="BE68:BG68"/>
+    <mergeCell ref="BH68:BI68"/>
+    <mergeCell ref="BJ68:BK68"/>
+    <mergeCell ref="BL68:BM68"/>
+    <mergeCell ref="BN68:BO68"/>
+    <mergeCell ref="AM68:AO68"/>
+    <mergeCell ref="AP68:AR68"/>
+    <mergeCell ref="AS68:AU68"/>
+    <mergeCell ref="AV68:AW68"/>
+    <mergeCell ref="AX68:AY68"/>
+    <mergeCell ref="AZ68:BA68"/>
+    <mergeCell ref="W68:Y68"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="AC68:AE68"/>
+    <mergeCell ref="AF68:AG68"/>
+    <mergeCell ref="AH68:AJ68"/>
+    <mergeCell ref="AK68:AL68"/>
+    <mergeCell ref="BN67:BO67"/>
+    <mergeCell ref="BP67:BQ67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="S68:T68"/>
+    <mergeCell ref="U68:V68"/>
+    <mergeCell ref="AZ67:BA67"/>
+    <mergeCell ref="BB67:BD67"/>
+    <mergeCell ref="BE67:BG67"/>
+    <mergeCell ref="BH67:BI67"/>
+    <mergeCell ref="BJ67:BK67"/>
+    <mergeCell ref="BL67:BM67"/>
+    <mergeCell ref="AK67:AL67"/>
+    <mergeCell ref="AM67:AO67"/>
+    <mergeCell ref="AP67:AR67"/>
+    <mergeCell ref="AS67:AU67"/>
+    <mergeCell ref="AV67:AW67"/>
+    <mergeCell ref="AX67:AY67"/>
+    <mergeCell ref="U67:V67"/>
+    <mergeCell ref="W67:Y67"/>
+    <mergeCell ref="Z67:AB67"/>
+    <mergeCell ref="AC67:AE67"/>
+    <mergeCell ref="AF67:AG67"/>
+    <mergeCell ref="AH67:AJ67"/>
+    <mergeCell ref="BL66:BM66"/>
+    <mergeCell ref="BN66:BO66"/>
+    <mergeCell ref="BP66:BQ66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="AX66:AY66"/>
+    <mergeCell ref="AZ66:BA66"/>
+    <mergeCell ref="BB66:BD66"/>
+    <mergeCell ref="BE66:BG66"/>
+    <mergeCell ref="BH66:BI66"/>
+    <mergeCell ref="BJ66:BK66"/>
+    <mergeCell ref="AH66:AJ66"/>
+    <mergeCell ref="AK66:AL66"/>
+    <mergeCell ref="AM66:AO66"/>
+    <mergeCell ref="AP66:AR66"/>
+    <mergeCell ref="AS66:AU66"/>
+    <mergeCell ref="AV66:AW66"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="AC66:AE66"/>
+    <mergeCell ref="AF66:AG66"/>
+    <mergeCell ref="BJ65:BK65"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="BL65:BM65"/>
+    <mergeCell ref="BN65:BO65"/>
+    <mergeCell ref="BP65:BQ65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="AV65:AW65"/>
+    <mergeCell ref="AX65:AY65"/>
+    <mergeCell ref="AZ65:BA65"/>
+    <mergeCell ref="BB65:BD65"/>
+    <mergeCell ref="BE65:BG65"/>
+    <mergeCell ref="BH65:BI65"/>
+    <mergeCell ref="AF65:AG65"/>
+    <mergeCell ref="AH65:AJ65"/>
+    <mergeCell ref="AK65:AL65"/>
+    <mergeCell ref="AM65:AO65"/>
+    <mergeCell ref="AP65:AR65"/>
+    <mergeCell ref="AS65:AU65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="BN39:BO39"/>
+    <mergeCell ref="BP39:BQ39"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:BQ64"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="AZ39:BA39"/>
+    <mergeCell ref="BB39:BC39"/>
+    <mergeCell ref="BD39:BF39"/>
+    <mergeCell ref="BG39:BI39"/>
+    <mergeCell ref="BJ39:BK39"/>
+    <mergeCell ref="BL39:BM39"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AM39:AN39"/>
+    <mergeCell ref="AO39:AQ39"/>
+    <mergeCell ref="AR39:AT39"/>
+    <mergeCell ref="AU39:AW39"/>
+    <mergeCell ref="AX39:AY39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="AB39:AD39"/>
+    <mergeCell ref="AE39:AG39"/>
+    <mergeCell ref="AH39:AJ39"/>
+    <mergeCell ref="BL38:BM38"/>
+    <mergeCell ref="BN38:BO38"/>
+    <mergeCell ref="BP38:BQ38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="AX38:AY38"/>
+    <mergeCell ref="AZ38:BA38"/>
+    <mergeCell ref="BB38:BC38"/>
+    <mergeCell ref="BD38:BF38"/>
+    <mergeCell ref="BG38:BI38"/>
+    <mergeCell ref="BJ38:BK38"/>
+    <mergeCell ref="AH38:AJ38"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AO38:AQ38"/>
+    <mergeCell ref="AR38:AT38"/>
+    <mergeCell ref="AU38:AW38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="AE38:AG38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="BD37:BF37"/>
+    <mergeCell ref="BG37:BI37"/>
+    <mergeCell ref="BJ37:BK37"/>
+    <mergeCell ref="BL37:BM37"/>
+    <mergeCell ref="BN37:BO37"/>
+    <mergeCell ref="BP37:BQ37"/>
+    <mergeCell ref="AO37:AQ37"/>
+    <mergeCell ref="AR37:AT37"/>
+    <mergeCell ref="AU37:AW37"/>
+    <mergeCell ref="AX37:AY37"/>
+    <mergeCell ref="AZ37:BA37"/>
+    <mergeCell ref="BB37:BC37"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="AB37:AD37"/>
+    <mergeCell ref="AE37:AG37"/>
+    <mergeCell ref="AH37:AJ37"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AN37"/>
+    <mergeCell ref="BP36:BQ36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="BB36:BC36"/>
+    <mergeCell ref="BD36:BF36"/>
+    <mergeCell ref="BG36:BI36"/>
+    <mergeCell ref="BJ36:BK36"/>
+    <mergeCell ref="BL36:BM36"/>
+    <mergeCell ref="BN36:BO36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AO36:AQ36"/>
+    <mergeCell ref="AR36:AT36"/>
+    <mergeCell ref="AU36:AW36"/>
+    <mergeCell ref="AX36:AY36"/>
+    <mergeCell ref="AZ36:BA36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="AE36:AG36"/>
+    <mergeCell ref="AH36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="BN35:BO35"/>
+    <mergeCell ref="BP35:BQ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="AZ35:BA35"/>
+    <mergeCell ref="BB35:BC35"/>
+    <mergeCell ref="BD35:BF35"/>
+    <mergeCell ref="BG35:BI35"/>
+    <mergeCell ref="BJ35:BK35"/>
+    <mergeCell ref="BL35:BM35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AR35:AT35"/>
+    <mergeCell ref="AU35:AW35"/>
+    <mergeCell ref="AX35:AY35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="AB35:AD35"/>
+    <mergeCell ref="AE35:AG35"/>
+    <mergeCell ref="AH35:AJ35"/>
+    <mergeCell ref="BL34:BM34"/>
+    <mergeCell ref="BN34:BO34"/>
+    <mergeCell ref="BP34:BQ34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="AX34:AY34"/>
+    <mergeCell ref="AZ34:BA34"/>
+    <mergeCell ref="BB34:BC34"/>
+    <mergeCell ref="BD34:BF34"/>
+    <mergeCell ref="BG34:BI34"/>
+    <mergeCell ref="BJ34:BK34"/>
+    <mergeCell ref="AH34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AO34:AQ34"/>
+    <mergeCell ref="AR34:AT34"/>
+    <mergeCell ref="AU34:AW34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="AE34:AG34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="BD33:BF33"/>
+    <mergeCell ref="BG33:BI33"/>
+    <mergeCell ref="BJ33:BK33"/>
+    <mergeCell ref="BL33:BM33"/>
+    <mergeCell ref="BN33:BO33"/>
+    <mergeCell ref="BP33:BQ33"/>
+    <mergeCell ref="AO33:AQ33"/>
+    <mergeCell ref="AR33:AT33"/>
+    <mergeCell ref="AU33:AW33"/>
+    <mergeCell ref="AX33:AY33"/>
+    <mergeCell ref="AZ33:BA33"/>
+    <mergeCell ref="BB33:BC33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AE33:AG33"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="BP32:BQ32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="BB32:BC32"/>
+    <mergeCell ref="BD32:BF32"/>
+    <mergeCell ref="BG32:BI32"/>
+    <mergeCell ref="BJ32:BK32"/>
+    <mergeCell ref="BL32:BM32"/>
+    <mergeCell ref="BN32:BO32"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="AO32:AQ32"/>
+    <mergeCell ref="AR32:AT32"/>
+    <mergeCell ref="AU32:AW32"/>
+    <mergeCell ref="AX32:AY32"/>
+    <mergeCell ref="AZ32:BA32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="AE32:AG32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="BN31:BO31"/>
+    <mergeCell ref="BP31:BQ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="AZ31:BA31"/>
+    <mergeCell ref="BB31:BC31"/>
+    <mergeCell ref="BD31:BF31"/>
+    <mergeCell ref="BG31:BI31"/>
+    <mergeCell ref="BJ31:BK31"/>
+    <mergeCell ref="BL31:BM31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AO31:AQ31"/>
+    <mergeCell ref="AR31:AT31"/>
+    <mergeCell ref="AU31:AW31"/>
+    <mergeCell ref="AX31:AY31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="AH31:AJ31"/>
+    <mergeCell ref="BL30:BM30"/>
+    <mergeCell ref="BN30:BO30"/>
+    <mergeCell ref="BP30:BQ30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="AX30:AY30"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="BB30:BC30"/>
+    <mergeCell ref="BD30:BF30"/>
+    <mergeCell ref="BG30:BI30"/>
+    <mergeCell ref="BJ30:BK30"/>
+    <mergeCell ref="AH30:AJ30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="AO30:AQ30"/>
+    <mergeCell ref="AR30:AT30"/>
+    <mergeCell ref="AU30:AW30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AE30:AG30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="BD29:BF29"/>
+    <mergeCell ref="BG29:BI29"/>
+    <mergeCell ref="BJ29:BK29"/>
+    <mergeCell ref="BL29:BM29"/>
+    <mergeCell ref="BN29:BO29"/>
+    <mergeCell ref="BP29:BQ29"/>
+    <mergeCell ref="AO29:AQ29"/>
+    <mergeCell ref="AR29:AT29"/>
+    <mergeCell ref="AU29:AW29"/>
+    <mergeCell ref="AX29:AY29"/>
+    <mergeCell ref="AZ29:BA29"/>
+    <mergeCell ref="BB29:BC29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="AE29:AG29"/>
+    <mergeCell ref="AH29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AN29"/>
+    <mergeCell ref="BP28:BQ28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="BB28:BC28"/>
+    <mergeCell ref="BD28:BF28"/>
+    <mergeCell ref="BG28:BI28"/>
+    <mergeCell ref="BJ28:BK28"/>
+    <mergeCell ref="BL28:BM28"/>
+    <mergeCell ref="BN28:BO28"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AO28:AQ28"/>
+    <mergeCell ref="AR28:AT28"/>
+    <mergeCell ref="AU28:AW28"/>
+    <mergeCell ref="AX28:AY28"/>
+    <mergeCell ref="AZ28:BA28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AE28:AG28"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="BN27:BO27"/>
+    <mergeCell ref="BP27:BQ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="AZ27:BA27"/>
+    <mergeCell ref="BB27:BC27"/>
+    <mergeCell ref="BD27:BF27"/>
+    <mergeCell ref="BG27:BI27"/>
+    <mergeCell ref="BJ27:BK27"/>
+    <mergeCell ref="BL27:BM27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="AO27:AQ27"/>
+    <mergeCell ref="AR27:AT27"/>
+    <mergeCell ref="AU27:AW27"/>
+    <mergeCell ref="AX27:AY27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="AE27:AG27"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="BL26:BM26"/>
+    <mergeCell ref="BN26:BO26"/>
+    <mergeCell ref="BP26:BQ26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="AX26:AY26"/>
+    <mergeCell ref="AZ26:BA26"/>
+    <mergeCell ref="BB26:BC26"/>
+    <mergeCell ref="BD26:BF26"/>
+    <mergeCell ref="BG26:BI26"/>
+    <mergeCell ref="BJ26:BK26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AO26:AQ26"/>
+    <mergeCell ref="AR26:AT26"/>
+    <mergeCell ref="AU26:AW26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="BD25:BF25"/>
+    <mergeCell ref="BG25:BI25"/>
+    <mergeCell ref="BJ25:BK25"/>
+    <mergeCell ref="BL25:BM25"/>
+    <mergeCell ref="BN25:BO25"/>
+    <mergeCell ref="BP25:BQ25"/>
+    <mergeCell ref="AO25:AQ25"/>
+    <mergeCell ref="AR25:AT25"/>
+    <mergeCell ref="AU25:AW25"/>
+    <mergeCell ref="AX25:AY25"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="BP24:BQ24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="BB24:BC24"/>
+    <mergeCell ref="BD24:BF24"/>
+    <mergeCell ref="BG24:BI24"/>
+    <mergeCell ref="BJ24:BK24"/>
+    <mergeCell ref="BL24:BM24"/>
+    <mergeCell ref="BN24:BO24"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AO24:AQ24"/>
+    <mergeCell ref="AR24:AT24"/>
+    <mergeCell ref="AU24:AW24"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="AE24:AG24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="BN23:BO23"/>
+    <mergeCell ref="BP23:BQ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="AZ23:BA23"/>
+    <mergeCell ref="BB23:BC23"/>
+    <mergeCell ref="BD23:BF23"/>
+    <mergeCell ref="BG23:BI23"/>
+    <mergeCell ref="BJ23:BK23"/>
+    <mergeCell ref="BL23:BM23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AO23:AQ23"/>
+    <mergeCell ref="AR23:AT23"/>
+    <mergeCell ref="AU23:AW23"/>
+    <mergeCell ref="AX23:AY23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
     <mergeCell ref="Y23:AA23"/>
     <mergeCell ref="AB23:AD23"/>
     <mergeCell ref="AE23:AG23"/>
@@ -19752,592 +20307,34 @@
     <mergeCell ref="AK22:AL22"/>
     <mergeCell ref="AM22:AN22"/>
     <mergeCell ref="AO22:AQ22"/>
-    <mergeCell ref="BN23:BO23"/>
-    <mergeCell ref="BP23:BQ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="AZ23:BA23"/>
-    <mergeCell ref="BB23:BC23"/>
-    <mergeCell ref="BD23:BF23"/>
-    <mergeCell ref="BG23:BI23"/>
-    <mergeCell ref="BJ23:BK23"/>
-    <mergeCell ref="BL23:BM23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AO23:AQ23"/>
-    <mergeCell ref="AR23:AT23"/>
-    <mergeCell ref="AU23:AW23"/>
-    <mergeCell ref="AX23:AY23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="AR24:AT24"/>
-    <mergeCell ref="AU24:AW24"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="AE24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AE25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="BP24:BQ24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="BB24:BC24"/>
-    <mergeCell ref="BD24:BF24"/>
-    <mergeCell ref="BG24:BI24"/>
-    <mergeCell ref="BJ24:BK24"/>
-    <mergeCell ref="BL24:BM24"/>
-    <mergeCell ref="BN24:BO24"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="AO24:AQ24"/>
-    <mergeCell ref="BD25:BF25"/>
-    <mergeCell ref="BG25:BI25"/>
-    <mergeCell ref="BJ25:BK25"/>
-    <mergeCell ref="BL25:BM25"/>
-    <mergeCell ref="BN25:BO25"/>
-    <mergeCell ref="BP25:BQ25"/>
-    <mergeCell ref="AO25:AQ25"/>
-    <mergeCell ref="AR25:AT25"/>
-    <mergeCell ref="AU25:AW25"/>
-    <mergeCell ref="AX25:AY25"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="AR26:AT26"/>
-    <mergeCell ref="AU26:AW26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="AE27:AG27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="BL26:BM26"/>
-    <mergeCell ref="BN26:BO26"/>
-    <mergeCell ref="BP26:BQ26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="AX26:AY26"/>
-    <mergeCell ref="AZ26:BA26"/>
-    <mergeCell ref="BB26:BC26"/>
-    <mergeCell ref="BD26:BF26"/>
-    <mergeCell ref="BG26:BI26"/>
-    <mergeCell ref="BJ26:BK26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AO26:AQ26"/>
-    <mergeCell ref="BN27:BO27"/>
-    <mergeCell ref="BP27:BQ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="AZ27:BA27"/>
-    <mergeCell ref="BB27:BC27"/>
-    <mergeCell ref="BD27:BF27"/>
-    <mergeCell ref="BG27:BI27"/>
-    <mergeCell ref="BJ27:BK27"/>
-    <mergeCell ref="BL27:BM27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AN27"/>
-    <mergeCell ref="AO27:AQ27"/>
-    <mergeCell ref="AR27:AT27"/>
-    <mergeCell ref="AU27:AW27"/>
-    <mergeCell ref="AX27:AY27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="AR28:AT28"/>
-    <mergeCell ref="AU28:AW28"/>
-    <mergeCell ref="AX28:AY28"/>
-    <mergeCell ref="AZ28:BA28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AE28:AG28"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="AE29:AG29"/>
-    <mergeCell ref="AH29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AN29"/>
-    <mergeCell ref="BP28:BQ28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="BB28:BC28"/>
-    <mergeCell ref="BD28:BF28"/>
-    <mergeCell ref="BG28:BI28"/>
-    <mergeCell ref="BJ28:BK28"/>
-    <mergeCell ref="BL28:BM28"/>
-    <mergeCell ref="BN28:BO28"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="AO28:AQ28"/>
-    <mergeCell ref="BD29:BF29"/>
-    <mergeCell ref="BG29:BI29"/>
-    <mergeCell ref="BJ29:BK29"/>
-    <mergeCell ref="BL29:BM29"/>
-    <mergeCell ref="BN29:BO29"/>
-    <mergeCell ref="BP29:BQ29"/>
-    <mergeCell ref="AO29:AQ29"/>
-    <mergeCell ref="AR29:AT29"/>
-    <mergeCell ref="AU29:AW29"/>
-    <mergeCell ref="AX29:AY29"/>
-    <mergeCell ref="AZ29:BA29"/>
-    <mergeCell ref="BB29:BC29"/>
-    <mergeCell ref="AR30:AT30"/>
-    <mergeCell ref="AU30:AW30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AE30:AG30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="AH31:AJ31"/>
-    <mergeCell ref="BL30:BM30"/>
-    <mergeCell ref="BN30:BO30"/>
-    <mergeCell ref="BP30:BQ30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="AX30:AY30"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="BB30:BC30"/>
-    <mergeCell ref="BD30:BF30"/>
-    <mergeCell ref="BG30:BI30"/>
-    <mergeCell ref="BJ30:BK30"/>
-    <mergeCell ref="AH30:AJ30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="AO30:AQ30"/>
-    <mergeCell ref="BN31:BO31"/>
-    <mergeCell ref="BP31:BQ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="AZ31:BA31"/>
-    <mergeCell ref="BB31:BC31"/>
-    <mergeCell ref="BD31:BF31"/>
-    <mergeCell ref="BG31:BI31"/>
-    <mergeCell ref="BJ31:BK31"/>
-    <mergeCell ref="BL31:BM31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AO31:AQ31"/>
-    <mergeCell ref="AR31:AT31"/>
-    <mergeCell ref="AU31:AW31"/>
-    <mergeCell ref="AX31:AY31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="AR32:AT32"/>
-    <mergeCell ref="AU32:AW32"/>
-    <mergeCell ref="AX32:AY32"/>
-    <mergeCell ref="AZ32:BA32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AE32:AG32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AE33:AG33"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="BP32:BQ32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="BB32:BC32"/>
-    <mergeCell ref="BD32:BF32"/>
-    <mergeCell ref="BG32:BI32"/>
-    <mergeCell ref="BJ32:BK32"/>
-    <mergeCell ref="BL32:BM32"/>
-    <mergeCell ref="BN32:BO32"/>
-    <mergeCell ref="AM32:AN32"/>
-    <mergeCell ref="AO32:AQ32"/>
-    <mergeCell ref="BD33:BF33"/>
-    <mergeCell ref="BG33:BI33"/>
-    <mergeCell ref="BJ33:BK33"/>
-    <mergeCell ref="BL33:BM33"/>
-    <mergeCell ref="BN33:BO33"/>
-    <mergeCell ref="BP33:BQ33"/>
-    <mergeCell ref="AO33:AQ33"/>
-    <mergeCell ref="AR33:AT33"/>
-    <mergeCell ref="AU33:AW33"/>
-    <mergeCell ref="AX33:AY33"/>
-    <mergeCell ref="AZ33:BA33"/>
-    <mergeCell ref="BB33:BC33"/>
-    <mergeCell ref="AR34:AT34"/>
-    <mergeCell ref="AU34:AW34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="AE34:AG34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="AB35:AD35"/>
-    <mergeCell ref="AE35:AG35"/>
-    <mergeCell ref="AH35:AJ35"/>
-    <mergeCell ref="BL34:BM34"/>
-    <mergeCell ref="BN34:BO34"/>
-    <mergeCell ref="BP34:BQ34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="AX34:AY34"/>
-    <mergeCell ref="AZ34:BA34"/>
-    <mergeCell ref="BB34:BC34"/>
-    <mergeCell ref="BD34:BF34"/>
-    <mergeCell ref="BG34:BI34"/>
-    <mergeCell ref="BJ34:BK34"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AO34:AQ34"/>
-    <mergeCell ref="BN35:BO35"/>
-    <mergeCell ref="BP35:BQ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="AZ35:BA35"/>
-    <mergeCell ref="BB35:BC35"/>
-    <mergeCell ref="BD35:BF35"/>
-    <mergeCell ref="BG35:BI35"/>
-    <mergeCell ref="BJ35:BK35"/>
-    <mergeCell ref="BL35:BM35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AT35"/>
-    <mergeCell ref="AU35:AW35"/>
-    <mergeCell ref="AX35:AY35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="AR36:AT36"/>
-    <mergeCell ref="AU36:AW36"/>
-    <mergeCell ref="AX36:AY36"/>
-    <mergeCell ref="AZ36:BA36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="AB36:AD36"/>
-    <mergeCell ref="AE36:AG36"/>
-    <mergeCell ref="AH36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="AE37:AG37"/>
-    <mergeCell ref="AH37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AN37"/>
-    <mergeCell ref="BP36:BQ36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="BB36:BC36"/>
-    <mergeCell ref="BD36:BF36"/>
-    <mergeCell ref="BG36:BI36"/>
-    <mergeCell ref="BJ36:BK36"/>
-    <mergeCell ref="BL36:BM36"/>
-    <mergeCell ref="BN36:BO36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AO36:AQ36"/>
-    <mergeCell ref="BD37:BF37"/>
-    <mergeCell ref="BG37:BI37"/>
-    <mergeCell ref="BJ37:BK37"/>
-    <mergeCell ref="BL37:BM37"/>
-    <mergeCell ref="BN37:BO37"/>
-    <mergeCell ref="BP37:BQ37"/>
-    <mergeCell ref="AO37:AQ37"/>
-    <mergeCell ref="AR37:AT37"/>
-    <mergeCell ref="AU37:AW37"/>
-    <mergeCell ref="AX37:AY37"/>
-    <mergeCell ref="AZ37:BA37"/>
-    <mergeCell ref="BB37:BC37"/>
-    <mergeCell ref="AR38:AT38"/>
-    <mergeCell ref="AU38:AW38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="AB38:AD38"/>
-    <mergeCell ref="AE38:AG38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="AB39:AD39"/>
-    <mergeCell ref="AE39:AG39"/>
-    <mergeCell ref="AH39:AJ39"/>
-    <mergeCell ref="BL38:BM38"/>
-    <mergeCell ref="BN38:BO38"/>
-    <mergeCell ref="BP38:BQ38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="AX38:AY38"/>
-    <mergeCell ref="AZ38:BA38"/>
-    <mergeCell ref="BB38:BC38"/>
-    <mergeCell ref="BD38:BF38"/>
-    <mergeCell ref="BG38:BI38"/>
-    <mergeCell ref="BJ38:BK38"/>
-    <mergeCell ref="AH38:AJ38"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AO38:AQ38"/>
-    <mergeCell ref="BN39:BO39"/>
-    <mergeCell ref="BP39:BQ39"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:BQ64"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="AZ39:BA39"/>
-    <mergeCell ref="BB39:BC39"/>
-    <mergeCell ref="BD39:BF39"/>
-    <mergeCell ref="BG39:BI39"/>
-    <mergeCell ref="BJ39:BK39"/>
-    <mergeCell ref="BL39:BM39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AM39:AN39"/>
-    <mergeCell ref="AO39:AQ39"/>
-    <mergeCell ref="AR39:AT39"/>
-    <mergeCell ref="AU39:AW39"/>
-    <mergeCell ref="AX39:AY39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="BL65:BM65"/>
-    <mergeCell ref="BN65:BO65"/>
-    <mergeCell ref="BP65:BQ65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="AV65:AW65"/>
-    <mergeCell ref="AX65:AY65"/>
-    <mergeCell ref="AZ65:BA65"/>
-    <mergeCell ref="BB65:BD65"/>
-    <mergeCell ref="BE65:BG65"/>
-    <mergeCell ref="BH65:BI65"/>
-    <mergeCell ref="AF65:AG65"/>
-    <mergeCell ref="AH65:AJ65"/>
-    <mergeCell ref="AK65:AL65"/>
-    <mergeCell ref="AM65:AO65"/>
-    <mergeCell ref="AP65:AR65"/>
-    <mergeCell ref="AS65:AU65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="AS66:AU66"/>
-    <mergeCell ref="AV66:AW66"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="W66:Y66"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="AC66:AE66"/>
-    <mergeCell ref="AF66:AG66"/>
-    <mergeCell ref="BJ65:BK65"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AC65:AE65"/>
-    <mergeCell ref="Z67:AB67"/>
-    <mergeCell ref="AC67:AE67"/>
-    <mergeCell ref="AF67:AG67"/>
-    <mergeCell ref="AH67:AJ67"/>
-    <mergeCell ref="BL66:BM66"/>
-    <mergeCell ref="BN66:BO66"/>
-    <mergeCell ref="BP66:BQ66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="S67:T67"/>
-    <mergeCell ref="AX66:AY66"/>
-    <mergeCell ref="AZ66:BA66"/>
-    <mergeCell ref="BB66:BD66"/>
-    <mergeCell ref="BE66:BG66"/>
-    <mergeCell ref="BH66:BI66"/>
-    <mergeCell ref="BJ66:BK66"/>
-    <mergeCell ref="AH66:AJ66"/>
-    <mergeCell ref="AK66:AL66"/>
-    <mergeCell ref="AM66:AO66"/>
-    <mergeCell ref="AP66:AR66"/>
-    <mergeCell ref="BN67:BO67"/>
-    <mergeCell ref="BP67:BQ67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="S68:T68"/>
-    <mergeCell ref="U68:V68"/>
-    <mergeCell ref="AZ67:BA67"/>
-    <mergeCell ref="BB67:BD67"/>
-    <mergeCell ref="BE67:BG67"/>
-    <mergeCell ref="BH67:BI67"/>
-    <mergeCell ref="BJ67:BK67"/>
-    <mergeCell ref="BL67:BM67"/>
-    <mergeCell ref="AK67:AL67"/>
-    <mergeCell ref="AM67:AO67"/>
-    <mergeCell ref="AP67:AR67"/>
-    <mergeCell ref="AS67:AU67"/>
-    <mergeCell ref="AV67:AW67"/>
-    <mergeCell ref="AX67:AY67"/>
-    <mergeCell ref="U67:V67"/>
-    <mergeCell ref="W67:Y67"/>
-    <mergeCell ref="AS68:AU68"/>
-    <mergeCell ref="AV68:AW68"/>
-    <mergeCell ref="AX68:AY68"/>
-    <mergeCell ref="AZ68:BA68"/>
-    <mergeCell ref="W68:Y68"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="AC68:AE68"/>
-    <mergeCell ref="AF68:AG68"/>
-    <mergeCell ref="AH68:AJ68"/>
-    <mergeCell ref="AK68:AL68"/>
-    <mergeCell ref="Z69:AB69"/>
-    <mergeCell ref="AC69:AE69"/>
-    <mergeCell ref="AF69:AG69"/>
-    <mergeCell ref="AH69:AJ69"/>
-    <mergeCell ref="AK69:AL69"/>
-    <mergeCell ref="AM69:AO69"/>
-    <mergeCell ref="BP68:BQ68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:P69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="S69:T69"/>
-    <mergeCell ref="U69:V69"/>
-    <mergeCell ref="W69:Y69"/>
-    <mergeCell ref="BB68:BD68"/>
-    <mergeCell ref="BE68:BG68"/>
-    <mergeCell ref="BH68:BI68"/>
-    <mergeCell ref="BJ68:BK68"/>
-    <mergeCell ref="BL68:BM68"/>
-    <mergeCell ref="BN68:BO68"/>
-    <mergeCell ref="AM68:AO68"/>
-    <mergeCell ref="AP68:AR68"/>
-    <mergeCell ref="BE69:BG69"/>
-    <mergeCell ref="BH69:BI69"/>
-    <mergeCell ref="BJ69:BK69"/>
-    <mergeCell ref="BL69:BM69"/>
-    <mergeCell ref="BN69:BO69"/>
-    <mergeCell ref="BP69:BQ69"/>
-    <mergeCell ref="AP69:AR69"/>
-    <mergeCell ref="AS69:AU69"/>
-    <mergeCell ref="AV69:AW69"/>
-    <mergeCell ref="AX69:AY69"/>
-    <mergeCell ref="AZ69:BA69"/>
-    <mergeCell ref="BB69:BD69"/>
+    <mergeCell ref="AR22:AT22"/>
+    <mergeCell ref="AU22:AW22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="M9:Z9"/>
+    <mergeCell ref="AA9:AP9"/>
+    <mergeCell ref="AQ9:AX9"/>
+    <mergeCell ref="AY9:BL9"/>
+    <mergeCell ref="A1:CA1"/>
+    <mergeCell ref="A7:BZ7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="M8:Z8"/>
+    <mergeCell ref="AA8:AP8"/>
+    <mergeCell ref="AQ8:AX8"/>
+    <mergeCell ref="AY8:BL8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Cleaned-Data/2018-Passouts/Sem-4_2018_Passout_cleaned.xlsx
+++ b/Cleaned-Data/2018-Passouts/Sem-4_2018_Passout_cleaned.xlsx
@@ -873,9 +873,6 @@
     <t>P/F</t>
   </si>
   <si>
-    <t>CGPA</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -1417,6 +1414,9 @@
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>GPA</t>
   </si>
 </sst>
 </file>
@@ -1876,6 +1876,114 @@
     <xf numFmtId="165" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1885,31 +1993,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1919,90 +2003,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2311,7 +2311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
@@ -2346,13 +2346,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D1" s="43" t="s">
         <v>65</v>
@@ -2421,12 +2421,12 @@
         <v>86</v>
       </c>
       <c r="Z1" s="39" t="s">
-        <v>87</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2498,7 +2498,7 @@
         <v>19</v>
       </c>
       <c r="Y2" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z2" s="39">
         <v>0</v>
@@ -2506,7 +2506,7 @@
     </row>
     <row r="3" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>19</v>
       </c>
       <c r="Y3" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z3" s="39">
         <v>6.29</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="4" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="45" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2658,7 +2658,7 @@
         <v>22</v>
       </c>
       <c r="Y4" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z4" s="39">
         <v>7.96</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="5" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>19</v>
       </c>
       <c r="Y5" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z5" s="39">
         <v>6.64</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="6" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="45" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2818,7 +2818,7 @@
         <v>21</v>
       </c>
       <c r="Y6" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z6" s="39">
         <v>9.43</v>
@@ -2826,7 +2826,7 @@
     </row>
     <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2898,7 +2898,7 @@
         <v>21</v>
       </c>
       <c r="Y7" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z7" s="39">
         <v>0</v>
@@ -2906,7 +2906,7 @@
     </row>
     <row r="8" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2978,7 +2978,7 @@
         <v>18</v>
       </c>
       <c r="Y8" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z8" s="39">
         <v>0</v>
@@ -2986,7 +2986,7 @@
     </row>
     <row r="9" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3058,7 +3058,7 @@
         <v>20</v>
       </c>
       <c r="Y9" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z9" s="39">
         <v>7.46</v>
@@ -3066,7 +3066,7 @@
     </row>
     <row r="10" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="45" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3138,7 +3138,7 @@
         <v>21</v>
       </c>
       <c r="Y10" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z10" s="39">
         <v>7.68</v>
@@ -3146,7 +3146,7 @@
     </row>
     <row r="11" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3218,7 +3218,7 @@
         <v>20</v>
       </c>
       <c r="Y11" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z11" s="39">
         <v>7.82</v>
@@ -3226,7 +3226,7 @@
     </row>
     <row r="12" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="45" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3298,7 +3298,7 @@
         <v>22</v>
       </c>
       <c r="Y12" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z12" s="39">
         <v>6.61</v>
@@ -3306,7 +3306,7 @@
     </row>
     <row r="13" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3378,7 +3378,7 @@
         <v>22</v>
       </c>
       <c r="Y13" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z13" s="39">
         <v>7.18</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="14" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3458,7 +3458,7 @@
         <v>20</v>
       </c>
       <c r="Y14" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z14" s="39">
         <v>5.32</v>
@@ -3466,7 +3466,7 @@
     </row>
     <row r="15" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="45" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3538,7 +3538,7 @@
         <v>23</v>
       </c>
       <c r="Y15" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z15" s="39">
         <v>7.96</v>
@@ -3546,7 +3546,7 @@
     </row>
     <row r="16" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3618,7 +3618,7 @@
         <v>20</v>
       </c>
       <c r="Y16" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z16" s="39">
         <v>0</v>
@@ -3626,7 +3626,7 @@
     </row>
     <row r="17" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3698,7 +3698,7 @@
         <v>19</v>
       </c>
       <c r="Y17" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z17" s="39">
         <v>0</v>
@@ -3706,7 +3706,7 @@
     </row>
     <row r="18" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3778,7 +3778,7 @@
         <v>24</v>
       </c>
       <c r="Y18" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z18" s="39">
         <v>6.64</v>
@@ -3786,7 +3786,7 @@
     </row>
     <row r="19" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="45" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3858,7 +3858,7 @@
         <v>20</v>
       </c>
       <c r="Y19" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z19" s="39">
         <v>0</v>
@@ -3866,7 +3866,7 @@
     </row>
     <row r="20" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="45" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3938,7 +3938,7 @@
         <v>21</v>
       </c>
       <c r="Y20" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z20" s="39">
         <v>8.89</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="21" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="45" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -4018,7 +4018,7 @@
         <v>22</v>
       </c>
       <c r="Y21" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z21" s="39">
         <v>8.64</v>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="22" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4098,7 +4098,7 @@
         <v>20</v>
       </c>
       <c r="Y22" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z22" s="39">
         <v>8.64</v>
@@ -4106,7 +4106,7 @@
     </row>
     <row r="23" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="45" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4178,7 +4178,7 @@
         <v>21</v>
       </c>
       <c r="Y23" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z23" s="39">
         <v>0</v>
@@ -4186,7 +4186,7 @@
     </row>
     <row r="24" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4258,7 +4258,7 @@
         <v>21</v>
       </c>
       <c r="Y24" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z24" s="39">
         <v>7.96</v>
@@ -4266,7 +4266,7 @@
     </row>
     <row r="25" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="45" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -4338,7 +4338,7 @@
         <v>23</v>
       </c>
       <c r="Y25" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z25" s="39">
         <v>8.32</v>
@@ -4346,7 +4346,7 @@
     </row>
     <row r="26" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4418,7 +4418,7 @@
         <v>20</v>
       </c>
       <c r="Y26" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z26" s="39">
         <v>0</v>
@@ -4426,7 +4426,7 @@
     </row>
     <row r="27" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4498,7 +4498,7 @@
         <v>20</v>
       </c>
       <c r="Y27" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z27" s="39">
         <v>0</v>
@@ -4506,7 +4506,7 @@
     </row>
     <row r="28" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="45" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -4578,7 +4578,7 @@
         <v>20</v>
       </c>
       <c r="Y28" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z28" s="39">
         <v>0</v>
@@ -4586,7 +4586,7 @@
     </row>
     <row r="29" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4658,7 +4658,7 @@
         <v>23</v>
       </c>
       <c r="Y29" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z29" s="39">
         <v>8.82</v>
@@ -4666,7 +4666,7 @@
     </row>
     <row r="30" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>18</v>
       </c>
       <c r="Y30" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z30" s="39">
         <v>5.61</v>
@@ -4746,7 +4746,7 @@
     </row>
     <row r="31" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="45" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4818,7 +4818,7 @@
         <v>20</v>
       </c>
       <c r="Y31" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z31" s="39">
         <v>7.57</v>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="32" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -4898,7 +4898,7 @@
         <v>18</v>
       </c>
       <c r="Y32" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z32" s="39">
         <v>0</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="33" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="45" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4978,7 +4978,7 @@
         <v>21</v>
       </c>
       <c r="Y33" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z33" s="39">
         <v>6.75</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="34" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="45" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -5058,7 +5058,7 @@
         <v>20</v>
       </c>
       <c r="Y34" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z34" s="39">
         <v>7.11</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="35" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>20</v>
       </c>
       <c r="Y35" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z35" s="39">
         <v>7.18</v>
@@ -5146,7 +5146,7 @@
     </row>
     <row r="36" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="45" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -5218,7 +5218,7 @@
         <v>19</v>
       </c>
       <c r="Y36" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z36" s="39">
         <v>0</v>
@@ -5226,7 +5226,7 @@
     </row>
     <row r="37" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="45" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -5298,7 +5298,7 @@
         <v>22</v>
       </c>
       <c r="Y37" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z37" s="39">
         <v>8.2100000000000009</v>
@@ -5306,7 +5306,7 @@
     </row>
     <row r="38" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="45" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -5378,7 +5378,7 @@
         <v>21</v>
       </c>
       <c r="Y38" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z38" s="39">
         <v>7.07</v>
@@ -5386,7 +5386,7 @@
     </row>
     <row r="39" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="45" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5458,7 +5458,7 @@
         <v>21</v>
       </c>
       <c r="Y39" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z39" s="39">
         <v>9.07</v>
@@ -5466,7 +5466,7 @@
     </row>
     <row r="40" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="45" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5538,7 +5538,7 @@
         <v>19</v>
       </c>
       <c r="Y40" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z40" s="39">
         <v>0</v>
@@ -5546,7 +5546,7 @@
     </row>
     <row r="41" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>23</v>
       </c>
       <c r="Y41" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z41" s="39">
         <v>0</v>
@@ -5626,7 +5626,7 @@
     </row>
     <row r="42" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -5698,7 +5698,7 @@
         <v>19</v>
       </c>
       <c r="Y42" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z42" s="39">
         <v>0</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="43" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -5778,7 +5778,7 @@
         <v>19</v>
       </c>
       <c r="Y43" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z43" s="39">
         <v>4.8600000000000003</v>
@@ -5786,7 +5786,7 @@
     </row>
     <row r="44" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5858,7 +5858,7 @@
         <v>20</v>
       </c>
       <c r="Y44" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z44" s="39">
         <v>6.79</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="45" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5938,7 +5938,7 @@
         <v>22</v>
       </c>
       <c r="Y45" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z45" s="39">
         <v>6.64</v>
@@ -5946,7 +5946,7 @@
     </row>
     <row r="46" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="45" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -6018,7 +6018,7 @@
         <v>21</v>
       </c>
       <c r="Y46" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z46" s="39">
         <v>8.39</v>
@@ -6026,7 +6026,7 @@
     </row>
     <row r="47" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -6098,7 +6098,7 @@
         <v>20</v>
       </c>
       <c r="Y47" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z47" s="39">
         <v>8.14</v>
@@ -6106,7 +6106,7 @@
     </row>
     <row r="48" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>20</v>
       </c>
       <c r="Y48" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z48" s="39">
         <v>0</v>
@@ -6186,7 +6186,7 @@
     </row>
     <row r="49" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -6258,7 +6258,7 @@
         <v>20</v>
       </c>
       <c r="Y49" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z49" s="39">
         <v>6.04</v>
@@ -6266,7 +6266,7 @@
     </row>
     <row r="50" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6338,7 +6338,7 @@
         <v>20</v>
       </c>
       <c r="Y50" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z50" s="39">
         <v>7.18</v>
@@ -6346,7 +6346,7 @@
     </row>
     <row r="51" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6418,7 +6418,7 @@
         <v>20</v>
       </c>
       <c r="Y51" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z51" s="39">
         <v>7.04</v>
@@ -6426,7 +6426,7 @@
     </row>
     <row r="52" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6498,7 +6498,7 @@
         <v>22</v>
       </c>
       <c r="Y52" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z52" s="39">
         <v>6.82</v>
@@ -6506,7 +6506,7 @@
     </row>
     <row r="53" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6578,7 +6578,7 @@
         <v>20</v>
       </c>
       <c r="Y53" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z53" s="39">
         <v>8.14</v>
@@ -6586,7 +6586,7 @@
     </row>
     <row r="54" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -6658,7 +6658,7 @@
         <v>22</v>
       </c>
       <c r="Y54" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z54" s="39">
         <v>9.07</v>
@@ -6666,7 +6666,7 @@
     </row>
     <row r="55" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A55" s="45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -6738,7 +6738,7 @@
         <v>22</v>
       </c>
       <c r="Y55" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z55" s="39">
         <v>8.07</v>
@@ -6746,7 +6746,7 @@
     </row>
     <row r="56" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A56" s="45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -6818,7 +6818,7 @@
         <v>22</v>
       </c>
       <c r="Y56" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z56" s="39">
         <v>8.61</v>
@@ -6826,7 +6826,7 @@
     </row>
     <row r="57" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6898,7 +6898,7 @@
         <v>21</v>
       </c>
       <c r="Y57" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z57" s="39">
         <v>7.07</v>
@@ -6906,7 +6906,7 @@
     </row>
     <row r="58" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6978,7 +6978,7 @@
         <v>22</v>
       </c>
       <c r="Y58" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z58" s="39">
         <v>8.11</v>
@@ -6986,7 +6986,7 @@
     </row>
     <row r="59" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A59" s="45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -7058,7 +7058,7 @@
         <v>21</v>
       </c>
       <c r="Y59" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z59" s="39">
         <v>6.29</v>
@@ -7066,7 +7066,7 @@
     </row>
     <row r="60" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A60" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -7138,7 +7138,7 @@
         <v>20</v>
       </c>
       <c r="Y60" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z60" s="39">
         <v>5.61</v>
@@ -7146,7 +7146,7 @@
     </row>
     <row r="61" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A61" s="45" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -7218,7 +7218,7 @@
         <v>19</v>
       </c>
       <c r="Y61" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z61" s="39">
         <v>0</v>
@@ -7226,7 +7226,7 @@
     </row>
     <row r="62" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A62" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -7298,7 +7298,7 @@
         <v>20</v>
       </c>
       <c r="Y62" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z62" s="39">
         <v>6.54</v>
@@ -7306,7 +7306,7 @@
     </row>
     <row r="63" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A63" s="45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -7378,7 +7378,7 @@
         <v>21</v>
       </c>
       <c r="Y63" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z63" s="39">
         <v>0</v>
@@ -7386,7 +7386,7 @@
     </row>
     <row r="64" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A64" s="45" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -7458,7 +7458,7 @@
         <v>19</v>
       </c>
       <c r="Y64" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z64" s="39">
         <v>0</v>
@@ -7466,7 +7466,7 @@
     </row>
     <row r="65" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A65" s="45" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -7538,7 +7538,7 @@
         <v>21</v>
       </c>
       <c r="Y65" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z65" s="39">
         <v>0</v>
@@ -7546,7 +7546,7 @@
     </row>
     <row r="66" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A66" s="45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -7618,7 +7618,7 @@
         <v>21</v>
       </c>
       <c r="Y66" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z66" s="39">
         <v>0</v>
@@ -7626,7 +7626,7 @@
     </row>
     <row r="67" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A67" s="45" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -7698,7 +7698,7 @@
         <v>20</v>
       </c>
       <c r="Y67" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z67" s="39">
         <v>0</v>
@@ -7706,7 +7706,7 @@
     </row>
     <row r="68" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A68" s="45" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -7778,7 +7778,7 @@
         <v>21</v>
       </c>
       <c r="Y68" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z68" s="39">
         <v>8.5399999999999991</v>
@@ -7786,7 +7786,7 @@
     </row>
     <row r="69" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A69" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>21</v>
       </c>
       <c r="Y69" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z69" s="39">
         <v>8.64</v>
@@ -7866,7 +7866,7 @@
     </row>
     <row r="70" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A70" s="45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -7938,7 +7938,7 @@
         <v>21</v>
       </c>
       <c r="Y70" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z70" s="39">
         <v>6.82</v>
@@ -7946,7 +7946,7 @@
     </row>
     <row r="71" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A71" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -8018,7 +8018,7 @@
         <v>18</v>
       </c>
       <c r="Y71" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z71" s="39">
         <v>0</v>
@@ -8026,7 +8026,7 @@
     </row>
     <row r="72" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A72" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -8098,7 +8098,7 @@
         <v>21</v>
       </c>
       <c r="Y72" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z72" s="39">
         <v>7.04</v>
@@ -8106,7 +8106,7 @@
     </row>
     <row r="73" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A73" s="45" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -8178,7 +8178,7 @@
         <v>21</v>
       </c>
       <c r="Y73" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z73" s="39">
         <v>0</v>
@@ -8186,7 +8186,7 @@
     </row>
     <row r="74" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A74" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -8258,7 +8258,7 @@
         <v>24</v>
       </c>
       <c r="Y74" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z74" s="39">
         <v>8.7899999999999991</v>
@@ -8266,7 +8266,7 @@
     </row>
     <row r="75" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A75" s="45" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -8338,7 +8338,7 @@
         <v>20</v>
       </c>
       <c r="Y75" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z75" s="39">
         <v>6.93</v>
@@ -8346,7 +8346,7 @@
     </row>
     <row r="76" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A76" s="45" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -8418,7 +8418,7 @@
         <v>22</v>
       </c>
       <c r="Y76" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z76" s="39">
         <v>7.57</v>
@@ -8426,7 +8426,7 @@
     </row>
     <row r="77" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A77" s="45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -8498,7 +8498,7 @@
         <v>23</v>
       </c>
       <c r="Y77" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z77" s="39">
         <v>9.7100000000000009</v>
@@ -8506,7 +8506,7 @@
     </row>
     <row r="78" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -8578,7 +8578,7 @@
         <v>21</v>
       </c>
       <c r="Y78" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z78" s="39">
         <v>7.89</v>
@@ -8586,7 +8586,7 @@
     </row>
     <row r="79" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -8658,7 +8658,7 @@
         <v>20</v>
       </c>
       <c r="Y79" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z79" s="39">
         <v>6.71</v>
@@ -8666,7 +8666,7 @@
     </row>
     <row r="80" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A80" s="45" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -8738,7 +8738,7 @@
         <v>21</v>
       </c>
       <c r="Y80" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z80" s="39">
         <v>9.36</v>
@@ -8746,7 +8746,7 @@
     </row>
     <row r="81" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -8818,7 +8818,7 @@
         <v>22</v>
       </c>
       <c r="Y81" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z81" s="39">
         <v>8.07</v>
@@ -8826,7 +8826,7 @@
     </row>
     <row r="82" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -8898,7 +8898,7 @@
         <v>22</v>
       </c>
       <c r="Y82" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z82" s="39">
         <v>6.32</v>
@@ -8906,7 +8906,7 @@
     </row>
     <row r="83" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A83" s="45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -8978,7 +8978,7 @@
         <v>22</v>
       </c>
       <c r="Y83" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z83" s="39">
         <v>8.82</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="84" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A84" s="45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -9058,7 +9058,7 @@
         <v>19</v>
       </c>
       <c r="Y84" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z84" s="39">
         <v>0</v>
@@ -9066,7 +9066,7 @@
     </row>
     <row r="85" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A85" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -9138,7 +9138,7 @@
         <v>22</v>
       </c>
       <c r="Y85" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z85" s="39">
         <v>0</v>
@@ -9146,7 +9146,7 @@
     </row>
     <row r="86" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A86" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -9218,7 +9218,7 @@
         <v>20</v>
       </c>
       <c r="Y86" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z86" s="39">
         <v>8.4600000000000009</v>
@@ -9226,7 +9226,7 @@
     </row>
     <row r="87" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A87" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -9298,7 +9298,7 @@
         <v>22</v>
       </c>
       <c r="Y87" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z87" s="39">
         <v>0</v>
@@ -9306,7 +9306,7 @@
     </row>
     <row r="88" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A88" s="45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -9378,7 +9378,7 @@
         <v>22</v>
       </c>
       <c r="Y88" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z88" s="39">
         <v>0</v>
@@ -9386,7 +9386,7 @@
     </row>
     <row r="89" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="45" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -9458,7 +9458,7 @@
         <v>21</v>
       </c>
       <c r="Y89" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z89" s="39">
         <v>6.96</v>
@@ -9466,7 +9466,7 @@
     </row>
     <row r="90" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A90" s="45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -9538,7 +9538,7 @@
         <v>22</v>
       </c>
       <c r="Y90" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z90" s="39">
         <v>6.96</v>
@@ -9546,7 +9546,7 @@
     </row>
     <row r="91" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A91" s="45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -9618,7 +9618,7 @@
         <v>20</v>
       </c>
       <c r="Y91" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z91" s="39">
         <v>0</v>
@@ -9626,7 +9626,7 @@
     </row>
     <row r="92" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A92" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -9698,7 +9698,7 @@
         <v>18</v>
       </c>
       <c r="Y92" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z92" s="39">
         <v>0</v>
@@ -9706,7 +9706,7 @@
     </row>
     <row r="93" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A93" s="45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -9778,7 +9778,7 @@
         <v>19</v>
       </c>
       <c r="Y93" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z93" s="39">
         <v>8.2899999999999991</v>
@@ -9786,7 +9786,7 @@
     </row>
     <row r="94" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A94" s="45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -9858,7 +9858,7 @@
         <v>20</v>
       </c>
       <c r="Y94" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z94" s="39">
         <v>0</v>
@@ -9866,7 +9866,7 @@
     </row>
     <row r="95" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A95" s="45" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -9938,7 +9938,7 @@
         <v>17</v>
       </c>
       <c r="Y95" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z95" s="39">
         <v>7.29</v>
@@ -9946,7 +9946,7 @@
     </row>
     <row r="96" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A96" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -10018,7 +10018,7 @@
         <v>20</v>
       </c>
       <c r="Y96" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z96" s="39">
         <v>0</v>
@@ -10026,7 +10026,7 @@
     </row>
     <row r="97" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A97" s="45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -10098,7 +10098,7 @@
         <v>20</v>
       </c>
       <c r="Y97" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z97" s="39">
         <v>6.86</v>
@@ -10106,7 +10106,7 @@
     </row>
     <row r="98" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A98" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -10178,7 +10178,7 @@
         <v>17</v>
       </c>
       <c r="Y98" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z98" s="39">
         <v>0</v>
@@ -10186,7 +10186,7 @@
     </row>
     <row r="99" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A99" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -10258,7 +10258,7 @@
         <v>18</v>
       </c>
       <c r="Y99" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z99" s="39">
         <v>0</v>
@@ -10266,7 +10266,7 @@
     </row>
     <row r="100" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A100" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -10338,7 +10338,7 @@
         <v>17</v>
       </c>
       <c r="Y100" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z100" s="39">
         <v>0</v>
@@ -10346,7 +10346,7 @@
     </row>
     <row r="101" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A101" s="45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B101">
         <v>1</v>
@@ -10418,7 +10418,7 @@
         <v>20</v>
       </c>
       <c r="Y101" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z101" s="39">
         <v>8.7899999999999991</v>
@@ -10426,7 +10426,7 @@
     </row>
     <row r="102" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A102" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -10498,7 +10498,7 @@
         <v>17</v>
       </c>
       <c r="Y102" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z102" s="39">
         <v>6.07</v>
@@ -10506,7 +10506,7 @@
     </row>
     <row r="103" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A103" s="45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -10578,7 +10578,7 @@
         <v>23</v>
       </c>
       <c r="Y103" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z103" s="39">
         <v>7.86</v>
@@ -10586,7 +10586,7 @@
     </row>
     <row r="104" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A104" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -10658,7 +10658,7 @@
         <v>21</v>
       </c>
       <c r="Y104" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z104" s="39">
         <v>0</v>
@@ -10666,7 +10666,7 @@
     </row>
     <row r="105" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A105" s="45" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -10738,7 +10738,7 @@
         <v>18</v>
       </c>
       <c r="Y105" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z105" s="39">
         <v>0</v>
@@ -10746,7 +10746,7 @@
     </row>
     <row r="106" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A106" s="45" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -10818,7 +10818,7 @@
         <v>19</v>
       </c>
       <c r="Y106" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z106" s="39">
         <v>0</v>
@@ -10826,7 +10826,7 @@
     </row>
     <row r="107" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A107" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -10898,7 +10898,7 @@
         <v>17</v>
       </c>
       <c r="Y107" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z107" s="39">
         <v>0</v>
@@ -10906,7 +10906,7 @@
     </row>
     <row r="108" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A108" s="45" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -10978,7 +10978,7 @@
         <v>23</v>
       </c>
       <c r="Y108" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z108" s="39">
         <v>7.75</v>
@@ -10986,7 +10986,7 @@
     </row>
     <row r="109" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A109" s="45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -11058,7 +11058,7 @@
         <v>18</v>
       </c>
       <c r="Y109" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z109" s="39">
         <v>0</v>
@@ -11066,7 +11066,7 @@
     </row>
     <row r="110" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A110" s="45" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>19</v>
       </c>
       <c r="Y110" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z110" s="39">
         <v>0</v>
@@ -11146,7 +11146,7 @@
     </row>
     <row r="111" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A111" s="45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -11218,7 +11218,7 @@
         <v>23</v>
       </c>
       <c r="Y111" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z111" s="39">
         <v>7.82</v>
@@ -11226,7 +11226,7 @@
     </row>
     <row r="112" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A112" s="45" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -11298,7 +11298,7 @@
         <v>17</v>
       </c>
       <c r="Y112" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z112" s="39">
         <v>0</v>
@@ -11306,7 +11306,7 @@
     </row>
     <row r="113" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A113" s="45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>24</v>
       </c>
       <c r="Y113" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z113" s="39">
         <v>9.82</v>
@@ -11386,7 +11386,7 @@
     </row>
     <row r="114" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A114" s="45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -11458,7 +11458,7 @@
         <v>22</v>
       </c>
       <c r="Y114" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z114" s="39">
         <v>8.0399999999999991</v>
@@ -11466,7 +11466,7 @@
     </row>
     <row r="115" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A115" s="45" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -11538,7 +11538,7 @@
         <v>18</v>
       </c>
       <c r="Y115" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z115" s="39">
         <v>0</v>
@@ -11546,7 +11546,7 @@
     </row>
     <row r="116" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A116" s="45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B116">
         <v>1</v>
@@ -11618,7 +11618,7 @@
         <v>18</v>
       </c>
       <c r="Y116" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z116" s="39">
         <v>6.79</v>
@@ -11626,7 +11626,7 @@
     </row>
     <row r="117" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A117" s="45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -11698,7 +11698,7 @@
         <v>23</v>
       </c>
       <c r="Y117" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z117" s="39">
         <v>7.96</v>
@@ -11706,7 +11706,7 @@
     </row>
     <row r="118" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A118" s="45" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -11778,7 +11778,7 @@
         <v>17</v>
       </c>
       <c r="Y118" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z118" s="39">
         <v>0</v>
@@ -11786,7 +11786,7 @@
     </row>
     <row r="119" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A119" s="45" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -11858,7 +11858,7 @@
         <v>22</v>
       </c>
       <c r="Y119" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z119" s="39">
         <v>0</v>
@@ -11866,7 +11866,7 @@
     </row>
     <row r="120" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A120" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -11938,7 +11938,7 @@
         <v>17</v>
       </c>
       <c r="Y120" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z120" s="39">
         <v>7.86</v>
@@ -11946,7 +11946,7 @@
     </row>
     <row r="121" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A121" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -12018,7 +12018,7 @@
         <v>17</v>
       </c>
       <c r="Y121" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z121" s="39">
         <v>0</v>
@@ -12026,7 +12026,7 @@
     </row>
     <row r="122" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A122" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B122">
         <v>1</v>
@@ -12098,7 +12098,7 @@
         <v>23</v>
       </c>
       <c r="Y122" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z122" s="39">
         <v>8.89</v>
@@ -12106,7 +12106,7 @@
     </row>
     <row r="123" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A123" s="45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -12178,7 +12178,7 @@
         <v>0</v>
       </c>
       <c r="Y123" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z123" s="39">
         <v>0</v>
@@ -12186,7 +12186,7 @@
     </row>
     <row r="124" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A124" s="45" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -12258,7 +12258,7 @@
         <v>22</v>
       </c>
       <c r="Y124" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z124" s="39">
         <v>8.25</v>
@@ -12266,7 +12266,7 @@
     </row>
     <row r="125" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A125" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -12338,7 +12338,7 @@
         <v>19</v>
       </c>
       <c r="Y125" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z125" s="39">
         <v>0</v>
@@ -12346,7 +12346,7 @@
     </row>
     <row r="126" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A126" s="45" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -12418,7 +12418,7 @@
         <v>19</v>
       </c>
       <c r="Y126" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z126" s="39">
         <v>0</v>
@@ -12426,7 +12426,7 @@
     </row>
     <row r="127" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A127" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -12498,7 +12498,7 @@
         <v>18</v>
       </c>
       <c r="Y127" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z127" s="39">
         <v>0</v>
@@ -12506,7 +12506,7 @@
     </row>
     <row r="128" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A128" s="45" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -12578,7 +12578,7 @@
         <v>18</v>
       </c>
       <c r="Y128" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z128" s="39">
         <v>0</v>
@@ -12586,7 +12586,7 @@
     </row>
     <row r="129" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A129" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -12658,7 +12658,7 @@
         <v>23</v>
       </c>
       <c r="Y129" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z129" s="39">
         <v>8.43</v>
@@ -12666,7 +12666,7 @@
     </row>
     <row r="130" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A130" s="45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -12738,7 +12738,7 @@
         <v>18</v>
       </c>
       <c r="Y130" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z130" s="39">
         <v>0</v>
@@ -12746,7 +12746,7 @@
     </row>
     <row r="131" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A131" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -12818,7 +12818,7 @@
         <v>18</v>
       </c>
       <c r="Y131" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z131" s="39">
         <v>8.43</v>
@@ -12826,7 +12826,7 @@
     </row>
     <row r="132" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A132" s="45" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -12898,7 +12898,7 @@
         <v>18</v>
       </c>
       <c r="Y132" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z132" s="39">
         <v>6.57</v>
@@ -12906,7 +12906,7 @@
     </row>
     <row r="133" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A133" s="45" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -12978,15 +12978,15 @@
         <v>18</v>
       </c>
       <c r="Y133" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z133" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="134" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A134" s="45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -13058,7 +13058,7 @@
         <v>17</v>
       </c>
       <c r="Y134" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z134" s="39">
         <v>0</v>
@@ -13066,7 +13066,7 @@
     </row>
     <row r="135" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A135" s="45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -13138,7 +13138,7 @@
         <v>19</v>
       </c>
       <c r="Y135" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z135" s="39">
         <v>7.43</v>
@@ -13146,7 +13146,7 @@
     </row>
     <row r="136" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A136" s="45" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B136">
         <v>1</v>
@@ -13218,7 +13218,7 @@
         <v>20</v>
       </c>
       <c r="Y136" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z136" s="39">
         <v>7.18</v>
@@ -13226,7 +13226,7 @@
     </row>
     <row r="137" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A137" s="45" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -13298,7 +13298,7 @@
         <v>18</v>
       </c>
       <c r="Y137" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z137" s="39">
         <v>0</v>
@@ -13306,7 +13306,7 @@
     </row>
     <row r="138" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A138" s="45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -13378,7 +13378,7 @@
         <v>17</v>
       </c>
       <c r="Y138" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z138" s="39">
         <v>0</v>
@@ -13386,7 +13386,7 @@
     </row>
     <row r="139" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A139" s="45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -13458,7 +13458,7 @@
         <v>22</v>
       </c>
       <c r="Y139" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z139" s="39">
         <v>7.89</v>
@@ -13466,7 +13466,7 @@
     </row>
     <row r="140" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A140" s="45" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -13538,7 +13538,7 @@
         <v>19</v>
       </c>
       <c r="Y140" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z140" s="39">
         <v>0</v>
@@ -13546,7 +13546,7 @@
     </row>
     <row r="141" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A141" s="45" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -13618,7 +13618,7 @@
         <v>19</v>
       </c>
       <c r="Y141" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z141" s="39">
         <v>0</v>
@@ -13626,7 +13626,7 @@
     </row>
     <row r="142" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A142" s="45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -13698,7 +13698,7 @@
         <v>20</v>
       </c>
       <c r="Y142" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z142" s="39">
         <v>6.21</v>
@@ -13706,7 +13706,7 @@
     </row>
     <row r="143" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A143" s="45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -13778,7 +13778,7 @@
         <v>22</v>
       </c>
       <c r="Y143" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z143" s="39">
         <v>9.18</v>
@@ -13786,7 +13786,7 @@
     </row>
     <row r="144" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A144" s="45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -13858,7 +13858,7 @@
         <v>19</v>
       </c>
       <c r="Y144" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z144" s="39">
         <v>5.96</v>
@@ -13866,7 +13866,7 @@
     </row>
     <row r="145" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A145" s="45" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -13938,7 +13938,7 @@
         <v>22</v>
       </c>
       <c r="Y145" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z145" s="39">
         <v>0</v>
@@ -13946,7 +13946,7 @@
     </row>
     <row r="146" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A146" s="45" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -14018,7 +14018,7 @@
         <v>18</v>
       </c>
       <c r="Y146" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z146" s="39">
         <v>5</v>
@@ -14026,7 +14026,7 @@
     </row>
     <row r="147" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A147" s="45" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -14098,7 +14098,7 @@
         <v>23</v>
       </c>
       <c r="Y147" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z147" s="39">
         <v>9.14</v>
@@ -14106,7 +14106,7 @@
     </row>
     <row r="148" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A148" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -14178,7 +14178,7 @@
         <v>23</v>
       </c>
       <c r="Y148" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z148" s="39">
         <v>8.61</v>
@@ -14186,7 +14186,7 @@
     </row>
     <row r="149" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A149" s="45" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -14258,7 +14258,7 @@
         <v>23</v>
       </c>
       <c r="Y149" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z149" s="39">
         <v>8.93</v>
@@ -14266,7 +14266,7 @@
     </row>
     <row r="150" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A150" s="45" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -14338,7 +14338,7 @@
         <v>18</v>
       </c>
       <c r="Y150" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z150" s="39">
         <v>0</v>
@@ -14346,7 +14346,7 @@
     </row>
     <row r="151" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A151" s="45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -14418,7 +14418,7 @@
         <v>21</v>
       </c>
       <c r="Y151" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z151" s="39">
         <v>0</v>
@@ -14426,7 +14426,7 @@
     </row>
     <row r="152" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A152" s="45" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -14498,7 +14498,7 @@
         <v>24</v>
       </c>
       <c r="Y152" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z152" s="39">
         <v>9.7100000000000009</v>
@@ -14506,7 +14506,7 @@
     </row>
     <row r="153" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A153" s="45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -14578,7 +14578,7 @@
         <v>19</v>
       </c>
       <c r="Y153" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z153" s="39">
         <v>6.86</v>
@@ -14586,7 +14586,7 @@
     </row>
     <row r="154" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A154" s="45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -14658,7 +14658,7 @@
         <v>17</v>
       </c>
       <c r="Y154" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z154" s="39">
         <v>0</v>
@@ -14666,7 +14666,7 @@
     </row>
     <row r="155" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A155" s="45" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -14738,7 +14738,7 @@
         <v>18</v>
       </c>
       <c r="Y155" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z155" s="39">
         <v>0</v>
@@ -14746,7 +14746,7 @@
     </row>
     <row r="156" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A156" s="45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -14818,7 +14818,7 @@
         <v>12</v>
       </c>
       <c r="Y156" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z156" s="39">
         <v>0</v>
@@ -14826,7 +14826,7 @@
     </row>
     <row r="157" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A157" s="45" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -14898,7 +14898,7 @@
         <v>21</v>
       </c>
       <c r="Y157" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z157" s="39">
         <v>5.86</v>
@@ -14906,7 +14906,7 @@
     </row>
     <row r="158" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A158" s="45" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -14978,7 +14978,7 @@
         <v>12</v>
       </c>
       <c r="Y158" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z158" s="39">
         <v>0</v>
@@ -14986,7 +14986,7 @@
     </row>
     <row r="159" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A159" s="45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -15058,7 +15058,7 @@
         <v>14</v>
       </c>
       <c r="Y159" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z159" s="39">
         <v>6.21</v>
@@ -15066,7 +15066,7 @@
     </row>
     <row r="160" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A160" s="45" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -15138,7 +15138,7 @@
         <v>15</v>
       </c>
       <c r="Y160" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z160" s="39">
         <v>4.68</v>
@@ -15146,7 +15146,7 @@
     </row>
     <row r="161" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A161" s="45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -15218,7 +15218,7 @@
         <v>16</v>
       </c>
       <c r="Y161" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z161" s="39">
         <v>0</v>
@@ -15226,7 +15226,7 @@
     </row>
     <row r="162" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A162" s="45" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -15298,7 +15298,7 @@
         <v>17</v>
       </c>
       <c r="Y162" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z162" s="39">
         <v>0</v>
@@ -15306,7 +15306,7 @@
     </row>
     <row r="163" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A163" s="45" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -15378,7 +15378,7 @@
         <v>16</v>
       </c>
       <c r="Y163" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z163" s="39">
         <v>0</v>
@@ -15386,7 +15386,7 @@
     </row>
     <row r="164" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A164" s="45" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -15458,7 +15458,7 @@
         <v>21</v>
       </c>
       <c r="Y164" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z164" s="39">
         <v>5.36</v>
@@ -15466,7 +15466,7 @@
     </row>
     <row r="165" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A165" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -15538,7 +15538,7 @@
         <v>16</v>
       </c>
       <c r="Y165" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z165" s="39">
         <v>0</v>
@@ -15546,7 +15546,7 @@
     </row>
     <row r="166" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A166" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -15618,7 +15618,7 @@
         <v>15</v>
       </c>
       <c r="Y166" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z166" s="39">
         <v>0</v>
@@ -15626,7 +15626,7 @@
     </row>
     <row r="167" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A167" s="45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -15698,7 +15698,7 @@
         <v>15</v>
       </c>
       <c r="Y167" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z167" s="39">
         <v>5.36</v>
@@ -15706,7 +15706,7 @@
     </row>
     <row r="168" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A168" s="45" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -15778,7 +15778,7 @@
         <v>18</v>
       </c>
       <c r="Y168" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z168" s="39">
         <v>0</v>
@@ -15786,7 +15786,7 @@
     </row>
     <row r="169" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A169" s="45" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -15858,7 +15858,7 @@
         <v>18</v>
       </c>
       <c r="Y169" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z169" s="39">
         <v>0</v>
@@ -15866,7 +15866,7 @@
     </row>
     <row r="170" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A170" s="45" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -15938,7 +15938,7 @@
         <v>14</v>
       </c>
       <c r="Y170" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Z170" s="39">
         <v>6.04</v>
@@ -15946,7 +15946,7 @@
     </row>
     <row r="171" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A171" s="45" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -16018,7 +16018,7 @@
         <v>20</v>
       </c>
       <c r="Y171" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z171" s="39">
         <v>0</v>
@@ -16026,7 +16026,7 @@
     </row>
     <row r="172" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A172" s="45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -16098,7 +16098,7 @@
         <v>17</v>
       </c>
       <c r="Y172" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z172" s="39">
         <v>0</v>
@@ -16106,7 +16106,7 @@
     </row>
     <row r="173" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A173" s="45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -16178,7 +16178,7 @@
         <v>16</v>
       </c>
       <c r="Y173" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z173" s="39">
         <v>0</v>
@@ -16186,7 +16186,7 @@
     </row>
     <row r="174" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A174" s="45" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -16258,7 +16258,7 @@
         <v>18</v>
       </c>
       <c r="Y174" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z174" s="39">
         <v>0</v>
@@ -16266,7 +16266,7 @@
     </row>
     <row r="175" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A175" s="45" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -16338,7 +16338,7 @@
         <v>20</v>
       </c>
       <c r="Y175" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z175" s="39">
         <v>0</v>
@@ -16346,7 +16346,7 @@
     </row>
     <row r="176" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A176" s="45" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -16418,7 +16418,7 @@
         <v>19</v>
       </c>
       <c r="Y176" s="40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Z176" s="39">
         <v>0</v>
@@ -16441,86 +16441,86 @@
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:79" ht="83.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
-      <c r="O1" s="58"/>
-      <c r="P1" s="58"/>
-      <c r="Q1" s="58"/>
-      <c r="R1" s="58"/>
-      <c r="S1" s="58"/>
-      <c r="T1" s="58"/>
-      <c r="U1" s="58"/>
-      <c r="V1" s="58"/>
-      <c r="W1" s="58"/>
-      <c r="X1" s="58"/>
-      <c r="Y1" s="58"/>
-      <c r="Z1" s="58"/>
-      <c r="AA1" s="58"/>
-      <c r="AB1" s="58"/>
-      <c r="AC1" s="58"/>
-      <c r="AD1" s="58"/>
-      <c r="AE1" s="58"/>
-      <c r="AF1" s="58"/>
-      <c r="AG1" s="58"/>
-      <c r="AH1" s="58"/>
-      <c r="AI1" s="58"/>
-      <c r="AJ1" s="58"/>
-      <c r="AK1" s="58"/>
-      <c r="AL1" s="58"/>
-      <c r="AM1" s="58"/>
-      <c r="AN1" s="58"/>
-      <c r="AO1" s="58"/>
-      <c r="AP1" s="58"/>
-      <c r="AQ1" s="58"/>
-      <c r="AR1" s="58"/>
-      <c r="AS1" s="58"/>
-      <c r="AT1" s="58"/>
-      <c r="AU1" s="58"/>
-      <c r="AV1" s="58"/>
-      <c r="AW1" s="58"/>
-      <c r="AX1" s="58"/>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="58"/>
-      <c r="BD1" s="58"/>
-      <c r="BE1" s="58"/>
-      <c r="BF1" s="58"/>
-      <c r="BG1" s="58"/>
-      <c r="BH1" s="58"/>
-      <c r="BI1" s="58"/>
-      <c r="BJ1" s="58"/>
-      <c r="BK1" s="58"/>
-      <c r="BL1" s="58"/>
-      <c r="BM1" s="58"/>
-      <c r="BN1" s="58"/>
-      <c r="BO1" s="58"/>
-      <c r="BP1" s="58"/>
-      <c r="BQ1" s="58"/>
-      <c r="BR1" s="58"/>
-      <c r="BS1" s="58"/>
-      <c r="BT1" s="58"/>
-      <c r="BU1" s="58"/>
-      <c r="BV1" s="58"/>
-      <c r="BW1" s="58"/>
-      <c r="BX1" s="58"/>
-      <c r="BY1" s="58"/>
-      <c r="BZ1" s="58"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="48"/>
+      <c r="AK1" s="48"/>
+      <c r="AL1" s="48"/>
+      <c r="AM1" s="48"/>
+      <c r="AN1" s="48"/>
+      <c r="AO1" s="48"/>
+      <c r="AP1" s="48"/>
+      <c r="AQ1" s="48"/>
+      <c r="AR1" s="48"/>
+      <c r="AS1" s="48"/>
+      <c r="AT1" s="48"/>
+      <c r="AU1" s="48"/>
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="48"/>
+      <c r="AX1" s="48"/>
+      <c r="AY1" s="48"/>
+      <c r="AZ1" s="48"/>
+      <c r="BA1" s="48"/>
+      <c r="BB1" s="48"/>
+      <c r="BC1" s="48"/>
+      <c r="BD1" s="48"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="48"/>
+      <c r="BG1" s="48"/>
+      <c r="BH1" s="48"/>
+      <c r="BI1" s="48"/>
+      <c r="BJ1" s="48"/>
+      <c r="BK1" s="48"/>
+      <c r="BL1" s="48"/>
+      <c r="BM1" s="48"/>
+      <c r="BN1" s="48"/>
+      <c r="BO1" s="48"/>
+      <c r="BP1" s="48"/>
+      <c r="BQ1" s="48"/>
+      <c r="BR1" s="48"/>
+      <c r="BS1" s="48"/>
+      <c r="BT1" s="48"/>
+      <c r="BU1" s="48"/>
+      <c r="BV1" s="48"/>
+      <c r="BW1" s="48"/>
+      <c r="BX1" s="48"/>
+      <c r="BY1" s="48"/>
+      <c r="BZ1" s="48"/>
       <c r="CA1" s="59"/>
     </row>
     <row r="2" spans="1:79" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -16549,242 +16549,242 @@
       </c>
     </row>
     <row r="7" spans="1:79" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="61"/>
-      <c r="AA7" s="61"/>
-      <c r="AB7" s="61"/>
-      <c r="AC7" s="61"/>
-      <c r="AD7" s="61"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="61"/>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="61"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="61"/>
-      <c r="AL7" s="61"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="61"/>
-      <c r="AO7" s="61"/>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="61"/>
-      <c r="AS7" s="61"/>
-      <c r="AT7" s="61"/>
-      <c r="AU7" s="61"/>
-      <c r="AV7" s="61"/>
-      <c r="AW7" s="61"/>
-      <c r="AX7" s="61"/>
-      <c r="AY7" s="61"/>
-      <c r="AZ7" s="61"/>
-      <c r="BA7" s="61"/>
-      <c r="BB7" s="61"/>
-      <c r="BC7" s="61"/>
-      <c r="BD7" s="61"/>
-      <c r="BE7" s="61"/>
-      <c r="BF7" s="61"/>
-      <c r="BG7" s="61"/>
-      <c r="BH7" s="61"/>
-      <c r="BI7" s="61"/>
-      <c r="BJ7" s="61"/>
-      <c r="BK7" s="61"/>
-      <c r="BL7" s="61"/>
-      <c r="BM7" s="61"/>
-      <c r="BN7" s="61"/>
-      <c r="BO7" s="61"/>
-      <c r="BP7" s="61"/>
-      <c r="BQ7" s="61"/>
-      <c r="BR7" s="61"/>
-      <c r="BS7" s="61"/>
-      <c r="BT7" s="61"/>
-      <c r="BU7" s="61"/>
-      <c r="BV7" s="61"/>
-      <c r="BW7" s="61"/>
-      <c r="BX7" s="61"/>
-      <c r="BY7" s="61"/>
-      <c r="BZ7" s="62"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
+      <c r="Q7" s="89"/>
+      <c r="R7" s="89"/>
+      <c r="S7" s="89"/>
+      <c r="T7" s="89"/>
+      <c r="U7" s="89"/>
+      <c r="V7" s="89"/>
+      <c r="W7" s="89"/>
+      <c r="X7" s="89"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="89"/>
+      <c r="AB7" s="89"/>
+      <c r="AC7" s="89"/>
+      <c r="AD7" s="89"/>
+      <c r="AE7" s="89"/>
+      <c r="AF7" s="89"/>
+      <c r="AG7" s="89"/>
+      <c r="AH7" s="89"/>
+      <c r="AI7" s="89"/>
+      <c r="AJ7" s="89"/>
+      <c r="AK7" s="89"/>
+      <c r="AL7" s="89"/>
+      <c r="AM7" s="89"/>
+      <c r="AN7" s="89"/>
+      <c r="AO7" s="89"/>
+      <c r="AP7" s="89"/>
+      <c r="AQ7" s="89"/>
+      <c r="AR7" s="89"/>
+      <c r="AS7" s="89"/>
+      <c r="AT7" s="89"/>
+      <c r="AU7" s="89"/>
+      <c r="AV7" s="89"/>
+      <c r="AW7" s="89"/>
+      <c r="AX7" s="89"/>
+      <c r="AY7" s="89"/>
+      <c r="AZ7" s="89"/>
+      <c r="BA7" s="89"/>
+      <c r="BB7" s="89"/>
+      <c r="BC7" s="89"/>
+      <c r="BD7" s="89"/>
+      <c r="BE7" s="89"/>
+      <c r="BF7" s="89"/>
+      <c r="BG7" s="89"/>
+      <c r="BH7" s="89"/>
+      <c r="BI7" s="89"/>
+      <c r="BJ7" s="89"/>
+      <c r="BK7" s="89"/>
+      <c r="BL7" s="89"/>
+      <c r="BM7" s="89"/>
+      <c r="BN7" s="89"/>
+      <c r="BO7" s="89"/>
+      <c r="BP7" s="89"/>
+      <c r="BQ7" s="89"/>
+      <c r="BR7" s="89"/>
+      <c r="BS7" s="89"/>
+      <c r="BT7" s="89"/>
+      <c r="BU7" s="89"/>
+      <c r="BV7" s="89"/>
+      <c r="BW7" s="89"/>
+      <c r="BX7" s="89"/>
+      <c r="BY7" s="89"/>
+      <c r="BZ7" s="90"/>
     </row>
     <row r="8" spans="1:79" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="66" t="s">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="67"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="67"/>
-      <c r="K8" s="67"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="66" t="s">
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="67"/>
-      <c r="T8" s="67"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="67"/>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="66" t="s">
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="AB8" s="67"/>
-      <c r="AC8" s="67"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="67"/>
-      <c r="AF8" s="67"/>
-      <c r="AG8" s="67"/>
-      <c r="AH8" s="67"/>
-      <c r="AI8" s="67"/>
-      <c r="AJ8" s="67"/>
-      <c r="AK8" s="67"/>
-      <c r="AL8" s="67"/>
-      <c r="AM8" s="67"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="68"/>
-      <c r="AQ8" s="63" t="s">
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="52"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="52"/>
+      <c r="AO8" s="52"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="AR8" s="64"/>
-      <c r="AS8" s="64"/>
-      <c r="AT8" s="64"/>
-      <c r="AU8" s="64"/>
-      <c r="AV8" s="64"/>
-      <c r="AW8" s="64"/>
-      <c r="AX8" s="65"/>
-      <c r="AY8" s="66" t="s">
+      <c r="AR8" s="51"/>
+      <c r="AS8" s="51"/>
+      <c r="AT8" s="51"/>
+      <c r="AU8" s="51"/>
+      <c r="AV8" s="51"/>
+      <c r="AW8" s="51"/>
+      <c r="AX8" s="67"/>
+      <c r="AY8" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AZ8" s="67"/>
-      <c r="BA8" s="67"/>
-      <c r="BB8" s="67"/>
-      <c r="BC8" s="67"/>
-      <c r="BD8" s="67"/>
-      <c r="BE8" s="67"/>
-      <c r="BF8" s="67"/>
-      <c r="BG8" s="67"/>
-      <c r="BH8" s="67"/>
-      <c r="BI8" s="67"/>
-      <c r="BJ8" s="67"/>
-      <c r="BK8" s="67"/>
-      <c r="BL8" s="68"/>
+      <c r="AZ8" s="52"/>
+      <c r="BA8" s="52"/>
+      <c r="BB8" s="52"/>
+      <c r="BC8" s="52"/>
+      <c r="BD8" s="52"/>
+      <c r="BE8" s="52"/>
+      <c r="BF8" s="52"/>
+      <c r="BG8" s="52"/>
+      <c r="BH8" s="52"/>
+      <c r="BI8" s="52"/>
+      <c r="BJ8" s="52"/>
+      <c r="BK8" s="52"/>
+      <c r="BL8" s="69"/>
     </row>
     <row r="9" spans="1:79" ht="42.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51" t="s">
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="53"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="87"/>
       <c r="M9" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
-      <c r="V9" s="55"/>
-      <c r="W9" s="55"/>
-      <c r="X9" s="55"/>
-      <c r="Y9" s="55"/>
-      <c r="Z9" s="56"/>
-      <c r="AA9" s="51" t="s">
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="56"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="55"/>
+      <c r="AA9" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="52"/>
-      <c r="AE9" s="52"/>
-      <c r="AF9" s="52"/>
-      <c r="AG9" s="52"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="52"/>
-      <c r="AO9" s="52"/>
-      <c r="AP9" s="53"/>
-      <c r="AQ9" s="48" t="s">
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="62"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="62"/>
+      <c r="AM9" s="62"/>
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="AR9" s="49"/>
-      <c r="AS9" s="49"/>
-      <c r="AT9" s="49"/>
-      <c r="AU9" s="49"/>
-      <c r="AV9" s="49"/>
-      <c r="AW9" s="49"/>
-      <c r="AX9" s="50"/>
-      <c r="AY9" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ9" s="52"/>
-      <c r="BA9" s="52"/>
-      <c r="BB9" s="52"/>
-      <c r="BC9" s="52"/>
-      <c r="BD9" s="52"/>
-      <c r="BE9" s="52"/>
-      <c r="BF9" s="52"/>
-      <c r="BG9" s="52"/>
-      <c r="BH9" s="52"/>
-      <c r="BI9" s="52"/>
-      <c r="BJ9" s="52"/>
-      <c r="BK9" s="52"/>
-      <c r="BL9" s="53"/>
+      <c r="AR9" s="85"/>
+      <c r="AS9" s="85"/>
+      <c r="AT9" s="85"/>
+      <c r="AU9" s="85"/>
+      <c r="AV9" s="85"/>
+      <c r="AW9" s="85"/>
+      <c r="AX9" s="86"/>
+      <c r="AY9" s="61" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ9" s="62"/>
+      <c r="BA9" s="62"/>
+      <c r="BB9" s="62"/>
+      <c r="BC9" s="62"/>
+      <c r="BD9" s="62"/>
+      <c r="BE9" s="62"/>
+      <c r="BF9" s="62"/>
+      <c r="BG9" s="62"/>
+      <c r="BH9" s="62"/>
+      <c r="BI9" s="62"/>
+      <c r="BJ9" s="62"/>
+      <c r="BK9" s="62"/>
+      <c r="BL9" s="87"/>
     </row>
     <row r="10" spans="1:79" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -16847,17 +16847,17 @@
       </c>
     </row>
     <row r="22" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="72" t="s">
+      <c r="A22" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="73"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="36">
         <v>80</v>
       </c>
-      <c r="D22" s="69">
-        <v>20</v>
-      </c>
-      <c r="E22" s="71"/>
+      <c r="D22" s="77">
+        <v>20</v>
+      </c>
+      <c r="E22" s="78"/>
       <c r="F22" s="16">
         <v>100</v>
       </c>
@@ -16867,132 +16867,132 @@
       <c r="H22" s="36">
         <v>80</v>
       </c>
-      <c r="I22" s="69">
-        <v>20</v>
-      </c>
-      <c r="J22" s="71"/>
+      <c r="I22" s="77">
+        <v>20</v>
+      </c>
+      <c r="J22" s="78"/>
       <c r="K22" s="16">
         <v>100</v>
       </c>
-      <c r="L22" s="69">
+      <c r="L22" s="77">
         <v>25</v>
       </c>
-      <c r="M22" s="71"/>
-      <c r="N22" s="69">
+      <c r="M22" s="78"/>
+      <c r="N22" s="77">
         <v>25</v>
       </c>
-      <c r="O22" s="71"/>
-      <c r="P22" s="69">
+      <c r="O22" s="78"/>
+      <c r="P22" s="77">
         <v>50</v>
       </c>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70">
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79">
         <v>80</v>
       </c>
-      <c r="T22" s="71"/>
-      <c r="U22" s="69">
-        <v>20</v>
-      </c>
-      <c r="V22" s="71"/>
-      <c r="W22" s="69">
+      <c r="T22" s="78"/>
+      <c r="U22" s="77">
+        <v>20</v>
+      </c>
+      <c r="V22" s="78"/>
+      <c r="W22" s="77">
         <v>100</v>
       </c>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="69">
+      <c r="X22" s="78"/>
+      <c r="Y22" s="77">
         <v>25</v>
       </c>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="71"/>
-      <c r="AB22" s="69">
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="78"/>
+      <c r="AB22" s="77">
         <v>25</v>
       </c>
-      <c r="AC22" s="70"/>
-      <c r="AD22" s="71"/>
-      <c r="AE22" s="69">
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="78"/>
+      <c r="AE22" s="77">
         <v>50</v>
       </c>
-      <c r="AF22" s="70"/>
-      <c r="AG22" s="70"/>
-      <c r="AH22" s="70">
+      <c r="AF22" s="79"/>
+      <c r="AG22" s="79"/>
+      <c r="AH22" s="79">
         <v>80</v>
       </c>
-      <c r="AI22" s="70"/>
-      <c r="AJ22" s="71"/>
-      <c r="AK22" s="69">
-        <v>20</v>
-      </c>
-      <c r="AL22" s="71"/>
-      <c r="AM22" s="69">
+      <c r="AI22" s="79"/>
+      <c r="AJ22" s="78"/>
+      <c r="AK22" s="77">
+        <v>20</v>
+      </c>
+      <c r="AL22" s="78"/>
+      <c r="AM22" s="77">
         <v>100</v>
       </c>
-      <c r="AN22" s="71"/>
-      <c r="AO22" s="69">
+      <c r="AN22" s="78"/>
+      <c r="AO22" s="77">
         <v>25</v>
       </c>
-      <c r="AP22" s="70"/>
-      <c r="AQ22" s="71"/>
-      <c r="AR22" s="69">
+      <c r="AP22" s="79"/>
+      <c r="AQ22" s="78"/>
+      <c r="AR22" s="77">
         <v>25</v>
       </c>
-      <c r="AS22" s="70"/>
-      <c r="AT22" s="71"/>
-      <c r="AU22" s="69">
+      <c r="AS22" s="79"/>
+      <c r="AT22" s="78"/>
+      <c r="AU22" s="77">
         <v>50</v>
       </c>
-      <c r="AV22" s="70"/>
-      <c r="AW22" s="70"/>
-      <c r="AX22" s="70">
+      <c r="AV22" s="79"/>
+      <c r="AW22" s="79"/>
+      <c r="AX22" s="79">
         <v>80</v>
       </c>
-      <c r="AY22" s="71"/>
-      <c r="AZ22" s="69">
-        <v>20</v>
-      </c>
-      <c r="BA22" s="71"/>
-      <c r="BB22" s="69">
+      <c r="AY22" s="78"/>
+      <c r="AZ22" s="77">
+        <v>20</v>
+      </c>
+      <c r="BA22" s="78"/>
+      <c r="BB22" s="77">
         <v>100</v>
       </c>
-      <c r="BC22" s="70"/>
-      <c r="BD22" s="70">
+      <c r="BC22" s="79"/>
+      <c r="BD22" s="79">
         <v>80</v>
       </c>
-      <c r="BE22" s="70"/>
-      <c r="BF22" s="71"/>
-      <c r="BG22" s="69">
-        <v>20</v>
-      </c>
-      <c r="BH22" s="70"/>
-      <c r="BI22" s="71"/>
-      <c r="BJ22" s="69">
+      <c r="BE22" s="79"/>
+      <c r="BF22" s="78"/>
+      <c r="BG22" s="77">
+        <v>20</v>
+      </c>
+      <c r="BH22" s="79"/>
+      <c r="BI22" s="78"/>
+      <c r="BJ22" s="77">
         <v>100</v>
       </c>
-      <c r="BK22" s="71"/>
-      <c r="BL22" s="69">
+      <c r="BK22" s="78"/>
+      <c r="BL22" s="77">
         <v>25</v>
       </c>
-      <c r="BM22" s="71"/>
-      <c r="BN22" s="69">
+      <c r="BM22" s="78"/>
+      <c r="BN22" s="77">
         <v>25</v>
       </c>
-      <c r="BO22" s="71"/>
-      <c r="BP22" s="69">
+      <c r="BO22" s="78"/>
+      <c r="BP22" s="77">
         <v>50</v>
       </c>
-      <c r="BQ22" s="70"/>
+      <c r="BQ22" s="79"/>
     </row>
     <row r="23" spans="1:69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="77" t="s">
+      <c r="A23" s="80" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="78"/>
+      <c r="B23" s="81"/>
       <c r="C23" s="38">
         <v>32</v>
       </c>
-      <c r="D23" s="79">
+      <c r="D23" s="74">
         <v>8</v>
       </c>
-      <c r="E23" s="80"/>
+      <c r="E23" s="75"/>
       <c r="F23" s="17">
         <v>40</v>
       </c>
@@ -17002,132 +17002,132 @@
       <c r="H23" s="38">
         <v>32</v>
       </c>
-      <c r="I23" s="79">
+      <c r="I23" s="74">
         <v>8</v>
       </c>
-      <c r="J23" s="80"/>
+      <c r="J23" s="75"/>
       <c r="K23" s="17">
         <v>40</v>
       </c>
-      <c r="L23" s="74">
+      <c r="L23" s="71">
         <v>10</v>
       </c>
-      <c r="M23" s="76"/>
-      <c r="N23" s="74">
+      <c r="M23" s="72"/>
+      <c r="N23" s="71">
         <v>10</v>
       </c>
-      <c r="O23" s="76"/>
-      <c r="P23" s="74">
-        <v>20</v>
-      </c>
-      <c r="Q23" s="75"/>
-      <c r="R23" s="75"/>
-      <c r="S23" s="75">
+      <c r="O23" s="72"/>
+      <c r="P23" s="71">
+        <v>20</v>
+      </c>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73">
         <v>32</v>
       </c>
-      <c r="T23" s="76"/>
-      <c r="U23" s="79">
+      <c r="T23" s="72"/>
+      <c r="U23" s="74">
         <v>8</v>
       </c>
-      <c r="V23" s="80"/>
-      <c r="W23" s="74">
+      <c r="V23" s="75"/>
+      <c r="W23" s="71">
         <v>40</v>
       </c>
-      <c r="X23" s="76"/>
-      <c r="Y23" s="74">
+      <c r="X23" s="72"/>
+      <c r="Y23" s="71">
         <v>10</v>
       </c>
-      <c r="Z23" s="75"/>
-      <c r="AA23" s="76"/>
-      <c r="AB23" s="74">
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="72"/>
+      <c r="AB23" s="71">
         <v>10</v>
       </c>
-      <c r="AC23" s="75"/>
-      <c r="AD23" s="76"/>
-      <c r="AE23" s="74">
-        <v>20</v>
-      </c>
-      <c r="AF23" s="75"/>
-      <c r="AG23" s="75"/>
-      <c r="AH23" s="75">
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="72"/>
+      <c r="AE23" s="71">
+        <v>20</v>
+      </c>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="73">
         <v>32</v>
       </c>
-      <c r="AI23" s="75"/>
-      <c r="AJ23" s="76"/>
-      <c r="AK23" s="79">
+      <c r="AI23" s="73"/>
+      <c r="AJ23" s="72"/>
+      <c r="AK23" s="74">
         <v>8</v>
       </c>
-      <c r="AL23" s="80"/>
-      <c r="AM23" s="74">
+      <c r="AL23" s="75"/>
+      <c r="AM23" s="71">
         <v>40</v>
       </c>
-      <c r="AN23" s="76"/>
-      <c r="AO23" s="74">
+      <c r="AN23" s="72"/>
+      <c r="AO23" s="71">
         <v>10</v>
       </c>
-      <c r="AP23" s="75"/>
-      <c r="AQ23" s="76"/>
-      <c r="AR23" s="74">
+      <c r="AP23" s="73"/>
+      <c r="AQ23" s="72"/>
+      <c r="AR23" s="71">
         <v>10</v>
       </c>
-      <c r="AS23" s="75"/>
-      <c r="AT23" s="76"/>
-      <c r="AU23" s="74">
-        <v>20</v>
-      </c>
-      <c r="AV23" s="75"/>
-      <c r="AW23" s="75"/>
-      <c r="AX23" s="75">
+      <c r="AS23" s="73"/>
+      <c r="AT23" s="72"/>
+      <c r="AU23" s="71">
+        <v>20</v>
+      </c>
+      <c r="AV23" s="73"/>
+      <c r="AW23" s="73"/>
+      <c r="AX23" s="73">
         <v>32</v>
       </c>
-      <c r="AY23" s="76"/>
-      <c r="AZ23" s="79">
+      <c r="AY23" s="72"/>
+      <c r="AZ23" s="74">
         <v>8</v>
       </c>
-      <c r="BA23" s="80"/>
-      <c r="BB23" s="74">
+      <c r="BA23" s="75"/>
+      <c r="BB23" s="71">
         <v>40</v>
       </c>
-      <c r="BC23" s="75"/>
-      <c r="BD23" s="75">
+      <c r="BC23" s="73"/>
+      <c r="BD23" s="73">
         <v>32</v>
       </c>
-      <c r="BE23" s="75"/>
-      <c r="BF23" s="76"/>
-      <c r="BG23" s="79">
+      <c r="BE23" s="73"/>
+      <c r="BF23" s="72"/>
+      <c r="BG23" s="74">
         <v>8</v>
       </c>
-      <c r="BH23" s="84"/>
-      <c r="BI23" s="80"/>
-      <c r="BJ23" s="74">
+      <c r="BH23" s="76"/>
+      <c r="BI23" s="75"/>
+      <c r="BJ23" s="71">
         <v>40</v>
       </c>
-      <c r="BK23" s="76"/>
-      <c r="BL23" s="74">
+      <c r="BK23" s="72"/>
+      <c r="BL23" s="71">
         <v>10</v>
       </c>
-      <c r="BM23" s="76"/>
-      <c r="BN23" s="74">
+      <c r="BM23" s="72"/>
+      <c r="BN23" s="71">
         <v>10</v>
       </c>
-      <c r="BO23" s="76"/>
-      <c r="BP23" s="74">
-        <v>20</v>
-      </c>
-      <c r="BQ23" s="75"/>
+      <c r="BO23" s="72"/>
+      <c r="BP23" s="71">
+        <v>20</v>
+      </c>
+      <c r="BQ23" s="73"/>
     </row>
     <row r="24" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="58"/>
+      <c r="A24" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="48"/>
       <c r="C24" s="31">
         <v>40</v>
       </c>
-      <c r="D24" s="81">
-        <v>17</v>
-      </c>
-      <c r="E24" s="82"/>
+      <c r="D24" s="60">
+        <v>17</v>
+      </c>
+      <c r="E24" s="63"/>
       <c r="F24" s="6">
         <v>57</v>
       </c>
@@ -17137,132 +17137,132 @@
       <c r="H24" s="31">
         <v>45</v>
       </c>
-      <c r="I24" s="81">
-        <v>19</v>
-      </c>
-      <c r="J24" s="82"/>
+      <c r="I24" s="60">
+        <v>19</v>
+      </c>
+      <c r="J24" s="63"/>
       <c r="K24" s="6">
         <v>64</v>
       </c>
-      <c r="L24" s="81">
-        <v>20</v>
-      </c>
-      <c r="M24" s="82"/>
-      <c r="N24" s="81">
-        <v>20</v>
-      </c>
-      <c r="O24" s="82"/>
-      <c r="P24" s="81">
+      <c r="L24" s="60">
+        <v>20</v>
+      </c>
+      <c r="M24" s="63"/>
+      <c r="N24" s="60">
+        <v>20</v>
+      </c>
+      <c r="O24" s="63"/>
+      <c r="P24" s="60">
         <v>40</v>
       </c>
-      <c r="Q24" s="83"/>
-      <c r="R24" s="83"/>
-      <c r="S24" s="83">
+      <c r="Q24" s="49"/>
+      <c r="R24" s="49"/>
+      <c r="S24" s="49">
         <v>39</v>
       </c>
-      <c r="T24" s="82"/>
-      <c r="U24" s="81">
+      <c r="T24" s="63"/>
+      <c r="U24" s="60">
         <v>15</v>
       </c>
-      <c r="V24" s="82"/>
-      <c r="W24" s="81">
+      <c r="V24" s="63"/>
+      <c r="W24" s="60">
         <v>54</v>
       </c>
-      <c r="X24" s="82"/>
-      <c r="Y24" s="81">
-        <v>18</v>
-      </c>
-      <c r="Z24" s="83"/>
-      <c r="AA24" s="82"/>
-      <c r="AB24" s="81">
-        <v>16</v>
-      </c>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="82"/>
-      <c r="AE24" s="81">
+      <c r="X24" s="63"/>
+      <c r="Y24" s="60">
+        <v>18</v>
+      </c>
+      <c r="Z24" s="49"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="60">
+        <v>16</v>
+      </c>
+      <c r="AC24" s="49"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="60">
         <v>34</v>
       </c>
-      <c r="AF24" s="83"/>
-      <c r="AG24" s="83"/>
-      <c r="AH24" s="83">
+      <c r="AF24" s="49"/>
+      <c r="AG24" s="49"/>
+      <c r="AH24" s="49">
         <v>56</v>
       </c>
-      <c r="AI24" s="83"/>
-      <c r="AJ24" s="82"/>
-      <c r="AK24" s="81">
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="63"/>
+      <c r="AK24" s="60">
         <v>14</v>
       </c>
-      <c r="AL24" s="82"/>
-      <c r="AM24" s="81">
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="60">
         <v>70</v>
       </c>
-      <c r="AN24" s="82"/>
-      <c r="AO24" s="81">
-        <v>19</v>
-      </c>
-      <c r="AP24" s="83"/>
-      <c r="AQ24" s="82"/>
-      <c r="AR24" s="81">
-        <v>19</v>
-      </c>
-      <c r="AS24" s="83"/>
-      <c r="AT24" s="82"/>
-      <c r="AU24" s="85" t="s">
+      <c r="AN24" s="63"/>
+      <c r="AO24" s="60">
+        <v>19</v>
+      </c>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="63"/>
+      <c r="AR24" s="60">
+        <v>19</v>
+      </c>
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="63"/>
+      <c r="AU24" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="AV24" s="86"/>
-      <c r="AW24" s="86"/>
-      <c r="AX24" s="83">
+      <c r="AV24" s="53"/>
+      <c r="AW24" s="53"/>
+      <c r="AX24" s="49">
         <v>36</v>
       </c>
-      <c r="AY24" s="82"/>
-      <c r="AZ24" s="81">
-        <v>16</v>
-      </c>
-      <c r="BA24" s="82"/>
-      <c r="BB24" s="81">
+      <c r="AY24" s="63"/>
+      <c r="AZ24" s="60">
+        <v>16</v>
+      </c>
+      <c r="BA24" s="63"/>
+      <c r="BB24" s="60">
         <v>52</v>
       </c>
-      <c r="BC24" s="83"/>
-      <c r="BD24" s="83">
+      <c r="BC24" s="49"/>
+      <c r="BD24" s="49">
         <v>45</v>
       </c>
-      <c r="BE24" s="83"/>
-      <c r="BF24" s="82"/>
-      <c r="BG24" s="81">
+      <c r="BE24" s="49"/>
+      <c r="BF24" s="63"/>
+      <c r="BG24" s="60">
         <v>15</v>
       </c>
-      <c r="BH24" s="83"/>
-      <c r="BI24" s="82"/>
-      <c r="BJ24" s="81">
+      <c r="BH24" s="49"/>
+      <c r="BI24" s="63"/>
+      <c r="BJ24" s="60">
         <v>60</v>
       </c>
-      <c r="BK24" s="82"/>
-      <c r="BL24" s="81">
-        <v>21</v>
-      </c>
-      <c r="BM24" s="82"/>
-      <c r="BN24" s="81">
-        <v>22</v>
-      </c>
-      <c r="BO24" s="82"/>
-      <c r="BP24" s="81">
+      <c r="BK24" s="63"/>
+      <c r="BL24" s="60">
+        <v>21</v>
+      </c>
+      <c r="BM24" s="63"/>
+      <c r="BN24" s="60">
+        <v>22</v>
+      </c>
+      <c r="BO24" s="63"/>
+      <c r="BP24" s="60">
         <v>43</v>
       </c>
-      <c r="BQ24" s="83"/>
+      <c r="BQ24" s="49"/>
     </row>
     <row r="25" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B25" s="64"/>
+      <c r="A25" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="51"/>
       <c r="C25" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="65"/>
+      <c r="D25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="67"/>
       <c r="F25" s="5" t="s">
         <v>20</v>
       </c>
@@ -17272,127 +17272,127 @@
       <c r="H25" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" s="65"/>
+      <c r="I25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="67"/>
       <c r="K25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="L25" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" s="65"/>
-      <c r="N25" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="65"/>
-      <c r="P25" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="67" t="s">
+      <c r="L25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="M25" s="67"/>
+      <c r="N25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="67"/>
+      <c r="P25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q25" s="51"/>
+      <c r="R25" s="51"/>
+      <c r="S25" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="T25" s="68"/>
-      <c r="U25" s="66" t="s">
+      <c r="T25" s="69"/>
+      <c r="U25" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="V25" s="68"/>
-      <c r="W25" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="X25" s="68"/>
-      <c r="Y25" s="66" t="s">
+      <c r="V25" s="69"/>
+      <c r="W25" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="Z25" s="67"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC25" s="67"/>
-      <c r="AD25" s="68"/>
-      <c r="AE25" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF25" s="64"/>
-      <c r="AG25" s="64"/>
-      <c r="AH25" s="64" t="s">
+      <c r="Z25" s="52"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC25" s="52"/>
+      <c r="AD25" s="69"/>
+      <c r="AE25" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF25" s="51"/>
+      <c r="AG25" s="51"/>
+      <c r="AH25" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="AI25" s="64"/>
-      <c r="AJ25" s="65"/>
-      <c r="AK25" s="66" t="s">
+      <c r="AI25" s="51"/>
+      <c r="AJ25" s="67"/>
+      <c r="AK25" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="AL25" s="68"/>
-      <c r="AM25" s="66" t="s">
+      <c r="AL25" s="69"/>
+      <c r="AM25" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="AN25" s="68"/>
-      <c r="AO25" s="66" t="s">
+      <c r="AN25" s="69"/>
+      <c r="AO25" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="AP25" s="67"/>
-      <c r="AQ25" s="68"/>
-      <c r="AR25" s="66" t="s">
+      <c r="AP25" s="52"/>
+      <c r="AQ25" s="69"/>
+      <c r="AR25" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="AS25" s="67"/>
-      <c r="AT25" s="68"/>
-      <c r="AU25" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV25" s="64"/>
-      <c r="AW25" s="64"/>
-      <c r="AX25" s="64" t="s">
+      <c r="AS25" s="52"/>
+      <c r="AT25" s="69"/>
+      <c r="AU25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV25" s="51"/>
+      <c r="AW25" s="51"/>
+      <c r="AX25" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="AY25" s="65"/>
-      <c r="AZ25" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA25" s="65"/>
-      <c r="BB25" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="BC25" s="64"/>
-      <c r="BD25" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="BE25" s="64"/>
-      <c r="BF25" s="65"/>
-      <c r="BG25" s="66" t="s">
+      <c r="AY25" s="67"/>
+      <c r="AZ25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA25" s="67"/>
+      <c r="BB25" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="BC25" s="51"/>
+      <c r="BD25" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE25" s="51"/>
+      <c r="BF25" s="67"/>
+      <c r="BG25" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="BH25" s="67"/>
-      <c r="BI25" s="68"/>
-      <c r="BJ25" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="BK25" s="68"/>
-      <c r="BL25" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM25" s="65"/>
-      <c r="BN25" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO25" s="65"/>
-      <c r="BP25" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="BQ25" s="64"/>
+      <c r="BH25" s="52"/>
+      <c r="BI25" s="69"/>
+      <c r="BJ25" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK25" s="69"/>
+      <c r="BL25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM25" s="67"/>
+      <c r="BN25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="BO25" s="67"/>
+      <c r="BP25" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ25" s="51"/>
     </row>
     <row r="26" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B26" s="64"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="29"/>
-      <c r="D26" s="57"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="59"/>
       <c r="F26" s="7">
         <v>6</v>
@@ -17401,93 +17401,93 @@
         <v>6</v>
       </c>
       <c r="H26" s="29"/>
-      <c r="I26" s="57"/>
+      <c r="I26" s="58"/>
       <c r="J26" s="59"/>
       <c r="K26" s="7">
         <v>7</v>
       </c>
-      <c r="L26" s="57"/>
+      <c r="L26" s="58"/>
       <c r="M26" s="59"/>
-      <c r="N26" s="57"/>
+      <c r="N26" s="58"/>
       <c r="O26" s="59"/>
-      <c r="P26" s="81">
+      <c r="P26" s="60">
         <v>10</v>
       </c>
-      <c r="Q26" s="83"/>
-      <c r="R26" s="83"/>
-      <c r="S26" s="58"/>
+      <c r="Q26" s="49"/>
+      <c r="R26" s="49"/>
+      <c r="S26" s="48"/>
       <c r="T26" s="59"/>
-      <c r="U26" s="57"/>
+      <c r="U26" s="58"/>
       <c r="V26" s="59"/>
-      <c r="W26" s="87">
+      <c r="W26" s="64">
         <v>6</v>
       </c>
-      <c r="X26" s="88"/>
-      <c r="Y26" s="57"/>
-      <c r="Z26" s="58"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="58"/>
+      <c r="Z26" s="48"/>
       <c r="AA26" s="59"/>
-      <c r="AB26" s="57"/>
-      <c r="AC26" s="58"/>
+      <c r="AB26" s="58"/>
+      <c r="AC26" s="48"/>
       <c r="AD26" s="59"/>
-      <c r="AE26" s="87">
+      <c r="AE26" s="64">
         <v>7</v>
       </c>
-      <c r="AF26" s="89"/>
-      <c r="AG26" s="89"/>
-      <c r="AH26" s="58"/>
-      <c r="AI26" s="58"/>
+      <c r="AF26" s="50"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="48"/>
+      <c r="AI26" s="48"/>
       <c r="AJ26" s="59"/>
-      <c r="AK26" s="57"/>
+      <c r="AK26" s="58"/>
       <c r="AL26" s="59"/>
-      <c r="AM26" s="87">
+      <c r="AM26" s="64">
         <v>8</v>
       </c>
-      <c r="AN26" s="88"/>
-      <c r="AO26" s="57"/>
-      <c r="AP26" s="58"/>
+      <c r="AN26" s="66"/>
+      <c r="AO26" s="58"/>
+      <c r="AP26" s="48"/>
       <c r="AQ26" s="59"/>
-      <c r="AR26" s="57"/>
-      <c r="AS26" s="58"/>
+      <c r="AR26" s="58"/>
+      <c r="AS26" s="48"/>
       <c r="AT26" s="59"/>
-      <c r="AU26" s="81">
+      <c r="AU26" s="60">
         <v>10</v>
       </c>
-      <c r="AV26" s="83"/>
-      <c r="AW26" s="83"/>
-      <c r="AX26" s="58"/>
+      <c r="AV26" s="49"/>
+      <c r="AW26" s="49"/>
+      <c r="AX26" s="48"/>
       <c r="AY26" s="59"/>
-      <c r="AZ26" s="57"/>
+      <c r="AZ26" s="58"/>
       <c r="BA26" s="59"/>
-      <c r="BB26" s="87">
+      <c r="BB26" s="64">
         <v>6</v>
       </c>
-      <c r="BC26" s="89"/>
-      <c r="BD26" s="58"/>
-      <c r="BE26" s="58"/>
+      <c r="BC26" s="50"/>
+      <c r="BD26" s="48"/>
+      <c r="BE26" s="48"/>
       <c r="BF26" s="59"/>
-      <c r="BG26" s="57"/>
-      <c r="BH26" s="58"/>
+      <c r="BG26" s="58"/>
+      <c r="BH26" s="48"/>
       <c r="BI26" s="59"/>
-      <c r="BJ26" s="87">
+      <c r="BJ26" s="64">
         <v>7</v>
       </c>
-      <c r="BK26" s="88"/>
-      <c r="BL26" s="57"/>
+      <c r="BK26" s="66"/>
+      <c r="BL26" s="58"/>
       <c r="BM26" s="59"/>
-      <c r="BN26" s="57"/>
+      <c r="BN26" s="58"/>
       <c r="BO26" s="59"/>
-      <c r="BP26" s="81">
+      <c r="BP26" s="60">
         <v>10</v>
       </c>
-      <c r="BQ26" s="83"/>
+      <c r="BQ26" s="49"/>
     </row>
     <row r="27" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="64"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="29"/>
-      <c r="D27" s="57"/>
+      <c r="D27" s="58"/>
       <c r="E27" s="59"/>
       <c r="F27" s="7">
         <v>4</v>
@@ -17496,93 +17496,93 @@
         <v>1</v>
       </c>
       <c r="H27" s="29"/>
-      <c r="I27" s="57"/>
+      <c r="I27" s="58"/>
       <c r="J27" s="59"/>
       <c r="K27" s="7">
         <v>4</v>
       </c>
-      <c r="L27" s="57"/>
+      <c r="L27" s="58"/>
       <c r="M27" s="59"/>
-      <c r="N27" s="57"/>
+      <c r="N27" s="58"/>
       <c r="O27" s="59"/>
-      <c r="P27" s="87">
+      <c r="P27" s="64">
         <v>1</v>
       </c>
-      <c r="Q27" s="89"/>
-      <c r="R27" s="89"/>
-      <c r="S27" s="58"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="48"/>
       <c r="T27" s="59"/>
-      <c r="U27" s="57"/>
+      <c r="U27" s="58"/>
       <c r="V27" s="59"/>
-      <c r="W27" s="87">
+      <c r="W27" s="64">
         <v>4</v>
       </c>
-      <c r="X27" s="88"/>
-      <c r="Y27" s="57"/>
-      <c r="Z27" s="58"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="48"/>
       <c r="AA27" s="59"/>
-      <c r="AB27" s="57"/>
-      <c r="AC27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="48"/>
       <c r="AD27" s="59"/>
-      <c r="AE27" s="87">
+      <c r="AE27" s="64">
         <v>1</v>
       </c>
-      <c r="AF27" s="89"/>
-      <c r="AG27" s="89"/>
-      <c r="AH27" s="58"/>
-      <c r="AI27" s="58"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50"/>
+      <c r="AH27" s="48"/>
+      <c r="AI27" s="48"/>
       <c r="AJ27" s="59"/>
-      <c r="AK27" s="57"/>
+      <c r="AK27" s="58"/>
       <c r="AL27" s="59"/>
-      <c r="AM27" s="87">
+      <c r="AM27" s="64">
         <v>4</v>
       </c>
-      <c r="AN27" s="88"/>
-      <c r="AO27" s="57"/>
-      <c r="AP27" s="58"/>
+      <c r="AN27" s="66"/>
+      <c r="AO27" s="58"/>
+      <c r="AP27" s="48"/>
       <c r="AQ27" s="59"/>
-      <c r="AR27" s="57"/>
-      <c r="AS27" s="58"/>
+      <c r="AR27" s="58"/>
+      <c r="AS27" s="48"/>
       <c r="AT27" s="59"/>
-      <c r="AU27" s="87">
+      <c r="AU27" s="64">
         <v>1</v>
       </c>
-      <c r="AV27" s="89"/>
-      <c r="AW27" s="89"/>
-      <c r="AX27" s="58"/>
+      <c r="AV27" s="50"/>
+      <c r="AW27" s="50"/>
+      <c r="AX27" s="48"/>
       <c r="AY27" s="59"/>
-      <c r="AZ27" s="57"/>
+      <c r="AZ27" s="58"/>
       <c r="BA27" s="59"/>
-      <c r="BB27" s="87">
+      <c r="BB27" s="64">
         <v>4</v>
       </c>
-      <c r="BC27" s="89"/>
-      <c r="BD27" s="58"/>
-      <c r="BE27" s="58"/>
+      <c r="BC27" s="50"/>
+      <c r="BD27" s="48"/>
+      <c r="BE27" s="48"/>
       <c r="BF27" s="59"/>
-      <c r="BG27" s="57"/>
-      <c r="BH27" s="58"/>
+      <c r="BG27" s="58"/>
+      <c r="BH27" s="48"/>
       <c r="BI27" s="59"/>
-      <c r="BJ27" s="87">
+      <c r="BJ27" s="64">
         <v>3</v>
       </c>
-      <c r="BK27" s="88"/>
-      <c r="BL27" s="57"/>
+      <c r="BK27" s="66"/>
+      <c r="BL27" s="58"/>
       <c r="BM27" s="59"/>
-      <c r="BN27" s="57"/>
+      <c r="BN27" s="58"/>
       <c r="BO27" s="59"/>
-      <c r="BP27" s="87">
+      <c r="BP27" s="64">
         <v>1</v>
       </c>
-      <c r="BQ27" s="89"/>
+      <c r="BQ27" s="50"/>
     </row>
     <row r="28" spans="1:69" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="64"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="29"/>
-      <c r="D28" s="57"/>
+      <c r="D28" s="58"/>
       <c r="E28" s="59"/>
       <c r="F28" s="6">
         <v>24</v>
@@ -17591,98 +17591,98 @@
         <v>6</v>
       </c>
       <c r="H28" s="29"/>
-      <c r="I28" s="57"/>
+      <c r="I28" s="58"/>
       <c r="J28" s="59"/>
       <c r="K28" s="6">
         <v>28</v>
       </c>
-      <c r="L28" s="57"/>
+      <c r="L28" s="58"/>
       <c r="M28" s="59"/>
-      <c r="N28" s="57"/>
+      <c r="N28" s="58"/>
       <c r="O28" s="59"/>
-      <c r="P28" s="81">
+      <c r="P28" s="60">
         <v>10</v>
       </c>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83"/>
-      <c r="S28" s="58"/>
+      <c r="Q28" s="49"/>
+      <c r="R28" s="49"/>
+      <c r="S28" s="48"/>
       <c r="T28" s="59"/>
-      <c r="U28" s="57"/>
+      <c r="U28" s="58"/>
       <c r="V28" s="59"/>
-      <c r="W28" s="81">
+      <c r="W28" s="60">
         <v>24</v>
       </c>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="58"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="58"/>
+      <c r="Z28" s="48"/>
       <c r="AA28" s="59"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="48"/>
       <c r="AD28" s="59"/>
-      <c r="AE28" s="87">
+      <c r="AE28" s="64">
         <v>7</v>
       </c>
-      <c r="AF28" s="89"/>
-      <c r="AG28" s="89"/>
-      <c r="AH28" s="58"/>
-      <c r="AI28" s="58"/>
+      <c r="AF28" s="50"/>
+      <c r="AG28" s="50"/>
+      <c r="AH28" s="48"/>
+      <c r="AI28" s="48"/>
       <c r="AJ28" s="59"/>
-      <c r="AK28" s="57"/>
+      <c r="AK28" s="58"/>
       <c r="AL28" s="59"/>
-      <c r="AM28" s="81">
+      <c r="AM28" s="60">
         <v>32</v>
       </c>
-      <c r="AN28" s="82"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="58"/>
+      <c r="AN28" s="63"/>
+      <c r="AO28" s="58"/>
+      <c r="AP28" s="48"/>
       <c r="AQ28" s="59"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="58"/>
+      <c r="AR28" s="58"/>
+      <c r="AS28" s="48"/>
       <c r="AT28" s="59"/>
-      <c r="AU28" s="81">
+      <c r="AU28" s="60">
         <v>10</v>
       </c>
-      <c r="AV28" s="83"/>
-      <c r="AW28" s="83"/>
-      <c r="AX28" s="58"/>
+      <c r="AV28" s="49"/>
+      <c r="AW28" s="49"/>
+      <c r="AX28" s="48"/>
       <c r="AY28" s="59"/>
-      <c r="AZ28" s="57"/>
+      <c r="AZ28" s="58"/>
       <c r="BA28" s="59"/>
-      <c r="BB28" s="81">
+      <c r="BB28" s="60">
         <v>24</v>
       </c>
-      <c r="BC28" s="83"/>
-      <c r="BD28" s="58"/>
-      <c r="BE28" s="58"/>
+      <c r="BC28" s="49"/>
+      <c r="BD28" s="48"/>
+      <c r="BE28" s="48"/>
       <c r="BF28" s="59"/>
-      <c r="BG28" s="57"/>
-      <c r="BH28" s="58"/>
+      <c r="BG28" s="58"/>
+      <c r="BH28" s="48"/>
       <c r="BI28" s="59"/>
-      <c r="BJ28" s="81">
-        <v>21</v>
-      </c>
-      <c r="BK28" s="82"/>
-      <c r="BL28" s="57"/>
+      <c r="BJ28" s="60">
+        <v>21</v>
+      </c>
+      <c r="BK28" s="63"/>
+      <c r="BL28" s="58"/>
       <c r="BM28" s="59"/>
-      <c r="BN28" s="57"/>
+      <c r="BN28" s="58"/>
       <c r="BO28" s="59"/>
-      <c r="BP28" s="81">
+      <c r="BP28" s="60">
         <v>10</v>
       </c>
-      <c r="BQ28" s="83"/>
+      <c r="BQ28" s="49"/>
     </row>
     <row r="29" spans="1:69" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="58"/>
+      <c r="A29" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="48"/>
       <c r="C29" s="31">
         <v>35</v>
       </c>
-      <c r="D29" s="81">
-        <v>16</v>
-      </c>
-      <c r="E29" s="82"/>
+      <c r="D29" s="60">
+        <v>16</v>
+      </c>
+      <c r="E29" s="63"/>
       <c r="F29" s="6">
         <v>51</v>
       </c>
@@ -17692,132 +17692,132 @@
       <c r="H29" s="31">
         <v>57</v>
       </c>
-      <c r="I29" s="81">
+      <c r="I29" s="60">
         <v>15</v>
       </c>
-      <c r="J29" s="82"/>
+      <c r="J29" s="63"/>
       <c r="K29" s="6">
         <v>72</v>
       </c>
-      <c r="L29" s="81">
+      <c r="L29" s="60">
         <v>23</v>
       </c>
-      <c r="M29" s="82"/>
-      <c r="N29" s="81">
+      <c r="M29" s="63"/>
+      <c r="N29" s="60">
         <v>23</v>
       </c>
-      <c r="O29" s="82"/>
-      <c r="P29" s="81">
+      <c r="O29" s="63"/>
+      <c r="P29" s="60">
         <v>46</v>
       </c>
-      <c r="Q29" s="83"/>
-      <c r="R29" s="83"/>
-      <c r="S29" s="83">
+      <c r="Q29" s="49"/>
+      <c r="R29" s="49"/>
+      <c r="S29" s="49">
         <v>46</v>
       </c>
-      <c r="T29" s="82"/>
-      <c r="U29" s="81">
-        <v>16</v>
-      </c>
-      <c r="V29" s="82"/>
-      <c r="W29" s="81">
+      <c r="T29" s="63"/>
+      <c r="U29" s="60">
+        <v>16</v>
+      </c>
+      <c r="V29" s="63"/>
+      <c r="W29" s="60">
         <v>62</v>
       </c>
-      <c r="X29" s="82"/>
-      <c r="Y29" s="81">
-        <v>20</v>
-      </c>
-      <c r="Z29" s="83"/>
-      <c r="AA29" s="82"/>
-      <c r="AB29" s="81">
-        <v>19</v>
-      </c>
-      <c r="AC29" s="83"/>
-      <c r="AD29" s="82"/>
-      <c r="AE29" s="85" t="s">
+      <c r="X29" s="63"/>
+      <c r="Y29" s="60">
+        <v>20</v>
+      </c>
+      <c r="Z29" s="49"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="60">
+        <v>19</v>
+      </c>
+      <c r="AC29" s="49"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="AF29" s="86"/>
-      <c r="AG29" s="86"/>
-      <c r="AH29" s="83">
+      <c r="AF29" s="53"/>
+      <c r="AG29" s="53"/>
+      <c r="AH29" s="49">
         <v>51</v>
       </c>
-      <c r="AI29" s="83"/>
-      <c r="AJ29" s="82"/>
-      <c r="AK29" s="81">
-        <v>18</v>
-      </c>
-      <c r="AL29" s="82"/>
-      <c r="AM29" s="81">
+      <c r="AI29" s="49"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="60">
+        <v>18</v>
+      </c>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="60">
         <v>69</v>
       </c>
-      <c r="AN29" s="82"/>
-      <c r="AO29" s="81">
+      <c r="AN29" s="63"/>
+      <c r="AO29" s="60">
         <v>23</v>
       </c>
-      <c r="AP29" s="83"/>
-      <c r="AQ29" s="82"/>
-      <c r="AR29" s="81">
-        <v>21</v>
-      </c>
-      <c r="AS29" s="83"/>
-      <c r="AT29" s="82"/>
-      <c r="AU29" s="81">
+      <c r="AP29" s="49"/>
+      <c r="AQ29" s="63"/>
+      <c r="AR29" s="60">
+        <v>21</v>
+      </c>
+      <c r="AS29" s="49"/>
+      <c r="AT29" s="63"/>
+      <c r="AU29" s="60">
         <v>44</v>
       </c>
-      <c r="AV29" s="83"/>
-      <c r="AW29" s="83"/>
-      <c r="AX29" s="83">
+      <c r="AV29" s="49"/>
+      <c r="AW29" s="49"/>
+      <c r="AX29" s="49">
         <v>55</v>
       </c>
-      <c r="AY29" s="82"/>
-      <c r="AZ29" s="81">
-        <v>16</v>
-      </c>
-      <c r="BA29" s="82"/>
-      <c r="BB29" s="81">
+      <c r="AY29" s="63"/>
+      <c r="AZ29" s="60">
+        <v>16</v>
+      </c>
+      <c r="BA29" s="63"/>
+      <c r="BB29" s="60">
         <v>71</v>
       </c>
-      <c r="BC29" s="83"/>
-      <c r="BD29" s="83">
+      <c r="BC29" s="49"/>
+      <c r="BD29" s="49">
         <v>51</v>
       </c>
-      <c r="BE29" s="83"/>
-      <c r="BF29" s="82"/>
-      <c r="BG29" s="81">
+      <c r="BE29" s="49"/>
+      <c r="BF29" s="63"/>
+      <c r="BG29" s="60">
         <v>12</v>
       </c>
-      <c r="BH29" s="83"/>
-      <c r="BI29" s="82"/>
-      <c r="BJ29" s="81">
+      <c r="BH29" s="49"/>
+      <c r="BI29" s="63"/>
+      <c r="BJ29" s="60">
         <v>63</v>
       </c>
-      <c r="BK29" s="82"/>
-      <c r="BL29" s="81">
-        <v>22</v>
-      </c>
-      <c r="BM29" s="82"/>
-      <c r="BN29" s="81">
-        <v>21</v>
-      </c>
-      <c r="BO29" s="82"/>
-      <c r="BP29" s="81">
+      <c r="BK29" s="63"/>
+      <c r="BL29" s="60">
+        <v>22</v>
+      </c>
+      <c r="BM29" s="63"/>
+      <c r="BN29" s="60">
+        <v>21</v>
+      </c>
+      <c r="BO29" s="63"/>
+      <c r="BP29" s="60">
         <v>43</v>
       </c>
-      <c r="BQ29" s="83"/>
+      <c r="BQ29" s="49"/>
     </row>
     <row r="30" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="64"/>
+      <c r="A30" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="51"/>
       <c r="C30" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="65"/>
+      <c r="D30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="67"/>
       <c r="F30" s="5" t="s">
         <v>20</v>
       </c>
@@ -17827,127 +17827,127 @@
       <c r="H30" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="66" t="s">
+      <c r="I30" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="J30" s="68"/>
+      <c r="J30" s="69"/>
       <c r="K30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L30" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" s="65"/>
-      <c r="N30" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="65"/>
-      <c r="P30" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="T30" s="65"/>
-      <c r="U30" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="V30" s="65"/>
-      <c r="W30" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z30" s="64"/>
-      <c r="AA30" s="65"/>
-      <c r="AB30" s="66" t="s">
+      <c r="L30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="M30" s="67"/>
+      <c r="N30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="O30" s="67"/>
+      <c r="P30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" s="51"/>
+      <c r="R30" s="51"/>
+      <c r="S30" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="T30" s="67"/>
+      <c r="U30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="V30" s="67"/>
+      <c r="W30" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="X30" s="69"/>
+      <c r="Y30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z30" s="51"/>
+      <c r="AA30" s="67"/>
+      <c r="AB30" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="AC30" s="67"/>
-      <c r="AD30" s="68"/>
-      <c r="AE30" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="AF30" s="64"/>
-      <c r="AG30" s="64"/>
-      <c r="AH30" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI30" s="64"/>
-      <c r="AJ30" s="65"/>
-      <c r="AK30" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL30" s="65"/>
-      <c r="AM30" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN30" s="68"/>
-      <c r="AO30" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="AP30" s="64"/>
-      <c r="AQ30" s="65"/>
-      <c r="AR30" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="AS30" s="64"/>
-      <c r="AT30" s="65"/>
-      <c r="AU30" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="AV30" s="64"/>
-      <c r="AW30" s="64"/>
-      <c r="AX30" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY30" s="65"/>
-      <c r="AZ30" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA30" s="65"/>
-      <c r="BB30" s="66" t="s">
+      <c r="AC30" s="52"/>
+      <c r="AD30" s="69"/>
+      <c r="AE30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF30" s="51"/>
+      <c r="AG30" s="51"/>
+      <c r="AH30" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI30" s="51"/>
+      <c r="AJ30" s="67"/>
+      <c r="AK30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL30" s="67"/>
+      <c r="AM30" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN30" s="69"/>
+      <c r="AO30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="AP30" s="51"/>
+      <c r="AQ30" s="67"/>
+      <c r="AR30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="AS30" s="51"/>
+      <c r="AT30" s="67"/>
+      <c r="AU30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV30" s="51"/>
+      <c r="AW30" s="51"/>
+      <c r="AX30" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY30" s="67"/>
+      <c r="AZ30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA30" s="67"/>
+      <c r="BB30" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="BC30" s="67"/>
-      <c r="BD30" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="BE30" s="64"/>
-      <c r="BF30" s="65"/>
-      <c r="BG30" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="BH30" s="67"/>
-      <c r="BI30" s="68"/>
-      <c r="BJ30" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="BK30" s="68"/>
-      <c r="BL30" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM30" s="65"/>
-      <c r="BN30" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO30" s="65"/>
-      <c r="BP30" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="BQ30" s="64"/>
+      <c r="BC30" s="52"/>
+      <c r="BD30" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE30" s="51"/>
+      <c r="BF30" s="67"/>
+      <c r="BG30" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH30" s="52"/>
+      <c r="BI30" s="69"/>
+      <c r="BJ30" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="BK30" s="69"/>
+      <c r="BL30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM30" s="67"/>
+      <c r="BN30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="BO30" s="67"/>
+      <c r="BP30" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ30" s="51"/>
     </row>
     <row r="31" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="63" t="s">
+      <c r="A31" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="29"/>
-      <c r="D31" s="57"/>
+      <c r="D31" s="58"/>
       <c r="E31" s="59"/>
       <c r="F31" s="7">
         <v>6</v>
@@ -17956,93 +17956,93 @@
         <v>10</v>
       </c>
       <c r="H31" s="29"/>
-      <c r="I31" s="57"/>
+      <c r="I31" s="58"/>
       <c r="J31" s="59"/>
       <c r="K31" s="7">
         <v>8</v>
       </c>
-      <c r="L31" s="57"/>
+      <c r="L31" s="58"/>
       <c r="M31" s="59"/>
-      <c r="N31" s="57"/>
+      <c r="N31" s="58"/>
       <c r="O31" s="59"/>
-      <c r="P31" s="81">
+      <c r="P31" s="60">
         <v>10</v>
       </c>
-      <c r="Q31" s="83"/>
-      <c r="R31" s="83"/>
-      <c r="S31" s="58"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="49"/>
+      <c r="S31" s="48"/>
       <c r="T31" s="59"/>
-      <c r="U31" s="57"/>
+      <c r="U31" s="58"/>
       <c r="V31" s="59"/>
-      <c r="W31" s="87">
+      <c r="W31" s="64">
         <v>7</v>
       </c>
-      <c r="X31" s="88"/>
-      <c r="Y31" s="57"/>
-      <c r="Z31" s="58"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="58"/>
+      <c r="Z31" s="48"/>
       <c r="AA31" s="59"/>
-      <c r="AB31" s="57"/>
-      <c r="AC31" s="58"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="48"/>
       <c r="AD31" s="59"/>
-      <c r="AE31" s="81">
+      <c r="AE31" s="60">
         <v>10</v>
       </c>
-      <c r="AF31" s="83"/>
-      <c r="AG31" s="83"/>
-      <c r="AH31" s="58"/>
-      <c r="AI31" s="58"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="48"/>
+      <c r="AI31" s="48"/>
       <c r="AJ31" s="59"/>
-      <c r="AK31" s="57"/>
+      <c r="AK31" s="58"/>
       <c r="AL31" s="59"/>
-      <c r="AM31" s="87">
+      <c r="AM31" s="64">
         <v>7</v>
       </c>
-      <c r="AN31" s="88"/>
-      <c r="AO31" s="57"/>
-      <c r="AP31" s="58"/>
+      <c r="AN31" s="66"/>
+      <c r="AO31" s="58"/>
+      <c r="AP31" s="48"/>
       <c r="AQ31" s="59"/>
-      <c r="AR31" s="57"/>
-      <c r="AS31" s="58"/>
+      <c r="AR31" s="58"/>
+      <c r="AS31" s="48"/>
       <c r="AT31" s="59"/>
-      <c r="AU31" s="81">
+      <c r="AU31" s="60">
         <v>10</v>
       </c>
-      <c r="AV31" s="83"/>
-      <c r="AW31" s="83"/>
-      <c r="AX31" s="58"/>
+      <c r="AV31" s="49"/>
+      <c r="AW31" s="49"/>
+      <c r="AX31" s="48"/>
       <c r="AY31" s="59"/>
-      <c r="AZ31" s="57"/>
+      <c r="AZ31" s="58"/>
       <c r="BA31" s="59"/>
-      <c r="BB31" s="87">
+      <c r="BB31" s="64">
         <v>8</v>
       </c>
-      <c r="BC31" s="89"/>
-      <c r="BD31" s="58"/>
-      <c r="BE31" s="58"/>
+      <c r="BC31" s="50"/>
+      <c r="BD31" s="48"/>
+      <c r="BE31" s="48"/>
       <c r="BF31" s="59"/>
-      <c r="BG31" s="57"/>
-      <c r="BH31" s="58"/>
+      <c r="BG31" s="58"/>
+      <c r="BH31" s="48"/>
       <c r="BI31" s="59"/>
-      <c r="BJ31" s="87">
+      <c r="BJ31" s="64">
         <v>7</v>
       </c>
-      <c r="BK31" s="88"/>
-      <c r="BL31" s="57"/>
+      <c r="BK31" s="66"/>
+      <c r="BL31" s="58"/>
       <c r="BM31" s="59"/>
-      <c r="BN31" s="57"/>
+      <c r="BN31" s="58"/>
       <c r="BO31" s="59"/>
-      <c r="BP31" s="81">
+      <c r="BP31" s="60">
         <v>10</v>
       </c>
-      <c r="BQ31" s="83"/>
+      <c r="BQ31" s="49"/>
     </row>
     <row r="32" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="64"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="29"/>
-      <c r="D32" s="57"/>
+      <c r="D32" s="58"/>
       <c r="E32" s="59"/>
       <c r="F32" s="7">
         <v>4</v>
@@ -18051,93 +18051,93 @@
         <v>1</v>
       </c>
       <c r="H32" s="29"/>
-      <c r="I32" s="57"/>
+      <c r="I32" s="58"/>
       <c r="J32" s="59"/>
       <c r="K32" s="7">
         <v>4</v>
       </c>
-      <c r="L32" s="57"/>
+      <c r="L32" s="58"/>
       <c r="M32" s="59"/>
-      <c r="N32" s="57"/>
+      <c r="N32" s="58"/>
       <c r="O32" s="59"/>
-      <c r="P32" s="87">
+      <c r="P32" s="64">
         <v>1</v>
       </c>
-      <c r="Q32" s="89"/>
-      <c r="R32" s="89"/>
-      <c r="S32" s="58"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="48"/>
       <c r="T32" s="59"/>
-      <c r="U32" s="57"/>
+      <c r="U32" s="58"/>
       <c r="V32" s="59"/>
-      <c r="W32" s="87">
+      <c r="W32" s="64">
         <v>4</v>
       </c>
-      <c r="X32" s="88"/>
-      <c r="Y32" s="57"/>
-      <c r="Z32" s="58"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="58"/>
+      <c r="Z32" s="48"/>
       <c r="AA32" s="59"/>
-      <c r="AB32" s="57"/>
-      <c r="AC32" s="58"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="48"/>
       <c r="AD32" s="59"/>
-      <c r="AE32" s="87">
+      <c r="AE32" s="64">
         <v>1</v>
       </c>
-      <c r="AF32" s="89"/>
-      <c r="AG32" s="89"/>
-      <c r="AH32" s="58"/>
-      <c r="AI32" s="58"/>
+      <c r="AF32" s="50"/>
+      <c r="AG32" s="50"/>
+      <c r="AH32" s="48"/>
+      <c r="AI32" s="48"/>
       <c r="AJ32" s="59"/>
-      <c r="AK32" s="57"/>
+      <c r="AK32" s="58"/>
       <c r="AL32" s="59"/>
-      <c r="AM32" s="87">
+      <c r="AM32" s="64">
         <v>4</v>
       </c>
-      <c r="AN32" s="88"/>
-      <c r="AO32" s="57"/>
-      <c r="AP32" s="58"/>
+      <c r="AN32" s="66"/>
+      <c r="AO32" s="58"/>
+      <c r="AP32" s="48"/>
       <c r="AQ32" s="59"/>
-      <c r="AR32" s="57"/>
-      <c r="AS32" s="58"/>
+      <c r="AR32" s="58"/>
+      <c r="AS32" s="48"/>
       <c r="AT32" s="59"/>
-      <c r="AU32" s="87">
+      <c r="AU32" s="64">
         <v>1</v>
       </c>
-      <c r="AV32" s="89"/>
-      <c r="AW32" s="89"/>
-      <c r="AX32" s="58"/>
+      <c r="AV32" s="50"/>
+      <c r="AW32" s="50"/>
+      <c r="AX32" s="48"/>
       <c r="AY32" s="59"/>
-      <c r="AZ32" s="57"/>
+      <c r="AZ32" s="58"/>
       <c r="BA32" s="59"/>
-      <c r="BB32" s="87">
+      <c r="BB32" s="64">
         <v>4</v>
       </c>
-      <c r="BC32" s="89"/>
-      <c r="BD32" s="58"/>
-      <c r="BE32" s="58"/>
+      <c r="BC32" s="50"/>
+      <c r="BD32" s="48"/>
+      <c r="BE32" s="48"/>
       <c r="BF32" s="59"/>
-      <c r="BG32" s="57"/>
-      <c r="BH32" s="58"/>
+      <c r="BG32" s="58"/>
+      <c r="BH32" s="48"/>
       <c r="BI32" s="59"/>
-      <c r="BJ32" s="87">
+      <c r="BJ32" s="64">
         <v>3</v>
       </c>
-      <c r="BK32" s="88"/>
-      <c r="BL32" s="57"/>
+      <c r="BK32" s="66"/>
+      <c r="BL32" s="58"/>
       <c r="BM32" s="59"/>
-      <c r="BN32" s="57"/>
+      <c r="BN32" s="58"/>
       <c r="BO32" s="59"/>
-      <c r="BP32" s="87">
+      <c r="BP32" s="64">
         <v>1</v>
       </c>
-      <c r="BQ32" s="89"/>
+      <c r="BQ32" s="50"/>
     </row>
     <row r="33" spans="1:69" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="63" t="s">
+      <c r="A33" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="64"/>
+      <c r="B33" s="51"/>
       <c r="C33" s="29"/>
-      <c r="D33" s="57"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="59"/>
       <c r="F33" s="6">
         <v>24</v>
@@ -18146,98 +18146,98 @@
         <v>10</v>
       </c>
       <c r="H33" s="29"/>
-      <c r="I33" s="57"/>
+      <c r="I33" s="58"/>
       <c r="J33" s="59"/>
       <c r="K33" s="6">
         <v>32</v>
       </c>
-      <c r="L33" s="57"/>
+      <c r="L33" s="58"/>
       <c r="M33" s="59"/>
-      <c r="N33" s="57"/>
+      <c r="N33" s="58"/>
       <c r="O33" s="59"/>
-      <c r="P33" s="81">
+      <c r="P33" s="60">
         <v>10</v>
       </c>
-      <c r="Q33" s="83"/>
-      <c r="R33" s="83"/>
-      <c r="S33" s="58"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="48"/>
       <c r="T33" s="59"/>
-      <c r="U33" s="57"/>
+      <c r="U33" s="58"/>
       <c r="V33" s="59"/>
-      <c r="W33" s="81">
+      <c r="W33" s="60">
         <v>28</v>
       </c>
-      <c r="X33" s="82"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="58"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="58"/>
+      <c r="Z33" s="48"/>
       <c r="AA33" s="59"/>
-      <c r="AB33" s="57"/>
-      <c r="AC33" s="58"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="48"/>
       <c r="AD33" s="59"/>
-      <c r="AE33" s="81">
+      <c r="AE33" s="60">
         <v>10</v>
       </c>
-      <c r="AF33" s="83"/>
-      <c r="AG33" s="83"/>
-      <c r="AH33" s="58"/>
-      <c r="AI33" s="58"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="48"/>
+      <c r="AI33" s="48"/>
       <c r="AJ33" s="59"/>
-      <c r="AK33" s="57"/>
+      <c r="AK33" s="58"/>
       <c r="AL33" s="59"/>
-      <c r="AM33" s="81">
+      <c r="AM33" s="60">
         <v>28</v>
       </c>
-      <c r="AN33" s="82"/>
-      <c r="AO33" s="57"/>
-      <c r="AP33" s="58"/>
+      <c r="AN33" s="63"/>
+      <c r="AO33" s="58"/>
+      <c r="AP33" s="48"/>
       <c r="AQ33" s="59"/>
-      <c r="AR33" s="57"/>
-      <c r="AS33" s="58"/>
+      <c r="AR33" s="58"/>
+      <c r="AS33" s="48"/>
       <c r="AT33" s="59"/>
-      <c r="AU33" s="81">
+      <c r="AU33" s="60">
         <v>10</v>
       </c>
-      <c r="AV33" s="83"/>
-      <c r="AW33" s="83"/>
-      <c r="AX33" s="58"/>
+      <c r="AV33" s="49"/>
+      <c r="AW33" s="49"/>
+      <c r="AX33" s="48"/>
       <c r="AY33" s="59"/>
-      <c r="AZ33" s="57"/>
+      <c r="AZ33" s="58"/>
       <c r="BA33" s="59"/>
-      <c r="BB33" s="81">
+      <c r="BB33" s="60">
         <v>32</v>
       </c>
-      <c r="BC33" s="83"/>
-      <c r="BD33" s="58"/>
-      <c r="BE33" s="58"/>
+      <c r="BC33" s="49"/>
+      <c r="BD33" s="48"/>
+      <c r="BE33" s="48"/>
       <c r="BF33" s="59"/>
-      <c r="BG33" s="57"/>
-      <c r="BH33" s="58"/>
+      <c r="BG33" s="58"/>
+      <c r="BH33" s="48"/>
       <c r="BI33" s="59"/>
-      <c r="BJ33" s="81">
-        <v>21</v>
-      </c>
-      <c r="BK33" s="82"/>
-      <c r="BL33" s="57"/>
+      <c r="BJ33" s="60">
+        <v>21</v>
+      </c>
+      <c r="BK33" s="63"/>
+      <c r="BL33" s="58"/>
       <c r="BM33" s="59"/>
-      <c r="BN33" s="57"/>
+      <c r="BN33" s="58"/>
       <c r="BO33" s="59"/>
-      <c r="BP33" s="81">
+      <c r="BP33" s="60">
         <v>10</v>
       </c>
-      <c r="BQ33" s="83"/>
+      <c r="BQ33" s="49"/>
     </row>
     <row r="34" spans="1:69" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="57" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="58"/>
+      <c r="A34" s="58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="48"/>
       <c r="C34" s="31">
         <v>54</v>
       </c>
-      <c r="D34" s="81">
+      <c r="D34" s="60">
         <v>15</v>
       </c>
-      <c r="E34" s="82"/>
+      <c r="E34" s="63"/>
       <c r="F34" s="6">
         <v>69</v>
       </c>
@@ -18247,132 +18247,132 @@
       <c r="H34" s="31">
         <v>67</v>
       </c>
-      <c r="I34" s="81">
+      <c r="I34" s="60">
         <v>15</v>
       </c>
-      <c r="J34" s="82"/>
+      <c r="J34" s="63"/>
       <c r="K34" s="6">
         <v>82</v>
       </c>
-      <c r="L34" s="81">
-        <v>22</v>
-      </c>
-      <c r="M34" s="82"/>
-      <c r="N34" s="81">
-        <v>21</v>
-      </c>
-      <c r="O34" s="82"/>
-      <c r="P34" s="81">
+      <c r="L34" s="60">
+        <v>22</v>
+      </c>
+      <c r="M34" s="63"/>
+      <c r="N34" s="60">
+        <v>21</v>
+      </c>
+      <c r="O34" s="63"/>
+      <c r="P34" s="60">
         <v>43</v>
       </c>
-      <c r="Q34" s="83"/>
-      <c r="R34" s="83"/>
-      <c r="S34" s="83">
+      <c r="Q34" s="49"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49">
         <v>37</v>
       </c>
-      <c r="T34" s="82"/>
-      <c r="U34" s="81">
+      <c r="T34" s="63"/>
+      <c r="U34" s="60">
         <v>13</v>
       </c>
-      <c r="V34" s="82"/>
-      <c r="W34" s="81">
+      <c r="V34" s="63"/>
+      <c r="W34" s="60">
         <v>50</v>
       </c>
-      <c r="X34" s="82"/>
-      <c r="Y34" s="81">
-        <v>17</v>
-      </c>
-      <c r="Z34" s="83"/>
-      <c r="AA34" s="82"/>
-      <c r="AB34" s="81">
-        <v>17</v>
-      </c>
-      <c r="AC34" s="83"/>
-      <c r="AD34" s="82"/>
-      <c r="AE34" s="81">
+      <c r="X34" s="63"/>
+      <c r="Y34" s="60">
+        <v>17</v>
+      </c>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="63"/>
+      <c r="AB34" s="60">
+        <v>17</v>
+      </c>
+      <c r="AC34" s="49"/>
+      <c r="AD34" s="63"/>
+      <c r="AE34" s="60">
         <v>34</v>
       </c>
-      <c r="AF34" s="83"/>
-      <c r="AG34" s="83"/>
-      <c r="AH34" s="83">
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="49">
         <v>51</v>
       </c>
-      <c r="AI34" s="83"/>
-      <c r="AJ34" s="82"/>
-      <c r="AK34" s="81">
+      <c r="AI34" s="49"/>
+      <c r="AJ34" s="63"/>
+      <c r="AK34" s="60">
         <v>14</v>
       </c>
-      <c r="AL34" s="82"/>
-      <c r="AM34" s="81">
+      <c r="AL34" s="63"/>
+      <c r="AM34" s="60">
         <v>65</v>
       </c>
-      <c r="AN34" s="82"/>
-      <c r="AO34" s="81">
-        <v>17</v>
-      </c>
-      <c r="AP34" s="83"/>
-      <c r="AQ34" s="82"/>
-      <c r="AR34" s="81">
-        <v>18</v>
-      </c>
-      <c r="AS34" s="83"/>
-      <c r="AT34" s="82"/>
-      <c r="AU34" s="81">
+      <c r="AN34" s="63"/>
+      <c r="AO34" s="60">
+        <v>17</v>
+      </c>
+      <c r="AP34" s="49"/>
+      <c r="AQ34" s="63"/>
+      <c r="AR34" s="60">
+        <v>18</v>
+      </c>
+      <c r="AS34" s="49"/>
+      <c r="AT34" s="63"/>
+      <c r="AU34" s="60">
         <v>35</v>
       </c>
-      <c r="AV34" s="83"/>
-      <c r="AW34" s="83"/>
-      <c r="AX34" s="83">
+      <c r="AV34" s="49"/>
+      <c r="AW34" s="49"/>
+      <c r="AX34" s="49">
         <v>46</v>
       </c>
-      <c r="AY34" s="82"/>
-      <c r="AZ34" s="81">
-        <v>18</v>
-      </c>
-      <c r="BA34" s="82"/>
-      <c r="BB34" s="81">
+      <c r="AY34" s="63"/>
+      <c r="AZ34" s="60">
+        <v>18</v>
+      </c>
+      <c r="BA34" s="63"/>
+      <c r="BB34" s="60">
         <v>64</v>
       </c>
-      <c r="BC34" s="83"/>
-      <c r="BD34" s="83">
+      <c r="BC34" s="49"/>
+      <c r="BD34" s="49">
         <v>47</v>
       </c>
-      <c r="BE34" s="83"/>
-      <c r="BF34" s="82"/>
-      <c r="BG34" s="81">
+      <c r="BE34" s="49"/>
+      <c r="BF34" s="63"/>
+      <c r="BG34" s="60">
         <v>12</v>
       </c>
-      <c r="BH34" s="83"/>
-      <c r="BI34" s="82"/>
-      <c r="BJ34" s="81">
+      <c r="BH34" s="49"/>
+      <c r="BI34" s="63"/>
+      <c r="BJ34" s="60">
         <v>59</v>
       </c>
-      <c r="BK34" s="82"/>
-      <c r="BL34" s="81">
-        <v>21</v>
-      </c>
-      <c r="BM34" s="82"/>
-      <c r="BN34" s="81">
-        <v>20</v>
-      </c>
-      <c r="BO34" s="82"/>
-      <c r="BP34" s="81">
+      <c r="BK34" s="63"/>
+      <c r="BL34" s="60">
+        <v>21</v>
+      </c>
+      <c r="BM34" s="63"/>
+      <c r="BN34" s="60">
+        <v>20</v>
+      </c>
+      <c r="BO34" s="63"/>
+      <c r="BP34" s="60">
         <v>41</v>
       </c>
-      <c r="BQ34" s="83"/>
+      <c r="BQ34" s="49"/>
     </row>
     <row r="35" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="63" t="s">
-        <v>18</v>
-      </c>
-      <c r="B35" s="64"/>
+      <c r="A35" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="51"/>
       <c r="C35" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="E35" s="68"/>
+      <c r="E35" s="69"/>
       <c r="F35" s="5" t="s">
         <v>21</v>
       </c>
@@ -18382,127 +18382,127 @@
       <c r="H35" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="I35" s="66" t="s">
+      <c r="I35" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="J35" s="68"/>
+      <c r="J35" s="69"/>
       <c r="K35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L35" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="M35" s="65"/>
-      <c r="N35" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="O35" s="65"/>
-      <c r="P35" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="67" t="s">
+      <c r="L35" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="M35" s="67"/>
+      <c r="N35" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="O35" s="67"/>
+      <c r="P35" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="51"/>
+      <c r="R35" s="51"/>
+      <c r="S35" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="T35" s="68"/>
-      <c r="U35" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="V35" s="68"/>
-      <c r="W35" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="X35" s="68"/>
-      <c r="Y35" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="Z35" s="67"/>
-      <c r="AA35" s="68"/>
-      <c r="AB35" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC35" s="67"/>
-      <c r="AD35" s="68"/>
-      <c r="AE35" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="AF35" s="64"/>
-      <c r="AG35" s="64"/>
-      <c r="AH35" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI35" s="64"/>
-      <c r="AJ35" s="65"/>
-      <c r="AK35" s="66" t="s">
+      <c r="T35" s="69"/>
+      <c r="U35" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="V35" s="69"/>
+      <c r="W35" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="X35" s="69"/>
+      <c r="Y35" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z35" s="52"/>
+      <c r="AA35" s="69"/>
+      <c r="AB35" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC35" s="52"/>
+      <c r="AD35" s="69"/>
+      <c r="AE35" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF35" s="51"/>
+      <c r="AG35" s="51"/>
+      <c r="AH35" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI35" s="51"/>
+      <c r="AJ35" s="67"/>
+      <c r="AK35" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="AL35" s="68"/>
-      <c r="AM35" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN35" s="68"/>
-      <c r="AO35" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="AP35" s="67"/>
-      <c r="AQ35" s="68"/>
-      <c r="AR35" s="66" t="s">
+      <c r="AL35" s="69"/>
+      <c r="AM35" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN35" s="69"/>
+      <c r="AO35" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="AP35" s="52"/>
+      <c r="AQ35" s="69"/>
+      <c r="AR35" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="AS35" s="67"/>
-      <c r="AT35" s="68"/>
-      <c r="AU35" s="63" t="s">
+      <c r="AS35" s="52"/>
+      <c r="AT35" s="69"/>
+      <c r="AU35" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="AV35" s="64"/>
-      <c r="AW35" s="64"/>
-      <c r="AX35" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="AY35" s="65"/>
-      <c r="AZ35" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA35" s="65"/>
-      <c r="BB35" s="63" t="s">
-        <v>21</v>
-      </c>
-      <c r="BC35" s="64"/>
-      <c r="BD35" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="BE35" s="64"/>
-      <c r="BF35" s="65"/>
-      <c r="BG35" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="BH35" s="67"/>
-      <c r="BI35" s="68"/>
-      <c r="BJ35" s="66" t="s">
-        <v>20</v>
-      </c>
-      <c r="BK35" s="68"/>
-      <c r="BL35" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM35" s="65"/>
-      <c r="BN35" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO35" s="65"/>
-      <c r="BP35" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="BQ35" s="64"/>
+      <c r="AV35" s="51"/>
+      <c r="AW35" s="51"/>
+      <c r="AX35" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="AY35" s="67"/>
+      <c r="AZ35" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA35" s="67"/>
+      <c r="BB35" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="BC35" s="51"/>
+      <c r="BD35" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE35" s="51"/>
+      <c r="BF35" s="67"/>
+      <c r="BG35" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="BH35" s="52"/>
+      <c r="BI35" s="69"/>
+      <c r="BJ35" s="68" t="s">
+        <v>20</v>
+      </c>
+      <c r="BK35" s="69"/>
+      <c r="BL35" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM35" s="67"/>
+      <c r="BN35" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="BO35" s="67"/>
+      <c r="BP35" s="65" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ35" s="51"/>
     </row>
     <row r="36" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="B36" s="64"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="29"/>
-      <c r="D36" s="57"/>
+      <c r="D36" s="58"/>
       <c r="E36" s="59"/>
       <c r="F36" s="7">
         <v>7</v>
@@ -18511,93 +18511,93 @@
         <v>6</v>
       </c>
       <c r="H36" s="29"/>
-      <c r="I36" s="57"/>
+      <c r="I36" s="58"/>
       <c r="J36" s="59"/>
       <c r="K36" s="6">
         <v>10</v>
       </c>
-      <c r="L36" s="57"/>
+      <c r="L36" s="58"/>
       <c r="M36" s="59"/>
-      <c r="N36" s="57"/>
+      <c r="N36" s="58"/>
       <c r="O36" s="59"/>
-      <c r="P36" s="81">
+      <c r="P36" s="60">
         <v>10</v>
       </c>
-      <c r="Q36" s="83"/>
-      <c r="R36" s="83"/>
-      <c r="S36" s="58"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="48"/>
       <c r="T36" s="59"/>
-      <c r="U36" s="57"/>
+      <c r="U36" s="58"/>
       <c r="V36" s="59"/>
-      <c r="W36" s="87">
+      <c r="W36" s="64">
         <v>6</v>
       </c>
-      <c r="X36" s="88"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="58"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="58"/>
+      <c r="Z36" s="48"/>
       <c r="AA36" s="59"/>
-      <c r="AB36" s="57"/>
-      <c r="AC36" s="58"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="48"/>
       <c r="AD36" s="59"/>
-      <c r="AE36" s="87">
+      <c r="AE36" s="64">
         <v>7</v>
       </c>
-      <c r="AF36" s="89"/>
-      <c r="AG36" s="89"/>
-      <c r="AH36" s="58"/>
-      <c r="AI36" s="58"/>
+      <c r="AF36" s="50"/>
+      <c r="AG36" s="50"/>
+      <c r="AH36" s="48"/>
+      <c r="AI36" s="48"/>
       <c r="AJ36" s="59"/>
-      <c r="AK36" s="57"/>
+      <c r="AK36" s="58"/>
       <c r="AL36" s="59"/>
-      <c r="AM36" s="87">
+      <c r="AM36" s="64">
         <v>7</v>
       </c>
-      <c r="AN36" s="88"/>
-      <c r="AO36" s="57"/>
-      <c r="AP36" s="58"/>
+      <c r="AN36" s="66"/>
+      <c r="AO36" s="58"/>
+      <c r="AP36" s="48"/>
       <c r="AQ36" s="59"/>
-      <c r="AR36" s="57"/>
-      <c r="AS36" s="58"/>
+      <c r="AR36" s="58"/>
+      <c r="AS36" s="48"/>
       <c r="AT36" s="59"/>
-      <c r="AU36" s="87">
+      <c r="AU36" s="64">
         <v>8</v>
       </c>
-      <c r="AV36" s="89"/>
-      <c r="AW36" s="89"/>
-      <c r="AX36" s="58"/>
+      <c r="AV36" s="50"/>
+      <c r="AW36" s="50"/>
+      <c r="AX36" s="48"/>
       <c r="AY36" s="59"/>
-      <c r="AZ36" s="57"/>
+      <c r="AZ36" s="58"/>
       <c r="BA36" s="59"/>
-      <c r="BB36" s="87">
+      <c r="BB36" s="64">
         <v>7</v>
       </c>
-      <c r="BC36" s="89"/>
-      <c r="BD36" s="58"/>
-      <c r="BE36" s="58"/>
+      <c r="BC36" s="50"/>
+      <c r="BD36" s="48"/>
+      <c r="BE36" s="48"/>
       <c r="BF36" s="59"/>
-      <c r="BG36" s="57"/>
-      <c r="BH36" s="58"/>
+      <c r="BG36" s="58"/>
+      <c r="BH36" s="48"/>
       <c r="BI36" s="59"/>
-      <c r="BJ36" s="87">
+      <c r="BJ36" s="64">
         <v>6</v>
       </c>
-      <c r="BK36" s="88"/>
-      <c r="BL36" s="57"/>
+      <c r="BK36" s="66"/>
+      <c r="BL36" s="58"/>
       <c r="BM36" s="59"/>
-      <c r="BN36" s="57"/>
+      <c r="BN36" s="58"/>
       <c r="BO36" s="59"/>
-      <c r="BP36" s="81">
+      <c r="BP36" s="60">
         <v>10</v>
       </c>
-      <c r="BQ36" s="83"/>
+      <c r="BQ36" s="49"/>
     </row>
     <row r="37" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="63" t="s">
+      <c r="A37" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B37" s="64"/>
+      <c r="B37" s="51"/>
       <c r="C37" s="29"/>
-      <c r="D37" s="57"/>
+      <c r="D37" s="58"/>
       <c r="E37" s="59"/>
       <c r="F37" s="7">
         <v>4</v>
@@ -18606,93 +18606,93 @@
         <v>1</v>
       </c>
       <c r="H37" s="29"/>
-      <c r="I37" s="57"/>
+      <c r="I37" s="58"/>
       <c r="J37" s="59"/>
       <c r="K37" s="7">
         <v>4</v>
       </c>
-      <c r="L37" s="57"/>
+      <c r="L37" s="58"/>
       <c r="M37" s="59"/>
-      <c r="N37" s="57"/>
+      <c r="N37" s="58"/>
       <c r="O37" s="59"/>
-      <c r="P37" s="87">
+      <c r="P37" s="64">
         <v>1</v>
       </c>
-      <c r="Q37" s="89"/>
-      <c r="R37" s="89"/>
-      <c r="S37" s="58"/>
+      <c r="Q37" s="50"/>
+      <c r="R37" s="50"/>
+      <c r="S37" s="48"/>
       <c r="T37" s="59"/>
-      <c r="U37" s="57"/>
+      <c r="U37" s="58"/>
       <c r="V37" s="59"/>
-      <c r="W37" s="87">
+      <c r="W37" s="64">
         <v>4</v>
       </c>
-      <c r="X37" s="88"/>
-      <c r="Y37" s="57"/>
-      <c r="Z37" s="58"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="58"/>
+      <c r="Z37" s="48"/>
       <c r="AA37" s="59"/>
-      <c r="AB37" s="57"/>
-      <c r="AC37" s="58"/>
+      <c r="AB37" s="58"/>
+      <c r="AC37" s="48"/>
       <c r="AD37" s="59"/>
-      <c r="AE37" s="87">
+      <c r="AE37" s="64">
         <v>1</v>
       </c>
-      <c r="AF37" s="89"/>
-      <c r="AG37" s="89"/>
-      <c r="AH37" s="58"/>
-      <c r="AI37" s="58"/>
+      <c r="AF37" s="50"/>
+      <c r="AG37" s="50"/>
+      <c r="AH37" s="48"/>
+      <c r="AI37" s="48"/>
       <c r="AJ37" s="59"/>
-      <c r="AK37" s="57"/>
+      <c r="AK37" s="58"/>
       <c r="AL37" s="59"/>
-      <c r="AM37" s="87">
+      <c r="AM37" s="64">
         <v>4</v>
       </c>
-      <c r="AN37" s="88"/>
-      <c r="AO37" s="57"/>
-      <c r="AP37" s="58"/>
+      <c r="AN37" s="66"/>
+      <c r="AO37" s="58"/>
+      <c r="AP37" s="48"/>
       <c r="AQ37" s="59"/>
-      <c r="AR37" s="57"/>
-      <c r="AS37" s="58"/>
+      <c r="AR37" s="58"/>
+      <c r="AS37" s="48"/>
       <c r="AT37" s="59"/>
-      <c r="AU37" s="87">
+      <c r="AU37" s="64">
         <v>1</v>
       </c>
-      <c r="AV37" s="89"/>
-      <c r="AW37" s="89"/>
-      <c r="AX37" s="58"/>
+      <c r="AV37" s="50"/>
+      <c r="AW37" s="50"/>
+      <c r="AX37" s="48"/>
       <c r="AY37" s="59"/>
-      <c r="AZ37" s="57"/>
+      <c r="AZ37" s="58"/>
       <c r="BA37" s="59"/>
-      <c r="BB37" s="87">
+      <c r="BB37" s="64">
         <v>4</v>
       </c>
-      <c r="BC37" s="89"/>
-      <c r="BD37" s="58"/>
-      <c r="BE37" s="58"/>
+      <c r="BC37" s="50"/>
+      <c r="BD37" s="48"/>
+      <c r="BE37" s="48"/>
       <c r="BF37" s="59"/>
-      <c r="BG37" s="57"/>
-      <c r="BH37" s="58"/>
+      <c r="BG37" s="58"/>
+      <c r="BH37" s="48"/>
       <c r="BI37" s="59"/>
-      <c r="BJ37" s="87">
+      <c r="BJ37" s="64">
         <v>3</v>
       </c>
-      <c r="BK37" s="88"/>
-      <c r="BL37" s="57"/>
+      <c r="BK37" s="66"/>
+      <c r="BL37" s="58"/>
       <c r="BM37" s="59"/>
-      <c r="BN37" s="57"/>
+      <c r="BN37" s="58"/>
       <c r="BO37" s="59"/>
-      <c r="BP37" s="87">
+      <c r="BP37" s="64">
         <v>1</v>
       </c>
-      <c r="BQ37" s="89"/>
+      <c r="BQ37" s="50"/>
     </row>
     <row r="38" spans="1:69" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="64"/>
+      <c r="B38" s="51"/>
       <c r="C38" s="29"/>
-      <c r="D38" s="57"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="59"/>
       <c r="F38" s="6">
         <v>28</v>
@@ -18701,158 +18701,158 @@
         <v>6</v>
       </c>
       <c r="H38" s="29"/>
-      <c r="I38" s="57"/>
+      <c r="I38" s="58"/>
       <c r="J38" s="59"/>
       <c r="K38" s="6">
         <v>40</v>
       </c>
-      <c r="L38" s="57"/>
+      <c r="L38" s="58"/>
       <c r="M38" s="59"/>
-      <c r="N38" s="57"/>
+      <c r="N38" s="58"/>
       <c r="O38" s="59"/>
-      <c r="P38" s="81">
+      <c r="P38" s="60">
         <v>10</v>
       </c>
-      <c r="Q38" s="83"/>
-      <c r="R38" s="83"/>
-      <c r="S38" s="58"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="49"/>
+      <c r="S38" s="48"/>
       <c r="T38" s="59"/>
-      <c r="U38" s="57"/>
+      <c r="U38" s="58"/>
       <c r="V38" s="59"/>
-      <c r="W38" s="81">
+      <c r="W38" s="60">
         <v>24</v>
       </c>
-      <c r="X38" s="82"/>
-      <c r="Y38" s="57"/>
-      <c r="Z38" s="58"/>
+      <c r="X38" s="63"/>
+      <c r="Y38" s="58"/>
+      <c r="Z38" s="48"/>
       <c r="AA38" s="59"/>
-      <c r="AB38" s="57"/>
-      <c r="AC38" s="58"/>
+      <c r="AB38" s="58"/>
+      <c r="AC38" s="48"/>
       <c r="AD38" s="59"/>
-      <c r="AE38" s="87">
+      <c r="AE38" s="64">
         <v>7</v>
       </c>
-      <c r="AF38" s="89"/>
-      <c r="AG38" s="89"/>
-      <c r="AH38" s="58"/>
-      <c r="AI38" s="58"/>
+      <c r="AF38" s="50"/>
+      <c r="AG38" s="50"/>
+      <c r="AH38" s="48"/>
+      <c r="AI38" s="48"/>
       <c r="AJ38" s="59"/>
-      <c r="AK38" s="57"/>
+      <c r="AK38" s="58"/>
       <c r="AL38" s="59"/>
-      <c r="AM38" s="81">
+      <c r="AM38" s="60">
         <v>28</v>
       </c>
-      <c r="AN38" s="82"/>
-      <c r="AO38" s="57"/>
-      <c r="AP38" s="58"/>
+      <c r="AN38" s="63"/>
+      <c r="AO38" s="58"/>
+      <c r="AP38" s="48"/>
       <c r="AQ38" s="59"/>
-      <c r="AR38" s="57"/>
-      <c r="AS38" s="58"/>
+      <c r="AR38" s="58"/>
+      <c r="AS38" s="48"/>
       <c r="AT38" s="59"/>
-      <c r="AU38" s="87">
+      <c r="AU38" s="64">
         <v>8</v>
       </c>
-      <c r="AV38" s="89"/>
-      <c r="AW38" s="89"/>
-      <c r="AX38" s="58"/>
+      <c r="AV38" s="50"/>
+      <c r="AW38" s="50"/>
+      <c r="AX38" s="48"/>
       <c r="AY38" s="59"/>
-      <c r="AZ38" s="57"/>
+      <c r="AZ38" s="58"/>
       <c r="BA38" s="59"/>
-      <c r="BB38" s="81">
+      <c r="BB38" s="60">
         <v>28</v>
       </c>
-      <c r="BC38" s="83"/>
-      <c r="BD38" s="58"/>
-      <c r="BE38" s="58"/>
+      <c r="BC38" s="49"/>
+      <c r="BD38" s="48"/>
+      <c r="BE38" s="48"/>
       <c r="BF38" s="59"/>
-      <c r="BG38" s="57"/>
-      <c r="BH38" s="58"/>
+      <c r="BG38" s="58"/>
+      <c r="BH38" s="48"/>
       <c r="BI38" s="59"/>
-      <c r="BJ38" s="81">
-        <v>18</v>
-      </c>
-      <c r="BK38" s="82"/>
-      <c r="BL38" s="57"/>
+      <c r="BJ38" s="60">
+        <v>18</v>
+      </c>
+      <c r="BK38" s="63"/>
+      <c r="BL38" s="58"/>
       <c r="BM38" s="59"/>
-      <c r="BN38" s="57"/>
+      <c r="BN38" s="58"/>
       <c r="BO38" s="59"/>
-      <c r="BP38" s="81">
+      <c r="BP38" s="60">
         <v>10</v>
       </c>
-      <c r="BQ38" s="83"/>
+      <c r="BQ38" s="49"/>
     </row>
     <row r="39" spans="1:69" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="51" t="s">
+      <c r="A39" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="52"/>
+      <c r="B39" s="62"/>
       <c r="C39" s="22"/>
       <c r="D39" s="54"/>
-      <c r="E39" s="56"/>
+      <c r="E39" s="55"/>
       <c r="F39" s="8"/>
       <c r="G39" s="21"/>
       <c r="H39" s="22"/>
       <c r="I39" s="54"/>
-      <c r="J39" s="56"/>
+      <c r="J39" s="55"/>
       <c r="K39" s="8"/>
       <c r="L39" s="54"/>
-      <c r="M39" s="56"/>
+      <c r="M39" s="55"/>
       <c r="N39" s="54"/>
-      <c r="O39" s="56"/>
+      <c r="O39" s="55"/>
       <c r="P39" s="54"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="55"/>
-      <c r="T39" s="56"/>
+      <c r="Q39" s="56"/>
+      <c r="R39" s="56"/>
+      <c r="S39" s="56"/>
+      <c r="T39" s="55"/>
       <c r="U39" s="54"/>
-      <c r="V39" s="56"/>
+      <c r="V39" s="55"/>
       <c r="W39" s="54"/>
-      <c r="X39" s="56"/>
+      <c r="X39" s="55"/>
       <c r="Y39" s="54"/>
-      <c r="Z39" s="55"/>
-      <c r="AA39" s="56"/>
+      <c r="Z39" s="56"/>
+      <c r="AA39" s="55"/>
       <c r="AB39" s="54"/>
-      <c r="AC39" s="55"/>
-      <c r="AD39" s="56"/>
+      <c r="AC39" s="56"/>
+      <c r="AD39" s="55"/>
       <c r="AE39" s="54"/>
-      <c r="AF39" s="55"/>
-      <c r="AG39" s="55"/>
-      <c r="AH39" s="55"/>
-      <c r="AI39" s="55"/>
-      <c r="AJ39" s="56"/>
+      <c r="AF39" s="56"/>
+      <c r="AG39" s="56"/>
+      <c r="AH39" s="56"/>
+      <c r="AI39" s="56"/>
+      <c r="AJ39" s="55"/>
       <c r="AK39" s="54"/>
-      <c r="AL39" s="56"/>
+      <c r="AL39" s="55"/>
       <c r="AM39" s="54"/>
-      <c r="AN39" s="56"/>
+      <c r="AN39" s="55"/>
       <c r="AO39" s="54"/>
-      <c r="AP39" s="55"/>
-      <c r="AQ39" s="56"/>
+      <c r="AP39" s="56"/>
+      <c r="AQ39" s="55"/>
       <c r="AR39" s="54"/>
-      <c r="AS39" s="55"/>
-      <c r="AT39" s="56"/>
+      <c r="AS39" s="56"/>
+      <c r="AT39" s="55"/>
       <c r="AU39" s="54"/>
-      <c r="AV39" s="55"/>
-      <c r="AW39" s="55"/>
-      <c r="AX39" s="55"/>
-      <c r="AY39" s="56"/>
+      <c r="AV39" s="56"/>
+      <c r="AW39" s="56"/>
+      <c r="AX39" s="56"/>
+      <c r="AY39" s="55"/>
       <c r="AZ39" s="54"/>
-      <c r="BA39" s="56"/>
+      <c r="BA39" s="55"/>
       <c r="BB39" s="54"/>
-      <c r="BC39" s="55"/>
-      <c r="BD39" s="55"/>
-      <c r="BE39" s="55"/>
-      <c r="BF39" s="56"/>
+      <c r="BC39" s="56"/>
+      <c r="BD39" s="56"/>
+      <c r="BE39" s="56"/>
+      <c r="BF39" s="55"/>
       <c r="BG39" s="54"/>
-      <c r="BH39" s="55"/>
-      <c r="BI39" s="56"/>
+      <c r="BH39" s="56"/>
+      <c r="BI39" s="55"/>
       <c r="BJ39" s="54"/>
-      <c r="BK39" s="56"/>
+      <c r="BK39" s="55"/>
       <c r="BL39" s="54"/>
-      <c r="BM39" s="56"/>
+      <c r="BM39" s="55"/>
       <c r="BN39" s="54"/>
-      <c r="BO39" s="56"/>
+      <c r="BO39" s="55"/>
       <c r="BP39" s="54"/>
-      <c r="BQ39" s="55"/>
+      <c r="BQ39" s="56"/>
     </row>
     <row r="40" spans="1:69" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="18">
@@ -18970,163 +18970,163 @@
       </c>
     </row>
     <row r="63" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="64" t="s">
+      <c r="A63" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B63" s="64"/>
-      <c r="C63" s="55"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
-      <c r="F63" s="55"/>
-      <c r="G63" s="55"/>
-      <c r="H63" s="55"/>
-      <c r="I63" s="55"/>
-      <c r="J63" s="55"/>
-      <c r="K63" s="55"/>
-      <c r="L63" s="55"/>
-      <c r="M63" s="55"/>
-      <c r="N63" s="55"/>
-      <c r="O63" s="55"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="55"/>
-      <c r="S63" s="55"/>
-      <c r="T63" s="55"/>
-      <c r="U63" s="55"/>
-      <c r="V63" s="55"/>
-      <c r="W63" s="55"/>
-      <c r="X63" s="55"/>
-      <c r="Y63" s="55"/>
-      <c r="Z63" s="55"/>
-      <c r="AA63" s="55"/>
-      <c r="AB63" s="55"/>
-      <c r="AC63" s="55"/>
-      <c r="AD63" s="55"/>
-      <c r="AE63" s="55"/>
-      <c r="AF63" s="55"/>
-      <c r="AG63" s="55"/>
-      <c r="AH63" s="55"/>
-      <c r="AI63" s="55"/>
-      <c r="AJ63" s="55"/>
-      <c r="AK63" s="55"/>
-      <c r="AL63" s="55"/>
-      <c r="AM63" s="55"/>
-      <c r="AN63" s="55"/>
-      <c r="AO63" s="55"/>
-      <c r="AP63" s="55"/>
-      <c r="AQ63" s="55"/>
-      <c r="AR63" s="55"/>
-      <c r="AS63" s="55"/>
-      <c r="AT63" s="55"/>
-      <c r="AU63" s="55"/>
-      <c r="AV63" s="55"/>
-      <c r="AW63" s="55"/>
-      <c r="AX63" s="55"/>
-      <c r="AY63" s="55"/>
-      <c r="AZ63" s="55"/>
-      <c r="BA63" s="55"/>
-      <c r="BB63" s="55"/>
-      <c r="BC63" s="55"/>
-      <c r="BD63" s="55"/>
-      <c r="BE63" s="55"/>
-      <c r="BF63" s="55"/>
-      <c r="BG63" s="55"/>
-      <c r="BH63" s="55"/>
-      <c r="BI63" s="55"/>
-      <c r="BJ63" s="55"/>
-      <c r="BK63" s="55"/>
-      <c r="BL63" s="55"/>
-      <c r="BM63" s="55"/>
-      <c r="BN63" s="55"/>
-      <c r="BO63" s="55"/>
-      <c r="BP63" s="55"/>
-      <c r="BQ63" s="55"/>
+      <c r="B63" s="51"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="56"/>
+      <c r="J63" s="56"/>
+      <c r="K63" s="56"/>
+      <c r="L63" s="56"/>
+      <c r="M63" s="56"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="56"/>
+      <c r="P63" s="56"/>
+      <c r="Q63" s="56"/>
+      <c r="R63" s="56"/>
+      <c r="S63" s="56"/>
+      <c r="T63" s="56"/>
+      <c r="U63" s="56"/>
+      <c r="V63" s="56"/>
+      <c r="W63" s="56"/>
+      <c r="X63" s="56"/>
+      <c r="Y63" s="56"/>
+      <c r="Z63" s="56"/>
+      <c r="AA63" s="56"/>
+      <c r="AB63" s="56"/>
+      <c r="AC63" s="56"/>
+      <c r="AD63" s="56"/>
+      <c r="AE63" s="56"/>
+      <c r="AF63" s="56"/>
+      <c r="AG63" s="56"/>
+      <c r="AH63" s="56"/>
+      <c r="AI63" s="56"/>
+      <c r="AJ63" s="56"/>
+      <c r="AK63" s="56"/>
+      <c r="AL63" s="56"/>
+      <c r="AM63" s="56"/>
+      <c r="AN63" s="56"/>
+      <c r="AO63" s="56"/>
+      <c r="AP63" s="56"/>
+      <c r="AQ63" s="56"/>
+      <c r="AR63" s="56"/>
+      <c r="AS63" s="56"/>
+      <c r="AT63" s="56"/>
+      <c r="AU63" s="56"/>
+      <c r="AV63" s="56"/>
+      <c r="AW63" s="56"/>
+      <c r="AX63" s="56"/>
+      <c r="AY63" s="56"/>
+      <c r="AZ63" s="56"/>
+      <c r="BA63" s="56"/>
+      <c r="BB63" s="56"/>
+      <c r="BC63" s="56"/>
+      <c r="BD63" s="56"/>
+      <c r="BE63" s="56"/>
+      <c r="BF63" s="56"/>
+      <c r="BG63" s="56"/>
+      <c r="BH63" s="56"/>
+      <c r="BI63" s="56"/>
+      <c r="BJ63" s="56"/>
+      <c r="BK63" s="56"/>
+      <c r="BL63" s="56"/>
+      <c r="BM63" s="56"/>
+      <c r="BN63" s="56"/>
+      <c r="BO63" s="56"/>
+      <c r="BP63" s="56"/>
+      <c r="BQ63" s="56"/>
     </row>
     <row r="64" spans="1:69" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="64" t="s">
+      <c r="A64" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B64" s="64"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="90"/>
-      <c r="E64" s="90"/>
-      <c r="F64" s="90"/>
-      <c r="G64" s="90"/>
-      <c r="H64" s="90"/>
-      <c r="I64" s="90"/>
-      <c r="J64" s="90"/>
-      <c r="K64" s="90"/>
-      <c r="L64" s="90"/>
-      <c r="M64" s="90"/>
-      <c r="N64" s="90"/>
-      <c r="O64" s="90"/>
-      <c r="P64" s="90"/>
-      <c r="Q64" s="90"/>
-      <c r="R64" s="90"/>
-      <c r="S64" s="90"/>
-      <c r="T64" s="90"/>
-      <c r="U64" s="90"/>
-      <c r="V64" s="90"/>
-      <c r="W64" s="90"/>
-      <c r="X64" s="90"/>
-      <c r="Y64" s="90"/>
-      <c r="Z64" s="90"/>
-      <c r="AA64" s="90"/>
-      <c r="AB64" s="90"/>
-      <c r="AC64" s="90"/>
-      <c r="AD64" s="90"/>
-      <c r="AE64" s="90"/>
-      <c r="AF64" s="90"/>
-      <c r="AG64" s="90"/>
-      <c r="AH64" s="90"/>
-      <c r="AI64" s="90"/>
-      <c r="AJ64" s="90"/>
-      <c r="AK64" s="90"/>
-      <c r="AL64" s="90"/>
-      <c r="AM64" s="90"/>
-      <c r="AN64" s="90"/>
-      <c r="AO64" s="90"/>
-      <c r="AP64" s="90"/>
-      <c r="AQ64" s="90"/>
-      <c r="AR64" s="90"/>
-      <c r="AS64" s="90"/>
-      <c r="AT64" s="90"/>
-      <c r="AU64" s="90"/>
-      <c r="AV64" s="90"/>
-      <c r="AW64" s="90"/>
-      <c r="AX64" s="90"/>
-      <c r="AY64" s="90"/>
-      <c r="AZ64" s="90"/>
-      <c r="BA64" s="90"/>
-      <c r="BB64" s="90"/>
-      <c r="BC64" s="90"/>
-      <c r="BD64" s="90"/>
-      <c r="BE64" s="90"/>
-      <c r="BF64" s="90"/>
-      <c r="BG64" s="90"/>
-      <c r="BH64" s="90"/>
-      <c r="BI64" s="90"/>
-      <c r="BJ64" s="90"/>
-      <c r="BK64" s="90"/>
-      <c r="BL64" s="90"/>
-      <c r="BM64" s="90"/>
-      <c r="BN64" s="90"/>
-      <c r="BO64" s="90"/>
-      <c r="BP64" s="90"/>
-      <c r="BQ64" s="90"/>
+      <c r="B64" s="51"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+      <c r="H64" s="57"/>
+      <c r="I64" s="57"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
+      <c r="S64" s="57"/>
+      <c r="T64" s="57"/>
+      <c r="U64" s="57"/>
+      <c r="V64" s="57"/>
+      <c r="W64" s="57"/>
+      <c r="X64" s="57"/>
+      <c r="Y64" s="57"/>
+      <c r="Z64" s="57"/>
+      <c r="AA64" s="57"/>
+      <c r="AB64" s="57"/>
+      <c r="AC64" s="57"/>
+      <c r="AD64" s="57"/>
+      <c r="AE64" s="57"/>
+      <c r="AF64" s="57"/>
+      <c r="AG64" s="57"/>
+      <c r="AH64" s="57"/>
+      <c r="AI64" s="57"/>
+      <c r="AJ64" s="57"/>
+      <c r="AK64" s="57"/>
+      <c r="AL64" s="57"/>
+      <c r="AM64" s="57"/>
+      <c r="AN64" s="57"/>
+      <c r="AO64" s="57"/>
+      <c r="AP64" s="57"/>
+      <c r="AQ64" s="57"/>
+      <c r="AR64" s="57"/>
+      <c r="AS64" s="57"/>
+      <c r="AT64" s="57"/>
+      <c r="AU64" s="57"/>
+      <c r="AV64" s="57"/>
+      <c r="AW64" s="57"/>
+      <c r="AX64" s="57"/>
+      <c r="AY64" s="57"/>
+      <c r="AZ64" s="57"/>
+      <c r="BA64" s="57"/>
+      <c r="BB64" s="57"/>
+      <c r="BC64" s="57"/>
+      <c r="BD64" s="57"/>
+      <c r="BE64" s="57"/>
+      <c r="BF64" s="57"/>
+      <c r="BG64" s="57"/>
+      <c r="BH64" s="57"/>
+      <c r="BI64" s="57"/>
+      <c r="BJ64" s="57"/>
+      <c r="BK64" s="57"/>
+      <c r="BL64" s="57"/>
+      <c r="BM64" s="57"/>
+      <c r="BN64" s="57"/>
+      <c r="BO64" s="57"/>
+      <c r="BP64" s="57"/>
+      <c r="BQ64" s="57"/>
     </row>
     <row r="65" spans="1:69" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B65" s="58"/>
+      <c r="A65" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B65" s="48"/>
       <c r="C65" s="32">
         <v>58</v>
       </c>
-      <c r="D65" s="83">
-        <v>16</v>
-      </c>
-      <c r="E65" s="83"/>
+      <c r="D65" s="49">
+        <v>16</v>
+      </c>
+      <c r="E65" s="49"/>
       <c r="F65" s="32">
         <v>74</v>
       </c>
@@ -19136,132 +19136,132 @@
       <c r="H65" s="32">
         <v>61</v>
       </c>
-      <c r="I65" s="83">
-        <v>19</v>
-      </c>
-      <c r="J65" s="83"/>
+      <c r="I65" s="49">
+        <v>19</v>
+      </c>
+      <c r="J65" s="49"/>
       <c r="K65" s="32">
         <v>80</v>
       </c>
-      <c r="L65" s="83">
+      <c r="L65" s="49">
         <v>24</v>
       </c>
-      <c r="M65" s="83"/>
-      <c r="N65" s="83">
+      <c r="M65" s="49"/>
+      <c r="N65" s="49">
         <v>24</v>
       </c>
-      <c r="O65" s="83"/>
-      <c r="P65" s="83"/>
-      <c r="Q65" s="83">
+      <c r="O65" s="49"/>
+      <c r="P65" s="49"/>
+      <c r="Q65" s="49">
         <v>48</v>
       </c>
-      <c r="R65" s="83"/>
-      <c r="S65" s="83">
+      <c r="R65" s="49"/>
+      <c r="S65" s="49">
         <v>48</v>
       </c>
-      <c r="T65" s="83"/>
-      <c r="U65" s="83">
-        <v>17</v>
-      </c>
-      <c r="V65" s="83"/>
-      <c r="W65" s="83">
+      <c r="T65" s="49"/>
+      <c r="U65" s="49">
+        <v>17</v>
+      </c>
+      <c r="V65" s="49"/>
+      <c r="W65" s="49">
         <v>65</v>
       </c>
-      <c r="X65" s="83"/>
-      <c r="Y65" s="83"/>
-      <c r="Z65" s="83">
-        <v>20</v>
-      </c>
-      <c r="AA65" s="83"/>
-      <c r="AB65" s="83"/>
-      <c r="AC65" s="83">
-        <v>20</v>
-      </c>
-      <c r="AD65" s="83"/>
-      <c r="AE65" s="83"/>
-      <c r="AF65" s="83">
+      <c r="X65" s="49"/>
+      <c r="Y65" s="49"/>
+      <c r="Z65" s="49">
+        <v>20</v>
+      </c>
+      <c r="AA65" s="49"/>
+      <c r="AB65" s="49"/>
+      <c r="AC65" s="49">
+        <v>20</v>
+      </c>
+      <c r="AD65" s="49"/>
+      <c r="AE65" s="49"/>
+      <c r="AF65" s="49">
         <v>40</v>
       </c>
-      <c r="AG65" s="83"/>
-      <c r="AH65" s="83">
+      <c r="AG65" s="49"/>
+      <c r="AH65" s="49">
         <v>60</v>
       </c>
-      <c r="AI65" s="83"/>
-      <c r="AJ65" s="83"/>
-      <c r="AK65" s="83">
-        <v>20</v>
-      </c>
-      <c r="AL65" s="83"/>
-      <c r="AM65" s="83">
+      <c r="AI65" s="49"/>
+      <c r="AJ65" s="49"/>
+      <c r="AK65" s="49">
+        <v>20</v>
+      </c>
+      <c r="AL65" s="49"/>
+      <c r="AM65" s="49">
         <v>80</v>
       </c>
-      <c r="AN65" s="83"/>
-      <c r="AO65" s="83"/>
-      <c r="AP65" s="83">
+      <c r="AN65" s="49"/>
+      <c r="AO65" s="49"/>
+      <c r="AP65" s="49">
         <v>24</v>
       </c>
-      <c r="AQ65" s="83"/>
-      <c r="AR65" s="83"/>
-      <c r="AS65" s="83">
+      <c r="AQ65" s="49"/>
+      <c r="AR65" s="49"/>
+      <c r="AS65" s="49">
         <v>24</v>
       </c>
-      <c r="AT65" s="83"/>
-      <c r="AU65" s="83"/>
-      <c r="AV65" s="83">
+      <c r="AT65" s="49"/>
+      <c r="AU65" s="49"/>
+      <c r="AV65" s="49">
         <v>48</v>
       </c>
-      <c r="AW65" s="83"/>
-      <c r="AX65" s="83">
+      <c r="AW65" s="49"/>
+      <c r="AX65" s="49">
         <v>58</v>
       </c>
-      <c r="AY65" s="83"/>
-      <c r="AZ65" s="83">
-        <v>19</v>
-      </c>
-      <c r="BA65" s="83"/>
-      <c r="BB65" s="86" t="s">
+      <c r="AY65" s="49"/>
+      <c r="AZ65" s="49">
+        <v>19</v>
+      </c>
+      <c r="BA65" s="49"/>
+      <c r="BB65" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="BC65" s="86"/>
-      <c r="BD65" s="86"/>
-      <c r="BE65" s="83">
+      <c r="BC65" s="53"/>
+      <c r="BD65" s="53"/>
+      <c r="BE65" s="49">
         <v>54</v>
       </c>
-      <c r="BF65" s="83"/>
-      <c r="BG65" s="83"/>
-      <c r="BH65" s="83">
-        <v>20</v>
-      </c>
-      <c r="BI65" s="83"/>
-      <c r="BJ65" s="83">
+      <c r="BF65" s="49"/>
+      <c r="BG65" s="49"/>
+      <c r="BH65" s="49">
+        <v>20</v>
+      </c>
+      <c r="BI65" s="49"/>
+      <c r="BJ65" s="49">
         <v>74</v>
       </c>
-      <c r="BK65" s="83"/>
-      <c r="BL65" s="83">
+      <c r="BK65" s="49"/>
+      <c r="BL65" s="49">
         <v>24</v>
       </c>
-      <c r="BM65" s="83"/>
-      <c r="BN65" s="83">
+      <c r="BM65" s="49"/>
+      <c r="BN65" s="49">
         <v>23</v>
       </c>
-      <c r="BO65" s="83"/>
-      <c r="BP65" s="83">
+      <c r="BO65" s="49"/>
+      <c r="BP65" s="49">
         <v>47</v>
       </c>
-      <c r="BQ65" s="83"/>
+      <c r="BQ65" s="49"/>
     </row>
     <row r="66" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" s="64"/>
+      <c r="A66" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="51"/>
       <c r="C66" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="D66" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="67"/>
+      <c r="D66" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="52"/>
       <c r="F66" s="26" t="s">
         <v>23</v>
       </c>
@@ -19271,128 +19271,128 @@
       <c r="H66" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="I66" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="J66" s="67"/>
+      <c r="I66" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" s="52"/>
       <c r="K66" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L66" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="M66" s="64"/>
-      <c r="N66" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="O66" s="67"/>
-      <c r="P66" s="67"/>
-      <c r="Q66" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="R66" s="64"/>
-      <c r="S66" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="T66" s="64"/>
-      <c r="U66" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="V66" s="67"/>
-      <c r="W66" s="67" t="s">
-        <v>21</v>
-      </c>
-      <c r="X66" s="67"/>
-      <c r="Y66" s="67"/>
-      <c r="Z66" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="AA66" s="64"/>
-      <c r="AB66" s="64"/>
-      <c r="AC66" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD66" s="67"/>
-      <c r="AE66" s="67"/>
-      <c r="AF66" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="AG66" s="64"/>
-      <c r="AH66" s="64" t="s">
+      <c r="L66" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="M66" s="51"/>
+      <c r="N66" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="O66" s="52"/>
+      <c r="P66" s="52"/>
+      <c r="Q66" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="R66" s="51"/>
+      <c r="S66" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="T66" s="51"/>
+      <c r="U66" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="V66" s="52"/>
+      <c r="W66" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="X66" s="52"/>
+      <c r="Y66" s="52"/>
+      <c r="Z66" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA66" s="51"/>
+      <c r="AB66" s="51"/>
+      <c r="AC66" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD66" s="52"/>
+      <c r="AE66" s="52"/>
+      <c r="AF66" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG66" s="51"/>
+      <c r="AH66" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="AI66" s="64"/>
-      <c r="AJ66" s="64"/>
-      <c r="AK66" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="AL66" s="67"/>
-      <c r="AM66" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="AN66" s="64"/>
-      <c r="AO66" s="64"/>
-      <c r="AP66" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="AQ66" s="64"/>
-      <c r="AR66" s="64"/>
-      <c r="AS66" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="AT66" s="67"/>
-      <c r="AU66" s="67"/>
-      <c r="AV66" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="AW66" s="64"/>
-      <c r="AX66" s="64" t="s">
+      <c r="AI66" s="51"/>
+      <c r="AJ66" s="51"/>
+      <c r="AK66" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL66" s="52"/>
+      <c r="AM66" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN66" s="51"/>
+      <c r="AO66" s="51"/>
+      <c r="AP66" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AQ66" s="51"/>
+      <c r="AR66" s="51"/>
+      <c r="AS66" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT66" s="52"/>
+      <c r="AU66" s="52"/>
+      <c r="AV66" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW66" s="51"/>
+      <c r="AX66" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="AY66" s="64"/>
-      <c r="AZ66" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="BA66" s="64"/>
-      <c r="BB66" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="BC66" s="67"/>
-      <c r="BD66" s="67"/>
-      <c r="BE66" s="64" t="s">
-        <v>21</v>
-      </c>
-      <c r="BF66" s="64"/>
-      <c r="BG66" s="64"/>
-      <c r="BH66" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="BI66" s="67"/>
-      <c r="BJ66" s="67" t="s">
+      <c r="AY66" s="51"/>
+      <c r="AZ66" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA66" s="51"/>
+      <c r="BB66" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC66" s="52"/>
+      <c r="BD66" s="52"/>
+      <c r="BE66" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF66" s="51"/>
+      <c r="BG66" s="51"/>
+      <c r="BH66" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI66" s="52"/>
+      <c r="BJ66" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="BK66" s="67"/>
-      <c r="BL66" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM66" s="64"/>
-      <c r="BN66" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="BO66" s="67"/>
-      <c r="BP66" s="64" t="s">
-        <v>22</v>
-      </c>
-      <c r="BQ66" s="64"/>
+      <c r="BK66" s="52"/>
+      <c r="BL66" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM66" s="51"/>
+      <c r="BN66" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="BO66" s="52"/>
+      <c r="BP66" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ66" s="51"/>
     </row>
     <row r="67" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="64" t="s">
+      <c r="A67" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="64"/>
+      <c r="B67" s="51"/>
       <c r="C67" s="28"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
+      <c r="D67" s="48"/>
+      <c r="E67" s="48"/>
       <c r="F67" s="34">
         <v>8</v>
       </c>
@@ -19400,94 +19400,94 @@
         <v>10</v>
       </c>
       <c r="H67" s="28"/>
-      <c r="I67" s="58"/>
-      <c r="J67" s="58"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
       <c r="K67" s="32">
         <v>10</v>
       </c>
-      <c r="L67" s="58"/>
-      <c r="M67" s="58"/>
-      <c r="N67" s="58"/>
-      <c r="O67" s="58"/>
-      <c r="P67" s="58"/>
-      <c r="Q67" s="83">
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="48"/>
+      <c r="Q67" s="49">
         <v>10</v>
       </c>
-      <c r="R67" s="83"/>
-      <c r="S67" s="58"/>
-      <c r="T67" s="58"/>
-      <c r="U67" s="58"/>
-      <c r="V67" s="58"/>
-      <c r="W67" s="89">
+      <c r="R67" s="49"/>
+      <c r="S67" s="48"/>
+      <c r="T67" s="48"/>
+      <c r="U67" s="48"/>
+      <c r="V67" s="48"/>
+      <c r="W67" s="50">
         <v>7</v>
       </c>
-      <c r="X67" s="89"/>
-      <c r="Y67" s="89"/>
-      <c r="Z67" s="58"/>
-      <c r="AA67" s="58"/>
-      <c r="AB67" s="58"/>
-      <c r="AC67" s="58"/>
-      <c r="AD67" s="58"/>
-      <c r="AE67" s="58"/>
-      <c r="AF67" s="83">
+      <c r="X67" s="50"/>
+      <c r="Y67" s="50"/>
+      <c r="Z67" s="48"/>
+      <c r="AA67" s="48"/>
+      <c r="AB67" s="48"/>
+      <c r="AC67" s="48"/>
+      <c r="AD67" s="48"/>
+      <c r="AE67" s="48"/>
+      <c r="AF67" s="49">
         <v>10</v>
       </c>
-      <c r="AG67" s="83"/>
-      <c r="AH67" s="58"/>
-      <c r="AI67" s="58"/>
-      <c r="AJ67" s="58"/>
-      <c r="AK67" s="58"/>
-      <c r="AL67" s="58"/>
-      <c r="AM67" s="83">
+      <c r="AG67" s="49"/>
+      <c r="AH67" s="48"/>
+      <c r="AI67" s="48"/>
+      <c r="AJ67" s="48"/>
+      <c r="AK67" s="48"/>
+      <c r="AL67" s="48"/>
+      <c r="AM67" s="49">
         <v>10</v>
       </c>
-      <c r="AN67" s="83"/>
-      <c r="AO67" s="83"/>
-      <c r="AP67" s="58"/>
-      <c r="AQ67" s="58"/>
-      <c r="AR67" s="58"/>
-      <c r="AS67" s="58"/>
-      <c r="AT67" s="58"/>
-      <c r="AU67" s="58"/>
-      <c r="AV67" s="83">
+      <c r="AN67" s="49"/>
+      <c r="AO67" s="49"/>
+      <c r="AP67" s="48"/>
+      <c r="AQ67" s="48"/>
+      <c r="AR67" s="48"/>
+      <c r="AS67" s="48"/>
+      <c r="AT67" s="48"/>
+      <c r="AU67" s="48"/>
+      <c r="AV67" s="49">
         <v>10</v>
       </c>
-      <c r="AW67" s="83"/>
-      <c r="AX67" s="58"/>
-      <c r="AY67" s="58"/>
-      <c r="AZ67" s="58"/>
-      <c r="BA67" s="58"/>
-      <c r="BB67" s="83">
+      <c r="AW67" s="49"/>
+      <c r="AX67" s="48"/>
+      <c r="AY67" s="48"/>
+      <c r="AZ67" s="48"/>
+      <c r="BA67" s="48"/>
+      <c r="BB67" s="49">
         <v>10</v>
       </c>
-      <c r="BC67" s="83"/>
-      <c r="BD67" s="83"/>
-      <c r="BE67" s="58"/>
-      <c r="BF67" s="58"/>
-      <c r="BG67" s="58"/>
-      <c r="BH67" s="58"/>
-      <c r="BI67" s="58"/>
-      <c r="BJ67" s="89">
+      <c r="BC67" s="49"/>
+      <c r="BD67" s="49"/>
+      <c r="BE67" s="48"/>
+      <c r="BF67" s="48"/>
+      <c r="BG67" s="48"/>
+      <c r="BH67" s="48"/>
+      <c r="BI67" s="48"/>
+      <c r="BJ67" s="50">
         <v>8</v>
       </c>
-      <c r="BK67" s="89"/>
-      <c r="BL67" s="58"/>
-      <c r="BM67" s="58"/>
-      <c r="BN67" s="58"/>
-      <c r="BO67" s="58"/>
-      <c r="BP67" s="83">
+      <c r="BK67" s="50"/>
+      <c r="BL67" s="48"/>
+      <c r="BM67" s="48"/>
+      <c r="BN67" s="48"/>
+      <c r="BO67" s="48"/>
+      <c r="BP67" s="49">
         <v>10</v>
       </c>
-      <c r="BQ67" s="83"/>
+      <c r="BQ67" s="49"/>
     </row>
     <row r="68" spans="1:69" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="64" t="s">
+      <c r="A68" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B68" s="64"/>
+      <c r="B68" s="51"/>
       <c r="C68" s="28"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58"/>
+      <c r="D68" s="48"/>
+      <c r="E68" s="48"/>
       <c r="F68" s="34">
         <v>4</v>
       </c>
@@ -19495,94 +19495,94 @@
         <v>1</v>
       </c>
       <c r="H68" s="28"/>
-      <c r="I68" s="58"/>
-      <c r="J68" s="58"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
       <c r="K68" s="34">
         <v>4</v>
       </c>
-      <c r="L68" s="58"/>
-      <c r="M68" s="58"/>
-      <c r="N68" s="58"/>
-      <c r="O68" s="58"/>
-      <c r="P68" s="58"/>
-      <c r="Q68" s="89">
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="48"/>
+      <c r="Q68" s="50">
         <v>1</v>
       </c>
-      <c r="R68" s="89"/>
-      <c r="S68" s="58"/>
-      <c r="T68" s="58"/>
-      <c r="U68" s="58"/>
-      <c r="V68" s="58"/>
-      <c r="W68" s="89">
+      <c r="R68" s="50"/>
+      <c r="S68" s="48"/>
+      <c r="T68" s="48"/>
+      <c r="U68" s="48"/>
+      <c r="V68" s="48"/>
+      <c r="W68" s="50">
         <v>4</v>
       </c>
-      <c r="X68" s="89"/>
-      <c r="Y68" s="89"/>
-      <c r="Z68" s="58"/>
-      <c r="AA68" s="58"/>
-      <c r="AB68" s="58"/>
-      <c r="AC68" s="58"/>
-      <c r="AD68" s="58"/>
-      <c r="AE68" s="58"/>
-      <c r="AF68" s="89">
+      <c r="X68" s="50"/>
+      <c r="Y68" s="50"/>
+      <c r="Z68" s="48"/>
+      <c r="AA68" s="48"/>
+      <c r="AB68" s="48"/>
+      <c r="AC68" s="48"/>
+      <c r="AD68" s="48"/>
+      <c r="AE68" s="48"/>
+      <c r="AF68" s="50">
         <v>1</v>
       </c>
-      <c r="AG68" s="89"/>
-      <c r="AH68" s="58"/>
-      <c r="AI68" s="58"/>
-      <c r="AJ68" s="58"/>
-      <c r="AK68" s="58"/>
-      <c r="AL68" s="58"/>
-      <c r="AM68" s="89">
+      <c r="AG68" s="50"/>
+      <c r="AH68" s="48"/>
+      <c r="AI68" s="48"/>
+      <c r="AJ68" s="48"/>
+      <c r="AK68" s="48"/>
+      <c r="AL68" s="48"/>
+      <c r="AM68" s="50">
         <v>4</v>
       </c>
-      <c r="AN68" s="89"/>
-      <c r="AO68" s="89"/>
-      <c r="AP68" s="58"/>
-      <c r="AQ68" s="58"/>
-      <c r="AR68" s="58"/>
-      <c r="AS68" s="58"/>
-      <c r="AT68" s="58"/>
-      <c r="AU68" s="58"/>
-      <c r="AV68" s="89">
+      <c r="AN68" s="50"/>
+      <c r="AO68" s="50"/>
+      <c r="AP68" s="48"/>
+      <c r="AQ68" s="48"/>
+      <c r="AR68" s="48"/>
+      <c r="AS68" s="48"/>
+      <c r="AT68" s="48"/>
+      <c r="AU68" s="48"/>
+      <c r="AV68" s="50">
         <v>1</v>
       </c>
-      <c r="AW68" s="89"/>
-      <c r="AX68" s="58"/>
-      <c r="AY68" s="58"/>
-      <c r="AZ68" s="58"/>
-      <c r="BA68" s="58"/>
-      <c r="BB68" s="89">
+      <c r="AW68" s="50"/>
+      <c r="AX68" s="48"/>
+      <c r="AY68" s="48"/>
+      <c r="AZ68" s="48"/>
+      <c r="BA68" s="48"/>
+      <c r="BB68" s="50">
         <v>4</v>
       </c>
-      <c r="BC68" s="89"/>
-      <c r="BD68" s="89"/>
-      <c r="BE68" s="58"/>
-      <c r="BF68" s="58"/>
-      <c r="BG68" s="58"/>
-      <c r="BH68" s="58"/>
-      <c r="BI68" s="58"/>
-      <c r="BJ68" s="89">
+      <c r="BC68" s="50"/>
+      <c r="BD68" s="50"/>
+      <c r="BE68" s="48"/>
+      <c r="BF68" s="48"/>
+      <c r="BG68" s="48"/>
+      <c r="BH68" s="48"/>
+      <c r="BI68" s="48"/>
+      <c r="BJ68" s="50">
         <v>3</v>
       </c>
-      <c r="BK68" s="89"/>
-      <c r="BL68" s="58"/>
-      <c r="BM68" s="58"/>
-      <c r="BN68" s="58"/>
-      <c r="BO68" s="58"/>
-      <c r="BP68" s="89">
+      <c r="BK68" s="50"/>
+      <c r="BL68" s="48"/>
+      <c r="BM68" s="48"/>
+      <c r="BN68" s="48"/>
+      <c r="BO68" s="48"/>
+      <c r="BP68" s="50">
         <v>1</v>
       </c>
-      <c r="BQ68" s="89"/>
+      <c r="BQ68" s="50"/>
     </row>
     <row r="69" spans="1:69" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="64" t="s">
+      <c r="A69" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B69" s="64"/>
+      <c r="B69" s="51"/>
       <c r="C69" s="28"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
+      <c r="D69" s="48"/>
+      <c r="E69" s="48"/>
       <c r="F69" s="32">
         <v>32</v>
       </c>
@@ -19590,85 +19590,85 @@
         <v>10</v>
       </c>
       <c r="H69" s="28"/>
-      <c r="I69" s="58"/>
-      <c r="J69" s="58"/>
+      <c r="I69" s="48"/>
+      <c r="J69" s="48"/>
       <c r="K69" s="32">
         <v>40</v>
       </c>
-      <c r="L69" s="58"/>
-      <c r="M69" s="58"/>
-      <c r="N69" s="58"/>
-      <c r="O69" s="58"/>
-      <c r="P69" s="58"/>
-      <c r="Q69" s="83">
+      <c r="L69" s="48"/>
+      <c r="M69" s="48"/>
+      <c r="N69" s="48"/>
+      <c r="O69" s="48"/>
+      <c r="P69" s="48"/>
+      <c r="Q69" s="49">
         <v>10</v>
       </c>
-      <c r="R69" s="83"/>
-      <c r="S69" s="58"/>
-      <c r="T69" s="58"/>
-      <c r="U69" s="58"/>
-      <c r="V69" s="58"/>
-      <c r="W69" s="83">
+      <c r="R69" s="49"/>
+      <c r="S69" s="48"/>
+      <c r="T69" s="48"/>
+      <c r="U69" s="48"/>
+      <c r="V69" s="48"/>
+      <c r="W69" s="49">
         <v>28</v>
       </c>
-      <c r="X69" s="83"/>
-      <c r="Y69" s="83"/>
-      <c r="Z69" s="58"/>
-      <c r="AA69" s="58"/>
-      <c r="AB69" s="58"/>
-      <c r="AC69" s="58"/>
-      <c r="AD69" s="58"/>
-      <c r="AE69" s="58"/>
-      <c r="AF69" s="83">
+      <c r="X69" s="49"/>
+      <c r="Y69" s="49"/>
+      <c r="Z69" s="48"/>
+      <c r="AA69" s="48"/>
+      <c r="AB69" s="48"/>
+      <c r="AC69" s="48"/>
+      <c r="AD69" s="48"/>
+      <c r="AE69" s="48"/>
+      <c r="AF69" s="49">
         <v>10</v>
       </c>
-      <c r="AG69" s="83"/>
-      <c r="AH69" s="58"/>
-      <c r="AI69" s="58"/>
-      <c r="AJ69" s="58"/>
-      <c r="AK69" s="58"/>
-      <c r="AL69" s="58"/>
-      <c r="AM69" s="83">
+      <c r="AG69" s="49"/>
+      <c r="AH69" s="48"/>
+      <c r="AI69" s="48"/>
+      <c r="AJ69" s="48"/>
+      <c r="AK69" s="48"/>
+      <c r="AL69" s="48"/>
+      <c r="AM69" s="49">
         <v>40</v>
       </c>
-      <c r="AN69" s="83"/>
-      <c r="AO69" s="83"/>
-      <c r="AP69" s="58"/>
-      <c r="AQ69" s="58"/>
-      <c r="AR69" s="58"/>
-      <c r="AS69" s="58"/>
-      <c r="AT69" s="58"/>
-      <c r="AU69" s="58"/>
-      <c r="AV69" s="83">
+      <c r="AN69" s="49"/>
+      <c r="AO69" s="49"/>
+      <c r="AP69" s="48"/>
+      <c r="AQ69" s="48"/>
+      <c r="AR69" s="48"/>
+      <c r="AS69" s="48"/>
+      <c r="AT69" s="48"/>
+      <c r="AU69" s="48"/>
+      <c r="AV69" s="49">
         <v>10</v>
       </c>
-      <c r="AW69" s="83"/>
-      <c r="AX69" s="58"/>
-      <c r="AY69" s="58"/>
-      <c r="AZ69" s="58"/>
-      <c r="BA69" s="58"/>
-      <c r="BB69" s="83">
+      <c r="AW69" s="49"/>
+      <c r="AX69" s="48"/>
+      <c r="AY69" s="48"/>
+      <c r="AZ69" s="48"/>
+      <c r="BA69" s="48"/>
+      <c r="BB69" s="49">
         <v>40</v>
       </c>
-      <c r="BC69" s="83"/>
-      <c r="BD69" s="83"/>
-      <c r="BE69" s="58"/>
-      <c r="BF69" s="58"/>
-      <c r="BG69" s="58"/>
-      <c r="BH69" s="58"/>
-      <c r="BI69" s="58"/>
-      <c r="BJ69" s="83">
+      <c r="BC69" s="49"/>
+      <c r="BD69" s="49"/>
+      <c r="BE69" s="48"/>
+      <c r="BF69" s="48"/>
+      <c r="BG69" s="48"/>
+      <c r="BH69" s="48"/>
+      <c r="BI69" s="48"/>
+      <c r="BJ69" s="49">
         <v>24</v>
       </c>
-      <c r="BK69" s="83"/>
-      <c r="BL69" s="58"/>
-      <c r="BM69" s="58"/>
-      <c r="BN69" s="58"/>
-      <c r="BO69" s="58"/>
-      <c r="BP69" s="83">
+      <c r="BK69" s="49"/>
+      <c r="BL69" s="48"/>
+      <c r="BM69" s="48"/>
+      <c r="BN69" s="48"/>
+      <c r="BO69" s="48"/>
+      <c r="BP69" s="49">
         <v>10</v>
       </c>
-      <c r="BQ69" s="83"/>
+      <c r="BQ69" s="49"/>
     </row>
     <row r="70" spans="1:69" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -19697,18 +19697,608 @@
     </row>
   </sheetData>
   <mergeCells count="638">
-    <mergeCell ref="BE69:BG69"/>
-    <mergeCell ref="BH69:BI69"/>
-    <mergeCell ref="BJ69:BK69"/>
-    <mergeCell ref="BL69:BM69"/>
-    <mergeCell ref="BN69:BO69"/>
-    <mergeCell ref="BP69:BQ69"/>
-    <mergeCell ref="AP69:AR69"/>
-    <mergeCell ref="AS69:AU69"/>
-    <mergeCell ref="AV69:AW69"/>
-    <mergeCell ref="AX69:AY69"/>
-    <mergeCell ref="AZ69:BA69"/>
-    <mergeCell ref="BB69:BD69"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:L9"/>
+    <mergeCell ref="M9:Z9"/>
+    <mergeCell ref="AA9:AP9"/>
+    <mergeCell ref="AQ9:AX9"/>
+    <mergeCell ref="AY9:BL9"/>
+    <mergeCell ref="A1:CA1"/>
+    <mergeCell ref="A7:BZ7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:L8"/>
+    <mergeCell ref="M8:Z8"/>
+    <mergeCell ref="AA8:AP8"/>
+    <mergeCell ref="AQ8:AX8"/>
+    <mergeCell ref="AY8:BL8"/>
+    <mergeCell ref="AR22:AT22"/>
+    <mergeCell ref="AU22:AW22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:AD22"/>
+    <mergeCell ref="AE22:AG22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="P22:R22"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:AD23"/>
+    <mergeCell ref="AE23:AG23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="BL22:BM22"/>
+    <mergeCell ref="BN22:BO22"/>
+    <mergeCell ref="BP22:BQ22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="P23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="AX22:AY22"/>
+    <mergeCell ref="AZ22:BA22"/>
+    <mergeCell ref="BB22:BC22"/>
+    <mergeCell ref="BD22:BF22"/>
+    <mergeCell ref="BG22:BI22"/>
+    <mergeCell ref="BJ22:BK22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AK22:AL22"/>
+    <mergeCell ref="AM22:AN22"/>
+    <mergeCell ref="AO22:AQ22"/>
+    <mergeCell ref="BN23:BO23"/>
+    <mergeCell ref="BP23:BQ23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="AZ23:BA23"/>
+    <mergeCell ref="BB23:BC23"/>
+    <mergeCell ref="BD23:BF23"/>
+    <mergeCell ref="BG23:BI23"/>
+    <mergeCell ref="BJ23:BK23"/>
+    <mergeCell ref="BL23:BM23"/>
+    <mergeCell ref="AK23:AL23"/>
+    <mergeCell ref="AM23:AN23"/>
+    <mergeCell ref="AO23:AQ23"/>
+    <mergeCell ref="AR23:AT23"/>
+    <mergeCell ref="AU23:AW23"/>
+    <mergeCell ref="AX23:AY23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="AR24:AT24"/>
+    <mergeCell ref="AU24:AW24"/>
+    <mergeCell ref="AX24:AY24"/>
+    <mergeCell ref="AZ24:BA24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB24:AD24"/>
+    <mergeCell ref="AE24:AG24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AK24:AL24"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:AD25"/>
+    <mergeCell ref="AE25:AG25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="AK25:AL25"/>
+    <mergeCell ref="AM25:AN25"/>
+    <mergeCell ref="BP24:BQ24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="BB24:BC24"/>
+    <mergeCell ref="BD24:BF24"/>
+    <mergeCell ref="BG24:BI24"/>
+    <mergeCell ref="BJ24:BK24"/>
+    <mergeCell ref="BL24:BM24"/>
+    <mergeCell ref="BN24:BO24"/>
+    <mergeCell ref="AM24:AN24"/>
+    <mergeCell ref="AO24:AQ24"/>
+    <mergeCell ref="BD25:BF25"/>
+    <mergeCell ref="BG25:BI25"/>
+    <mergeCell ref="BJ25:BK25"/>
+    <mergeCell ref="BL25:BM25"/>
+    <mergeCell ref="BN25:BO25"/>
+    <mergeCell ref="BP25:BQ25"/>
+    <mergeCell ref="AO25:AQ25"/>
+    <mergeCell ref="AR25:AT25"/>
+    <mergeCell ref="AU25:AW25"/>
+    <mergeCell ref="AX25:AY25"/>
+    <mergeCell ref="AZ25:BA25"/>
+    <mergeCell ref="BB25:BC25"/>
+    <mergeCell ref="AR26:AT26"/>
+    <mergeCell ref="AU26:AW26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:AD26"/>
+    <mergeCell ref="AE26:AG26"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P26:R26"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:AD27"/>
+    <mergeCell ref="AE27:AG27"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="BL26:BM26"/>
+    <mergeCell ref="BN26:BO26"/>
+    <mergeCell ref="BP26:BQ26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="P27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="AX26:AY26"/>
+    <mergeCell ref="AZ26:BA26"/>
+    <mergeCell ref="BB26:BC26"/>
+    <mergeCell ref="BD26:BF26"/>
+    <mergeCell ref="BG26:BI26"/>
+    <mergeCell ref="BJ26:BK26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AK26:AL26"/>
+    <mergeCell ref="AM26:AN26"/>
+    <mergeCell ref="AO26:AQ26"/>
+    <mergeCell ref="BN27:BO27"/>
+    <mergeCell ref="BP27:BQ27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="AZ27:BA27"/>
+    <mergeCell ref="BB27:BC27"/>
+    <mergeCell ref="BD27:BF27"/>
+    <mergeCell ref="BG27:BI27"/>
+    <mergeCell ref="BJ27:BK27"/>
+    <mergeCell ref="BL27:BM27"/>
+    <mergeCell ref="AK27:AL27"/>
+    <mergeCell ref="AM27:AN27"/>
+    <mergeCell ref="AO27:AQ27"/>
+    <mergeCell ref="AR27:AT27"/>
+    <mergeCell ref="AU27:AW27"/>
+    <mergeCell ref="AX27:AY27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="AR28:AT28"/>
+    <mergeCell ref="AU28:AW28"/>
+    <mergeCell ref="AX28:AY28"/>
+    <mergeCell ref="AZ28:BA28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:AD28"/>
+    <mergeCell ref="AE28:AG28"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="AK28:AL28"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB29:AD29"/>
+    <mergeCell ref="AE29:AG29"/>
+    <mergeCell ref="AH29:AJ29"/>
+    <mergeCell ref="AK29:AL29"/>
+    <mergeCell ref="AM29:AN29"/>
+    <mergeCell ref="BP28:BQ28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="P29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="BB28:BC28"/>
+    <mergeCell ref="BD28:BF28"/>
+    <mergeCell ref="BG28:BI28"/>
+    <mergeCell ref="BJ28:BK28"/>
+    <mergeCell ref="BL28:BM28"/>
+    <mergeCell ref="BN28:BO28"/>
+    <mergeCell ref="AM28:AN28"/>
+    <mergeCell ref="AO28:AQ28"/>
+    <mergeCell ref="BD29:BF29"/>
+    <mergeCell ref="BG29:BI29"/>
+    <mergeCell ref="BJ29:BK29"/>
+    <mergeCell ref="BL29:BM29"/>
+    <mergeCell ref="BN29:BO29"/>
+    <mergeCell ref="BP29:BQ29"/>
+    <mergeCell ref="AO29:AQ29"/>
+    <mergeCell ref="AR29:AT29"/>
+    <mergeCell ref="AU29:AW29"/>
+    <mergeCell ref="AX29:AY29"/>
+    <mergeCell ref="AZ29:BA29"/>
+    <mergeCell ref="BB29:BC29"/>
+    <mergeCell ref="AR30:AT30"/>
+    <mergeCell ref="AU30:AW30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="AB30:AD30"/>
+    <mergeCell ref="AE30:AG30"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P30:R30"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="AB31:AD31"/>
+    <mergeCell ref="AE31:AG31"/>
+    <mergeCell ref="AH31:AJ31"/>
+    <mergeCell ref="BL30:BM30"/>
+    <mergeCell ref="BN30:BO30"/>
+    <mergeCell ref="BP30:BQ30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="P31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="AX30:AY30"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="BB30:BC30"/>
+    <mergeCell ref="BD30:BF30"/>
+    <mergeCell ref="BG30:BI30"/>
+    <mergeCell ref="BJ30:BK30"/>
+    <mergeCell ref="AH30:AJ30"/>
+    <mergeCell ref="AK30:AL30"/>
+    <mergeCell ref="AM30:AN30"/>
+    <mergeCell ref="AO30:AQ30"/>
+    <mergeCell ref="BN31:BO31"/>
+    <mergeCell ref="BP31:BQ31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="AZ31:BA31"/>
+    <mergeCell ref="BB31:BC31"/>
+    <mergeCell ref="BD31:BF31"/>
+    <mergeCell ref="BG31:BI31"/>
+    <mergeCell ref="BJ31:BK31"/>
+    <mergeCell ref="BL31:BM31"/>
+    <mergeCell ref="AK31:AL31"/>
+    <mergeCell ref="AM31:AN31"/>
+    <mergeCell ref="AO31:AQ31"/>
+    <mergeCell ref="AR31:AT31"/>
+    <mergeCell ref="AU31:AW31"/>
+    <mergeCell ref="AX31:AY31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="AR32:AT32"/>
+    <mergeCell ref="AU32:AW32"/>
+    <mergeCell ref="AX32:AY32"/>
+    <mergeCell ref="AZ32:BA32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="AB32:AD32"/>
+    <mergeCell ref="AE32:AG32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="AK32:AL32"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="AB33:AD33"/>
+    <mergeCell ref="AE33:AG33"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="BP32:BQ32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="BB32:BC32"/>
+    <mergeCell ref="BD32:BF32"/>
+    <mergeCell ref="BG32:BI32"/>
+    <mergeCell ref="BJ32:BK32"/>
+    <mergeCell ref="BL32:BM32"/>
+    <mergeCell ref="BN32:BO32"/>
+    <mergeCell ref="AM32:AN32"/>
+    <mergeCell ref="AO32:AQ32"/>
+    <mergeCell ref="BD33:BF33"/>
+    <mergeCell ref="BG33:BI33"/>
+    <mergeCell ref="BJ33:BK33"/>
+    <mergeCell ref="BL33:BM33"/>
+    <mergeCell ref="BN33:BO33"/>
+    <mergeCell ref="BP33:BQ33"/>
+    <mergeCell ref="AO33:AQ33"/>
+    <mergeCell ref="AR33:AT33"/>
+    <mergeCell ref="AU33:AW33"/>
+    <mergeCell ref="AX33:AY33"/>
+    <mergeCell ref="AZ33:BA33"/>
+    <mergeCell ref="BB33:BC33"/>
+    <mergeCell ref="AR34:AT34"/>
+    <mergeCell ref="AU34:AW34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="AB34:AD34"/>
+    <mergeCell ref="AE34:AG34"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P34:R34"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="AB35:AD35"/>
+    <mergeCell ref="AE35:AG35"/>
+    <mergeCell ref="AH35:AJ35"/>
+    <mergeCell ref="BL34:BM34"/>
+    <mergeCell ref="BN34:BO34"/>
+    <mergeCell ref="BP34:BQ34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="P35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="AX34:AY34"/>
+    <mergeCell ref="AZ34:BA34"/>
+    <mergeCell ref="BB34:BC34"/>
+    <mergeCell ref="BD34:BF34"/>
+    <mergeCell ref="BG34:BI34"/>
+    <mergeCell ref="BJ34:BK34"/>
+    <mergeCell ref="AH34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="AO34:AQ34"/>
+    <mergeCell ref="BN35:BO35"/>
+    <mergeCell ref="BP35:BQ35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="P36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="AZ35:BA35"/>
+    <mergeCell ref="BB35:BC35"/>
+    <mergeCell ref="BD35:BF35"/>
+    <mergeCell ref="BG35:BI35"/>
+    <mergeCell ref="BJ35:BK35"/>
+    <mergeCell ref="BL35:BM35"/>
+    <mergeCell ref="AK35:AL35"/>
+    <mergeCell ref="AM35:AN35"/>
+    <mergeCell ref="AO35:AQ35"/>
+    <mergeCell ref="AR35:AT35"/>
+    <mergeCell ref="AU35:AW35"/>
+    <mergeCell ref="AX35:AY35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="AR36:AT36"/>
+    <mergeCell ref="AU36:AW36"/>
+    <mergeCell ref="AX36:AY36"/>
+    <mergeCell ref="AZ36:BA36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="AB36:AD36"/>
+    <mergeCell ref="AE36:AG36"/>
+    <mergeCell ref="AH36:AJ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="Y37:AA37"/>
+    <mergeCell ref="AB37:AD37"/>
+    <mergeCell ref="AE37:AG37"/>
+    <mergeCell ref="AH37:AJ37"/>
+    <mergeCell ref="AK37:AL37"/>
+    <mergeCell ref="AM37:AN37"/>
+    <mergeCell ref="BP36:BQ36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="P37:R37"/>
+    <mergeCell ref="S37:T37"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="BB36:BC36"/>
+    <mergeCell ref="BD36:BF36"/>
+    <mergeCell ref="BG36:BI36"/>
+    <mergeCell ref="BJ36:BK36"/>
+    <mergeCell ref="BL36:BM36"/>
+    <mergeCell ref="BN36:BO36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AO36:AQ36"/>
+    <mergeCell ref="BD37:BF37"/>
+    <mergeCell ref="BG37:BI37"/>
+    <mergeCell ref="BJ37:BK37"/>
+    <mergeCell ref="BL37:BM37"/>
+    <mergeCell ref="BN37:BO37"/>
+    <mergeCell ref="BP37:BQ37"/>
+    <mergeCell ref="AO37:AQ37"/>
+    <mergeCell ref="AR37:AT37"/>
+    <mergeCell ref="AU37:AW37"/>
+    <mergeCell ref="AX37:AY37"/>
+    <mergeCell ref="AZ37:BA37"/>
+    <mergeCell ref="BB37:BC37"/>
+    <mergeCell ref="AR38:AT38"/>
+    <mergeCell ref="AU38:AW38"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="U38:V38"/>
+    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="Y38:AA38"/>
+    <mergeCell ref="AB38:AD38"/>
+    <mergeCell ref="AE38:AG38"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="P38:R38"/>
+    <mergeCell ref="Y39:AA39"/>
+    <mergeCell ref="AB39:AD39"/>
+    <mergeCell ref="AE39:AG39"/>
+    <mergeCell ref="AH39:AJ39"/>
+    <mergeCell ref="BL38:BM38"/>
+    <mergeCell ref="BN38:BO38"/>
+    <mergeCell ref="BP38:BQ38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P39:R39"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="AX38:AY38"/>
+    <mergeCell ref="AZ38:BA38"/>
+    <mergeCell ref="BB38:BC38"/>
+    <mergeCell ref="BD38:BF38"/>
+    <mergeCell ref="BG38:BI38"/>
+    <mergeCell ref="BJ38:BK38"/>
+    <mergeCell ref="AH38:AJ38"/>
+    <mergeCell ref="AK38:AL38"/>
+    <mergeCell ref="AM38:AN38"/>
+    <mergeCell ref="AO38:AQ38"/>
+    <mergeCell ref="BN39:BO39"/>
+    <mergeCell ref="BP39:BQ39"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:BQ64"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:P65"/>
+    <mergeCell ref="AZ39:BA39"/>
+    <mergeCell ref="BB39:BC39"/>
+    <mergeCell ref="BD39:BF39"/>
+    <mergeCell ref="BG39:BI39"/>
+    <mergeCell ref="BJ39:BK39"/>
+    <mergeCell ref="BL39:BM39"/>
+    <mergeCell ref="AK39:AL39"/>
+    <mergeCell ref="AM39:AN39"/>
+    <mergeCell ref="AO39:AQ39"/>
+    <mergeCell ref="AR39:AT39"/>
+    <mergeCell ref="AU39:AW39"/>
+    <mergeCell ref="AX39:AY39"/>
+    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="W39:X39"/>
+    <mergeCell ref="BL65:BM65"/>
+    <mergeCell ref="BN65:BO65"/>
+    <mergeCell ref="BP65:BQ65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:P66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="AV65:AW65"/>
+    <mergeCell ref="AX65:AY65"/>
+    <mergeCell ref="AZ65:BA65"/>
+    <mergeCell ref="BB65:BD65"/>
+    <mergeCell ref="BE65:BG65"/>
+    <mergeCell ref="BH65:BI65"/>
+    <mergeCell ref="AF65:AG65"/>
+    <mergeCell ref="AH65:AJ65"/>
+    <mergeCell ref="AK65:AL65"/>
+    <mergeCell ref="AM65:AO65"/>
+    <mergeCell ref="AP65:AR65"/>
+    <mergeCell ref="AS65:AU65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="S65:T65"/>
+    <mergeCell ref="U65:V65"/>
+    <mergeCell ref="AS66:AU66"/>
+    <mergeCell ref="AV66:AW66"/>
+    <mergeCell ref="S66:T66"/>
+    <mergeCell ref="U66:V66"/>
+    <mergeCell ref="W66:Y66"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="AC66:AE66"/>
+    <mergeCell ref="AF66:AG66"/>
+    <mergeCell ref="BJ65:BK65"/>
+    <mergeCell ref="W65:Y65"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AC65:AE65"/>
+    <mergeCell ref="Z67:AB67"/>
+    <mergeCell ref="AC67:AE67"/>
+    <mergeCell ref="AF67:AG67"/>
+    <mergeCell ref="AH67:AJ67"/>
+    <mergeCell ref="BL66:BM66"/>
+    <mergeCell ref="BN66:BO66"/>
+    <mergeCell ref="BP66:BQ66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:P67"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="S67:T67"/>
+    <mergeCell ref="AX66:AY66"/>
+    <mergeCell ref="AZ66:BA66"/>
+    <mergeCell ref="BB66:BD66"/>
+    <mergeCell ref="BE66:BG66"/>
+    <mergeCell ref="BH66:BI66"/>
+    <mergeCell ref="BJ66:BK66"/>
+    <mergeCell ref="AH66:AJ66"/>
+    <mergeCell ref="AK66:AL66"/>
+    <mergeCell ref="AM66:AO66"/>
+    <mergeCell ref="AP66:AR66"/>
+    <mergeCell ref="BN67:BO67"/>
+    <mergeCell ref="BP67:BQ67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:P68"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="S68:T68"/>
+    <mergeCell ref="U68:V68"/>
+    <mergeCell ref="AZ67:BA67"/>
+    <mergeCell ref="BB67:BD67"/>
+    <mergeCell ref="BE67:BG67"/>
+    <mergeCell ref="BH67:BI67"/>
+    <mergeCell ref="BJ67:BK67"/>
+    <mergeCell ref="BL67:BM67"/>
+    <mergeCell ref="AK67:AL67"/>
+    <mergeCell ref="AM67:AO67"/>
+    <mergeCell ref="AP67:AR67"/>
+    <mergeCell ref="AS67:AU67"/>
+    <mergeCell ref="AV67:AW67"/>
+    <mergeCell ref="AX67:AY67"/>
+    <mergeCell ref="U67:V67"/>
+    <mergeCell ref="W67:Y67"/>
+    <mergeCell ref="AS68:AU68"/>
+    <mergeCell ref="AV68:AW68"/>
+    <mergeCell ref="AX68:AY68"/>
+    <mergeCell ref="AZ68:BA68"/>
+    <mergeCell ref="W68:Y68"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="AC68:AE68"/>
+    <mergeCell ref="AF68:AG68"/>
+    <mergeCell ref="AH68:AJ68"/>
+    <mergeCell ref="AK68:AL68"/>
     <mergeCell ref="Z69:AB69"/>
     <mergeCell ref="AC69:AE69"/>
     <mergeCell ref="AF69:AG69"/>
@@ -19733,608 +20323,18 @@
     <mergeCell ref="BN68:BO68"/>
     <mergeCell ref="AM68:AO68"/>
     <mergeCell ref="AP68:AR68"/>
-    <mergeCell ref="AS68:AU68"/>
-    <mergeCell ref="AV68:AW68"/>
-    <mergeCell ref="AX68:AY68"/>
-    <mergeCell ref="AZ68:BA68"/>
-    <mergeCell ref="W68:Y68"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="AC68:AE68"/>
-    <mergeCell ref="AF68:AG68"/>
-    <mergeCell ref="AH68:AJ68"/>
-    <mergeCell ref="AK68:AL68"/>
-    <mergeCell ref="BN67:BO67"/>
-    <mergeCell ref="BP67:BQ67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="N68:P68"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="S68:T68"/>
-    <mergeCell ref="U68:V68"/>
-    <mergeCell ref="AZ67:BA67"/>
-    <mergeCell ref="BB67:BD67"/>
-    <mergeCell ref="BE67:BG67"/>
-    <mergeCell ref="BH67:BI67"/>
-    <mergeCell ref="BJ67:BK67"/>
-    <mergeCell ref="BL67:BM67"/>
-    <mergeCell ref="AK67:AL67"/>
-    <mergeCell ref="AM67:AO67"/>
-    <mergeCell ref="AP67:AR67"/>
-    <mergeCell ref="AS67:AU67"/>
-    <mergeCell ref="AV67:AW67"/>
-    <mergeCell ref="AX67:AY67"/>
-    <mergeCell ref="U67:V67"/>
-    <mergeCell ref="W67:Y67"/>
-    <mergeCell ref="Z67:AB67"/>
-    <mergeCell ref="AC67:AE67"/>
-    <mergeCell ref="AF67:AG67"/>
-    <mergeCell ref="AH67:AJ67"/>
-    <mergeCell ref="BL66:BM66"/>
-    <mergeCell ref="BN66:BO66"/>
-    <mergeCell ref="BP66:BQ66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:P67"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="S67:T67"/>
-    <mergeCell ref="AX66:AY66"/>
-    <mergeCell ref="AZ66:BA66"/>
-    <mergeCell ref="BB66:BD66"/>
-    <mergeCell ref="BE66:BG66"/>
-    <mergeCell ref="BH66:BI66"/>
-    <mergeCell ref="BJ66:BK66"/>
-    <mergeCell ref="AH66:AJ66"/>
-    <mergeCell ref="AK66:AL66"/>
-    <mergeCell ref="AM66:AO66"/>
-    <mergeCell ref="AP66:AR66"/>
-    <mergeCell ref="AS66:AU66"/>
-    <mergeCell ref="AV66:AW66"/>
-    <mergeCell ref="S66:T66"/>
-    <mergeCell ref="U66:V66"/>
-    <mergeCell ref="W66:Y66"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="AC66:AE66"/>
-    <mergeCell ref="AF66:AG66"/>
-    <mergeCell ref="BJ65:BK65"/>
-    <mergeCell ref="W65:Y65"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AC65:AE65"/>
-    <mergeCell ref="BL65:BM65"/>
-    <mergeCell ref="BN65:BO65"/>
-    <mergeCell ref="BP65:BQ65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:P66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="AV65:AW65"/>
-    <mergeCell ref="AX65:AY65"/>
-    <mergeCell ref="AZ65:BA65"/>
-    <mergeCell ref="BB65:BD65"/>
-    <mergeCell ref="BE65:BG65"/>
-    <mergeCell ref="BH65:BI65"/>
-    <mergeCell ref="AF65:AG65"/>
-    <mergeCell ref="AH65:AJ65"/>
-    <mergeCell ref="AK65:AL65"/>
-    <mergeCell ref="AM65:AO65"/>
-    <mergeCell ref="AP65:AR65"/>
-    <mergeCell ref="AS65:AU65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="S65:T65"/>
-    <mergeCell ref="U65:V65"/>
-    <mergeCell ref="BN39:BO39"/>
-    <mergeCell ref="BP39:BQ39"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:BQ64"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="N65:P65"/>
-    <mergeCell ref="AZ39:BA39"/>
-    <mergeCell ref="BB39:BC39"/>
-    <mergeCell ref="BD39:BF39"/>
-    <mergeCell ref="BG39:BI39"/>
-    <mergeCell ref="BJ39:BK39"/>
-    <mergeCell ref="BL39:BM39"/>
-    <mergeCell ref="AK39:AL39"/>
-    <mergeCell ref="AM39:AN39"/>
-    <mergeCell ref="AO39:AQ39"/>
-    <mergeCell ref="AR39:AT39"/>
-    <mergeCell ref="AU39:AW39"/>
-    <mergeCell ref="AX39:AY39"/>
-    <mergeCell ref="U39:V39"/>
-    <mergeCell ref="W39:X39"/>
-    <mergeCell ref="Y39:AA39"/>
-    <mergeCell ref="AB39:AD39"/>
-    <mergeCell ref="AE39:AG39"/>
-    <mergeCell ref="AH39:AJ39"/>
-    <mergeCell ref="BL38:BM38"/>
-    <mergeCell ref="BN38:BO38"/>
-    <mergeCell ref="BP38:BQ38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P39:R39"/>
-    <mergeCell ref="S39:T39"/>
-    <mergeCell ref="AX38:AY38"/>
-    <mergeCell ref="AZ38:BA38"/>
-    <mergeCell ref="BB38:BC38"/>
-    <mergeCell ref="BD38:BF38"/>
-    <mergeCell ref="BG38:BI38"/>
-    <mergeCell ref="BJ38:BK38"/>
-    <mergeCell ref="AH38:AJ38"/>
-    <mergeCell ref="AK38:AL38"/>
-    <mergeCell ref="AM38:AN38"/>
-    <mergeCell ref="AO38:AQ38"/>
-    <mergeCell ref="AR38:AT38"/>
-    <mergeCell ref="AU38:AW38"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U38:V38"/>
-    <mergeCell ref="W38:X38"/>
-    <mergeCell ref="Y38:AA38"/>
-    <mergeCell ref="AB38:AD38"/>
-    <mergeCell ref="AE38:AG38"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="P38:R38"/>
-    <mergeCell ref="BD37:BF37"/>
-    <mergeCell ref="BG37:BI37"/>
-    <mergeCell ref="BJ37:BK37"/>
-    <mergeCell ref="BL37:BM37"/>
-    <mergeCell ref="BN37:BO37"/>
-    <mergeCell ref="BP37:BQ37"/>
-    <mergeCell ref="AO37:AQ37"/>
-    <mergeCell ref="AR37:AT37"/>
-    <mergeCell ref="AU37:AW37"/>
-    <mergeCell ref="AX37:AY37"/>
-    <mergeCell ref="AZ37:BA37"/>
-    <mergeCell ref="BB37:BC37"/>
-    <mergeCell ref="Y37:AA37"/>
-    <mergeCell ref="AB37:AD37"/>
-    <mergeCell ref="AE37:AG37"/>
-    <mergeCell ref="AH37:AJ37"/>
-    <mergeCell ref="AK37:AL37"/>
-    <mergeCell ref="AM37:AN37"/>
-    <mergeCell ref="BP36:BQ36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="P37:R37"/>
-    <mergeCell ref="S37:T37"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="BB36:BC36"/>
-    <mergeCell ref="BD36:BF36"/>
-    <mergeCell ref="BG36:BI36"/>
-    <mergeCell ref="BJ36:BK36"/>
-    <mergeCell ref="BL36:BM36"/>
-    <mergeCell ref="BN36:BO36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AO36:AQ36"/>
-    <mergeCell ref="AR36:AT36"/>
-    <mergeCell ref="AU36:AW36"/>
-    <mergeCell ref="AX36:AY36"/>
-    <mergeCell ref="AZ36:BA36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="AB36:AD36"/>
-    <mergeCell ref="AE36:AG36"/>
-    <mergeCell ref="AH36:AJ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="BN35:BO35"/>
-    <mergeCell ref="BP35:BQ35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="P36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="AZ35:BA35"/>
-    <mergeCell ref="BB35:BC35"/>
-    <mergeCell ref="BD35:BF35"/>
-    <mergeCell ref="BG35:BI35"/>
-    <mergeCell ref="BJ35:BK35"/>
-    <mergeCell ref="BL35:BM35"/>
-    <mergeCell ref="AK35:AL35"/>
-    <mergeCell ref="AM35:AN35"/>
-    <mergeCell ref="AO35:AQ35"/>
-    <mergeCell ref="AR35:AT35"/>
-    <mergeCell ref="AU35:AW35"/>
-    <mergeCell ref="AX35:AY35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="AB35:AD35"/>
-    <mergeCell ref="AE35:AG35"/>
-    <mergeCell ref="AH35:AJ35"/>
-    <mergeCell ref="BL34:BM34"/>
-    <mergeCell ref="BN34:BO34"/>
-    <mergeCell ref="BP34:BQ34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="P35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="AX34:AY34"/>
-    <mergeCell ref="AZ34:BA34"/>
-    <mergeCell ref="BB34:BC34"/>
-    <mergeCell ref="BD34:BF34"/>
-    <mergeCell ref="BG34:BI34"/>
-    <mergeCell ref="BJ34:BK34"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="AO34:AQ34"/>
-    <mergeCell ref="AR34:AT34"/>
-    <mergeCell ref="AU34:AW34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="AB34:AD34"/>
-    <mergeCell ref="AE34:AG34"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P34:R34"/>
-    <mergeCell ref="BD33:BF33"/>
-    <mergeCell ref="BG33:BI33"/>
-    <mergeCell ref="BJ33:BK33"/>
-    <mergeCell ref="BL33:BM33"/>
-    <mergeCell ref="BN33:BO33"/>
-    <mergeCell ref="BP33:BQ33"/>
-    <mergeCell ref="AO33:AQ33"/>
-    <mergeCell ref="AR33:AT33"/>
-    <mergeCell ref="AU33:AW33"/>
-    <mergeCell ref="AX33:AY33"/>
-    <mergeCell ref="AZ33:BA33"/>
-    <mergeCell ref="BB33:BC33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="AB33:AD33"/>
-    <mergeCell ref="AE33:AG33"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="BP32:BQ32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="BB32:BC32"/>
-    <mergeCell ref="BD32:BF32"/>
-    <mergeCell ref="BG32:BI32"/>
-    <mergeCell ref="BJ32:BK32"/>
-    <mergeCell ref="BL32:BM32"/>
-    <mergeCell ref="BN32:BO32"/>
-    <mergeCell ref="AM32:AN32"/>
-    <mergeCell ref="AO32:AQ32"/>
-    <mergeCell ref="AR32:AT32"/>
-    <mergeCell ref="AU32:AW32"/>
-    <mergeCell ref="AX32:AY32"/>
-    <mergeCell ref="AZ32:BA32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="AB32:AD32"/>
-    <mergeCell ref="AE32:AG32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="AK32:AL32"/>
-    <mergeCell ref="BN31:BO31"/>
-    <mergeCell ref="BP31:BQ31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="AZ31:BA31"/>
-    <mergeCell ref="BB31:BC31"/>
-    <mergeCell ref="BD31:BF31"/>
-    <mergeCell ref="BG31:BI31"/>
-    <mergeCell ref="BJ31:BK31"/>
-    <mergeCell ref="BL31:BM31"/>
-    <mergeCell ref="AK31:AL31"/>
-    <mergeCell ref="AM31:AN31"/>
-    <mergeCell ref="AO31:AQ31"/>
-    <mergeCell ref="AR31:AT31"/>
-    <mergeCell ref="AU31:AW31"/>
-    <mergeCell ref="AX31:AY31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="AB31:AD31"/>
-    <mergeCell ref="AE31:AG31"/>
-    <mergeCell ref="AH31:AJ31"/>
-    <mergeCell ref="BL30:BM30"/>
-    <mergeCell ref="BN30:BO30"/>
-    <mergeCell ref="BP30:BQ30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="P31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="AX30:AY30"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="BB30:BC30"/>
-    <mergeCell ref="BD30:BF30"/>
-    <mergeCell ref="BG30:BI30"/>
-    <mergeCell ref="BJ30:BK30"/>
-    <mergeCell ref="AH30:AJ30"/>
-    <mergeCell ref="AK30:AL30"/>
-    <mergeCell ref="AM30:AN30"/>
-    <mergeCell ref="AO30:AQ30"/>
-    <mergeCell ref="AR30:AT30"/>
-    <mergeCell ref="AU30:AW30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="AB30:AD30"/>
-    <mergeCell ref="AE30:AG30"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P30:R30"/>
-    <mergeCell ref="BD29:BF29"/>
-    <mergeCell ref="BG29:BI29"/>
-    <mergeCell ref="BJ29:BK29"/>
-    <mergeCell ref="BL29:BM29"/>
-    <mergeCell ref="BN29:BO29"/>
-    <mergeCell ref="BP29:BQ29"/>
-    <mergeCell ref="AO29:AQ29"/>
-    <mergeCell ref="AR29:AT29"/>
-    <mergeCell ref="AU29:AW29"/>
-    <mergeCell ref="AX29:AY29"/>
-    <mergeCell ref="AZ29:BA29"/>
-    <mergeCell ref="BB29:BC29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="AB29:AD29"/>
-    <mergeCell ref="AE29:AG29"/>
-    <mergeCell ref="AH29:AJ29"/>
-    <mergeCell ref="AK29:AL29"/>
-    <mergeCell ref="AM29:AN29"/>
-    <mergeCell ref="BP28:BQ28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="P29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="BB28:BC28"/>
-    <mergeCell ref="BD28:BF28"/>
-    <mergeCell ref="BG28:BI28"/>
-    <mergeCell ref="BJ28:BK28"/>
-    <mergeCell ref="BL28:BM28"/>
-    <mergeCell ref="BN28:BO28"/>
-    <mergeCell ref="AM28:AN28"/>
-    <mergeCell ref="AO28:AQ28"/>
-    <mergeCell ref="AR28:AT28"/>
-    <mergeCell ref="AU28:AW28"/>
-    <mergeCell ref="AX28:AY28"/>
-    <mergeCell ref="AZ28:BA28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:AD28"/>
-    <mergeCell ref="AE28:AG28"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="AK28:AL28"/>
-    <mergeCell ref="BN27:BO27"/>
-    <mergeCell ref="BP27:BQ27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="AZ27:BA27"/>
-    <mergeCell ref="BB27:BC27"/>
-    <mergeCell ref="BD27:BF27"/>
-    <mergeCell ref="BG27:BI27"/>
-    <mergeCell ref="BJ27:BK27"/>
-    <mergeCell ref="BL27:BM27"/>
-    <mergeCell ref="AK27:AL27"/>
-    <mergeCell ref="AM27:AN27"/>
-    <mergeCell ref="AO27:AQ27"/>
-    <mergeCell ref="AR27:AT27"/>
-    <mergeCell ref="AU27:AW27"/>
-    <mergeCell ref="AX27:AY27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="AB27:AD27"/>
-    <mergeCell ref="AE27:AG27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="BL26:BM26"/>
-    <mergeCell ref="BN26:BO26"/>
-    <mergeCell ref="BP26:BQ26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="P27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="AX26:AY26"/>
-    <mergeCell ref="AZ26:BA26"/>
-    <mergeCell ref="BB26:BC26"/>
-    <mergeCell ref="BD26:BF26"/>
-    <mergeCell ref="BG26:BI26"/>
-    <mergeCell ref="BJ26:BK26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AK26:AL26"/>
-    <mergeCell ref="AM26:AN26"/>
-    <mergeCell ref="AO26:AQ26"/>
-    <mergeCell ref="AR26:AT26"/>
-    <mergeCell ref="AU26:AW26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:AD26"/>
-    <mergeCell ref="AE26:AG26"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P26:R26"/>
-    <mergeCell ref="BD25:BF25"/>
-    <mergeCell ref="BG25:BI25"/>
-    <mergeCell ref="BJ25:BK25"/>
-    <mergeCell ref="BL25:BM25"/>
-    <mergeCell ref="BN25:BO25"/>
-    <mergeCell ref="BP25:BQ25"/>
-    <mergeCell ref="AO25:AQ25"/>
-    <mergeCell ref="AR25:AT25"/>
-    <mergeCell ref="AU25:AW25"/>
-    <mergeCell ref="AX25:AY25"/>
-    <mergeCell ref="AZ25:BA25"/>
-    <mergeCell ref="BB25:BC25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:AD25"/>
-    <mergeCell ref="AE25:AG25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AK25:AL25"/>
-    <mergeCell ref="AM25:AN25"/>
-    <mergeCell ref="BP24:BQ24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="BB24:BC24"/>
-    <mergeCell ref="BD24:BF24"/>
-    <mergeCell ref="BG24:BI24"/>
-    <mergeCell ref="BJ24:BK24"/>
-    <mergeCell ref="BL24:BM24"/>
-    <mergeCell ref="BN24:BO24"/>
-    <mergeCell ref="AM24:AN24"/>
-    <mergeCell ref="AO24:AQ24"/>
-    <mergeCell ref="AR24:AT24"/>
-    <mergeCell ref="AU24:AW24"/>
-    <mergeCell ref="AX24:AY24"/>
-    <mergeCell ref="AZ24:BA24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB24:AD24"/>
-    <mergeCell ref="AE24:AG24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AK24:AL24"/>
-    <mergeCell ref="BN23:BO23"/>
-    <mergeCell ref="BP23:BQ23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="AZ23:BA23"/>
-    <mergeCell ref="BB23:BC23"/>
-    <mergeCell ref="BD23:BF23"/>
-    <mergeCell ref="BG23:BI23"/>
-    <mergeCell ref="BJ23:BK23"/>
-    <mergeCell ref="BL23:BM23"/>
-    <mergeCell ref="AK23:AL23"/>
-    <mergeCell ref="AM23:AN23"/>
-    <mergeCell ref="AO23:AQ23"/>
-    <mergeCell ref="AR23:AT23"/>
-    <mergeCell ref="AU23:AW23"/>
-    <mergeCell ref="AX23:AY23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:AD23"/>
-    <mergeCell ref="AE23:AG23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="BL22:BM22"/>
-    <mergeCell ref="BN22:BO22"/>
-    <mergeCell ref="BP22:BQ22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="P23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="AX22:AY22"/>
-    <mergeCell ref="AZ22:BA22"/>
-    <mergeCell ref="BB22:BC22"/>
-    <mergeCell ref="BD22:BF22"/>
-    <mergeCell ref="BG22:BI22"/>
-    <mergeCell ref="BJ22:BK22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AK22:AL22"/>
-    <mergeCell ref="AM22:AN22"/>
-    <mergeCell ref="AO22:AQ22"/>
-    <mergeCell ref="AR22:AT22"/>
-    <mergeCell ref="AU22:AW22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:AD22"/>
-    <mergeCell ref="AE22:AG22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="P22:R22"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:L9"/>
-    <mergeCell ref="M9:Z9"/>
-    <mergeCell ref="AA9:AP9"/>
-    <mergeCell ref="AQ9:AX9"/>
-    <mergeCell ref="AY9:BL9"/>
-    <mergeCell ref="A1:CA1"/>
-    <mergeCell ref="A7:BZ7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:L8"/>
-    <mergeCell ref="M8:Z8"/>
-    <mergeCell ref="AA8:AP8"/>
-    <mergeCell ref="AQ8:AX8"/>
-    <mergeCell ref="AY8:BL8"/>
+    <mergeCell ref="BE69:BG69"/>
+    <mergeCell ref="BH69:BI69"/>
+    <mergeCell ref="BJ69:BK69"/>
+    <mergeCell ref="BL69:BM69"/>
+    <mergeCell ref="BN69:BO69"/>
+    <mergeCell ref="BP69:BQ69"/>
+    <mergeCell ref="AP69:AR69"/>
+    <mergeCell ref="AS69:AU69"/>
+    <mergeCell ref="AV69:AW69"/>
+    <mergeCell ref="AX69:AY69"/>
+    <mergeCell ref="AZ69:BA69"/>
+    <mergeCell ref="BB69:BD69"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
